--- a/Excel/clase 1may2021.xlsx
+++ b/Excel/clase 1may2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Luis\Documents\GitProjects\Clases-octave\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\terra\Documents\proyectosdegit\Clases-octave\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD53C52E-3DA1-4DA1-9D67-E6CA4676C9F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D79CF1-993F-43FD-85AC-4CBC71E01404}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{EF2B4A34-B53C-4C9B-A5EE-A37C966F5F92}"/>
+    <workbookView minimized="1" xWindow="3660" yWindow="2016" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{EF2B4A34-B53C-4C9B-A5EE-A37C966F5F92}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -177,8 +177,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>76140</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="3" name="Entrada de lápiz 2">
@@ -197,7 +197,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="3" name="Entrada de lápiz 2">
@@ -242,8 +242,8 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>63960</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="4" name="Entrada de lápiz 3">
@@ -262,7 +262,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="4" name="Entrada de lápiz 3">
@@ -307,8 +307,8 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>50280</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="21" name="Entrada de lápiz 20">
@@ -327,7 +327,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="21" name="Entrada de lápiz 20">
@@ -372,8 +372,8 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>56820</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="28" name="Entrada de lápiz 27">
@@ -392,7 +392,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="28" name="Entrada de lápiz 27">
@@ -437,8 +437,8 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>18780</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="29" name="Entrada de lápiz 28">
@@ -457,7 +457,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="29" name="Entrada de lápiz 28">
@@ -502,8 +502,8 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>162600</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="111" name="Entrada de lápiz 110">
@@ -522,7 +522,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="111" name="Entrada de lápiz 110">
@@ -567,8 +567,8 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>166020</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="135" name="Entrada de lápiz 134">
@@ -587,7 +587,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="135" name="Entrada de lápiz 134">
@@ -632,8 +632,8 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>78960</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="152" name="Entrada de lápiz 151">
@@ -652,7 +652,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="152" name="Entrada de lápiz 151">
@@ -697,8 +697,8 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>105420</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="158" name="Entrada de lápiz 157">
@@ -717,7 +717,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="158" name="Entrada de lápiz 157">
@@ -762,8 +762,8 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>124140</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="159" name="Entrada de lápiz 158">
@@ -782,7 +782,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="159" name="Entrada de lápiz 158">
@@ -827,8 +827,8 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>164400</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="164" name="Entrada de lápiz 163">
@@ -847,7 +847,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="164" name="Entrada de lápiz 163">
@@ -892,8 +892,8 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>117840</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="168" name="Entrada de lápiz 167">
@@ -912,7 +912,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="168" name="Entrada de lápiz 167">
@@ -957,8 +957,8 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>73680</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId26">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="175" name="Entrada de lápiz 174">
@@ -977,7 +977,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="175" name="Entrada de lápiz 174">
@@ -1022,8 +1022,8 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>179100</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId28">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="211" name="Entrada de lápiz 210">
@@ -1042,7 +1042,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="211" name="Entrada de lápiz 210">
@@ -1087,8 +1087,8 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>57420</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId30">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="218" name="Entrada de lápiz 217">
@@ -1107,7 +1107,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="218" name="Entrada de lápiz 217">
@@ -1152,8 +1152,8 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>6300</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId32">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="221" name="Entrada de lápiz 220">
@@ -1172,7 +1172,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="221" name="Entrada de lápiz 220">
@@ -1217,8 +1217,8 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>78300</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId34">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="227" name="Entrada de lápiz 226">
@@ -1237,7 +1237,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="227" name="Entrada de lápiz 226">
@@ -1282,8 +1282,8 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>8880</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId36">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="228" name="Entrada de lápiz 227">
@@ -1302,7 +1302,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="228" name="Entrada de lápiz 227">
@@ -1347,8 +1347,8 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>62100</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId38">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="229" name="Entrada de lápiz 228">
@@ -1367,7 +1367,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="229" name="Entrada de lápiz 228">
@@ -1412,8 +1412,8 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>94920</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId40">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="232" name="Entrada de lápiz 231">
@@ -1432,7 +1432,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="232" name="Entrada de lápiz 231">
@@ -1477,8 +1477,8 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>48900</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId42">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="243" name="Entrada de lápiz 242">
@@ -1497,7 +1497,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="243" name="Entrada de lápiz 242">
@@ -1542,8 +1542,8 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>183900</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId44">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="249" name="Entrada de lápiz 248">
@@ -1562,7 +1562,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="249" name="Entrada de lápiz 248">
@@ -1607,8 +1607,8 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>90300</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId46">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="252" name="Entrada de lápiz 251">
@@ -1627,7 +1627,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="252" name="Entrada de lápiz 251">
@@ -1672,8 +1672,8 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>66660</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId48">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="253" name="Entrada de lápiz 252">
@@ -1692,7 +1692,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="253" name="Entrada de lápiz 252">
@@ -1737,8 +1737,8 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>125640</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId50">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="256" name="Entrada de lápiz 255">
@@ -1757,7 +1757,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="256" name="Entrada de lápiz 255">
@@ -1802,8 +1802,8 @@
       <xdr:row>31</xdr:row>
       <xdr:rowOff>7260</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId52">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="263" name="Entrada de lápiz 262">
@@ -1822,7 +1822,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="263" name="Entrada de lápiz 262">
@@ -1867,8 +1867,8 @@
       <xdr:row>31</xdr:row>
       <xdr:rowOff>78180</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId54">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="266" name="Entrada de lápiz 265">
@@ -1887,7 +1887,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="266" name="Entrada de lápiz 265">
@@ -1932,8 +1932,8 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>106920</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId56">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="271" name="Entrada de lápiz 270">
@@ -1952,7 +1952,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="271" name="Entrada de lápiz 270">
@@ -1997,8 +1997,8 @@
       <xdr:row>31</xdr:row>
       <xdr:rowOff>105900</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId58">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="272" name="Entrada de lápiz 271">
@@ -2017,7 +2017,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="272" name="Entrada de lápiz 271">
@@ -2062,8 +2062,8 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>19800</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId60">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="273" name="Entrada de lápiz 272">
@@ -2082,7 +2082,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="273" name="Entrada de lápiz 272">
@@ -2127,8 +2127,8 @@
       <xdr:row>36</xdr:row>
       <xdr:rowOff>155580</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId62">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="278" name="Entrada de lápiz 277">
@@ -2147,7 +2147,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="278" name="Entrada de lápiz 277">
@@ -2192,8 +2192,8 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>30900</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId64">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="289" name="Entrada de lápiz 288">
@@ -2212,7 +2212,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="289" name="Entrada de lápiz 288">
@@ -2257,8 +2257,8 @@
       <xdr:row>37</xdr:row>
       <xdr:rowOff>161280</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId66">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="290" name="Entrada de lápiz 289">
@@ -2277,7 +2277,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="290" name="Entrada de lápiz 289">
@@ -2322,8 +2322,8 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>47700</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId68">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="312" name="Entrada de lápiz 311">
@@ -2342,7 +2342,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="312" name="Entrada de lápiz 311">
@@ -2387,8 +2387,8 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>57720</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId70">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="313" name="Entrada de lápiz 312">
@@ -2407,7 +2407,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="313" name="Entrada de lápiz 312">
@@ -2452,8 +2452,8 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>68820</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId72">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="315" name="Entrada de lápiz 314">
@@ -2472,7 +2472,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="315" name="Entrada de lápiz 314">
@@ -2517,8 +2517,8 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>89700</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId74">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="319" name="Entrada de lápiz 318">
@@ -2537,7 +2537,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="319" name="Entrada de lápiz 318">
@@ -2582,8 +2582,8 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>189120</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId76">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="321" name="Entrada de lápiz 320">
@@ -2602,7 +2602,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="321" name="Entrada de lápiz 320">
@@ -2647,8 +2647,8 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>105600</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId78">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="324" name="Entrada de lápiz 323">
@@ -2667,7 +2667,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="324" name="Entrada de lápiz 323">
@@ -2712,8 +2712,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>23220</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId80">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="337" name="Entrada de lápiz 336">
@@ -2732,7 +2732,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="337" name="Entrada de lápiz 336">
@@ -2777,8 +2777,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>59580</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId82">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="343" name="Entrada de lápiz 342">
@@ -2797,7 +2797,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="343" name="Entrada de lápiz 342">
@@ -2842,8 +2842,8 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>57180</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId84">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="344" name="Entrada de lápiz 343">
@@ -2862,7 +2862,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="344" name="Entrada de lápiz 343">
@@ -2907,8 +2907,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>48840</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId86">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="345" name="Entrada de lápiz 344">
@@ -2927,7 +2927,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="345" name="Entrada de lápiz 344">
@@ -2972,8 +2972,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>62460</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId88">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="349" name="Entrada de lápiz 348">
@@ -2992,7 +2992,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="349" name="Entrada de lápiz 348">
@@ -3037,8 +3037,8 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>74400</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId90">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="355" name="Entrada de lápiz 354">
@@ -3057,7 +3057,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="355" name="Entrada de lápiz 354">
@@ -3102,8 +3102,8 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>39420</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId92">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="367" name="Entrada de lápiz 366">
@@ -3122,7 +3122,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="367" name="Entrada de lápiz 366">
@@ -3167,8 +3167,8 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>29580</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId94">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="370" name="Entrada de lápiz 369">
@@ -3187,7 +3187,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="370" name="Entrada de lápiz 369">
@@ -3232,8 +3232,8 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>66780</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId96">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="371" name="Entrada de lápiz 370">
@@ -3252,7 +3252,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="371" name="Entrada de lápiz 370">
@@ -3297,8 +3297,8 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>132540</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId98">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="375" name="Entrada de lápiz 374">
@@ -3317,7 +3317,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="375" name="Entrada de lápiz 374">
@@ -3362,8 +3362,8 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>85860</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId100">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="376" name="Entrada de lápiz 375">
@@ -3382,7 +3382,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="376" name="Entrada de lápiz 375">
@@ -3427,8 +3427,8 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>163860</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId102">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="380" name="Entrada de lápiz 379">
@@ -3447,7 +3447,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="380" name="Entrada de lápiz 379">
@@ -3492,8 +3492,8 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>141240</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId104">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="430" name="Entrada de lápiz 429">
@@ -3512,7 +3512,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="430" name="Entrada de lápiz 429">
@@ -3557,8 +3557,8 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>32340</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId106">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="441" name="Entrada de lápiz 440">
@@ -3577,7 +3577,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="441" name="Entrada de lápiz 440">
@@ -3622,8 +3622,8 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>21120</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId108">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="448" name="Entrada de lápiz 447">
@@ -3642,7 +3642,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="448" name="Entrada de lápiz 447">
@@ -3687,8 +3687,8 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>2040</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId110">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="453" name="Entrada de lápiz 452">
@@ -3707,7 +3707,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="453" name="Entrada de lápiz 452">
@@ -3752,8 +3752,8 @@
       <xdr:row>30</xdr:row>
       <xdr:rowOff>82500</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId112">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="462" name="Entrada de lápiz 461">
@@ -3772,7 +3772,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="462" name="Entrada de lápiz 461">
@@ -3817,8 +3817,8 @@
       <xdr:row>31</xdr:row>
       <xdr:rowOff>102600</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId114">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="478" name="Entrada de lápiz 477">
@@ -3837,7 +3837,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="478" name="Entrada de lápiz 477">
@@ -3882,8 +3882,8 @@
       <xdr:row>31</xdr:row>
       <xdr:rowOff>11880</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId116">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="486" name="Entrada de lápiz 485">
@@ -3902,7 +3902,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="486" name="Entrada de lápiz 485">
@@ -3947,8 +3947,8 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>5280</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId118">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="491" name="Entrada de lápiz 490">
@@ -3967,7 +3967,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="491" name="Entrada de lápiz 490">
@@ -4012,8 +4012,8 @@
       <xdr:row>37</xdr:row>
       <xdr:rowOff>116220</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId120">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="499" name="Entrada de lápiz 498">
@@ -4032,7 +4032,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="499" name="Entrada de lápiz 498">
@@ -4077,8 +4077,8 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>173760</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId122">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="504" name="Entrada de lápiz 503">
@@ -4097,7 +4097,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="504" name="Entrada de lápiz 503">
@@ -4142,8 +4142,8 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>60420</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId124">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="519" name="Entrada de lápiz 518">
@@ -4162,7 +4162,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="519" name="Entrada de lápiz 518">
@@ -4207,8 +4207,8 @@
       <xdr:row>44</xdr:row>
       <xdr:rowOff>133440</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId126">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="526" name="Entrada de lápiz 525">
@@ -4227,7 +4227,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="526" name="Entrada de lápiz 525">
@@ -4272,8 +4272,8 @@
       <xdr:row>44</xdr:row>
       <xdr:rowOff>47760</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId128">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="532" name="Entrada de lápiz 531">
@@ -4292,7 +4292,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="532" name="Entrada de lápiz 531">
@@ -4337,8 +4337,8 @@
       <xdr:row>42</xdr:row>
       <xdr:rowOff>160560</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId130">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="534" name="Entrada de lápiz 533">
@@ -4357,7 +4357,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="534" name="Entrada de lápiz 533">
@@ -4402,8 +4402,8 @@
       <xdr:row>44</xdr:row>
       <xdr:rowOff>4560</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId132">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="541" name="Entrada de lápiz 540">
@@ -4422,7 +4422,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="541" name="Entrada de lápiz 540">
@@ -4516,8 +4516,8 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>173160</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="6" name="Entrada de lápiz 5">
@@ -4536,7 +4536,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="6" name="Entrada de lápiz 5">
@@ -4581,8 +4581,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>9960</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="20" name="Entrada de lápiz 19">
@@ -4601,7 +4601,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="20" name="Entrada de lápiz 19">
@@ -4646,8 +4646,8 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>9300</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="25" name="Entrada de lápiz 24">
@@ -4666,7 +4666,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="25" name="Entrada de lápiz 24">
@@ -4711,8 +4711,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>49920</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="38" name="Entrada de lápiz 37">
@@ -4731,7 +4731,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="38" name="Entrada de lápiz 37">
@@ -4776,8 +4776,8 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>106620</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="64" name="Entrada de lápiz 63">
@@ -4796,7 +4796,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="64" name="Entrada de lápiz 63">
@@ -4841,8 +4841,8 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>144240</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="71" name="Entrada de lápiz 70">
@@ -4861,7 +4861,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="71" name="Entrada de lápiz 70">
@@ -4906,8 +4906,8 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>181740</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="73" name="Entrada de lápiz 72">
@@ -4926,7 +4926,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="73" name="Entrada de lápiz 72">
@@ -4971,8 +4971,8 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>104280</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="74" name="Entrada de lápiz 73">
@@ -4991,7 +4991,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="74" name="Entrada de lápiz 73">
@@ -5036,8 +5036,8 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>65040</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="78" name="Entrada de lápiz 77">
@@ -5056,7 +5056,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="78" name="Entrada de lápiz 77">
@@ -5101,8 +5101,8 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>2640</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="88" name="Entrada de lápiz 87">
@@ -5121,7 +5121,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="88" name="Entrada de lápiz 87">
@@ -5166,8 +5166,8 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>28440</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="96" name="Entrada de lápiz 95">
@@ -5186,7 +5186,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="96" name="Entrada de lápiz 95">
@@ -5231,8 +5231,8 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>142260</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="97" name="Entrada de lápiz 96">
@@ -5251,7 +5251,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="97" name="Entrada de lápiz 96">
@@ -5296,8 +5296,8 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>30900</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId26">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="104" name="Entrada de lápiz 103">
@@ -5316,7 +5316,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="104" name="Entrada de lápiz 103">
@@ -5361,8 +5361,8 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>174360</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId28">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="107" name="Entrada de lápiz 106">
@@ -5381,7 +5381,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="107" name="Entrada de lápiz 106">
@@ -5426,8 +5426,8 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>178980</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId30">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="113" name="Entrada de lápiz 112">
@@ -5446,7 +5446,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="113" name="Entrada de lápiz 112">
@@ -5491,8 +5491,8 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>182220</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId32">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="124" name="Entrada de lápiz 123">
@@ -5511,7 +5511,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="124" name="Entrada de lápiz 123">
@@ -5556,8 +5556,8 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>157800</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId34">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="131" name="Entrada de lápiz 130">
@@ -5576,7 +5576,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="131" name="Entrada de lápiz 130">
@@ -5621,8 +5621,8 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>61320</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId36">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="136" name="Entrada de lápiz 135">
@@ -5641,7 +5641,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="136" name="Entrada de lápiz 135">
@@ -5686,8 +5686,8 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>33300</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId38">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="137" name="Entrada de lápiz 136">
@@ -5706,7 +5706,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="137" name="Entrada de lápiz 136">
@@ -5751,8 +5751,8 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>28620</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId40">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="138" name="Entrada de lápiz 137">
@@ -5771,7 +5771,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="138" name="Entrada de lápiz 137">
@@ -5816,8 +5816,8 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>40860</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId42">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="175" name="Entrada de lápiz 174">
@@ -5836,7 +5836,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="175" name="Entrada de lápiz 174">
@@ -5881,8 +5881,8 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>99420</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId44">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="178" name="Entrada de lápiz 177">
@@ -5901,7 +5901,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="178" name="Entrada de lápiz 177">
@@ -5946,8 +5946,8 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>3240</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId46">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="179" name="Entrada de lápiz 178">
@@ -5966,7 +5966,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="179" name="Entrada de lápiz 178">
@@ -6011,8 +6011,8 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>114240</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId48">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="180" name="Entrada de lápiz 179">
@@ -6031,7 +6031,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="180" name="Entrada de lápiz 179">
@@ -6076,8 +6076,8 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>10920</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId50">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="184" name="Entrada de lápiz 183">
@@ -6096,7 +6096,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="184" name="Entrada de lápiz 183">
@@ -6141,8 +6141,8 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>49440</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId52">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="189" name="Entrada de lápiz 188">
@@ -6161,7 +6161,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="189" name="Entrada de lápiz 188">
@@ -6206,8 +6206,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>38040</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId54">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="190" name="Entrada de lápiz 189">
@@ -6226,7 +6226,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="190" name="Entrada de lápiz 189">
@@ -6271,8 +6271,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>154620</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId56">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="225" name="Entrada de lápiz 224">
@@ -6291,7 +6291,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="225" name="Entrada de lápiz 224">
@@ -6336,8 +6336,8 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>134280</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId58">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="228" name="Entrada de lápiz 227">
@@ -6356,7 +6356,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="228" name="Entrada de lápiz 227">
@@ -6401,8 +6401,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>89820</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId60">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="231" name="Entrada de lápiz 230">
@@ -6421,7 +6421,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="231" name="Entrada de lápiz 230">
@@ -6463,11 +6463,11 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>149520</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>184680</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1800</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId62">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="234" name="Entrada de lápiz 233">
@@ -6486,7 +6486,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="234" name="Entrada de lápiz 233">
@@ -6629,8 +6629,8 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>95220</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="3" name="Entrada de lápiz 2">
@@ -6649,7 +6649,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="3" name="Entrada de lápiz 2">
@@ -6694,8 +6694,8 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>7980</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="4" name="Entrada de lápiz 3">
@@ -6714,7 +6714,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="4" name="Entrada de lápiz 3">
@@ -6759,8 +6759,8 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>124020</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="7" name="Entrada de lápiz 6">
@@ -6779,7 +6779,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="7" name="Entrada de lápiz 6">
@@ -6824,8 +6824,8 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>120</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="8" name="Entrada de lápiz 7">
@@ -6844,7 +6844,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="8" name="Entrada de lápiz 7">
@@ -6889,8 +6889,8 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>187740</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="11" name="Entrada de lápiz 10">
@@ -6909,7 +6909,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="11" name="Entrada de lápiz 10">
@@ -6954,8 +6954,8 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>148680</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="12" name="Entrada de lápiz 11">
@@ -6974,7 +6974,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="12" name="Entrada de lápiz 11">
@@ -7019,8 +7019,8 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>181080</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="15" name="Entrada de lápiz 14">
@@ -7039,7 +7039,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="15" name="Entrada de lápiz 14">
@@ -7084,8 +7084,8 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>3300</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="16" name="Entrada de lápiz 15">
@@ -7104,7 +7104,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="16" name="Entrada de lápiz 15">
@@ -7149,8 +7149,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>152520</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="17" name="Entrada de lápiz 16">
@@ -7169,7 +7169,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="17" name="Entrada de lápiz 16">
@@ -7214,8 +7214,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>85860</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="23" name="Entrada de lápiz 22">
@@ -7234,7 +7234,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="23" name="Entrada de lápiz 22">
@@ -7279,8 +7279,8 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>98940</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="28" name="Entrada de lápiz 27">
@@ -7299,7 +7299,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="28" name="Entrada de lápiz 27">
@@ -7344,8 +7344,8 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>105780</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="31" name="Entrada de lápiz 30">
@@ -7364,7 +7364,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="31" name="Entrada de lápiz 30">
@@ -7409,8 +7409,8 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>81960</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId26">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="38" name="Entrada de lápiz 37">
@@ -7429,7 +7429,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="38" name="Entrada de lápiz 37">
@@ -7474,8 +7474,8 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>14640</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId28">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="41" name="Entrada de lápiz 40">
@@ -7494,7 +7494,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="41" name="Entrada de lápiz 40">
@@ -7539,8 +7539,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>38040</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId30">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="42" name="Entrada de lápiz 41">
@@ -7559,7 +7559,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="42" name="Entrada de lápiz 41">
@@ -7604,8 +7604,8 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>187560</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId32">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="45" name="Entrada de lápiz 44">
@@ -7624,7 +7624,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="45" name="Entrada de lápiz 44">
@@ -7669,8 +7669,8 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>13380</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId34">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="48" name="Entrada de lápiz 47">
@@ -7689,7 +7689,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="48" name="Entrada de lápiz 47">
@@ -7734,8 +7734,8 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>171660</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId36">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="52" name="Entrada de lápiz 51">
@@ -7754,7 +7754,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="52" name="Entrada de lápiz 51">
@@ -7799,8 +7799,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>106440</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId38">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="53" name="Entrada de lápiz 52">
@@ -7819,7 +7819,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="53" name="Entrada de lápiz 52">
@@ -7864,8 +7864,8 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>108660</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId40">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="56" name="Entrada de lápiz 55">
@@ -7884,7 +7884,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="56" name="Entrada de lápiz 55">
@@ -7929,8 +7929,8 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>162120</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId42">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="57" name="Entrada de lápiz 56">
@@ -7949,7 +7949,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="57" name="Entrada de lápiz 56">
@@ -7994,8 +7994,8 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>39420</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId44">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="69" name="Entrada de lápiz 68">
@@ -8014,7 +8014,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="69" name="Entrada de lápiz 68">
@@ -8059,8 +8059,8 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>124800</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId46">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="72" name="Entrada de lápiz 71">
@@ -8079,7 +8079,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="72" name="Entrada de lápiz 71">
@@ -8124,8 +8124,8 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>98880</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId48">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="75" name="Entrada de lápiz 74">
@@ -8144,7 +8144,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="75" name="Entrada de lápiz 74">
@@ -8189,8 +8189,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>37980</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId50">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="76" name="Entrada de lápiz 75">
@@ -8209,7 +8209,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="76" name="Entrada de lápiz 75">
@@ -8254,8 +8254,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>171600</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId52">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="79" name="Entrada de lápiz 78">
@@ -8274,7 +8274,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="79" name="Entrada de lápiz 78">
@@ -8319,8 +8319,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>104220</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId54">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="80" name="Entrada de lápiz 79">
@@ -8339,7 +8339,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="80" name="Entrada de lápiz 79">
@@ -8384,8 +8384,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>168300</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId56">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="84" name="Entrada de lápiz 83">
@@ -8404,7 +8404,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="84" name="Entrada de lápiz 83">
@@ -8449,8 +8449,8 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>67320</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId58">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="87" name="Entrada de lápiz 86">
@@ -8469,7 +8469,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="87" name="Entrada de lápiz 86">
@@ -8514,8 +8514,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>149580</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId60">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="88" name="Entrada de lápiz 87">
@@ -8534,7 +8534,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="88" name="Entrada de lápiz 87">
@@ -8579,8 +8579,8 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>66060</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId62">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="89" name="Entrada de lápiz 88">
@@ -8599,7 +8599,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="89" name="Entrada de lápiz 88">
@@ -8644,8 +8644,8 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>81540</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId64">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="101" name="Entrada de lápiz 100">
@@ -8664,7 +8664,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="101" name="Entrada de lápiz 100">
@@ -8709,8 +8709,8 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>102480</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId66">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="104" name="Entrada de lápiz 103">
@@ -8729,7 +8729,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="104" name="Entrada de lápiz 103">
@@ -8774,8 +8774,8 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>50940</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId68">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="105" name="Entrada de lápiz 104">
@@ -8794,7 +8794,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="105" name="Entrada de lápiz 104">
@@ -8839,8 +8839,8 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>142920</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId70">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="106" name="Entrada de lápiz 105">
@@ -8859,7 +8859,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="106" name="Entrada de lápiz 105">
@@ -8904,8 +8904,8 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>95340</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId72">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="107" name="Entrada de lápiz 106">
@@ -8924,7 +8924,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="107" name="Entrada de lápiz 106">
@@ -8969,8 +8969,8 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>69000</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId74">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="108" name="Entrada de lápiz 107">
@@ -8989,7 +8989,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="108" name="Entrada de lápiz 107">
@@ -9034,8 +9034,8 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>64560</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId76">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="113" name="Entrada de lápiz 112">
@@ -9054,7 +9054,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="113" name="Entrada de lápiz 112">
@@ -9099,8 +9099,8 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>162120</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId78">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="114" name="Entrada de lápiz 113">
@@ -9119,7 +9119,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="114" name="Entrada de lápiz 113">
@@ -9164,8 +9164,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>28680</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId80">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="117" name="Entrada de lápiz 116">
@@ -9184,7 +9184,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="117" name="Entrada de lápiz 116">
@@ -9229,8 +9229,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>42000</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId82">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="118" name="Entrada de lápiz 117">
@@ -9249,7 +9249,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="118" name="Entrada de lápiz 117">
@@ -9294,8 +9294,8 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>105840</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId84">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="123" name="Entrada de lápiz 122">
@@ -9314,7 +9314,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="123" name="Entrada de lápiz 122">
@@ -9359,8 +9359,8 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>23760</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId86">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="126" name="Entrada de lápiz 125">
@@ -9379,7 +9379,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="126" name="Entrada de lápiz 125">
@@ -9424,8 +9424,8 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>102540</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId88">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="138" name="Entrada de lápiz 137">
@@ -9444,7 +9444,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="138" name="Entrada de lápiz 137">
@@ -9489,8 +9489,8 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>26580</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId90">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="141" name="Entrada de lápiz 140">
@@ -9509,7 +9509,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="141" name="Entrada de lápiz 140">
@@ -9554,8 +9554,8 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>12840</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId92">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="150" name="Entrada de lápiz 149">
@@ -9574,7 +9574,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="150" name="Entrada de lápiz 149">
@@ -9619,8 +9619,8 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>163800</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId94">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="151" name="Entrada de lápiz 150">
@@ -9639,7 +9639,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="151" name="Entrada de lápiz 150">
@@ -9684,8 +9684,8 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>103980</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId96">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="154" name="Entrada de lápiz 153">
@@ -9704,7 +9704,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="154" name="Entrada de lápiz 153">
@@ -9749,8 +9749,8 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>155160</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId98">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="155" name="Entrada de lápiz 154">
@@ -9769,7 +9769,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="155" name="Entrada de lápiz 154">
@@ -9814,8 +9814,8 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>20400</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId100">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="167" name="Entrada de lápiz 166">
@@ -9834,7 +9834,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="167" name="Entrada de lápiz 166">
@@ -9879,8 +9879,8 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>76320</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId102">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="173" name="Entrada de lápiz 172">
@@ -9899,7 +9899,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="173" name="Entrada de lápiz 172">
@@ -9944,8 +9944,8 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>54300</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId104">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="174" name="Entrada de lápiz 173">
@@ -9964,7 +9964,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="174" name="Entrada de lápiz 173">
@@ -10009,8 +10009,8 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>115560</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId106">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="175" name="Entrada de lápiz 174">
@@ -10029,7 +10029,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="175" name="Entrada de lápiz 174">
@@ -10074,8 +10074,8 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>66720</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId108">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="176" name="Entrada de lápiz 175">
@@ -10094,7 +10094,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="176" name="Entrada de lápiz 175">
@@ -10139,8 +10139,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>60</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId110">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="177" name="Entrada de lápiz 176">
@@ -10159,7 +10159,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="177" name="Entrada de lápiz 176">
@@ -10204,8 +10204,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>6540</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId112">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="180" name="Entrada de lápiz 179">
@@ -10224,7 +10224,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="180" name="Entrada de lápiz 179">
@@ -10269,8 +10269,8 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>123960</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId114">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="181" name="Entrada de lápiz 180">
@@ -10289,7 +10289,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="181" name="Entrada de lápiz 180">
@@ -10334,8 +10334,8 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>165660</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId116">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="186" name="Entrada de lápiz 185">
@@ -10354,7 +10354,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="186" name="Entrada de lápiz 185">
@@ -10399,8 +10399,8 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>85740</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId118">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="189" name="Entrada de lápiz 188">
@@ -10419,7 +10419,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="189" name="Entrada de lápiz 188">
@@ -10464,8 +10464,8 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>170280</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId120">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="201" name="Entrada de lápiz 200">
@@ -10484,7 +10484,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="201" name="Entrada de lápiz 200">
@@ -10529,8 +10529,8 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>75180</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId122">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="205" name="Entrada de lápiz 204">
@@ -10549,7 +10549,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="205" name="Entrada de lápiz 204">
@@ -10594,8 +10594,8 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>140400</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId124">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="208" name="Entrada de lápiz 207">
@@ -10614,7 +10614,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="208" name="Entrada de lápiz 207">
@@ -10659,8 +10659,8 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>113700</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId126">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="216" name="Entrada de lápiz 215">
@@ -10679,7 +10679,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="216" name="Entrada de lápiz 215">
@@ -10724,8 +10724,8 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>19080</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId128">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="217" name="Entrada de lápiz 216">
@@ -10744,7 +10744,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="217" name="Entrada de lápiz 216">
@@ -10789,8 +10789,8 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>152220</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId130">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="218" name="Entrada de lápiz 217">
@@ -10809,7 +10809,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="218" name="Entrada de lápiz 217">
@@ -10854,8 +10854,8 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>95700</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId132">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="229" name="Entrada de lápiz 228">
@@ -10874,7 +10874,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="229" name="Entrada de lápiz 228">
@@ -10919,8 +10919,8 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>114180</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId134">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="232" name="Entrada de lápiz 231">
@@ -10939,7 +10939,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="232" name="Entrada de lápiz 231">
@@ -10984,8 +10984,8 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>95760</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId136">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="233" name="Entrada de lápiz 232">
@@ -11004,7 +11004,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="233" name="Entrada de lápiz 232">
@@ -11049,8 +11049,8 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>184320</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId138">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="234" name="Entrada de lápiz 233">
@@ -11069,7 +11069,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="234" name="Entrada de lápiz 233">
@@ -11114,8 +11114,8 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>98580</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId140">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="235" name="Entrada de lápiz 234">
@@ -11134,7 +11134,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="235" name="Entrada de lápiz 234">
@@ -11179,8 +11179,8 @@
       <xdr:row>33</xdr:row>
       <xdr:rowOff>133560</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId142">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="250" name="Entrada de lápiz 249">
@@ -11199,7 +11199,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="250" name="Entrada de lápiz 249">
@@ -11244,8 +11244,8 @@
       <xdr:row>35</xdr:row>
       <xdr:rowOff>21120</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId144">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="251" name="Entrada de lápiz 250">
@@ -11264,7 +11264,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="251" name="Entrada de lápiz 250">
@@ -11309,8 +11309,8 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>104340</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId146">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="252" name="Entrada de lápiz 251">
@@ -11329,7 +11329,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="252" name="Entrada de lápiz 251">
@@ -11374,8 +11374,8 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>51420</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId148">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="253" name="Entrada de lápiz 252">
@@ -11394,7 +11394,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="253" name="Entrada de lápiz 252">
@@ -11439,8 +11439,8 @@
       <xdr:row>33</xdr:row>
       <xdr:rowOff>185400</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId150">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="257" name="Entrada de lápiz 256">
@@ -11459,7 +11459,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="257" name="Entrada de lápiz 256">
@@ -11504,8 +11504,8 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>145020</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId152">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="258" name="Entrada de lápiz 257">
@@ -11524,7 +11524,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="258" name="Entrada de lápiz 257">
@@ -11569,8 +11569,8 @@
       <xdr:row>33</xdr:row>
       <xdr:rowOff>181440</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId154">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="262" name="Entrada de lápiz 261">
@@ -11589,7 +11589,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="262" name="Entrada de lápiz 261">
@@ -11634,8 +11634,8 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>47100</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId156">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="265" name="Entrada de lápiz 264">
@@ -11654,7 +11654,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="265" name="Entrada de lápiz 264">
@@ -11699,8 +11699,8 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>18660</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId158">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="270" name="Entrada de lápiz 269">
@@ -11719,7 +11719,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="270" name="Entrada de lápiz 269">
@@ -11764,8 +11764,8 @@
       <xdr:row>41</xdr:row>
       <xdr:rowOff>30180</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId160">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="278" name="Entrada de lápiz 277">
@@ -11784,7 +11784,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="278" name="Entrada de lápiz 277">
@@ -11829,8 +11829,8 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>59940</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId162">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="285" name="Entrada de lápiz 284">
@@ -11849,7 +11849,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="285" name="Entrada de lápiz 284">
@@ -11894,8 +11894,8 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>147420</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId164">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="286" name="Entrada de lápiz 285">
@@ -11914,7 +11914,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="286" name="Entrada de lápiz 285">
@@ -11959,8 +11959,8 @@
       <xdr:row>45</xdr:row>
       <xdr:rowOff>33540</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId166">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="301" name="Entrada de lápiz 300">
@@ -11979,7 +11979,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="301" name="Entrada de lápiz 300">
@@ -12024,8 +12024,8 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>81780</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId168">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="310" name="Entrada de lápiz 309">
@@ -12044,7 +12044,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="310" name="Entrada de lápiz 309">
@@ -12089,8 +12089,8 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>73500</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId170">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="326" name="Entrada de lápiz 325">
@@ -12109,7 +12109,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="326" name="Entrada de lápiz 325">
@@ -12154,8 +12154,8 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>105540</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId172">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="332" name="Entrada de lápiz 331">
@@ -12174,7 +12174,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="332" name="Entrada de lápiz 331">
@@ -12219,8 +12219,8 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>61260</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId174">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="333" name="Entrada de lápiz 332">
@@ -12239,7 +12239,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="333" name="Entrada de lápiz 332">
@@ -12284,8 +12284,8 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>2580</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId176">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="340" name="Entrada de lápiz 339">
@@ -12304,7 +12304,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="340" name="Entrada de lápiz 339">
@@ -12349,8 +12349,8 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>71760</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId178">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="341" name="Entrada de lápiz 340">
@@ -12369,7 +12369,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="341" name="Entrada de lápiz 340">
@@ -12414,8 +12414,8 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>32100</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId180">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="348" name="Entrada de lápiz 347">
@@ -12434,7 +12434,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="348" name="Entrada de lápiz 347">
@@ -12479,8 +12479,8 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>1860</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId182">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="357" name="Entrada de lápiz 356">
@@ -12499,7 +12499,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="357" name="Entrada de lápiz 356">
@@ -12544,8 +12544,8 @@
       <xdr:row>57</xdr:row>
       <xdr:rowOff>89520</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId184">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="363" name="Entrada de lápiz 362">
@@ -12564,7 +12564,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="363" name="Entrada de lápiz 362">
@@ -12609,8 +12609,8 @@
       <xdr:row>57</xdr:row>
       <xdr:rowOff>129120</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId186">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="367" name="Entrada de lápiz 366">
@@ -12629,7 +12629,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="367" name="Entrada de lápiz 366">
@@ -12674,8 +12674,8 @@
       <xdr:row>59</xdr:row>
       <xdr:rowOff>132240</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId188">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="380" name="Entrada de lápiz 379">
@@ -12694,7 +12694,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="380" name="Entrada de lápiz 379">
@@ -12739,8 +12739,8 @@
       <xdr:row>56</xdr:row>
       <xdr:rowOff>144300</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId190">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="388" name="Entrada de lápiz 387">
@@ -12759,7 +12759,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="388" name="Entrada de lápiz 387">
@@ -12924,8 +12924,8 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">107 0,'4'0,"6"0,2 9,-1 8,1 5,4 3,-2 2,-2 10,1 3,-2 0,-3-3,-2-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="928.57">1 185,'4'-4,"6"-2,7 0,3 1,4 2,3 1,0 1,0 0,1 1,0 0,-1 1,-5-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">142 0,'5'0,"8"0,3 8,-1 8,1 4,5 4,-2 1,-3 9,1 3,-2 0,-5-3,-2-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="928.57">1 171,'5'-3,"9"-3,8 1,5 0,5 2,3 1,1 1,0 0,1 1,1 0,-3 1,-5-1</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -12979,7 +12979,7 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 28,'4'0,"6"-4,6-2,5 0,3 1,2 2,1 1,1 1,0 0,-5 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 28,'6'0,"8"-4,8-2,8 0,4 1,2 2,2 1,2 1,-1 0,-6 1</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -13431,17 +13431,17 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">3 0,'2'4,"1"0,0-1,-1 1,0 0,0 0,0 0,0 0,-1 1,1-1,-1 0,0 1,0 8,2 61,-3-49,-14 280,0-18,12-186,5 107,0-194,0 0,0 0,2 0,-1-1,2 0,0 0,0 0,15 20,-5-9,2-1,1 0,25 23,36 22,-66-58</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1737.54">3575 53,'1'-1,"1"-1,-1 1,1-1,0 1,-1 0,1-1,0 1,0 0,0 0,0 0,0 1,0-1,0 0,1 1,-1-1,0 1,0 0,0 0,1 0,-1 0,0 0,0 0,0 1,1-1,-1 1,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,-1 1,1-1,0 0,2 3,3 4,1 1,-1-1,0 1,-1 1,0-1,5 11,26 59,-4 1,-3 1,20 87,-42-125,-3 2,-1-1,-2 0,-6 72,0-2,6-7,-4 116,-2-199,0 0,-1-1,-2 1,0-1,-2 0,-11 21,7-14,1 1,-12 43,19-53,-1-1,0 0,-2 0,-1-1,0 0,-20 30,15-30</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4136.06">691 291,'4'-4,"7"-2,9 0,7 1,7 2,16-4,9 0,12-3,12-5,1 0,-5 3,-11 3,-18 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4808.06">1167 211,'-3'1,"1"0,-1-1,1 1,0 0,0 0,-1 1,1-1,0 0,0 1,0-1,0 1,0 0,1-1,-1 1,-2 4,-21 32,14-6,1 2,2-1,1 2,-2 35,2-21,-5 24,-3 21,-5 138,15-173,0-36</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5297.06">823 1032,'9'0,"16"0,18 0,15 0,6 0,2-9,-6-3,-9 1,-8 2,-12 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6297.07">1300 979,'4'-4,"6"-7,2-5,-1-5,1 2,3 12,5 8,-3 13,2 17,-4 8,-3 11,-4 1,-4 1,-2-3,-2-7,0-4,8-6,3-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7092.07">1591 741,'574'0,"-546"0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7862.07">2411 344,'4'0,"6"0,7 0,3 0,4 0,3 0,0 0,5 0,6-4,10-2,6-5,-2 1,-9 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8426.06">2623 317,'0'5,"0"10,0 16,0 17,4 13,2 10,-1-3,0 1,-2-7,-1-5,-1-8,0-3,-1-5,0 0,-1-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8892.06">2411 1111,'9'0,"12"0,20 0,8 0,5 0,1-4,1-2,-8 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10199.06">2887 1005,'9'-6,"1"-1,0 1,1 1,-1 0,1 1,0-1,1 2,-1 0,13-2,20-7,-42 11,0 0,0 1,0-1,0 0,0 1,1-1,-1 1,0 0,0-1,0 1,1 0,-1 1,0-1,0 0,0 0,0 1,1 0,-1-1,0 1,0 0,0 0,0 0,0 0,-1 0,1 1,0-1,0 0,-1 1,1 0,-1-1,1 1,-1 0,0 0,0-1,0 1,0 0,0 0,0 0,0 1,0-1,0 2,2 11,-1 0,0 1,-1-1,-2 30,0-22,1 55,1-14,-12 110,9-163,-1 0,1 0,-2-1,1 1,-2-1,1 0,-1 0,-1 0,0 0,0-1,-1 0,0-1,-1 1,1-2,-2 1,1-1,-1 0,0 0,0-1,-1-1,0 1,0-2,-14 6,22-10,0 1,1-1,-1 1,0-1,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,1 0,-1-1,0 1,0-1,1 0,-1 1,0-1,1 0,-1 0,1 0,-1 0,1 0,-1 0,0-2,0 0,0 1,0-1,1 0,-1 0,1 0,0 0,0-1,0 1,0 0,1 0,-1-1,1 1,0-4,-1 1,1 0,1 0,-1 0,1 0,0 0,0 0,1 0,0 0,0 0,0 0,1 1,0 0,0-1,0 1,7-8,-6 10,1 1,0-1,-1 1,1-1,0 1,1 1,-1-1,0 1,1 0,-1 0,0 0,1 1,-1 0,1 0,-1 0,1 1,6 1,18 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">3 0,'2'4,"1"0,0-2,0 2,-1 0,0 0,0 0,0 0,-1 0,1 0,-1 0,0 1,0 7,2 58,-3-46,-14 267,-1-18,13-177,5 102,0-184,0-1,1 0,1 1,-1-2,2 0,0 1,1-1,15 19,-6-8,3-1,1 0,26 22,37 21,-68-56</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1737.54">3732 50,'1'0,"1"-2,-1 1,1-1,0 1,-1 0,1-1,0 1,1 0,-1 0,0 0,0 1,0-1,0 0,1 1,-1-1,0 1,0 0,0 0,2 0,-2 0,0 0,0 0,0 1,1-1,-1 1,0-1,0 1,0 0,1 0,-1 0,0 0,0 0,0 0,-1 1,1-1,0 0,2 2,4 5,0 1,-1-2,1 2,-2 0,0 0,6 10,26 56,-3 1,-4 2,21 81,-44-118,-2 2,-2-1,-2 0,-6 69,0-3,6-6,-4 110,-3-189,1 0,-1-1,-2 1,-1-1,-1 0,-12 19,8-12,0 1,-12 40,20-50,-1-1,-1 0,-1 0,-1-1,-1 0,-20 29,15-29</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4136.06">721 277,'4'-4,"8"-1,9-1,7 1,8 2,16-3,9-1,13-3,13-4,1 0,-6 2,-11 4,-19 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4808.06">1218 201,'-3'1,"1"0,-1-1,1 1,0 0,0 0,-2 1,2-1,0-1,0 2,0-1,0 1,0 0,1-1,-1 1,-2 4,-22 30,14-6,2 3,1-2,2 2,-2 34,1-20,-4 22,-4 21,-5 131,16-165,0-34</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5297.06">859 983,'10'0,"16"0,18 0,17 0,6 0,2-9,-7-2,-8 0,-9 3,-13 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6297.07">1357 932,'4'-4,"7"-6,1-5,0-5,0 2,4 11,5 8,-4 12,3 17,-4 7,-4 10,-3 2,-5 1,-2-4,-2-6,0-4,8-5,4-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7092.07">1661 706,'599'0,"-570"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7862.07">2517 328,'4'0,"6"0,8 0,3 0,4 0,3 0,0 0,6 0,6-4,10-2,6-4,-2 0,-9 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8426.06">2738 302,'0'5,"0"9,0 15,0 17,4 12,3 10,-2-3,0 0,-2-6,-1-4,-1-9,0-2,-1-5,0 0,-1-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8892.06">2517 1058,'9'0,"13"0,21 0,8 0,5 0,2-4,0-2,-8 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10199.06">3014 957,'9'-6,"2"0,-1 0,1 1,0 0,0 2,1-2,0 2,0 0,13-2,21-6,-44 10,0 0,0 1,0-1,0 0,0 1,1-1,0 1,-1 0,0-1,0 1,1 0,-1 1,0-1,0 0,0 0,0 1,2 0,-2-1,0 1,0 0,0 0,0 0,0 0,-1 0,1 1,0-1,0 0,-1 0,2 1,-2-1,1 1,-1 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 2,2 10,-1 1,0 0,-1-1,-2 29,0-21,1 52,1-13,-12 105,9-156,-1 1,1-1,-3 0,2 0,-2 0,1-1,-1 1,-2-1,1 1,0-2,-1 1,-1-1,0 0,1-1,-3 1,2-2,-2 1,1 0,0-2,-2 0,1 1,-1-2,-14 5,23-9,0 1,1-1,-1 1,0-1,0 0,0 0,1 0,-1 0,0 0,-1 0,1 0,1 0,-1-1,0 1,0-1,1 0,-1 1,0-1,1 0,-1 0,1 0,-1 0,1 0,-2 0,1-1,0-1,0 1,0-1,1 0,-1 0,1 0,0 1,0-2,0 1,0 0,1 0,-1-1,1 1,0-3,-1 0,1 0,1 1,-1-1,1 0,0 1,0-1,1 0,0 0,0 1,0-1,1 1,0 0,1 0,-1 0,7-7,-6 9,2 1,-1-1,-1 1,1-1,0 1,2 1,-2-1,0 1,1 1,0-1,-1 0,1 1,-1 0,2 0,-2 0,1 1,7 0,18 5</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -13745,16 +13745,16 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 688,'0'-4,"0"-6,9-2,16-3,22-3,13 1,4 3,-4 0,-8 3,-8 2,-7 3,0-1,-3 0,-2 1,-3 2,-1 1,-5 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="596">318 582,'-3'6,"0"-1,0 0,1 0,0 1,0 0,0-1,1 1,0 0,0 0,0 0,1 0,0-1,1 12,-1-1,19 387,-18-383,9 44,-6-47,-1 0,0 0,-2 0,0 0,-1 19,-1-33,1 1,-1 0,0 0,0 0,0-1,-1 1,1 0,-1-1,0 1,0-1,0 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,0-1,0 0,0 0,-1 1,1-2,-1 1,1 0,-1-1,-7 2,-11 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1039.01">54 1376,'4'-9,"11"-7,7-1,14 2,4-1,5 3,0 3,0 3,-2 3,-4 3,-5 0,-7 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1806.99">821 1191,'0'14,"4"8,7 10,5 13,0 4,-2-3,-4-4,-3-5,-4-5,-1-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2390">1297 979,'0'-4,"4"-2,7 1,5 0,5 2,3 1,2 1,1 0,10 1,2 0,0 1,-2-1,-4 0,-7 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3223.99">1932 291,'4'0,"7"0,5 0,14 0,10 0,8 0,5 0,2 0,14 0,5 0,-2 0,-4 0,-8 0,-11 0,-13 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3776.99">2329 265,'21'684,"-18"-645,1-9,-1 54,-3-78,-1-1,1 1,-1 0,0 0,0 0,-1-1,1 1,-1 0,-1-1,1 0,-1 1,0-1,0 0,0 0,-6 5,-6 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4345">2065 1217,'4'0,"15"0,14 0,32 0,10 0,1 0,-3 0,-11 0,-9 0,-11 0,-8 0,-4 0,-4 0,4 0,0 0,0 0,-5 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7355">3282 1191,'44'-2,"52"1,-91 2,0-1,0 1,0-1,0 2,0-1,0 0,-1 1,1 0,0 0,-1 0,1 1,-1-1,0 1,5 5,-7-7,-1 1,0-1,0 1,0 0,0-1,0 1,0 0,0 0,0 0,-1-1,1 1,-1 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,0-1,0 1,0 0,0 0,0-1,-1 1,1-1,0 1,-1-1,1 0,-4 2,-7 8,-1-1,-1-1,-26 15,17-11,17-10,1 1,1-1,-1 1,0 0,1 0,0 0,0 1,0 0,-5 8,8-12,1 1,-1 0,1 0,-1 0,1-1,-1 1,1 0,0 0,0 0,0 0,0 0,1 0,-1-1,0 1,1 0,-1 0,1 0,0 0,-1-1,1 1,0 0,0-1,0 1,0-1,0 1,1-1,-1 1,0-1,1 0,-1 0,1 0,-1 0,4 2,45 29,-41-27,0-1,0 2,0-1,-1 1,0 0,0 1,-1 0,0 0,0 1,0 0,-1 0,-1 0,1 1,-1 0,5 12,-7-11,0 0,0 0,-1 1,0-1,-1 0,0 16,-1-22,0 0,-1 0,1 0,-1 1,0-1,0 0,-1-1,1 1,-1 0,0 0,0-1,0 1,-1-1,1 1,-1-1,1 0,-1 0,0 0,-5 3,-8 4,-1 0,0-2,-1 0,1-1,-1-1,-1 0,1-2,-25 4,4-3,-1-1,1-2,-42-3,76 1,1-1,0 1,0-1,0 1,0-1,0-1,0 1,0 0,0-1,1 0,-1 0,0 0,-4-4,-9-12</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8223.54">3361 0,'15'0,"1"0,-1 1,0 1,1 0,-1 1,0 1,0 0,-1 1,1 0,-1 2,0-1,0 2,-1 0,0 0,-1 1,0 1,18 18,-10-5,0 1,-2 0,-1 2,-1 0,17 37,52 148,-68-163,22 64,-5 1,-6 2,-4 1,-5 1,5 171,-24-259,-2-1,0 0,-2 1,-1-1,-2 0,-10 28,0-10,-2-1,-41 71,-3-6,55-96</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 659,'0'-4,"0"-6,9-1,17-4,23-2,14 1,4 3,-5-1,-8 4,-8 1,-7 3,-1 0,-2-1,-3 1,-3 2,0 1,-6 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="596">331 557,'-3'6,"0"-1,0 0,1-1,0 2,0 0,0-1,1 0,0 1,0 0,-1 0,2-1,0 0,2 11,-2 0,19 370,-18-367,10 42,-7-45,-1 1,0-1,-2 0,0 0,-1 19,-1-32,1 1,-1-1,0 1,0 0,0-1,-1 1,1 0,-1-2,0 2,0-1,0 0,-1 0,0 0,0 0,1 0,-1-1,0 1,0-1,0 0,0 0,-2 1,2-2,-1 1,1 0,-1-1,-8 1,-11 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1039.01">56 1317,'4'-8,"12"-7,7-2,14 3,5-1,5 2,0 4,0 2,-2 3,-5 3,-4 0,-8 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1806.99">856 1140,'0'14,"4"7,7 9,6 14,0 2,-3-2,-3-3,-4-6,-4-4,-1-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2390">1352 937,'0'-3,"4"-3,7 1,6 0,5 2,3 1,2 1,1 0,11 1,1 0,1 1,-2-1,-5 0,-7 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3223.99">2013 279,'5'0,"6"0,6 0,14 0,11 0,8 0,5 0,2 0,15 0,5 0,-2 0,-4 0,-8 0,-12 0,-14 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3776.99">2427 254,'22'655,"-19"-618,1-8,0 51,-4-74,-1-1,1 0,-2 1,1 0,0 0,-1-2,1 2,-1 0,-1-1,1-1,-1 2,0-1,0 0,-1 0,-5 4,-7 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4345">2152 1165,'4'0,"16"0,14 0,34 0,10 0,2 0,-4 0,-12 0,-8 0,-13 0,-7 0,-5 0,-4 0,4 0,1 0,-1 0,-5 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7355">3420 1140,'46'-2,"54"1,-94 2,-1-1,0 1,0-1,0 2,1-1,-1 0,-1 1,1 0,0 0,0 0,0 1,-1-1,0 1,6 4,-8-6,-1 1,0-1,0 1,0 0,0-1,0 1,0 0,0 0,0-1,-1 0,1 1,-1 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0-1,-1 1,1 0,-1 0,0 0,1 0,-1 0,0-1,0 1,0 0,0 0,0-1,-1 1,1-2,0 2,-2-1,2 0,-4 2,-7 8,-2-2,0 0,-28 14,18-11,18-9,0 1,2-1,-1 1,0 0,1-1,0 1,-1 1,1 0,-5 7,8-11,1 1,-1 0,1 0,-1 0,1-1,-1 1,1 0,0 0,0-1,0 1,0 0,1 0,-1-1,0 1,1 0,-1 0,1 0,0 0,-1-1,1 1,0 0,0-1,0 0,0 0,0 1,1-1,-1 1,0-1,1 0,-1 0,1 0,-1 0,5 2,46 27,-43-25,1-1,-1 2,0-1,0 0,-1 1,0 1,0 0,-1-1,0 2,1 0,-2-1,-1 1,1 0,-1 1,6 11,-8-10,0-1,0 1,-1 0,0 0,-1 0,0 14,-1-20,0 0,-1 0,1 0,-1 1,0-2,0 1,-1-1,1 1,-1 0,0 0,0-2,0 2,-1-1,1 1,-1-1,0 0,0 0,0 0,-5 2,-9 5,-1-1,1-1,-2 0,1-2,-1 0,0 0,0-2,-26 3,4-2,0-1,0-2,-43-3,79 1,0-1,1 1,0-1,0 1,0-1,-1-1,1 1,0 0,0-1,1 0,-1 1,0-1,-5-4,-9-11</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8223.54">3503 0,'15'0,"2"0,-1 1,-1 1,2 0,-1 1,-1 0,1 1,-1 1,0 0,0 2,-1-2,1 3,-1 0,-1-1,0 2,-1 1,19 16,-10-4,0 1,-2 0,-2 2,0 0,18 35,53 142,-70-156,23 62,-6 0,-6 2,-4 1,-5 1,5 164,-25-248,-2-2,0 1,-2 1,-2-1,-1 0,-11 26,1-9,-3-1,-43 68,-2-5,56-93</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -14087,27 +14087,27 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">2647 212,'206'-2,"224"5,-372 0,-2 3,68 16,-98-16</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="732.21">2091 900,'212'14,"-1"1,449-17,-600 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-3476.94">107 2011,'-5'0,"4"0,5 0,12 0,17-4,15-2,5 1,16-5,0 1,-7 1,-9 3,-14 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2860.93">1 2514,'0'5,"9"6,12 0,11 0,14-4,4-1,1 1,2 1,1 2,5 5,-4 0,-6-4,-7-2,-6-4,-10-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1154.05">1721 2064,'-1'-2,"0"-1,1 0,-1 0,0 0,0 1,-1-1,1 0,-1 1,1-1,-1 1,0 0,0-1,0 1,0 0,0 0,0 0,0 1,-1-1,1 0,-5-1,-55-26,60 28,-15-6,0 2,0 0,0 1,-1 1,1 0,-1 1,0 1,-22 2,27 0,1 1,-1 0,1 1,0 0,0 1,0 0,0 1,1 0,0 1,0 1,0-1,-12 12,10-6,1 0,0 2,0-1,2 1,0 1,0 0,1 0,1 1,1 0,0 1,1-1,1 1,1 0,0 1,-2 18,1 28,2 0,9 114,-5-167,0 12,2 0,0 1,1-1,2-1,0 1,2-1,0 0,14 25,-14-32,1-1,1-1,0 1,1-2,1 1,0-1,0-1,1 0,0-1,1-1,1 0,17 8,-17-10,-1-1,2-1,-1 0,1-1,-1-1,1 0,0-2,0 1,0-2,0 0,17-3,-20 2,0-1,-1-1,1 0,0-1,-1 0,0-1,0 0,0-1,-1-1,0 1,0-2,0 0,15-15,26-35,26-27,-66 74,-1-1,0-1,-1 0,0 0,-1-1,-1 0,0-1,-1 0,0 0,7-28,-7 12,-1 0,-2-1,-1 1,-1-54,-3 51,2 14,-1 0,-1 1,-1-1,-9-34,9 47,0 0,-1 1,0 0,-1-1,1 1,-1 1,0-1,-1 0,1 1,-1 0,0 0,0 0,-1 1,0 0,1 0,-1 0,-11-4,2 2,-1 0,0 1,0 1,-29-3,-37-11,27-3,33 12,-43-12,46 17</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1417.29">2700 2276,'13'0,"32"0,12 0,6 0,1 0,-1 0,-7 0,-9 0,-7 0,-7 0,-3 5,-8 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2156.48">2938 2620,'4'0,"7"0,5 0,9 0,5 5,2 1,-1-1,0 0,-1-2,3-1,0 4,-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4391.48">4234 27,'0'38,"-1"-1,-2 1,-2-1,-17 68,6-43,3 0,3 0,2 1,4 1,2-1,7 76,-4-133,0-1,0 0,0 0,1 0,0 0,0 0,0-1,1 1,-1-1,1 1,0-1,0 0,1 0,-1 0,1 0,0-1,0 1,0-1,1 0,-1 0,1-1,-1 1,1-1,0 0,0-1,0 1,0-1,10 2,-8-2,1 0,-1 0,1-1,-1 1,1-2,-1 1,1-1,-1 0,0-1,1 0,-1 0,0 0,0-1,0 0,-1-1,1 1,-1-1,0 0,11-10,-6 2,-2 0,1-1,-2 0,0 0,0-1,-1 0,-1 0,-1-1,6-21,0-13,6-81,-14 94,1 1,2-1,1 1,21-60,21-51,-44 141,-4 13,-3 13,-66 208,5-18,55-174,1 0,2 1,-1 72,6-88,1 0,1 0,0 0,2 0,6 21,-8-36,1-1,0 0,-1 0,2 0,-1-1,1 1,0-1,0 0,0 0,1 0,0-1,0 1,0-1,0 0,1 0,-1-1,1 0,0 0,0 0,0-1,9 3,11 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5256.48">5292 1,'0'1,"1"-1,0 0,-1 0,1 1,-1-1,1 0,0 1,-1-1,1 0,-1 1,1-1,-1 1,1-1,-1 1,1-1,-1 1,0 0,1-1,-1 1,0-1,1 1,-1 0,0-1,0 1,0 0,0-1,1 2,2 21,-3-20,0 28,-1 1,-2-1,-1 0,-1 0,-11 33,-8 51,12 12,7 229,8-210,-4-139,1-1,0 1,0-1,1 1,0-1,0 1,0-1,1 0,0 1,0-1,1 0,0 0,0-1,0 1,7 7,6 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6061.48">5531 583,'2'-23,"2"0,1 0,0 0,2 1,1-1,0 1,15-25,-21 42,0 1,1-1,-1 1,1 0,0-1,0 1,0 0,1 1,-1-1,1 1,0-1,0 1,0 0,1 0,-1 1,8-4,-9 6,1-1,0 1,-1 0,1-1,0 2,-1-1,1 0,-1 1,1 0,0 0,-1 0,0 0,1 0,-1 1,0-1,1 1,-1 0,0 0,0 0,0 0,-1 1,1-1,4 7,7 6,-1 1,-1 0,-1 1,0 0,-1 1,0 0,-2 0,0 1,5 23,3 22,12 99,-6-29,-17-112,2 0,0 0,1-1,2 0,0 0,18 26,-27-45,0-1,0 1,0 0,0 0,0-1,1 1,-1-1,0 0,1 1,0-1,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,0-1,0 1,-1-1,1 0,3 1,-2-2,0 1,0-1,0 0,0 0,-1 0,1 0,-1-1,1 1,-1-1,1 1,-1-1,0 0,1 0,1-3,4-4,0-1,-1 0,0 0,0 0,-1-1,7-19,-1-4,-2 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6582.48">6113 318,'-9'0,"-12"5,-16 15,-20 17,-4 11,-11 12,-5 13,-4 3,7-2,13-9,11-7,10-13,12-14</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7106.48">6668 1032,'0'9,"0"8,0 5,0 12,-5 6,-1-1,-4-1,-1-4,-2-6,-4-5,-4-6,3-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8355.48">7145 609,'-2'13,"0"0,0 0,-2-1,-5 18,1-7,-6 22,3 1,1 1,2-1,-3 78,11-122,0 0,0 1,0-1,0 0,1 1,-1-1,1 0,-1 1,1-1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,3 2,-3-3,0-1,0 1,0-1,1 0,-1 0,0 1,0-1,1 0,-1 0,0 0,0 0,1 0,-1 0,0-1,0 1,1 0,-1-1,0 1,0 0,0-1,1 0,-1 1,0-1,0 0,0 1,0-1,0 0,0 0,0 0,-1 0,1 0,1-1,21-26,0 0,-2-1,-1-1,30-63,-29 54,33-53,-29 52,-1-2,23-57,-24 0,-15 87,-1 19,6 23,3 31,-3 1,-3 1,4 106,-11-115,8 118,-13 209,2-375,0 1,-1-1,0 0,-1 0,1 0,-1 1,0-2,-1 1,1 0,-1 0,0-1,-1 0,1 1,-1-1,0 0,-9 8,6-8,0 0,0-1,-1 0,1 0,-1-1,0 0,0 0,0-1,0 0,0 0,-11 1,-11-2,1-1,-1-1,1-2,0 0,0-2,-30-10,54 14,-26-7,-55-22,79 27,1 0,-1 0,1-1,0 1,0-1,0-1,1 1,-1-1,1 0,0 0,1-1,-1 1,1-1,-5-9,-1-11</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9138.31">7383 1,'13'0,"1"0,0 0,0 1,-1 1,1 0,-1 1,1 0,-1 1,0 1,0 0,-1 1,1 0,-1 1,-1 0,1 1,-1 0,-1 1,16 16,6 12,-1 2,-2 0,-2 2,-2 2,-2 0,27 69,-3 17,31 141,-64-217,-3 0,-2 1,-3 1,0 95,-8-125,0 1,-2-1,-1 0,-1 0,-10 28,10-38,-1 0,0 0,-2 0,1-1,-1 0,-1-1,-1 0,-21 21,24-28,0 0,-1 0,1 0,-1-1,-1-1,-15 7,-17 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10980.14">4049 2170,'4'-4,"0"0,1 0,-1 0,1 0,0 1,0-1,1 1,-1 1,1-1,-1 1,1 0,0 0,0 1,0-1,0 1,0 1,0-1,0 1,0 0,0 0,0 1,0 0,0 0,0 0,8 4,-7-2,0 0,0 1,-1 0,1 0,-1 1,0-1,0 1,0 1,-1-1,0 1,0 0,-1 0,1 1,-1-1,0 1,-1 0,0 0,0 0,3 12,1 19,-2 1,-1 0,-2 0,-2 1,-6 46,2 19,1-46,1-37,1-1,1 0,0 0,2 0,7 36,-8-53,0-1,1 0,0 0,-1 0,1-1,0 1,0 0,0-1,1 1,-1-1,1 1,-1-1,1 0,0 0,0-1,0 1,0 0,0-1,0 0,0 0,0 0,1 0,-1 0,0-1,1 1,-1-1,0 0,1 0,-1 0,0 0,6-2,-2 1,0 0,-1 0,1-1,0 0,0 0,-1-1,0 0,1 0,-1 0,0-1,-1 0,1 0,-1 0,8-9,1-6,0-1,-1-1,-2 0,0-1,13-39,28-124,-29 91,16-111,-28 137,-5 32</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11721.14">5160 1826,'-5'127,"-6"0,-38 184,32-220,3 2,5-1,4 1,8 107,0-181,1-1,1 0,1 1,0-2,1 1,1-1,1 0,0-1,1 0,1 0,0-1,1-1,1 0,0 0,1-2,1 1,30 19,-39-29,-1 0,1 0,0-1,0 0,10 3,4-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12571.14">5504 2593,'3'-2,"0"0,1-1,-1 1,0-1,-1 0,1 0,0 0,-1 0,0 0,1-1,-1 1,2-6,20-54,-13 31,-4 16,0 0,1 0,0 1,1 0,1 0,1 1,12-14,-18 23,0 1,0 0,0 0,1 0,-1 0,1 1,0 0,0 0,0 1,0 0,1 0,-1 0,1 1,-1 0,1 0,-1 0,1 1,0 0,-1 1,1-1,11 4,-7-1,-1 1,0 0,0 0,0 1,0 1,-1 0,0 0,0 1,-1 0,0 0,0 1,0 0,10 16,7 11,-1 1,19 43,-18-31,56 98,-68-126,1-1,1 0,1-1,34 31,-44-44,1 0,0-1,1 0,-1-1,1 0,0 0,0 0,0-1,0 0,0 0,0-1,0 0,1-1,-1 0,14-1,23-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13315.14">6536 2276,'-19'0,"1"1,-1 0,1 1,0 1,0 1,0 0,1 1,-1 2,1-1,0 2,1 0,0 1,-22 16,0 6,1 2,2 1,1 1,-39 54,35-40,-85 80,90-101</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13863.14">6748 2805,'0'5,"0"10,0 7,0 14,0 13,0 4,0-3,-9 3,-3 2,-4-8,0-8,4-11</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15316.2">7303 2408,'-2'119,"4"128,-2-244,1 0,-1 0,0-1,1 1,0 0,-1 0,1-1,0 1,1 0,-1-1,0 1,1-1,-1 0,1 1,0-1,0 0,0 0,0 0,0 0,0-1,0 1,1 0,-1-1,0 0,1 1,0-1,-1 0,1 0,4 1,7 0,-1-1,1 0,-1 0,1-2,14-1,-1 0,-13 2,0-1,0 0,0-1,0-1,-1 0,0-1,1-1,-1 0,-1 0,15-9,-20 9,0 0,-1 0,1-1,-1 0,0 0,-1-1,1 0,-1 0,-1 0,1 0,-1-1,-1 0,1 0,-1 0,-1 0,0 0,3-14,-4-38,-2 53,1 0,-1 1,1-1,0 0,1 0,-1 1,1-1,1 0,-1 1,1-1,0 1,1-1,0 1,3-7,-5 12,-1 1,1-1,-1 0,1 1,0-1,-1 0,1 1,0-1,0 1,-1-1,1 1,0-1,0 1,0 0,-1-1,1 1,0 0,0 0,0 0,0-1,0 1,0 0,0 0,-1 0,1 1,0-1,0 0,0 0,0 0,0 1,0-1,1 2,0-1,0 1,0-1,0 1,-1 0,1 0,-1 0,0 0,1 0,-1 0,2 4,2 6,-1 1,0 0,3 19,66 506,-57-374,-6 234,-11-387,-1-1,-1 1,1 0,-2 0,1-1,-2 0,1 0,-1 0,-1 0,0-1,0 0,-1 0,0 0,0-1,-1 0,0-1,-1 0,1 0,-1 0,-13 6,4-3,-1 0,0-1,0-1,-1 0,0-2,-1 0,1-2,-1 0,-38 2,50-7,-1 1,1-2,0 1,0-1,0 0,0-1,0 0,0-1,1 0,0 0,0 0,0-1,0-1,0 1,1-1,0 0,1-1,-1 0,1 0,0 0,-5-11,5 10,1 0,1 0,0-1,0 0,1 0,-1 0,2 0,0 0,0-1,1 1,0-1,0 1,1-1,0 1,1-1,0 1,0-1,1 1,1-1,5-14,1 6,1 1,1 0,0 0,1 1,1 1,0 0,1 0,24-18,15-7,70-41,-64 44,-50 31,-1 0,1 0,-1-1,8-9,-1-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15951.14">8229 2038,'8'5,"0"0,-1 0,1 1,-1 0,0 0,0 0,-1 1,10 12,37 68,-48-79,36 74,-3 1,-4 1,36 137,-33-67,20 192,-47-273,-3-1,-3 1,-11 139,3-194,0-1,-1 0,-1-1,0 1,-1-1,-1 0,-1-1,0 0,-1 0,-22 25,6-12,-1-1,-1-2,-1-1,-33 21,38-29</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">2738 204,'213'-2,"232"5,-385 0,-3 3,72 15,-102-15</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="732.21">2163 866,'219'14,"-1"0,465-16,-621 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-3476.94">111 1936,'-6'0,"5"0,6 0,11 0,18-4,16-2,5 2,16-6,0 1,-6 2,-11 2,-13 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2860.93">1 2420,'0'5,"9"6,13-1,11 1,15-4,3-2,2 2,2 1,1 1,5 6,-4-1,-7-3,-6-3,-7-3,-10-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1154.05">1780 1987,'-1'-2,"0"-1,1 0,-1 0,0 1,0 0,-1-1,1 0,-1 1,1-1,-1 1,-1 0,1-1,0 1,0 0,0 0,0 1,0 0,-1-1,1 0,-5-1,-57-25,61 27,-14-6,-1 2,1 1,-1 0,0 1,0 0,-1 1,1 1,-24 2,29 0,0 1,0 0,1 1,-1 0,1 1,-1-1,1 2,1 0,-1 1,1 0,-1 0,-11 12,9-7,2 1,-1 1,1 0,2 0,-1 2,1-1,1 0,0 2,2-1,0 2,1-2,1 1,0 1,1 0,-2 18,1 26,2 1,9 109,-5-160,0 11,2 0,0 1,1-1,3 0,-1 0,2-1,0 0,15 24,-15-30,2-2,0 0,0 0,2-1,0 0,1 0,-1-1,1-1,1 0,0-2,2 1,17 7,-18-9,0-1,1-1,0 0,1-2,-2 0,2 0,-1-2,1 1,-1-2,1 0,17-3,-21 2,1-1,-2-1,2 1,-1-2,0 0,-1-1,0 0,1-1,-2 0,1 0,-1-2,0 1,16-16,27-32,27-27,-69 71,-1 0,1-2,-2 1,1-1,-2 0,-1-1,0 0,0-1,-1 1,7-28,-6 13,-2-1,-2-1,-1 1,-1-52,-3 49,2 14,-1 0,-1 1,-1-2,-9-32,9 46,-1-1,0 1,0 0,-1 0,1 0,-1 1,0-1,-1 1,0 0,0 0,0 0,0 0,-1 1,0 1,0-1,0 0,-11-4,1 2,-1 1,1 0,-1 1,-29-3,-39-10,28-3,34 11,-44-11,48 16</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1417.29">2793 2191,'13'0,"34"0,12 0,6 0,1 0,-1 0,-7 0,-9 0,-8 0,-7 0,-3 5,-8 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2156.48">3039 2522,'4'0,"7"0,6 0,9 0,5 5,2 1,-1-1,0-1,-1-1,3-1,0 4,-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4391.47">4379 26,'0'37,"-1"-2,-2 2,-2-2,-18 67,7-43,2 1,4 0,2 0,3 2,3-2,7 74,-3-128,-1-1,0 0,0 0,1-1,0 1,0 0,0-1,1 1,-1-2,1 2,0-1,0 0,2 0,-2 0,1 0,0-2,0 2,0-1,1 0,-1 0,2-1,-2 1,1-1,0 0,0-1,0 0,1 0,9 2,-8-2,2 0,-2 0,1-1,-1 1,2-2,-2 1,1-1,-1 0,1-1,0 0,-1 1,0-1,1-1,-1 0,-1-1,1 1,0-1,-1 0,11-9,-5 1,-3 1,1-2,-1 1,-1-1,0 0,-1-1,0 1,-2-2,6-19,1-13,5-79,-14 92,1 0,3-1,0 2,22-59,21-48,-44 135,-5 13,-3 12,-69 200,6-17,57-167,1 0,1 0,0 70,6-85,1 0,1 1,0-1,3 0,5 20,-8-34,1-1,0 0,-1-1,2 1,-1-1,2 1,-1-1,0-1,0 1,1 0,0-1,1 1,-1-1,0-1,1 1,-1-1,1 0,1 0,-1 0,0-1,10 3,10 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5256.48">5473 1,'0'1,"2"-1,-1 0,-1 0,1 1,-1-1,1 0,0 1,-1-1,1 0,-1 1,1-1,-1 1,1-1,-1 1,1-1,-1 1,0 0,1-1,-1 1,0-1,1 1,-1 0,0-1,0 1,0 0,0-1,1 1,2 22,-3-21,0 28,-1 1,-2-1,-1 0,-1 0,-12 31,-8 50,13 11,7 221,8-203,-4-133,1-1,0 1,0-1,1 0,0 0,0 1,0-1,1-1,0 2,0-1,1 0,0-1,0 0,0 1,8 6,5 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6061.48">5721 561,'2'-22,"2"0,1 0,0 0,2 1,2-2,-1 2,16-24,-22 40,0 1,1-1,-1 2,1-1,0-1,0 1,1 0,0 1,-1 0,1 0,0-1,0 1,0 0,1 0,0 1,7-4,-9 6,1-1,0 1,0 0,0 0,0 0,-1 0,1 0,-1 1,1 0,0 0,0 0,-1 0,1 0,-1 1,0-1,1 1,-1 0,0 0,0 0,1 0,-2 1,1-1,4 6,7 7,0 0,-2 0,0 2,-1-1,-1 2,1-1,-3 0,0 1,6 23,2 21,13 94,-6-27,-18-107,2-1,1 0,0-1,2 0,1 1,18 24,-28-43,0-1,0 1,0 0,0 0,0-1,1 0,-1 0,0 0,1 1,0-1,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,1-1,-1 1,-1-1,1 0,3 1,-2-2,0 1,0-1,0 0,0 0,-1 0,2 0,-2-1,1 1,-1-1,1 1,-1-1,0 0,1 1,1-4,5-4,-1-1,-1 1,0-1,1 1,-2-2,7-18,0-4,-3 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6582.48">6323 306,'-10'0,"-11"5,-18 14,-20 17,-4 10,-11 12,-6 12,-4 3,8-2,13-8,11-7,11-13,12-13</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7106.48">6897 994,'0'8,"0"9,0 4,0 11,-5 7,-2-1,-3-2,-1-3,-3-6,-3-5,-5-6,3-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8355.48">7390 586,'-2'13,"0"-1,0 1,-2-2,-6 18,2-7,-6 22,2 0,2 1,2 0,-4 74,12-117,0 0,0 1,0-1,0 0,1 0,-1 0,1 0,-1 1,1-1,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,3 1,-3-2,0-1,0 1,0-1,1 0,-1 0,0 1,0-1,1 0,-1 0,0 0,0 0,1 0,-1 0,0-1,0 1,1 0,-1-1,1 1,-1 0,0-1,1 0,-1 1,0-1,0 1,0 0,0-1,0 0,0 0,0 0,-1 0,1 0,1-1,22-25,0 0,-3-1,0-1,31-60,-31 51,35-51,-30 51,-1-2,24-56,-26 1,-14 83,-2 19,6 22,4 30,-4 0,-2 2,3 102,-11-111,9 113,-14 202,2-361,0 1,-1-2,0 1,-2 0,2 0,-1 0,0-1,-1 1,1 0,-1 0,0-2,-1 1,1 1,-1-1,-1 0,-8 7,6-7,-1 0,1-1,-1-1,1 1,-2-1,1 0,0 0,0-1,-1 0,1 0,-12 1,-11-2,1-1,-1-1,1-2,0 0,0-2,-31-9,56 13,-27-7,-57-21,82 26,1 0,-2 0,2 0,0 0,0-1,0-1,0 1,0-1,1 1,0-1,1-1,-1 1,0-1,-4-8,-1-11</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9138.31">7636 1,'14'0,"0"0,1 0,-1 1,0 1,0 0,-1 1,2 0,-2 0,1 2,-1 0,0 1,0 0,0 0,-2 1,1 1,0-1,-2 2,17 15,6 12,-1 1,-2 1,-2 1,-2 3,-2-1,27 67,-2 16,32 136,-67-209,-2 0,-3 1,-3 1,0 91,-8-119,0 0,-2-1,-1 0,-1 0,-11 27,11-37,-1 1,-1-1,-1 1,1-2,-2 1,0-2,-1 1,-22 19,24-26,1 0,-1 0,1-1,-2 0,0-1,-16 7,-17 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10980.14">4188 2089,'4'-4,"0"0,1 0,-1 1,2-1,-1 1,0-1,1 1,-1 1,2-1,-2 1,1 0,0 1,0 0,1-1,-1 1,0 1,0-1,0 1,1 0,-1 0,0 1,0 0,0 0,1 0,7 3,-7-1,1 0,-1 1,-1 0,1 0,-1 1,1-2,-1 2,0 1,-1-1,0 1,1-1,-2 1,1 1,-1-1,0 0,-1 1,0 0,0 0,4 11,0 18,-2 2,-1 0,-2-1,-2 2,-6 43,2 19,1-44,1-36,1 0,1-1,0 0,2 0,7 35,-8-51,0-1,1 0,0 0,-1 0,1-1,0 0,1 1,-1-1,1 1,-1-1,1 1,-1-1,1 0,0 0,0-1,0 1,0 0,1-2,-1 1,0 0,0 0,1 0,-1 0,0-1,1 1,-1-1,1 0,0 0,-1 0,0 0,6-2,-2 1,1 0,-2 0,1 0,0-1,1 0,-2-1,0 0,1 0,-1 0,1-1,-2 0,1 1,-1-1,9-9,0-5,1-1,-2-2,-2 1,1-1,13-38,28-119,-29 88,17-108,-30 133,-5 30</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11721.14">5337 1758,'-5'122,"-7"0,-38 178,32-213,4 3,4-2,5 2,8 103,0-175,2-1,0 0,1 2,0-3,1 1,2 0,0-1,0 0,2-1,0 0,0 0,2-2,0 1,1-1,0-1,2 0,30 19,-40-28,0 0,0 0,0-1,0 0,11 2,3-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12571.14">5693 2496,'3'-2,"0"0,1 0,-1 0,0-1,-1 0,1 0,1 0,-2 0,0 0,1-1,-1 2,2-7,21-52,-14 30,-4 16,1 0,0-1,0 2,2-1,0 1,1 0,13-13,-19 23,0 0,1 0,-1 0,1 0,-1 0,1 1,1 1,-1-1,0 1,0 0,1 0,0 0,0 1,-1 0,1 0,-1 0,2 1,-1 0,-1 1,1-1,12 4,-8-1,0 1,-1 0,0-1,1 2,-1 1,-1 0,1 0,-1 0,-1 1,1 0,-1 0,0 1,11 15,7 11,-2 1,21 41,-19-30,58 94,-71-120,1-2,2 0,1 0,34 29,-45-42,2-1,-1 0,1 0,-1-1,2 0,-1 0,0 0,1-1,-1-1,0 1,0-1,1 0,0-1,-1 0,15-1,24-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13315.14">6760 2191,'-20'0,"2"1,-2 0,2 1,-1 1,0 1,1 0,0 0,0 3,0-1,0 2,2-1,-1 2,-22 15,0 6,0 2,3 0,1 2,-40 52,35-39,-87 77,93-97</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13863.14">6979 2700,'0'5,"0"10,0 6,0 13,0 14,0 3,0-3,-9 3,-3 2,-5-8,1-7,3-12</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15316.2">7553 2318,'-2'115,"4"122,-2-234,1 0,-1 0,0-1,2 1,-1 0,-1 0,1-1,0 1,1-1,-1 0,0 1,1-1,-1 0,1 1,0-1,0 0,0 0,0 0,0 0,0-1,0 1,2-1,-2 0,0 0,1 1,0-1,-1 0,1 0,4 1,8 0,-2-1,2 0,-2 0,2-2,14-1,-2 0,-12 2,-1-1,1 0,-1-1,1-1,-2 0,1 0,0-2,0 0,-2 0,16-8,-21 8,1 0,-2 0,1-1,-1 1,0-1,0-1,0 0,-1 1,-1-1,1 0,-1 0,-1-1,2 0,-2 0,-1 1,0-1,3-13,-4-37,-2 51,1 1,-1 0,1-1,0 0,1 1,-1 0,1-1,1 0,-1 2,1-2,0 1,1-1,1 2,2-8,-5 12,-1 1,1-1,-1 0,1 1,0-1,-1 0,1 1,0-1,0 1,-1-1,1 1,0-1,0 1,0 0,-1-1,1 1,0 0,0 0,0 0,0-1,0 1,0 0,0 0,-1 0,1 1,0-1,0 0,1 0,-1 0,0 1,0-1,1 2,0-1,0 1,0-1,0 1,-1 0,1 0,-1 0,0 0,1 0,-1 0,2 3,3 7,-2 0,0 1,3 18,69 487,-60-360,-6 225,-11-373,-1 0,-1 1,1-1,-2 1,1-2,-2 1,1 0,-2-1,0 1,0-2,0 1,-1 0,-1-1,1 0,-1 0,0-1,-2-1,2 1,-1 0,-14 5,4-2,0 0,-1-2,0 0,0 0,-1-3,-1 1,2-2,-2 0,-39 2,51-7,0 1,1-2,0 1,-1-1,1 0,0-1,-1 0,1-1,1 1,-1-1,1 0,0-1,0-1,-1 1,2 0,0-1,1-1,-2 0,2 1,0-1,-5-10,4 9,2 0,1 0,0 0,0-1,1 0,-1 1,2-1,-1 1,1-2,1 1,0 0,0 0,1-1,0 2,1-2,0 1,0 0,1 0,2-1,4-13,1 6,1 1,2-1,-1 1,2 0,0 2,1 0,0-1,25-17,16-6,72-40,-66 42,-51 31,-2-1,1 0,0-1,7-8,0-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15951.14">8511 1962,'8'5,"1"0,-2-1,1 2,0 0,-1 0,0 0,-1 0,11 13,38 64,-50-75,37 71,-3 1,-3 1,36 131,-34-63,21 184,-48-263,-4-1,-3 2,-11 133,3-187,-1-1,0 1,-1-2,0 2,-1-2,-2 0,0 0,0-1,-2 1,-22 23,6-11,-1-1,0-2,-2-1,-35 21,41-29</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -14162,17 +14162,17 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">213 0,'-2'1,"0"0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,0 1,0-1,0 0,0 1,0-1,0 1,0-1,0 1,1 0,-1-1,1 1,0 0,-1-1,1 3,-3 4,-84 266,77-242,-11 59,-1 6,10-53,2 0,1 0,3 1,1 0,3 0,1 0,2 1,3-1,1 0,15 60,-12-70,0-1,3 0,0-1,3 0,0-1,2-1,1 0,2-1,32 39,-34-51</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="815.01">451 582,'0'-4,"13"-2,14 0,24 1,13 2,0 1,-6 1,-9 0,-8 1,-7 0,-4 1,-3-1,-2 0,0 0,0-9,-4-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1706">742 582,'2'0,"1"0,0 0,0 0,-1 0,1 1,0-1,-1 1,1-1,0 1,-1 0,1 0,-1 0,1 1,-1-1,0 0,1 1,-1 0,0-1,0 1,0 0,0 0,0 0,-1 0,1 1,-1-1,1 0,-1 1,0-1,0 1,0-1,0 1,0 0,-1-1,1 1,0 4,6 43,-1-1,-3 1,-1 0,-7 60,1-3,4-88,0-1,1 0,1 0,5 20,-1-16</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2166">636 1217,'4'0,"11"0,25 0,20-4,3-2,1 0,-3 1,4 2,-2 1,-7 1,-12 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3177">1244 1058,'33'-14,"1"0,1 2,0 2,0 1,66-8,-29 11,139 7,-207-1,1 0,-1 1,0-1,0 1,0-1,0 1,0 0,0 1,-1-1,1 1,0 0,-1 0,1 0,-1 0,1 0,-1 1,5 4,-6-3,1 1,-1-1,0 1,0 0,0 0,-1 0,1 0,-1 0,0 0,-1 0,1 0,-1 0,-1 8,2 7,-1-1,-2 0,0 0,0 0,-2 0,0 0,-2 0,0-1,-1 0,0 0,-2-1,0 0,-1-1,0 0,-2 0,0-1,-21 21,15-18,-1-1,-1-1,-29 18,42-29,0-2,0 1,0 0,0-1,0-1,-1 1,1-1,-1 0,0-1,0 0,0 0,1-1,-1 0,0 0,-8-2,14 2,1 0,-1 0,0-1,1 1,-1-1,0 1,1-1,-1 0,1 1,-1-1,1 0,-1 0,1 0,-1 0,1 0,0 0,0-1,-1 1,1 0,0-1,0 1,1-1,-1 1,0-1,0 1,1-1,-1 1,1-1,-1 0,1 1,0-1,-1 0,1 0,0 1,0-1,0 0,1 1,-1-1,0 0,1 1,-1-1,1 0,-1 1,1-1,0 1,-1-1,2-1,3-6,0 0,1 0,-1 1,2 0,-1 0,12-11,-6 9,0 1,1 0,0 1,1 0,0 1,0 1,0 0,1 1,-1 0,1 1,1 1,16-1,8 0,0 2,0 2,62 8,-71-3,50 15,-52-11,0-2,33 4,65-6,-90-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3724">2382 846,'4'0,"11"0,21 0,22-4,14-2,14-8,14-7,-5 0,-10 4,-19 5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4229">3176 423,'4'0,"2"-4,4-2,10 1,23-5,10-3,-1-1,-4 3,-5 2,-7 4,-4 2,2-3,-6 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4792">3440 344,'0'9,"0"8,-5 14,-1 10,-8 13,-3 6,-2 14,-3 9,3 0,4-7,5-10,4-13,3-10,2-9,2-5,-1-3,1-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5282.01">3202 1111,'4'-4,"7"-2,14 0,8 1,11 2,8 1,-1 1,-4 0,-6 1,-6 0,-8 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5782">3679 1005,'4'5,"6"10,2 12,-2 9,-2 9,-3 5,-2 4,-2-4,0-1,-1-4,-1-5,1-6,-1-3,1-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6913">3996 79,'3'2,"0"-1,-1 0,1 1,0-1,0 1,-1 0,1 0,-1 0,1 0,-1 0,0 1,0-1,0 1,0-1,0 1,-1 0,1 0,1 5,5 5,28 47,-3 1,-2 2,-3 2,-3 0,-3 1,-3 2,-3 0,-3 0,5 73,6 330,-24-460,-1 0,-1 0,0 0,0 0,-1 0,-1-1,-8 19,-43 67,13-26,27-43,-1-2,-1 0,-1 0,-1-2,-1 0,-40 33,47-45</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">221 0,'-2'1,"0"0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 1,0-1,0 1,1 0,-2-1,2 1,0 0,-1-1,1 3,-3 4,-87 256,79-233,-10 57,-2 5,10-50,3-1,1 1,2 0,2 0,3 1,1-1,2 2,3-2,1 0,16 59,-12-69,-1 0,3 0,1-1,2 0,1-1,1-1,2-1,2 0,33 38,-35-50</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="815.01">469 562,'0'-4,"13"-2,15 0,25 1,14 2,0 1,-7 1,-9 1,-9 0,-6 0,-5 0,-3 0,-2 0,0 0,0-8,-4-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1706">771 562,'2'0,"2"0,-1 0,0 0,-1 0,1 1,0-1,-1 0,1 0,0 1,0 0,0 0,-1 0,1 1,-1-1,0 0,1 1,-1 0,0-1,0 1,0 0,1 0,-1 0,-1 0,1 1,-1-2,1 1,-1 1,0-1,0 1,0-1,0 1,0 0,-1-1,1 1,0 3,6 43,0-2,-4 1,-1 0,-7 59,1-4,4-85,0 0,1-1,1 0,5 20,-1-16</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2166">661 1174,'4'0,"12"0,26 0,20-4,3-1,2-1,-4 1,5 2,-3 1,-6 1,-14 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3177">1293 1021,'35'-14,"0"1,1 1,1 3,-1 0,69-8,-30 12,144 6,-215-1,2 0,-2 1,0-1,0 1,0-1,0 1,1 0,-1 0,-1 0,1 1,0 0,-1 0,1 0,0 0,0 0,-1 1,5 4,-6-3,1 0,-1 0,1 1,-1 0,0 0,-1-1,1 1,-1 0,0 0,-1 0,1 0,-1-1,-1 9,2 6,-1 0,-2-1,0 0,0 1,-2-1,-1 0,-1 1,0-2,-1 0,-1 1,-1-2,0 1,-2-2,1 0,-3 1,1-2,-22 21,15-18,-1 0,-1-2,-30 18,44-28,0-2,0 1,-1-1,1 0,0-1,-2 1,2-1,-1 0,0-1,-1 0,1 0,1-1,-2 0,1 0,-9-2,15 2,1 0,-1 0,0-1,1 1,-1-1,0 1,1-1,-1 0,1 1,-1-1,1 0,-2 0,2 0,-1 0,1 0,0 0,0-1,-1 2,1-1,0-1,0 1,1-1,-1 1,0-1,0 1,1-1,-1 1,1-1,-1 0,1 1,0-1,-1 0,1 0,0 1,0-1,0 1,1 0,-1-1,0 0,1 1,-1-1,1 0,-1 1,1-1,0 1,-1-1,2-1,3-5,0-1,2 0,-2 1,2 1,-1-1,13-10,-6 8,-1 1,2 1,-1 0,2 0,-1 1,1 2,-1-1,2 1,-1 0,0 1,2 1,16 0,9-1,-1 2,1 2,64 8,-74-4,52 16,-54-12,1-1,33 4,68-6,-93-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3724">2476 816,'5'0,"10"0,23 0,22-4,15-1,14-9,15-6,-5 0,-11 3,-19 6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4229">3302 408,'4'0,"2"-4,5-2,9 2,25-6,10-3,-1 0,-4 2,-5 3,-8 3,-3 2,1-3,-6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4792">3576 332,'0'9,"0"7,-5 14,-1 9,-9 14,-2 4,-3 15,-3 8,3 0,5-7,4-9,5-13,3-9,2-10,2-4,-1-2,1-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5282.01">3329 1072,'4'-4,"7"-2,15 1,9 0,11 2,8 1,-1 1,-5 0,-5 1,-7 0,-7 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5782">3825 970,'4'5,"6"9,3 12,-3 9,-1 8,-4 5,-2 5,-2-5,0-1,-1-4,-1-4,1-6,-1-3,1-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6913">4154 76,'3'2,"1"-1,-2 0,1 1,0-1,0 1,-1 0,1 0,-1 0,1 0,0 0,-1 0,0 0,0 1,0-1,0 1,-1 0,1 0,1 5,5 4,30 46,-4 1,-2 2,-2 1,-4 1,-4 1,-2 1,-3 1,-4 0,6 70,6 318,-25-443,-1-1,-1 1,0 0,0-1,-1 1,-2-2,-7 19,-45 65,13-25,28-42,0-2,-2 0,-1 0,0-2,-2 0,-41 32,48-43</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -14342,16 +14342,16 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">319 450,'4'0,"6"0,11 0,6 0,7 0,2 0,5 0,-1 0,-6-4,-1-2,-1 1,2 0,1-3,3 0,0-8,-3-1,-2 2,-7 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="503.99">398 371,'0'5,"0"10,0 11,4 11,2 8,-1 10,5 0,-1 4,3 14,0 4,-3-6,2-7,0-9,-3-10,-12-8,-5-10</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="929">1 1138,'13'5,"27"1,17 4,15 1,14-2,6-3,1-1,-7-3,-13-1,-15 0,-17-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1884.99">901 1164,'1'-2,"1"0,0 1,0-1,0 0,0 1,0-1,0 1,1-1,-1 1,0 0,1 0,-1 0,1 0,-1 1,1-1,4 0,4-2,54-18,1 3,1 3,79-7,-143 21,0 0,0 1,0 0,0 0,0 0,0 0,-1 0,1 0,0 1,0-1,0 1,-1 0,1 0,0 0,-1 0,1 0,0 1,3 2,-4-1,1 1,-1-1,0 1,0-1,0 1,0 0,-1 0,0 0,0 0,0 0,0 0,0 8,2 9,-1-1,-2 1,0 0,-1 0,-1 0,-1 0,0-1,-2 0,-1 1,0-2,-1 1,-1-1,-15 25,14-29,0-1,-2 0,1 0,-2-1,0-1,0 0,-1 0,-1-1,0-1,0-1,-1 0,-1 0,1-1,-1-1,0-1,-26 6,4-6,37-6,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0-1,1 1,-1 0,0-1,0 1,0-1,0 1,1-1,-1 1,0-1,0 1,1-1,-1 0,0 1,1-1,-1 0,1 0,-1 1,1-1,-1 0,1 0,0 0,-1 0,1 0,0 0,-1-1,2 1,0-1,-1 0,1 1,0-1,0 1,0-1,0 1,0-1,0 1,0 0,0-1,1 1,-1 0,0 0,1 0,-1 0,1 0,-1 0,1 1,0-1,2-1,46-16,-36 14,28-10,1 2,0 2,1 2,-1 1,2 3,67 1,-85 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2339.99">1694 1138,'4'0,"7"0,14 0,17 0,19 0,12 0,4 0,1 0,-3 0,-10 0,-11-4,-16-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2815.99">2488 556,'9'-4,"16"-7,13 0,14-4,11 1,5-1,7-3,1 1,1 4,-3 5,-16-2,-11 1,-11 2,-6-2,-8 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3274">3070 450,'0'18,"0"20,0 7,0 10,0 9,0 3,0 3,0 3,0-6,0-5,0-9,0-9,0-3,0-4,0-4,0-3,0-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3631.99">2832 1403,'13'0,"18"0,9 0,11 0,9 0,18 0,5 0,-8 0,-12 0,-12 0,-10 0,-8 0,-9 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4722.99">3785 1164,'97'-2,"-45"0,0 2,81 10,-128-9,0-1,-1 1,1 1,0-1,-1 1,1 0,-1 0,1 0,-1 0,0 1,0 0,0 0,0 0,-1 0,1 1,-1-1,0 1,0 0,0 0,4 7,-5-6,-1 1,1-1,-1 0,0 0,0 1,-1-1,1 0,-1 1,-1-1,1 0,-1 1,1-1,-1 0,-1 0,1 0,-1 1,0-1,-4 7,3-7,-1 0,1 0,-1 0,1-1,-1 0,-1 1,1-1,-1-1,1 1,-1-1,0 0,0 0,-11 4,-29 21,43-27,0 1,1-1,-1 1,1-1,0 1,-1 0,1 0,0 0,0-1,0 1,0 0,0 0,1 0,-1 1,1-1,-1 0,1 0,0 0,-1 0,1 0,0 1,1-1,-1 0,0 0,1 0,-1 0,1 0,0 1,-1-1,3 3,3 6,0 0,1 0,1-1,11 13,1 2,-13-15,-1 0,-1 0,0 1,0 0,-1 0,0 0,-1 1,-1-1,1 1,-2 0,0-1,0 24,-1-30,-1-1,1 1,-1 0,0-1,0 1,-1 0,1-1,-1 1,0-1,0 0,0 0,-1 1,0-1,1-1,-1 1,-1 0,1-1,0 0,-1 1,0-1,0-1,0 1,0-1,0 1,0-1,-1 0,1-1,-1 1,1-1,-1 0,0 0,1 0,-8 0,-68-1,57-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6052.02">4525 0,'2'1,"1"-1,-1 1,1-1,-1 1,1 0,-1 0,1 0,-1 0,0 1,0-1,1 1,-1-1,0 1,0 0,-1-1,1 1,0 0,2 4,28 47,-20-32,32 56,-4 2,58 158,-79-176,-2 1,-3 1,-3 1,5 113,-20 268,0-413,-1-1,-2 0,-1-1,-1 1,-19 40,-8 27,29-79,-1-1,-1 0,-13 20,-8 18,23-39</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">330 429,'4'0,"7"0,10 0,7 0,8 0,1 0,5 0,0 0,-7-3,-1-3,-1 1,2 0,2-2,2-1,0-7,-3-1,-1 1,-8 5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="503.98">412 354,'0'5,"0"9,0 11,4 10,2 8,-1 10,6-1,-2 4,4 14,-1 4,-3-7,3-6,-1-8,-3-10,-12-8,-5-9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="929">1 1086,'13'5,"29"0,17 5,15 0,15-1,7-3,0-1,-7-4,-14 0,-14 0,-19-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1884.99">933 1111,'1'-2,"1"0,0 1,0-1,0 0,0 1,0-1,0 1,1-1,-1 1,0 1,1-1,0 0,0 0,-1 1,1-1,4 0,4-2,57-17,0 3,1 2,83-6,-149 20,0 0,0 1,0 0,0 0,0 0,0 0,-1 0,1 0,1 1,-1-1,0 1,-1 0,1 0,0 0,-1 0,1 0,0 1,4 2,-5-1,1 1,-1-2,0 2,0-1,0 1,0 0,-1 0,0-1,0 1,0 0,0 0,0 7,2 9,-1-1,-2 1,0 0,-1 1,-1-1,-1 0,0-1,-2 0,-1 1,0-2,-2 1,0-1,-16 24,15-28,0 0,-3-1,2 1,-3-2,1-1,0 1,-2-1,0 0,-1-2,1 0,-2-1,0 1,0-1,-1-2,1 0,-28 6,5-7,38-5,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0-1,1 1,-1 0,0-1,0 1,0-1,-1 1,2-1,-1 1,0 0,0 0,1-1,-1 0,0 1,1-1,-1 0,1 0,-1 1,1-1,-1 0,1 0,0 0,-1 0,1 0,0 0,-1-1,2 1,0-1,-1 0,1 1,0 0,0 0,0-1,0 1,0-1,0 1,0 0,1-1,0 1,-1 0,0 0,1 0,-1 0,1 0,-1 0,1 1,0-1,2-1,48-15,-38 13,30-9,0 2,1 1,0 2,0 2,2 2,68 1,-87 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2339.99">1753 1086,'5'0,"6"0,15 0,17 0,20 0,13 0,4 0,0 0,-2 0,-11 0,-11-4,-16-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2815.99">2575 531,'10'-4,"15"-7,15 1,14-5,11 2,5-1,8-3,1 0,0 5,-2 4,-17-1,-11 0,-12 3,-6-3,-8 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3274">3178 429,'0'18,"0"18,0 7,0 9,0 9,0 3,0 3,0 3,0-6,0-5,0-9,0-8,0-2,0-5,0-4,0-2,0-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3631.99">2931 1339,'14'0,"18"0,9 0,12 0,9 0,19 0,5 0,-9 0,-11 0,-14 0,-9 0,-9 0,-9 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4722.99">3918 1111,'100'-2,"-46"0,0 2,84 9,-133-8,0-1,-1 1,1 1,0-1,0 1,0 0,-1 0,1 0,-1 0,0 1,0 0,1-1,-1 1,-1 0,1 1,-1-1,0 1,0-1,0 1,5 7,-6-6,-1 0,1 0,-1 0,0 0,0 0,-1 0,1 0,-1 1,-1-2,1 1,-1 1,1-1,-1-1,-1 1,1 0,-1 1,0-2,-5 8,4-7,-1-1,1 1,-1 0,1-1,-1 0,-2 0,2 0,-1-1,1 1,-1-1,0 0,-1-1,-10 5,-31 20,45-26,0 1,1-1,-1 1,1-2,0 2,-1 0,1 0,0 0,0-1,0 1,0 0,0 0,1 0,-1 1,1-2,-1 1,1 0,0 0,-1 0,1 0,0 1,1-1,-1 0,0 0,1 0,-1-1,1 1,0 1,-1-1,3 3,3 5,0 1,2-1,0 0,12 12,0 2,-13-15,0 1,-2-1,0 2,0-1,-1 1,0-1,0 2,-2-2,1 2,-2-1,0 0,0 22,-1-28,-1-1,1 0,-1 1,0-1,0 1,-1 0,1-2,-1 2,-1-1,1 0,0 0,-1 0,0 0,1-1,-1 1,-1 0,1-1,0-1,-2 2,1-1,0-1,0 1,0-1,0 1,0-1,-2-1,2 0,-1 1,1-1,-1 0,0 0,0 0,-7 0,-71-1,59-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6052.02">4684 0,'2'1,"1"-1,-1 1,1-1,-1 1,1 0,-1 0,1 0,0 0,-1 1,0-1,1 0,-1 0,0 1,0 0,-1-1,1 1,0 0,2 4,29 44,-20-30,32 54,-3 1,59 151,-81-167,-2 0,-4 1,-3 1,6 108,-21 255,0-393,-1-1,-3-1,0 0,-1 0,-20 39,-9 26,31-76,-1-1,-1 0,-14 19,-8 18,24-38</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -14434,11 +14434,11 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">194 0,'-2'5,"1"0,-1 0,0-1,0 1,-1-1,0 1,1-1,-1 0,-5 5,-7 12,-9 24,2 1,2 0,2 2,2 0,3 0,-11 70,24-117,-12 123,11-107,1 1,1-1,0 0,1 0,5 20,-3-27,0-1,1 1,0 0,0-1,1 0,0-1,0 1,9 7,64 60,-63-62,-8-7,1 0,1 0,-1-1,1 0,0-1,0 0,0-1,1 0,0 0,-1-1,1-1,1 0,-1 0,0-1,0 0,1-1,-1 0,0-1,0-1,0 0,1 0,-2-1,1 0,14-7,3-2,-1-1,-1-2,-1 0,0-2,-1-1,0-1,-2-1,21-22,4-10,-2-2,59-92,-82 109,-2 0,-1 0,-1-2,-3 0,16-62,-19 38,-11 58,-2 8,-6 34,-38 138,27-119,-12 75,-15 117,16-101,-13 187,41-324,1 1,0-1,0 1,2 0,-1-1,1 0,0 1,1-1,5 11,-7-18,1 1,0-1,0 0,1 1,-1-1,1 0,0 0,0-1,0 1,0-1,0 1,0-1,1 0,-1 0,1 0,-1-1,1 1,0-1,0 0,0 0,0 0,-1 0,1-1,0 0,0 0,7 0,-9 0,1-1,-1 1,0 0,1-1,-1 1,0-1,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0-1,0 1,0-1,-1 0,1 1,-1-1,1 0,-1 0,2-2,13-26</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="833.46">1173 1058,'0'-5,"1"-1,0 0,0 0,0 1,1-1,0 0,0 1,1 0,-1-1,1 1,0 0,1 0,-1 1,1-1,0 1,0 0,9-8,-4 5,0 1,0-1,1 1,0 1,0 0,0 0,1 1,13-3,3 2,0 1,0 1,1 2,-1 0,1 2,27 5,-52-6,1 2,0-1,-1 0,1 1,-1-1,0 1,1 0,-1 0,0 1,0-1,0 0,-1 1,1 0,0 0,-1 0,0 0,0 0,0 0,0 1,0-1,-1 1,2 3,4 13,0-1,6 38,-10-42,22 125,12 49,-34-176,1-1,0 1,1-1,1 0,0-1,8 13,-13-21,1-1,-1 0,0 0,1 0,0 0,-1 0,1-1,0 1,0 0,0-1,0 1,0-1,0 0,1 0,-1 0,0 0,1 0,-1 0,0-1,1 1,-1-1,1 1,-1-1,1 0,-1 0,1 0,-1 0,1-1,-1 1,1-1,-1 0,0 1,1-1,-1 0,0 0,1 0,-1-1,4-2,24-23,-1-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1414.08">2046 555,'-2'18,"-1"0,-1-1,0 0,-1 0,0 0,-2 0,-10 18,-24 47,-3-2,-4-1,-66 80,-191 198,296-347,3-5,0 1,1 0,-1 0,1 0,0 1,1 0,0 0,0 0,0 0,1 1,-4 14,6-21,1 0,0-1,0 1,0-1,0 1,0-1,0 1,0 0,1-1,-1 1,0-1,0 1,0-1,1 1,-1-1,0 1,0-1,1 1,-1-1,0 1,1-1,-1 1,1-1,-1 0,1 1,-1-1,0 0,1 1,-1-1,1 0,0 0,-1 1,1-1,-1 0,1 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,2 0,32-10,44-32,14-16</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1938.08">2416 608,'4'0,"7"0,9 0,16 0,10 0,20 0,22 0,17 0,37 0,12 0,-16 0,-27 0,-32 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2792.36">2522 794,'4'0,"16"0,17 0,16 5,17 10,6 2,3-1,-3-3,-5-5,-1-3,-4-2,1-2,-7-1,-9-1,-13 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">201 0,'-2'5,"1"0,-1-1,0 0,0 1,-1-1,0 1,1-1,-2-1,-4 6,-7 11,-10 23,2 2,2-1,2 2,3 0,2 0,-11 67,25-112,-12 118,11-102,1 0,1-1,0 1,1-1,5 20,-2-27,-1 0,1 0,0 1,0-1,1-1,1 0,-1 1,10 6,65 58,-64-60,-9-6,2 0,0 0,-1-2,2 1,-1-1,1 0,-1-1,1-1,1 1,-2-1,2-1,0 0,-1 0,1-1,-1 0,2-1,-2 0,0-1,1-1,-1 0,2 0,-3-1,2 0,13-6,5-3,-2 0,-1-3,-2 1,1-2,-1-2,0 0,-2-1,22-22,3-8,-1-3,61-89,-85 106,-2-1,-2 1,0-3,-4 1,18-60,-21 36,-11 57,-2 7,-6 32,-40 133,28-114,-12 72,-15 112,16-97,-14 180,43-312,1 2,0-1,0 0,2 1,-1-2,1 1,0 0,1 0,6 10,-8-17,1 1,0-1,0 0,1 1,-1-2,1 1,0 0,0-1,1 1,-1-1,0 1,0-1,1 0,-1 0,1 0,-1-2,2 2,-1-1,0 0,0 0,0 0,-1 0,1-1,1 0,-1 0,7 0,-9 0,1-1,-1 1,0 0,2-1,-2 1,0-1,0 0,1 0,-1 0,0 0,0 1,0-1,0 0,0-1,0 1,1-1,-2 0,1 1,-1-1,1 0,-1 0,2-2,13-25</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="833.45">1217 1016,'0'-5,"1"-1,0 1,0-1,0 1,1-1,0 1,0 0,1 0,-1-1,2 1,-1 1,1-1,-1 1,1-1,0 1,0 1,10-9,-5 5,1 2,-1-2,1 1,1 1,-1 0,0 1,2 0,13-3,3 2,0 1,0 2,1 1,-1 0,1 2,28 4,-54-5,1 2,0-1,-1 0,2 1,-2-1,0 1,1 0,-1 0,0 1,0-1,0 0,0 0,0 1,0 0,-1 0,0 0,0 0,0 0,0 1,0-2,-1 2,2 3,5 12,-1-1,6 37,-10-40,23 119,13 48,-36-170,1 0,0 0,1 0,2-1,-1 0,8 12,-13-20,1-1,-1-1,1 1,0 0,0 0,-1 0,1-1,0 1,0 0,0-1,0 1,0-1,0 0,1 0,-1 0,1 0,0 0,-1 0,0-1,1 0,-1 0,1 1,-1-1,1 0,-1 0,1 0,0 0,0-1,-1 1,1 0,-1-1,0 1,1-1,-1 0,0 0,1 0,-1-1,5-2,24-22,-1-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1414.08">2123 533,'-2'17,"-2"1,0-2,0 0,-1 1,0-1,-2 0,-11 18,-25 45,-2-3,-5 0,-68 77,-199 190,308-334,3-4,-1 1,2 0,-1-1,1 1,0 1,0 0,1-1,0 1,0 0,1 1,-4 13,6-20,1 0,0-1,0 1,0-1,0 1,0-1,0 0,0 1,1-1,-1 1,0-1,0 1,0-1,1 1,-1-1,0 1,0-1,1 1,-1-1,0 1,1-1,-1 1,1-1,-1 0,1 1,-1-1,0 0,1 1,-1-1,1 0,0 0,-1 1,1-1,-1 0,1 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,2 0,33-10,46-30,15-16</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1938.08">2506 584,'5'0,"6"0,10 0,16 0,11 0,20 0,24 0,17 0,38 0,13 0,-17 0,-28 0,-33 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2792.36">2616 763,'5'0,"15"0,19 0,16 4,17 11,7 1,3-1,-3-2,-5-5,-2-4,-3-1,0-2,-6-1,-11-1,-12 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -14659,17 +14659,17 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">29 0,'-21'313,"14"-216,7 114,2-89,-1-91,2 0,1 0,2-1,18 58,-17-70,2-1,1-1,0 1,1-2,17 21,-16-21,-4-7,0 0,0 0,0-1,1 0,11 7,-12-10,0 2,0-1,-1 1,0 0,0 1,0 0,-1 0,10 15,-6-4,1 0,1 0,25 29,-31-40,1-1,0 0,0-1,1 0,-1 0,1 0,0-1,0 0,1-1,-1 0,17 4,47 2,-57-8,0 0,0 2,-1-1,27 9,-19-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1244">638 370,'4'0,"6"0,11 0,6 0,3-4,0-2,1 1,-2 0,0 2,-1 1,-6 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1792.02">744 344,'-5'0,"-1"5,0 5,1 11,2 14,6 16,2 8,0 2,4-4,0 2,-1-5,-2-3,-2-5,-2-1,-5-9,-12-10,-3-10</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2242">506 979,'8'0,"18"0,21 0,21 0,13 0,14 0,1 0,-3 0,-8 0,-14 0,-15 0,-16 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3177.02">1352 899,'552'1,"-547"-1,6 0,0 0,0 0,0 1,0 0,-1 1,1 0,0 1,-1 0,20 9,-29-12,0 1,-1-1,1 0,0 0,0 1,-1-1,1 1,-1-1,1 0,0 1,-1-1,1 1,-1-1,1 1,-1 0,1-1,-1 1,0-1,1 1,-1 0,0 0,1-1,-1 1,0 0,0-1,1 1,-1 0,0 0,0-1,0 1,0 0,0 0,0-1,0 1,-1 0,1 0,0-1,0 1,-1 0,1-1,-1 2,-1 0,-1 0,1 1,-1-2,0 1,0 0,0 0,0-1,0 0,-4 2,-27 8,0-1,-1-2,-53 6,-114 1,163-13,-61 0,57-3,1 3,-75 12,117-14,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0-1,16 5,26 0,40-4,-45-1,0 1,-1 2,1 1,59 14,-89-15,1 0,0 1,0 0,-1 0,1 1,-1 0,0 0,0 1,-1 0,1 0,-1 0,0 1,0 0,-1 0,0 0,0 1,0 0,-1 0,0 0,-1 1,1-1,-1 1,-1 0,1 0,-1 0,1 9,-2-9,0 1,0-1,0 1,-1-1,-1 1,1-1,-1 0,-1 1,0-1,0 0,0 0,-1 0,0 0,-5 8,4-10,-1 0,1 0,-2-1,1 1,0-1,-1 0,0-1,0 1,-1-1,1-1,-1 1,0-1,0 0,0 0,0-1,-8 2,-18 2,0 0,-1-2,1-2,-1-1,-67-7,96 6,1-1,0 0,-1 0,1 0,0 0,0-1,0 0,0 1,0-2,0 1,0 0,0-1,1 0,-6-5,-9-16</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3811">2490 687,'18'0,"15"0,10 0,8 0,-1 0,0 0,1 0,1 0,-9 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4429.99">3098 529,'0'-9,"4"-3,16 1,21-3,19 2,24-7,9 0,-9 3,-8 5,-13 4,-13 3,-10 2,-12 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4870">3601 396,'2'182,"-5"192,3-369,-1-1,1 0,-1 1,0-1,0 0,-1 1,1-1,-1 0,0 0,0 0,0 0,-1-1,1 1,-1 0,0-1,0 0,0 0,0 0,-1 0,1 0,-1-1,0 1,0-1,0 0,0 0,0 0,-8 2,-8 0,0 0,0-2,0 0,-39-2,31 0,-15 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5263">3575 1058,'13'0,"23"-4,9-7,2 0,-7 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6270">3866 899,'138'-2,"149"5,-285-3,0 0,0 0,1 0,-1 0,0 1,1-1,-1 1,0-1,0 1,0 0,0 0,1 0,-1 0,0 0,-1 0,1 1,0-1,0 1,0-1,-1 1,1 0,-1-1,1 1,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 1,1-1,-1 0,1 0,-1 1,0-1,0 0,0 1,0-1,0 0,0 1,-1-1,0 3,-1 3,-1 1,0 0,0-1,-1 0,0 0,0 0,-1 0,0-1,-11 13,0-6,-1 0,0-1,-2-1,1-1,-1 0,-26 9,2 2,34-13,18-4,34-2,-20-1,-15 1,1 0,-1 0,0 1,0 0,-1 1,1 0,-1 0,0 1,0-1,-1 2,0-1,0 1,0 0,-1 0,7 11,3 5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7212">4474 238,'5'1,"1"0,-1 0,1 1,-1-1,1 1,-1 0,0 1,0-1,0 1,0 0,0 0,0 1,-1-1,0 1,0 0,0 0,6 8,6 10,0 0,17 32,-24-38,14 28,-1 0,-2 2,-2 0,-2 1,-2 1,8 58,-11-33,-4 0,-4 0,-8 116,4-163,-2-1,-1 1,-1-1,-1-1,-1 1,-1-1,-1 0,-1-1,-2 0,-24 39,16-33,3-2,-2-1,-1-1,-28 28,41-47,0-1,-1 0,1 0,-16 7,18-10,-33 16</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">30 0,'-22'302,"15"-209,7 110,2-85,-1-88,2-1,1 1,3-1,17 56,-16-68,1 0,1-2,1 2,0-3,18 21,-16-21,-5-6,0-1,0 1,1-1,0 0,12 6,-13-9,0 2,1-1,-2 0,0 1,0 1,1 0,-2-1,10 16,-5-5,0 0,2 1,25 27,-32-38,1-2,1 1,-1-1,1 0,-1 0,2-1,-1 0,0 0,2-1,-2 0,18 4,48 1,-58-7,-1 0,1 2,-2-1,29 9,-20-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1244">661 356,'4'0,"6"0,12 0,6 0,3-3,0-3,1 1,-2 0,0 2,-1 1,-6 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1792.02">770 331,'-5'0,"-1"5,0 5,1 10,2 14,6 15,2 8,0 1,4-3,1 2,-2-5,-2-3,-2-4,-2-2,-5-8,-12-10,-4-10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2242">524 943,'8'0,"19"0,22 0,21 0,14 0,15 0,0 0,-3 0,-8 0,-14 0,-16 0,-17 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3177.02">1400 866,'572'1,"-567"-1,6 0,1 0,-1 0,1 1,-1 0,-1 1,2 0,-1 1,-1 0,22 8,-31-11,0 1,-1-1,1 0,0 0,0 1,-1-1,1 1,-1-1,1 0,0 1,-1-1,1 1,-1-1,1 1,-1 0,1-1,-1 1,0-1,1 1,-1 0,0 0,1-1,-1 1,0 0,0-1,1 1,-1 0,0 0,0-1,0 0,0 1,0 0,0-1,0 1,-1 0,1 0,0-1,0 1,-1 0,1-1,-1 2,-1 0,-1 0,1 1,-1-2,-1 1,1 0,0 0,0-1,0 0,-4 1,-28 9,-1-1,0-3,-55 7,-118 0,168-12,-62 0,58-3,2 3,-78 12,121-14,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,16 3,28 1,41-4,-47-1,0 1,-1 2,2 1,60 13,-92-14,2 0,-1 1,0 0,0 0,0 1,-1 0,0 0,1 0,-2 1,1 0,-1 0,0 1,1-1,-2 1,0 0,0 1,0-1,0 1,-1 0,-1 1,1-2,-1 2,-1 0,1-1,-1 1,1 9,-2-10,0 2,0-1,1 0,-2 0,-2 1,2-2,-1 1,-1 1,0-2,0 1,0 0,-1 0,0-1,-5 9,4-11,-2 1,2 0,-2-1,1 1,0-2,-2 1,1-1,0 1,-1-1,1-1,-2 1,1-2,0 1,0 0,-1-1,-7 2,-19 2,-1 0,0-3,1-1,-1-1,-70-6,100 5,1-1,0 0,-1 0,0 0,1 0,0-1,0 0,0 1,0-2,0 1,-1 0,1-1,1 0,-6-4,-10-16</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3811">2579 662,'18'0,"17"0,9 0,9 0,-1 0,-1 0,2 0,1 0,-9 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4429.99">3208 510,'0'-9,"5"-3,15 2,23-4,19 3,25-8,9 1,-9 3,-8 4,-14 4,-13 4,-11 1,-12 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4870">3729 381,'2'176,"-5"184,3-355,-1-1,1 0,-1 0,0 0,0 0,-1 1,1-1,-1 0,0-1,0 1,0 0,-1-1,1 1,-2 0,1-1,0 0,0-1,0 1,-1 0,1 0,-1-1,-1 1,1-1,0 0,0 0,0 0,-9 2,-7-1,-1 1,0-2,1 0,-41-2,32 0,-16 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5263">3702 1019,'14'0,"23"-4,10-6,1-1,-6 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6270">4004 866,'143'-2,"154"5,-295-3,0 0,0 0,1 0,-1 0,0 1,1-1,0 1,-1-1,0 1,0 0,0 0,1 0,-1 0,0 0,-1 0,1 1,0-1,0 0,0 0,-1 1,1 0,0-1,0 1,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 1,1-2,-1 1,1 0,-1 1,0-1,0 0,0 1,0-1,0 0,0 1,-1-1,0 2,-1 4,-1 1,0-1,-1 0,0 0,0 0,0-1,-1 1,0-1,-12 12,1-5,-2-1,0 0,-1-2,0 0,-1-1,-26 10,1 1,36-13,18-3,36-2,-21-1,-16 1,1 0,-1 0,1 1,-1-1,-1 2,2 0,-2 0,0 1,0-2,0 3,-1-1,0 1,0-1,-1 1,8 11,2 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7212">4633 229,'6'1,"0"0,-1 0,1 1,-1-1,2 1,-2 0,0 1,0-1,0 1,0-1,1 1,-1 1,-1-1,0 1,0 0,0 0,7 7,5 10,1 1,17 30,-25-37,15 27,-1 1,-2 1,-3 0,-1 2,-3 0,9 56,-11-32,-5 1,-4-1,-8 112,4-157,-2-1,-1 1,-2-1,0-1,-1 2,-1-2,-2 0,0-1,-3 0,-24 38,16-32,4-2,-3-1,-1-1,-28 27,42-45,-1-1,0-1,1 1,-17 7,19-10,-35 15</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -15013,7 +15013,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">1 54,'4'-4,"11"-2,16 1,12 0,8 2,8 1,26-4,7 0,7 0,8 1,4 2,2 1,-6 1,-11 1,-14 0,-15 0,-20 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="603.35">371 372,'13'0,"23"0,59 0,32 0,16 0,2 0,-6 0,-12 0,-15 0,-18 0,-19 0,-24 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="603.34">371 372,'13'0,"23"0,59 0,32 0,16 0,2 0,-6 0,-12 0,-15 0,-18 0,-19 0,-24 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -15244,7 +15244,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">166 53,'-6'1,"0"0,1 0,-1 0,1 1,-1 0,1 0,0 0,-1 0,1 1,1 0,-1 0,0 1,1-1,-1 1,1 0,0 0,0 0,1 1,-1-1,1 1,0 0,0 0,1 0,-4 10,-3 7,1 0,1 1,1-1,-5 40,4 12,3 0,9 116,-2-169,0 0,1 0,2-1,0 1,0-2,2 1,16 29,-2-10,2-2,44 54,-57-76,1-1,1 0,0-1,1-1,0 0,26 16,-16-16</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1302.11">457 238,'0'399,"50"-520,-42 106,1 1,0-1,1 1,0 1,1 0,1 1,0 0,1 0,0 1,1 1,0 0,0 1,17-7,9-3,0 3,2 1,78-18,-104 29,0 1,-1 1,1 0,30 0,-42 2,-1 1,1-1,0 1,0 0,0 0,0 0,-1 0,1 0,-1 1,1 0,-1 0,1 0,-1 0,0 0,0 1,0 0,0-1,-1 1,1 0,-1 0,0 0,1 1,-2-1,1 1,2 4,0 4,0 0,-1 1,-1-1,0 1,0 0,-1 0,-1 0,0 0,-3 21,1-24,1-1,-1 1,-1-1,0 0,0 0,-1 0,0 0,0 0,-1-1,0 0,-1 0,1 0,-12 11,1-7,0 0,-1 0,-1-2,1 0,-2-1,1-1,-1-1,0-1,-1 0,1-1,-1-1,-26 1,-26 0,1-4,-77-7,145 5,116 0,-76-1,1 1,-1 2,1 1,43 9,-59-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1302.1">457 238,'0'399,"50"-520,-42 106,1 1,0-1,1 1,0 1,1 0,1 1,0 0,1 0,0 1,1 1,0 0,0 1,17-7,9-3,0 3,2 1,78-18,-104 29,0 1,-1 1,1 0,30 0,-42 2,-1 1,1-1,0 1,0 0,0 0,0 0,-1 0,1 0,-1 1,1 0,-1 0,1 0,-1 0,0 0,0 1,0 0,0-1,-1 1,1 0,-1 0,0 0,1 1,-2-1,1 1,2 4,0 4,0 0,-1 1,-1-1,0 1,0 0,-1 0,-1 0,0 0,-3 21,1-24,1-1,-1 1,-1-1,0 0,0 0,-1 0,0 0,0 0,-1-1,0 0,-1 0,1 0,-12 11,1-7,0 0,-1 0,-1-2,1 0,-2-1,1-1,-1-1,0-1,-1 0,1-1,-1-1,-26 1,-26 0,1-4,-77-7,145 5,116 0,-76-1,1 1,-1 2,1 1,43 9,-59-5</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1846.12">1066 0,'8'0,"0"0,0 1,1 0,-1 0,0 1,0 0,0 0,0 1,-1 0,1 0,-1 1,0 0,0 0,0 1,6 5,-4-2,-1 1,-1 0,0 0,0 1,0 0,-2 0,1 0,-1 1,-1 0,4 12,14 51,-3 1,-3 1,9 123,-16 234,-10-398</inkml:trace>
 </inkml:ink>
 </file>
@@ -15302,12 +15302,12 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">260 0,'0'1,"1"0,0-1,0 1,0 0,-1 0,1-1,0 1,0 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 2,3 28,-4-12,-1 0,-1 0,0 0,-1 0,-2 0,-8 21,-53 110,55-124,-10 17,-2-1,-2-1,-35 43,56-79,-16 28,20-32,1-1,0 1,-1 0,1 0,0-1,0 1,-1 0,1 0,0 0,0-1,0 1,0 0,0 0,0 0,1-1,-1 1,0 0,0 0,0 0,1-1,-1 1,0 0,1 0,-1-1,1 1,-1 0,1-1,-1 1,1-1,-1 1,1-1,0 1,-1-1,1 1,0-1,-1 1,1-1,0 0,0 1,-1-1,2 0,21 6,0-2,0-1,-1-1,1-1,46-4,31 3,-54 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1500">1133 212,'-1'15,"-1"-1,0 0,-1-1,0 1,-1 0,0-1,-1 0,-9 17,-65 102,38-68,16-24,-35 64,55-94,1 0,0 1,0-1,1 1,1-1,-1 1,2 0,-1 15,2-22,1-1,-1 0,1 0,0 0,0 0,1 0,-1 0,0 0,1-1,0 1,-1 0,1-1,0 1,1-1,-1 0,0 1,1-1,-1 0,1-1,-1 1,1 0,0-1,0 1,0-1,0 0,0 0,0 0,0-1,5 2,12 1,-1 0,0-1,29-1,-44-1,55 1,-17 2,1-3,-1-2,0-1,0-2,53-14,-88 17,1-1,-1 0,0 0,0 0,-1-1,1 0,-1 0,0-1,0 0,0 0,0 0,-1-1,0 0,0 0,-1 0,0-1,0 1,3-9,-2 3,-2 0,1 0,-2 0,1 0,-2 0,0-1,0 1,-1 0,-1-1,-3-18,1 15,0 1,-2 0,0 1,0-1,-2 1,0 0,0 0,-1 1,-1 0,0 0,-1 1,0 1,-1-1,0 2,-14-11,7 7,-1 0,-1 1,0 2,-1 0,0 1,0 0,-1 2,-1 1,-31-6,31 9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2003.99">1979 106,'0'14,"4"9,7 13,0 15,0 3,1 1,0 1,-4-1,-1 4,-4 1,-1 4,-1-5,-1-3,-1-6,1-13</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2360.99">2165 609,'8'0,"18"0,21 0,21 0,22 0,13 0,-2 0,-9 0,-15 0,-18 0,-17 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2851.99">2958 133,'0'32,"0"23,0 12,-5 17,-1 2,-4 6,-1 0,-2-6,0-10,3-3,3-10,3-11,2-10,1-12</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4048">3249 265,'1'167,"-3"190,2-335,-1-1,0 0,-2 1,-1-1,0 0,-9 23,7-34,2-13,2-20,8-12,1 0,1 1,2 0,17-40,-11 29,82-201,-79 206,1 0,3 2,51-68,-72 103,1 0,-1 0,1 0,0 0,0 0,0 1,0 0,1-1,-1 1,1 0,-1 0,1 1,0-1,-1 1,1 0,0 0,5-1,-5 3,0-1,0 1,0-1,0 1,0 0,-1 1,1-1,0 1,-1 0,1-1,-1 2,0-1,0 0,0 1,0-1,0 1,3 3,5 7,0 0,0 0,-2 1,1 1,-2-1,8 18,31 98,-12-32,-35-96,0 0,1-1,-1 1,1 0,-1-1,1 1,0-1,0 1,0-1,0 1,0-1,0 1,0-1,0 0,0 0,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 0,1 0,0-1,-1 1,1-1,-1 1,1-1,0 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0-1,-1 1,1 0,0-1,-1 0,3 0,4-4,0-1,0 1,-1-2,1 1,-1-1,10-12,42-54,67-112,1-1,-121 178,1 1,-1-1,1 1,0 0,1 0,11-7,-18 13,1 0,-1 0,1 1,0-1,-1 0,1 0,0 1,-1-1,1 1,0-1,0 1,0 0,-1 0,1 0,0 0,0 0,0 0,-1 0,1 1,0-1,0 1,-1-1,1 1,0 0,-1-1,1 1,0 0,-1 0,0 0,1 0,-1 1,1-1,-1 0,0 0,0 1,0-1,0 1,0-1,0 1,1 3,6 14,-1 0,0 1,-2 0,-1 0,0 0,-1 1,0 31,2 9,35 187,-5-37,-27-153</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">270 0,'0'1,"1"0,0-1,0 1,0 0,-1 0,1-1,0 1,0 0,-1 0,1 0,-1 0,1 0,-1 0,1-1,-1 1,0 0,0 0,1 0,-1 0,0 0,0 0,0 2,3 27,-4-12,-1 0,-1 1,0-1,-1 0,-2 0,-9 21,-54 105,56-119,-10 16,-2-1,-2 0,-36 41,58-77,-17 28,21-31,1-1,0 1,-1 0,1 0,0-1,0 1,-1 0,1 0,0 0,0-1,0 1,0 0,0 0,0 0,1-1,-1 1,0 0,0-1,0 1,1-1,-1 1,0 0,1 0,-1-1,1 1,-1 0,1-1,-1 1,1-1,-1 1,1-1,0 1,-1-1,1 1,0-1,-1 1,1-1,0 0,0 1,-1-1,3 0,20 6,1-2,0-2,-1 0,1-1,47-4,33 3,-56 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1500">1176 204,'-1'14,"-1"-1,-1 1,0-2,0 2,-1-1,0 0,-1-1,-10 17,-67 98,40-66,16-22,-37 61,58-91,1 1,0 0,0 0,1 1,1-2,-1 2,1-1,0 15,2-21,1-1,-1 0,1 0,1 0,-1 0,1-1,-1 1,0 0,1-1,0 1,-1 0,1-1,0 1,1-1,-1 0,0 0,1 0,0 0,0-1,-1 1,1 0,0-1,0 1,0-1,0 0,0 0,0 0,1-1,4 2,13 1,-2 0,1-2,30 0,-46-1,57 1,-17 2,0-3,0-2,0-1,-1-1,56-15,-92 17,1 0,0-1,-1 0,0 0,-1-1,2 0,-2 0,0 0,0-1,1 0,-1 0,-1-1,0 1,0-1,-1 0,1-1,-1 2,3-10,-2 4,-2-1,1 1,-1-1,0 1,-2-1,0 0,0 0,-1 1,-1-2,-3-17,0 15,1 1,-2-1,0 2,0-2,-2 2,-1-1,1 1,-1 0,-2 1,1-1,-1 2,-1 0,0 0,-1 1,-13-10,6 7,-1-1,-1 2,1 1,-2 1,0 0,0 0,-1 3,0 0,-33-6,32 10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2003.99">2053 102,'0'13,"5"9,6 13,0 14,1 3,0 1,1 0,-5 0,-1 4,-4 1,-1 3,0-4,-2-4,-2-4,2-14</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2360.99">2246 585,'9'0,"18"0,21 0,23 0,22 0,14 0,-2 0,-9 0,-17 0,-17 0,-19 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2851.99">3069 128,'0'30,"0"23,0 12,-5 15,-1 3,-5 5,0 1,-2-7,-1-9,4-3,2-9,4-11,2-10,1-11</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4048">3371 255,'1'160,"-3"183,2-322,-1-1,0 0,-2 1,-1 0,0-1,-10 22,8-32,2-13,2-19,8-12,1 0,2 2,1-1,18-38,-11 28,84-193,-81 197,1 1,3 1,52-65,-74 100,2-1,-2 0,1 0,0 0,0 0,0 1,0 0,1-1,-1 1,2 1,-2-1,1 1,0-1,-1 1,1 0,0 0,6-1,-6 3,0-1,0 1,0-1,0 1,1 0,-2 1,1-1,0 1,-1 0,1-2,-1 3,1-1,-1 0,0 1,0-1,0 1,3 3,6 6,-1 1,0-1,-1 2,0 0,-2-1,9 18,32 94,-13-31,-36-92,0 0,1-1,-1 1,1 0,-1-1,1 1,0-1,0 1,0-1,0 0,0 0,0 1,1-1,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 0,1 0,0-1,-1 1,1-1,-1 1,1-1,0 0,1 0,-2 0,1 0,0 0,-1 0,1 0,0 0,0-1,-1 1,1 0,0-1,-1 0,3 0,5-4,-1-1,0 2,0-3,0 1,-1-1,11-11,43-52,70-108,0 0,-124 170,0 1,-1 0,1 0,1 0,0 0,12-6,-19 12,1 0,-1 0,1 1,0-1,-1 0,1 0,0 1,-1-1,1 1,0-1,0 1,1 0,-2 0,1 0,0 0,0 0,0 0,-1 0,1 1,0-1,0 1,-1-1,1 1,0 0,-1-1,1 1,1 0,-2 0,0 0,1 0,-1 1,1-1,-1 0,0 0,0 1,0-1,0 1,0-2,0 2,1 3,6 13,0 1,-1 0,-2 0,-1 0,0 1,0 0,-1 30,2 8,36 180,-4-35,-29-147</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -15419,17 +15419,17 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 688,'2'2,"0"0,0 0,0 0,-1 1,1-1,0 0,-1 1,0-1,1 1,-1-1,0 1,0 0,0 0,-1-1,1 1,0 4,1 0,13 33,3 0,1-2,2 0,38 51,23 42,-77-120,0 0,-1 1,0 0,0 0,-2 0,1 1,-1-1,0 14,-5 106,0-56,18 157,-5-134,-10-86,2-1,0 0,1 1,6 18,-9-29,0 0,1-1,0 1,-1 0,1-1,0 1,0-1,-1 1,1-1,1 1,-1-1,0 1,0-1,0 0,1 0,-1 0,0 0,1 0,-1 0,1 0,0 0,-1 0,1-1,0 1,-1-1,1 1,0-1,0 0,-1 1,1-1,0 0,0 0,-1 0,1-1,0 1,0 0,-1-1,1 1,0-1,0 1,2-3,1 0,-1 0,1-1,-1 0,0 0,0 0,0-1,0 1,-1-1,0 0,0 0,0 0,0 0,-1 0,2-7,24-86,-22 76,66-264,-58 239,1 1,2 1,33-60,-15 29,-12 26,-1-2,16-64,-22 60,39-92,-41 118</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2330.57">715 1826,'0'186,"-2"-260,0 34,1-1,3 0,6-40,-7 77,0-1,1 0,-1 0,1 1,0-1,1 1,-1 0,1-1,-1 1,1 0,1 0,-1 1,0-1,1 1,0 0,0 0,0 0,0 0,0 0,0 1,1 0,-1 0,9-2,1 0,1 1,-1 1,1 0,-1 1,1 0,25 3,-36-2,-1 0,1 1,-1 0,1-1,-1 1,1 1,-1-1,1 0,-1 1,0 0,0 0,0 0,0 0,0 0,0 0,0 1,-1 0,1-1,1 4,0 0,-2-1,1 0,0 1,-1 0,0-1,0 1,-1 0,0 0,0 0,1 12,-2-9,0 0,-1 0,1-1,-2 1,1 0,-1-1,0 1,-1-1,0 1,0-1,-1 0,0 0,-1-1,0 1,0-1,-7 8,5-10,-1 0,1 0,-1 0,0-1,-1 0,1-1,-1 0,0 0,1-1,-1 0,0 0,-1-1,1-1,-14 0,157 55,-101-45</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2829.1">1191 1800,'4'0,"7"0,0 5,0 10,-3 7,-3 4,-2 7,-2 7,0 1,-1-2,-1-3,1-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3328.61">1747 1059,'9'0,"7"0,10 0,10 0,8 0,14 0,10 0,26 0,15 0,2 0,-13 0,-24 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3828.61">1853 1297,'0'9,"4"3,11 0,21-3,8-2,15-3,16-2,35-1,12-1,-5-1,-13 1,-21-1,-19 1,-17 0,-15-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4391.62">2990 688,'9'0,"7"0,20 0,21 0,32-4,28-6,13-2,10 1,1 4,-12 1,-9 3,-11 2,-16 0,-18 1,-23 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4793.61">3864 609,'0'97,"2"9,-21 175,14-234,1 50,1-7,1-78,0 0,-1-1,-1 0,0 1,0-1,-1-1,-1 1,0-1,0 0,-1 0,0 0,0-1,-1 0,-15 12,-16 15</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5310.63">3467 1588,'4'-4,"6"-2,16-5,15-8,16-2,24 3,3 4,-4 5,-10 4,-5 3,-3 1,0 2,0 0,-7-1,-9 1,-11 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5767.61">4737 1403,'0'5,"0"14,0 18,0 16,0 22,0 7,0-7,0-10,0-13,0-10,0-8,0-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7469.62">5477 0,'1'12,"1"-1,0 0,1-1,1 1,-1 0,7 11,1 4,0 8,-1 1,-2 0,-1 0,3 62,-10 149,-3-104,2-102,-3 0,-1-1,-2 0,-2 0,-1 0,-20 46,-10 10,-62 107,87-175,-7 16,-2-2,-49 63,73-103,-1 0,1 0,-1 0,0 0,0 0,1 0,-1-1,0 1,0 0,0 0,0-1,0 1,0-1,0 1,0-1,0 1,0-1,0 1,-1-1,1 0,0 0,0 0,-2 0,2 0,1-1,-1 1,0-1,0 0,0 1,1-1,-1 0,0 0,1 0,-1 0,1 1,-1-1,1 0,-1 0,1 0,-1 0,1 0,0 0,0 0,-1-2,-2-64,3 61,2-45,3 0,2 0,25-91,64-141,-81 242,20-52,81-156,-102 225,1 0,1 0,1 2,0 0,2 1,1 1,0 0,2 2,0 0,1 2,25-14,-30 22,1 0,0 2,0 0,0 1,1 1,0 1,32-2,143 10,-158-3,-19-1,1 1,-1 1,0 0,0 1,0 1,25 11,-36-13,0 0,-1 1,0 0,0 0,0 0,0 0,0 1,-1 0,0 0,0 1,-1 0,1-1,-1 2,0-1,-1 0,1 1,-1-1,-1 1,3 9,0 9,-2 0,0 1,-2-1,-1 0,0 1,-9 47,6-64,0 0,0-1,-1 1,0-1,0 1,-1-1,0-1,0 1,-1-1,0 0,0 0,-1 0,0-1,0 0,0-1,-1 1,0-1,-11 5,-16 7,-1-1,-71 20,100-34,-109 35,27-7,-1-4,-117 18,163-43,36-1,1-1,-1 1,1 1,-1 0,1 0,0 0,-9 3,15-4,1 1,-1-1,0 1,0-1,1 1,-1-1,0 1,1-1,-1 1,0 0,1-1,-1 1,1 0,-1-1,1 1,0 0,-1 0,1 0,0-1,-1 1,1 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,1-1,-1 1,0 0,0 0,1 0,-1-1,1 1,-1 0,1 0,-1-1,1 2,29 33,-28-33,65 58,3-2,79 50,14 11,211 189,-346-283</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7829.61">6827 1350,'0'5,"0"10,0 16,-5 12,-1 25,-4 24,-1 14,-2 3,0-8,-2-8,2-15,3-8,-1-11,1-15</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 656,'2'2,"0"0,0 0,0-1,-1 2,1-1,0 0,0 1,-1-1,1 1,-1-1,0 0,0 1,0 0,-1-1,1 1,0 4,1-1,13 32,4 1,1-3,2 0,39 49,24 40,-80-115,0 1,-1 0,1 1,-1-1,-2 0,1 2,-1-2,0 14,-5 101,0-54,18 150,-4-127,-11-83,2 0,0-1,1 1,6 18,-9-28,0 0,1-1,0 1,-1 0,2-1,-1 0,0 0,-1 1,1-1,1 1,-1-1,0 1,0-1,0 0,1 0,-1 0,0 0,1 0,-1 0,1 0,0 0,-1 0,1-1,0 1,-1-1,2 0,-1 0,0 0,-1 1,1-1,0 0,0 0,-1 0,1-1,0 1,0 0,-1 0,1 0,0-1,0 1,3-3,0 0,-1 0,1-1,-1 0,0 1,1-1,-1-1,0 1,-1-1,0 1,0-1,0 0,0 0,0 1,1-8,25-81,-23 72,69-252,-61 228,2 1,1 2,35-59,-15 29,-14 24,0-1,17-62,-24 58,41-88,-42 112</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2330.57">742 1741,'0'177,"-2"-248,0 33,0-1,5 0,5-38,-7 73,0-1,1 0,-1 1,1 0,0-1,1 1,-1 0,1 0,0 0,0 0,1 0,-1 1,0 0,1 0,0 0,0 0,1 0,-1 0,0 0,0 2,1-1,-1 0,10-2,0 0,2 1,-1 1,0 0,0 1,0 1,27 1,-38-1,-1 0,1 1,-1 0,1-1,-1 1,2 1,-2-1,1 0,-1 1,0 0,0 0,0 0,0 0,1 0,-1-1,0 2,-1 0,1-1,1 4,0 0,-2-2,1 1,1 1,-2-1,0 0,0 1,-1 0,0-1,0 1,1 11,-2-8,0-1,-1 1,1-1,-2 0,1 1,-1-2,0 2,-1-1,-1 0,1 0,-1-1,0 1,-1-1,0 0,-1 0,-6 7,5-9,-2 0,2 0,-1-1,0 0,-2 0,2-1,-1 0,-1 0,2-1,-1-1,-1 1,0-1,1-1,-15 0,163 53,-105-44</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2829.1">1235 1716,'5'0,"6"0,0 5,1 9,-4 7,-3 4,-2 6,-2 7,1 1,-2-2,-2-2,2-9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3328.61">1812 1009,'10'0,"6"0,11 0,10 0,9 0,14 0,11 0,26 0,16 0,3 0,-15 0,-24 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3828.61">1922 1236,'0'9,"4"2,12 1,21-4,9-1,15-3,17-2,36-1,13-1,-6-1,-13 1,-22-1,-20 1,-17 0,-16-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4391.62">3102 656,'9'0,"8"0,20 0,22 0,33-4,30-6,13-1,10 1,1 3,-12 1,-10 3,-11 2,-16 0,-19 1,-24 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4793.61">4008 580,'0'93,"2"8,-21 167,13-223,2 47,1-6,1-75,0 1,-1-2,-1 1,0 0,-1 0,0-2,-1 2,0-2,0 1,-2-1,1 1,0-2,-1 1,-16 11,-17 14</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5310.63">3596 1514,'5'-4,"5"-2,17-4,15-8,18-2,24 2,3 5,-4 4,-11 5,-4 2,-4 1,0 2,1 0,-8-1,-9 1,-12 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5767.61">4914 1337,'0'5,"0"13,0 17,0 16,0 20,0 8,0-8,0-9,0-12,0-10,0-8,0-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7469.62">5682 0,'1'11,"1"0,0-1,1 0,1 0,-1 1,7 10,2 4,-1 7,0 1,-3 1,-1-1,4 60,-11 141,-4-99,3-96,-3-1,-1-1,-2 0,-2 0,-2 0,-20 44,-10 10,-65 102,90-168,-7 16,-2-2,-50 60,75-98,-1 0,1 0,-1 0,0 0,0 0,1 0,-1-1,-1 1,1 0,0 0,0-1,0 1,0-1,0 1,0-1,0 1,0-1,0 1,-1-1,1 0,0 0,0 0,-2 0,2 0,1-1,-1 1,0-1,0 0,0 1,1-1,-1 0,0 0,1 0,-1 0,1 1,-2-1,2 0,-1 0,1 0,-1 0,1 0,0 1,0-1,-1-2,-2-61,3 58,2-42,4-1,1 0,26-86,67-135,-85 231,21-50,85-148,-107 214,2 0,0 0,2 3,0-1,1 1,2 0,0 1,2 2,0 0,0 2,27-14,-31 22,1-1,-1 2,1 1,0 0,0 1,1 1,33-2,148 10,-163-3,-21-1,2 1,-1 1,0 0,-1 0,1 2,26 10,-38-12,0 0,-1 1,0 0,1 0,-1-1,0 1,0 1,0 0,-1-1,0 2,-1 0,1-1,-1 1,1 0,-2 0,1 0,-1 0,-1 1,3 8,0 9,-2 0,1 1,-3-2,-1 1,0 1,-10 45,7-62,0 1,0-2,-1 2,0-1,0 0,-2 0,1-2,0 2,-1-1,0-1,-1 1,0 0,0-2,0 1,-1-1,0 1,0-2,-12 6,-16 6,-2-1,-73 20,104-33,-113 33,27-6,0-5,-122 18,170-41,36-1,2-1,-1 1,1 1,-2 0,2 0,0 0,-10 3,16-4,1 1,-1-1,0 1,0-1,1 1,-1-1,0 1,1-1,-1 1,0 0,1-1,-1 1,1 0,-1-1,1 0,0 1,-1 0,1 0,0-1,-1 1,1 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,1-1,-1 1,0 0,0 0,1 0,-1-1,1 1,-1-1,1 1,-1-1,1 2,30 32,-29-32,68 55,2-2,83 48,14 10,219 181,-359-270</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7829.61">7082 1287,'0'5,"0"9,0 15,-5 12,-1 24,-5 23,0 13,-3 3,1-8,-3-7,3-15,2-7,0-11,1-14</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -15456,11 +15456,11 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 468,'7'1,"1"-1,-1 1,1 0,-1 1,1-1,-1 2,0-1,1 1,-1 0,-1 0,1 1,8 5,-5 0,1-1,-2 1,0 0,0 1,0 0,10 18,3 11,-1 0,-2 2,16 52,-27-71,33 107,33 183,-46-181,-28-131,19 67,-18-64,1 1,0 0,0-1,0 1,0-1,0 0,1 0,-1 0,1 0,0 0,0 0,0-1,0 1,5 2,-7-5,0 1,0-1,0 1,1-1,-1 0,0 0,0 1,1-1,-1 0,0 0,1 0,-1 0,0-1,0 1,1 0,-1 0,0-1,0 1,1-1,-1 1,0-1,0 1,0-1,0 0,0 0,0 0,1-1,25-31,-22 24,27-39,-3-2,25-60,40-119,-41 96,86-225,35-83,-150 390,-4 15</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1094.99">1165 1182,'-1'7,"0"-1,-1 0,0 0,0-1,0 1,0 0,-1 0,0-1,-4 6,-11 25,-78 280,69-218,9-30,13-40,-2-1,-1 1,-1-1,-2-1,0 0,-20 32,31-58,-1 1,1-1,0 1,0-1,-1 1,1-1,0 1,-1-1,1 0,0 1,-1-1,1 0,-1 1,1-1,-1 0,1 1,-1-1,1 0,-1 0,1 1,-1-1,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,-7-15,2-30,6 42,-2-44,1 0,3 0,2 1,2-1,2 1,2 0,2 1,2 0,2 1,2 0,2 2,31-51,-47 85,86-127,-78 120,0 0,1 1,1 0,0 1,1 1,20-14,-32 23,1 1,-1 1,1-1,-1 0,1 1,-1-1,1 1,0 0,0 1,-1-1,1 1,0-1,0 1,0 0,0 0,0 1,-1-1,1 1,0 0,0 0,-1 0,1 1,0-1,-1 1,1 0,-1 0,0 0,0 0,0 0,0 1,0 0,0-1,-1 1,1 0,-1 0,0 1,3 4,3 6,0 0,-1 1,0 0,-1 0,-1 1,-1-1,5 29,-2 3,-2 1,-3 0,-1-1,-6 49,2-82,1 0,-2-1,0 1,0-1,-1 0,-1 0,0-1,-1 0,0 0,-1 0,0-1,-1-1,0 1,-1-1,-18 14,8-9,0 0,-1-2,-1 0,0-2,0 0,-1-2,-45 13,60-20,-25 8,30-3,20-1,116 19,-70-16,-2 4,1 2,92 36,-141-45,0 1,-1 0,0 1,21 17,-14-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2179">1774 1844,'11'-10,"1"0,0 1,0 0,1 1,0 0,27-10,-4 3,56-13,-61 20,48-5,-71 12,0 0,1 1,-1 0,0 0,0 1,0 0,0 0,0 1,-1 0,1 1,12 5,-16-5,0 0,0 0,-1 1,1-1,-1 1,0 0,0 0,0 0,-1 0,0 1,1-1,-1 1,-1 0,1-1,-1 1,0 0,0 0,0 5,2 15,-1 0,-2 32,0-36,0 1,0 1,-2-1,0 1,-2-1,-7 28,9-45,0 1,0-1,-1 0,1 0,-1 0,0 0,-1 0,1-1,-1 1,0-1,0 0,0 0,-1 0,1-1,-1 0,0 0,0 0,0 0,0-1,-1 0,1 0,-1 0,1 0,-1-1,-11 1,-88 4,104-6,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 1,1-1,0 0,-1 0,1 0,0 1,0-1,-1 0,1 0,0 1,0-1,-1 0,1 0,0 1,0-1,0 0,0 1,-1-1,1 0,0 1,0-1,0 0,0 1,10 10,23 8,145 58,35 16,-201-86,-3-2,1 0,0 0,0-1,11 4,-18-8,-1 1,1-1,-1 1,1-1,0 0,-1 0,1 0,0 0,-1 0,1-1,0 1,-1-1,1 0,-1 1,1-1,-1 0,0-1,1 1,-1 0,0-1,0 1,3-3,25-36,-1-10</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2600.99">2885 944,'4'-4,"7"-2,27 0,13 1,6 2,-2 1,-6 1,-6 0,-7 1,-4 0,-4 1,-6-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3028.99">2938 1394,'36'5,"34"1,19 4,8 1,-9-2,-9 2,-14-1,-19-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 448,'7'1,"2"-1,-2 1,1 0,0 1,0-1,0 2,-1-1,1 1,0-1,-2 1,1 1,9 5,-6-1,2 0,-3 1,1-1,-1 2,1-1,10 18,3 10,-1 1,-2 1,16 50,-27-68,34 103,34 174,-47-172,-30-126,20 64,-19-61,1 1,0-1,0 0,0 1,0-1,0 0,1 0,0 0,0 0,0-1,0 1,0-1,0 1,6 2,-8-5,0 1,0-1,0 1,1-1,-1 0,0 0,0 1,1-1,-1 0,0 0,1 0,-1 0,1-1,-1 1,1 0,-1 0,0-1,0 1,1-1,-1 1,0-1,0 1,0-1,0 0,0 0,0 0,1-1,27-29,-24 22,28-37,-2-2,26-57,41-114,-42 91,89-214,38-81,-158 374,-4 15</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1094.99">1222 1132,'-1'6,"0"0,-1 0,-1 0,1-2,0 2,0 0,-1 0,0-2,-4 7,-12 23,-82 269,73-209,9-29,14-38,-3-1,0 0,-2 0,-1-1,-1 0,-20 31,32-56,-1 0,1 0,0 1,0-1,-1 1,1-1,0 1,-1-1,1 0,0 1,-1-1,1 0,-1 1,1-1,-2 0,2 1,-1-1,1 0,-1 0,1 1,-1-1,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,-7-14,1-29,7 40,-2-42,1 0,3 0,3 1,1-1,2 1,3 0,1 1,3 0,2 0,2 1,2 2,32-49,-49 81,91-121,-83 115,1-1,0 2,2 0,0 0,1 2,20-14,-33 22,2 1,-2 1,1-1,-1 0,1 1,-1-1,2 1,-1 0,0 1,-1-1,1 1,1 0,-1 0,0 0,0 0,0 0,0 0,0 1,0 0,0 0,-1 0,1 1,1-1,-2 1,1 0,-1 0,0 0,0 0,1 0,-1 1,0-1,0 0,-1 1,1 0,-1 0,0 1,4 3,2 7,0-1,0 2,-1-1,-1 0,0 2,-2-2,5 28,-1 3,-3 1,-3 0,-1-1,-6 47,2-79,1 1,-3-2,1 2,0-2,-1 1,-2-1,1-1,-1 1,-1-1,0 1,0-2,-2 0,1 1,-2-2,-18 14,8-9,0 1,-1-3,-1 1,0-3,0 1,-1-3,-48 13,64-19,-27 8,32-3,21-2,121 19,-72-15,-3 3,1 3,96 34,-147-44,-1 2,0 0,0 0,21 17,-14-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2179">1860 1765,'12'-9,"1"-1,-1 2,1-1,0 1,1 1,28-10,-4 2,58-12,-63 20,50-6,-75 12,0 0,2 1,-2 0,1 0,-1 1,0 0,1 0,-1 1,-1 0,2 1,12 5,-17-6,0 1,0 0,0 1,0-1,-1 1,0 0,0-1,0 1,-1 0,1 1,0-1,-1 0,-1 1,1-1,-1 1,0 0,0-1,0 6,2 14,-1 0,-2 30,0-33,0 0,0 1,-2-1,0 1,-2-1,-8 27,10-44,0 2,0-1,-1 0,1 0,-1-1,0 1,-2 0,2-1,-1 1,0-2,0 1,-1 0,0 0,1-1,-1 0,0-1,-1 1,1 0,0-1,-1 0,0 0,0 0,1 0,-2-1,-10 1,-94 3,110-5,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 1,1-1,0 0,-1 0,1 0,0 1,0-1,-1 0,1 0,0 1,0-1,-1 0,1 0,0 1,0-1,0 0,0 1,-1-1,1 0,0 1,0-1,0 0,0 1,10 10,25 7,152 56,36 15,-210-83,-4-1,2 0,-1 0,1-2,11 5,-19-8,-1 1,1-1,-1 1,1-1,0 0,0 0,0 0,0 0,-1 0,1-1,0 1,-1-1,1 0,0 1,0-1,-1 0,0-1,1 1,-1 0,0 0,0 0,4-3,25-35,-1-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2600.99">3026 904,'4'-4,"7"-2,29 1,14 0,5 2,-1 1,-6 1,-7 0,-8 1,-3 0,-5 1,-6-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3028.99">3081 1335,'38'4,"35"2,21 4,7 0,-8-1,-10 1,-15 0,-20-2</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -15487,19 +15487,19 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">189 106,'-2'11,"0"-1,-1 0,1 0,-2 0,0-1,0 1,-8 13,-3 7,-1 8,1 0,1 0,3 2,1-1,2 1,-5 78,8-42,-16 76,-5 76,25-208,1 0,1 0,0 0,6 28,-5-41,0 0,1 0,0 0,0-1,0 1,1-1,0 0,0 0,1 0,-1-1,1 0,1 0,-1 0,1 0,11 7,4 0,0-2,1 0,24 8,-19-8,44 22,-63-26,0-1,-1 1,0 0,-1 1,1 0,-1 0,0 0,-1 1,0 0,0 0,-1 0,0 0,0 1,-1 0,3 10,4 19,-2 0,5 50,-11-74,8 75,-3 1,-4 0,-14 141,10-222,0 0,-1 0,0-1,0 1,-1-1,0 1,0-1,-1 0,-5 8,6-13,1 0,-1 0,0 0,0 0,-1-1,1 1,0-1,-1 0,0 0,1 0,-1 0,0-1,0 1,0-1,0 0,0 0,0-1,0 1,0-1,-1 0,-4 0,-31-2,0-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1035.02">533 582,'434'6,"-8"30,-334-21,86 9,-157-23</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1981.99">1115 661,'4'5,"2"6,0 9,-1 16,-2 10,-1 7,-1 2,0-2,-1-7,0-6,-1-5,1 0,0-2,-5-1,-6-2,0-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2823.99">877 1296,'9'0,"7"0,10 0,6 0,5 0,11 0,1 0,-3 0,0 0,-4 0,-4 0,-4 0,-4 0,-6 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3847.99">1777 1323,'0'9,"0"8,0 5,0 3,0 2,0 1,0 0,0 0,0 0,0-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4723.99">2226 1164,'4'0,"7"0,5 0,5 0,12 0,14 0,8 0,8 0,3 0,-2 0,-2 0,-2 0,-8 0,-8 0,-11 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5232.99">3047 741,'4'0,"6"0,6 0,5 0,3 0,2 0,10-9,13-3,20-4,7 1,5 3,-3 3,-14 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5640.99">3338 767,'0'9,"0"21,0 15,0 12,0 2,-5 4,-1 0,0-5,1-9,2-9,1-5,1-5,0 2,1-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6290.99">3073 1455,'4'-4,"6"-2,7 0,8 1,5 2,2 1,0 1,3 0,1 1,2 0,1-4,1-1,-1-1,-3 2,-2-8,-8-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7179.99">3682 1190,'3'-2,"1"-1,0 0,0 1,0 0,0-1,0 2,1-1,-1 0,1 1,-1 0,1 0,7 0,61-2,-52 3,-17 0,1 0,-1 0,0 0,0 1,1 0,-1-1,0 1,0 1,0-1,0 1,7 3,-9-3,1 0,-1 0,0 0,0 0,0 1,0-1,-1 1,1-1,-1 1,0 0,1 0,-1-1,0 1,-1 0,1 0,0 0,-1 0,1 4,2 17,-1 0,-1 0,-2 1,0-1,-1 1,-10 41,10-58,0-1,0 1,-1-1,1 1,-2-1,1 0,-1 0,-1 0,1-1,-1 1,0-1,0 0,-1-1,0 1,0-1,0 0,0 0,-1-1,0 0,0 0,0-1,-1 0,1 0,-12 2,-24 4,-172 30,184-39,21-2,19-1,44-5,1 3,96 4,-65 2,-29-2,-17-1,-1 2,1 2,53 9,-68-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8174.99">4052 238,'11'1,"1"-1,-1 1,1 1,-1 0,0 1,1 0,-1 1,-1 0,1 1,-1 0,13 8,-9-4,-1 1,-1 1,1 0,-2 1,1 0,-2 0,11 17,0 6,-2 0,-1 1,-2 1,-1 1,15 64,-3 11,-6 2,-4 1,-5 0,-6 181,-6-287,-1 1,0-1,-1 0,0 1,-1-1,0 0,0 0,-1 0,-7 12,1-7,-1 0,0 0,-1-1,-19 18,-10 14,32-34,-1-1,0-1,0 1,-1-2,-24 17,19-17</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9709.99">5613 0,'-5'17,"1"0,-3 29,1-4,-32 196,-12 408,50-633,0-1,-1 1,0-1,-1 1,-5 19,5-28,1 0,-1-1,0 1,0-1,0 0,0 1,0-1,-1 0,1 0,-1-1,0 1,0 0,0-1,0 0,-1 0,1 0,-1 0,1 0,-1-1,1 1,-8 0,1 2,-1-2,0 0,-1 0,1-1,0 0,0-1,0 0,-1-1,1 0,0-1,-17-4,25 4,0 0,1 0,0 0,-1-1,1 1,0 0,0-1,0 1,1-1,-1 0,1 0,-1 0,1 0,0 0,0 0,0 0,1 0,-2-4,-3-63,5 58,-1-10,0 0,2-1,0 1,2 0,0 0,2 0,0 1,12-30,-3 20,1 0,1 2,1 0,2 1,1 0,1 2,43-41,-51 59,-1 0,2 1,-1 1,1 0,0 0,0 2,0 0,19-3,18-6,4-4,135-36,-160 46,0 2,0 1,1 2,42 1,-70 1,1 0,0 1,0-1,-1 1,1 0,-1 0,1 0,0 1,-1-1,0 1,1 0,-1-1,0 2,0-1,0 0,0 1,-1-1,1 1,-1 0,1 0,-1 0,0 0,0 0,0 0,-1 1,1-1,-1 1,2 5,1 8,-2 0,0 0,0 0,-2 0,-1 19,0-9,1-4,-1 20,-6 55,4-83,0 0,0 0,-2 0,1-1,-2 0,0 0,-13 21,1-10,-1 0,-2-1,0-1,-1-1,-2-2,-41 30,27-24,-2-1,0-2,-84 33,116-53,-1 0,1-1,0 0,-1 0,0-1,1 0,-1 0,-17-2,24 1,-1 0,1-1,-1 0,1 1,0-1,-1 0,1 0,0 0,0-1,0 1,0 0,0-1,0 0,0 1,0-1,1 0,-1 0,1 0,-1 0,1 0,0 0,0 0,0 0,0-1,0 1,0 0,1-1,-1 1,1-1,-1 1,1-1,0 1,0-1,1-3,-1 2,1 1,-1 0,1 0,0-1,0 1,0 0,0 0,1 0,0 0,-1 0,1 1,0-1,0 0,0 1,1 0,-1-1,0 1,1 0,0 0,-1 0,1 0,0 1,0-1,0 1,0 0,0 0,1 0,-1 0,0 0,6 0,8-2,1 1,-1 1,1 0,24 3,-30 0,0 0,0 1,0 1,-1 0,1 0,-1 1,0 1,-1 0,19 13,-16-10,0-1,1 0,0-1,0 0,16 4,-8-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10828.99">6486 1137,'44'-10,"-7"0,-6 7,55 0,-74 3,0 1,0 0,-1 1,1 1,-1 0,1 0,20 10,-30-12,1 0,-1 1,1 0,-1-1,0 1,1 0,-1 1,0-1,0 0,0 0,-1 1,1-1,-1 1,1 0,-1-1,0 1,0 0,0 0,0 0,0-1,-1 1,0 0,1 0,-1 0,0 0,-1 6,1-5,-1 1,0-1,-1 0,1 1,-1-1,1 0,-1 0,0 0,-1 0,1 0,-1 0,0-1,0 1,0-1,0 0,-6 5,-14 6,0 0,0-2,-1-1,0 0,-1-2,-42 10,-161 19,200-34,-55 6,-106 17,182-24,9-1,20 0,37 0,73-5,122 5,-245 0,0 0,-1 1,1 0,-1 0,0 1,12 6,17 8,3-1,-21-9,0 0,0-1,1-2,34 7,135-2,-9-1,-93-1,-51-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">198 102,'-2'11,"0"-2,-2 1,2 0,-2-1,0 0,0 1,-9 12,-2 7,-2 7,1 1,1-1,4 3,0-1,3 0,-6 76,9-41,-17 73,-5 74,26-201,1 1,1-1,0 0,6 27,-4-39,-1 0,1 0,0-1,0 0,0 1,1-1,1-1,-1 1,1 0,-1-1,1 0,2-1,-2 1,1 0,12 7,4-1,0-1,1-1,25 9,-20-9,47 22,-67-25,0-1,0 1,-1-1,-1 2,2 0,-2 0,0-1,-1 2,1 0,-1 0,-1-1,0 1,0 1,0-1,2 11,4 17,-1 1,4 48,-11-72,9 73,-4 1,-4-1,-14 137,10-215,0 1,-1 0,0-1,-1 0,0 0,0 1,0-2,-1 1,-6 7,7-12,1 0,-1 0,0 0,0 0,-1-1,0 1,1-1,-1 0,0-1,1 1,-1 0,-1-1,1 1,0-1,0 0,0 0,0-1,-1 1,1-1,-1 0,-4 0,-33-2,0-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1035.02">558 561,'454'5,"-8"30,-350-20,91 8,-166-22</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1981.99">1167 637,'4'5,"2"5,1 9,-2 16,-2 9,-1 8,-1 1,0-2,-1-7,0-6,-1-4,1 0,0-2,-5-1,-7-3,1-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2823.99">918 1249,'9'0,"8"0,10 0,7 0,4 0,13 0,0 0,-3 0,0 0,-4 0,-4 0,-4 0,-5 0,-6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3847.99">1860 1275,'0'8,"0"9,0 4,0 3,0 2,0 1,0 0,0 0,0 0,0-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4723.99">2330 1121,'4'0,"7"0,6 0,5 0,13 0,14 0,8 0,9 0,4 0,-4 0,-1 0,-2 0,-8 0,-9 0,-12 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5232.99">3189 714,'4'0,"7"0,5 0,6 0,4 0,1 0,10-9,15-2,20-5,8 2,4 2,-2 4,-15 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5640.99">3494 739,'0'9,"0"19,0 16,0 11,0 2,-6 3,0 1,0-5,1-9,1-8,2-6,1-4,0 2,1-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6290.99">3216 1402,'4'-4,"7"-2,7 0,8 2,5 1,3 1,-1 1,4 0,1 1,1 0,2-4,1-1,-1-1,-3 2,-3-7,-8-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7179.99">3854 1146,'3'-1,"1"-2,0 0,0 1,1 0,-1-1,0 2,1-1,-1 0,2 1,-2 0,1 0,8 0,63-2,-54 3,-18 0,1 0,0 0,-1 0,0 1,1 0,-1-1,1 1,-1 1,0-1,0 1,8 3,-10-3,1 0,-1 0,0 0,0 0,0 0,0 0,-1 1,1-1,-1 1,1 0,0 0,-1-1,0 1,-1 0,1-1,0 1,-1 0,1 4,2 16,-1 0,-1 0,-2 1,0 0,-1 0,-11 39,11-55,0-1,0 0,-1 0,1 1,-2-1,1-1,-2 1,0 0,1-1,-1 0,-1 0,1 0,-1-1,0 1,-1-2,1 1,0 0,-1-1,-1 0,1 0,0-2,-2 1,2 0,-13 2,-25 4,-180 28,192-37,23-2,19-1,47-4,0 2,101 4,-68 2,-30-2,-18-1,-1 2,0 2,57 9,-72-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8174.99">4241 229,'11'1,"2"-1,-1 1,0 1,0 0,-1 1,2 0,-2 1,0 0,0 0,0 1,13 8,-10-5,0 2,-1 1,0-1,-1 2,0-1,-1 1,11 16,0 6,-2-1,-2 2,-1 1,-1 0,15 62,-3 11,-6 2,-4 1,-5 0,-7 174,-6-277,-1 2,0-1,-1-1,0 2,-1-1,0-1,-1 1,0-1,-7 13,0-8,0 0,-1 1,0-2,-21 18,-10 14,34-34,-2 0,1-2,-1 2,0-2,-26 16,21-17</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9709.99">5875 0,'-5'16,"0"1,-2 27,1-3,-34 188,-12 393,52-609,0-2,-1 2,0-2,-2 2,-4 18,5-27,1-1,-1 0,0 1,0-1,0 0,-1 1,1-1,-1 0,1-1,-1 0,0 1,0 0,0-1,-1 0,0 0,1 0,-1 0,1 0,-1-1,0 1,-7 0,1 1,-2-1,0 0,0 0,0-1,1 0,-1-1,1 0,-2-1,2 0,-1-1,-17-4,26 5,0-1,1 0,0 0,-2-1,2 1,0 0,0-1,0 1,1-1,-1 0,1 1,-1-1,1 0,0 0,0 0,0 0,1 0,-3-4,-2-60,5 55,-1-9,0 0,2-1,0 1,2 0,0-1,3 1,-1 1,13-29,-4 19,2 0,1 2,1 0,2 1,0 0,2 2,45-39,-53 56,-1 0,1 1,0 2,0-1,1 0,0 2,-1 0,21-2,18-7,5-3,141-35,-168 44,1 2,-1 1,1 2,45 1,-74 1,1 0,0 1,1-1,-2 1,1 0,-1 0,1 0,0 1,0-1,-1 1,1 0,-1-1,0 2,0-1,0 0,1 1,-2-2,1 2,-1 0,1 0,-1 0,0 0,0 0,0 0,-1 1,2-2,-2 2,2 5,1 7,-2 1,0-1,0 0,-2 1,-1 18,0-9,1-4,-1 19,-6 54,4-81,-1 0,1 1,-2-1,1 0,-2-1,-1 1,-13 20,2-10,-2 0,-2-1,0-1,-1-1,-2-2,-43 30,28-24,-2-1,0-2,-88 32,122-51,-2 0,2-1,0-1,-2 1,1-1,1 0,-2 0,-17-2,25 1,-1 0,1-1,-2 0,2 1,0-1,-1 0,1 1,0-1,0-1,0 1,0 0,0-1,-1 0,1 1,0-1,1 0,-1 0,1 0,-1 0,1 0,0 0,0 0,0 1,0-2,0 1,0 0,1-1,-1 1,1-1,-1 1,1-1,0 1,0-1,1-2,-1 1,1 1,-1 0,1 0,0-1,0 1,0 1,0-1,1 0,0 0,-1 0,1 1,0-1,0 0,1 1,0 0,-1 0,0 0,1 0,0 0,-1 0,1 0,0 1,1-1,-1 1,0 0,0 0,1 0,-1 0,1 0,5 0,9-2,1 1,-2 1,2 1,25 1,-31 1,-1 0,1 1,-1 1,0 0,0 0,0 1,-1 0,0 1,19 12,-16-9,0-1,0 0,1-2,-1 1,18 4,-9-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10828.99">6788 1095,'47'-9,"-9"-1,-5 7,57 0,-78 3,1 1,-1 0,0 1,0 1,0 0,1 0,20 9,-31-11,1 0,-1 1,1 0,0-1,-1 1,1 0,-1 1,0-1,0 0,0 0,-1 1,1-2,-1 2,1 0,-1-1,1 1,-1 0,0 0,0 0,0-1,-1 1,0-1,1 1,-1 0,0 0,-1 6,1-5,-1 0,0 0,-1 0,0 1,0-1,1 0,-1 0,0-1,-1 1,1 0,-1 0,0-1,0 1,-1-1,1-1,-6 6,-15 6,0-1,0-1,-2-2,1 1,-1-2,-44 9,-169 19,210-34,-58 7,-111 16,191-23,9-1,21 0,39 0,76-5,128 5,-257 0,1 0,-2 0,2 1,-2 0,0 1,13 6,18 7,3-1,-22-8,0 0,0-1,0-3,37 8,141-2,-10-2,-97 0,-53-6</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -15556,7 +15556,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">1 721,'17'0,"1"0,0 2,0 0,30 7,-39-6,0 0,-1 1,0 0,0 0,0 1,0 0,-1 0,0 1,0 0,0 1,8 9,15 25,-2 2,-1 0,-2 2,34 90,38 66,-96-200,4 8,0 0,1-1,0 1,14 12,-19-19,0-1,1 0,-1 1,0-1,1 0,-1 0,1 0,0 0,-1 0,1-1,0 1,0 0,-1-1,1 1,0-1,0 0,0 1,0-1,0 0,-1 0,1 0,0-1,0 1,0 0,0-1,0 1,-1-1,1 0,0 1,-1-1,1 0,0 0,-1 0,1 0,2-3,3-3,0-1,0 0,-1-1,0 0,0 0,8-18,24-72,2-41,42-277,-45 197,-25 159,49-231,-43 229</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1237.89">980 1065,'2'192,"-15"304,8-458,5-38,0 0,0 0,0 0,0-1,0 1,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,-3-17,-1-29,4-574,0 611,1-16,0 0,1 0,2 0,7-27,-10 46,1 1,-1 0,1 0,0 1,1-1,-1 0,1 1,0-1,0 1,0 0,1 0,-1 0,1 0,0 1,0 0,0-1,1 1,-1 1,1-1,0 1,0 0,-1 0,1 0,1 0,8-1,-5 2,1 0,0 0,-1 1,1 0,-1 1,1 0,-1 0,1 1,-1 0,0 1,15 6,-19-6,0 0,0 0,-1 0,0 1,1 0,-1 0,0 0,-1 0,1 0,-1 1,0 0,0-1,0 1,-1 1,1-1,-1 0,0 0,-1 1,0-1,1 1,-1 6,4 25,-3 1,-1-1,-5 54,3-72,-2-1,0 0,-1 0,-1 0,-1-1,0 1,-1-1,-19 31,19-40,0 0,0-1,-1 1,0-1,0-1,-1 0,0 0,0-1,0 0,-1 0,-16 5,16-6,8-3,1-1,-1 1,0 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,0 1,0-1,-1 1,1-1,0 1,0-1,0 1,1-1,-1 1,0 0,1 0,-1-1,1 1,-1 0,1 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,1-1,-1 1,1 0,-1 0,1-1,0 1,0 0,-1-1,3 4,4 6,1 1,0-1,1 0,14 14,-18-20,93 89,-54-59</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1237.88">980 1065,'2'192,"-15"304,8-458,5-38,0 0,0 0,0 0,0-1,0 1,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,-3-17,-1-29,4-574,0 611,1-16,0 0,1 0,2 0,7-27,-10 46,1 1,-1 0,1 0,0 1,1-1,-1 0,1 1,0-1,0 1,0 0,1 0,-1 0,1 0,0 1,0 0,0-1,1 1,-1 1,1-1,0 1,0 0,-1 0,1 0,1 0,8-1,-5 2,1 0,0 0,-1 1,1 0,-1 1,1 0,-1 0,1 1,-1 0,0 1,15 6,-19-6,0 0,0 0,-1 0,0 1,1 0,-1 0,0 0,-1 0,1 0,-1 1,0 0,0-1,0 1,-1 1,1-1,-1 0,0 0,-1 1,0-1,1 1,-1 6,4 25,-3 1,-1-1,-5 54,3-72,-2-1,0 0,-1 0,-1 0,-1-1,0 1,-1-1,-19 31,19-40,0 0,0-1,-1 1,0-1,0-1,-1 0,0 0,0-1,0 0,-1 0,-16 5,16-6,8-3,1-1,-1 1,0 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,0 1,0-1,-1 1,1-1,0 1,0-1,0 1,1-1,-1 1,0 0,1 0,-1-1,1 1,-1 0,1 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,1-1,-1 1,1 0,-1 0,1-1,0 1,0 0,-1-1,3 4,4 6,1 1,0-1,1 0,14 14,-18-20,93 89,-54-59</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -15641,11 +15641,11 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 189,'1'1,"0"-1,1 0,-1 1,0-1,1 1,-1 0,0-1,0 1,0 0,1-1,-1 1,0 0,0 0,0 0,0 0,0 0,-1 1,1-1,0 0,0 0,-1 0,2 3,12 35,-12-30,16 58,-3 1,-3 1,5 108,-13 200,-5-244,1-204,3 1,4-1,21-100,-19 135,2 0,1 0,2 1,1 1,1 1,3 0,0 1,32-40,-15 30,2 1,1 2,2 1,2 3,1 1,1 2,2 3,1 1,2 3,89-34,-134 58,5-3,1 1,0 0,0 1,0 0,15 0,-24 2,1 0,-1 0,1 0,0 1,-1-1,1 1,-1 0,1-1,-1 1,0 1,1-1,-1 0,0 0,0 1,0-1,0 1,0 0,0 0,0 0,0 0,-1 0,1 0,-1 0,1 0,-1 1,0-1,0 0,1 4,4 17,-1 0,-1 0,-1 1,-1-1,-1 1,-4 34,2-7,2-10,-3-1,-1 0,-2 0,-1-1,-19 62,20-86,-1-1,0 0,-1 0,0-1,-1 0,-1 0,0-1,0 0,-1 0,-1-1,0-1,0 1,-1-2,-1 0,0 0,0-1,-25 11,-4-2,-49 13,75-25,0-2,0 0,0 0,-1-2,1 0,-26-2,37 0,-1-1,0 1,1-1,-1 0,1-1,0 1,-1-1,1 0,1-1,-1 1,0-1,-5-6,-4-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1844">1139 1168,'1'152,"-3"163,-2-273,-1-34,0-22,-1-28,4 18,-3-20,2-1,2 0,2 0,13-86,-12 124,0 0,0 0,1 0,0 0,0 0,1 1,0 0,0 0,1 0,-1 0,1 1,0-1,7-4,-3 3,1 0,-1 1,2 0,-1 1,1 0,-1 1,19-5,-1 3,-1 1,1 1,-1 2,1 0,0 2,31 4,-56-4,0 1,0 0,0-1,0 1,0 0,0 0,0 1,0-1,0 0,-1 1,1 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,0 1,-1-1,1 1,0 0,-1-1,1 1,-1 0,0 0,0 0,0 0,0 0,-1 0,1 0,-1 0,0 0,0 5,0 0,0 0,0 1,-1-1,-1 0,1 0,-1 0,0 0,-1 0,0 0,0-1,-8 13,-3-2,0 0,-2-2,0 0,0-1,-1 0,-36 22,18-16,-1 0,-70 27,85-41,0-1,-33 5,40-9,7 4,15 2,21 9,-25-16,165 80,-137-63</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2848">1509 1564,'8'-5,"0"-1,1 1,0 0,0 1,1 0,-1 0,11-1,-3-1,15-4,1 2,1 1,0 1,0 2,0 1,0 2,41 4,-72-3,0 0,0 0,0 1,0-1,-1 1,1-1,0 1,0 0,0 0,-1 0,1 1,0-1,-1 1,0-1,1 1,-1 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,-1 1,0 0,1-1,-1 1,0 0,0-1,0 1,-1 0,1 0,-1 0,1 0,-1 0,0 0,0 0,0 0,-1 0,0 3,0 2,-1-1,-1 1,1-1,-1 1,0-1,-1 0,0 0,0 0,0 0,-1-1,0 0,0 0,-12 10,3-7,-16 12,30-20,-1-1,1 0,-1 1,1-1,0 1,-1-1,1 1,0 0,-1-1,1 1,0-1,0 1,0 0,0-1,-1 1,1-1,0 1,0 0,0-1,0 1,0-1,0 1,1 0,-1-1,0 1,0 0,0-1,1 1,-1-1,0 1,0-1,1 1,-1-1,1 1,-1-1,0 1,1-1,-1 1,1-1,-1 0,1 1,-1-1,1 0,-1 1,1-1,0 0,22 15,3 1,-2 1,45 39,-62-49,-1 0,0 0,0 1,0 0,-1 0,0 0,-1 1,1-1,-2 1,1 0,-2 1,1-1,2 15,-2 16,-2 0,-1 0,-7 47,6-83,0 1,0-1,0 0,-1 0,0 1,0-1,0 0,-1 0,1-1,-1 1,0 0,0-1,0 0,-1 0,1 0,-1 0,1 0,-1-1,0 1,0-1,0 0,0 0,-1-1,1 1,0-1,-6 1,0 0,1 0,0 0,-1-1,0 0,1-1,-1 0,1-1,-1 0,1 0,-1-1,-15-5,22 6,1-1,-1 1,1-1,-1 1,1-1,0 0,0 0,0 0,0 0,0 0,0 0,1-1,-1 1,1-1,0 1,-1-1,0-3,-10-49,11 50,-4-43</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3448">2382 718,'4'0,"11"0,8 0,8 0,8 0,11 0,6 0,7 0,19 0,11 0,-8 0,-17 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4063">2462 1009,'0'5,"4"1,11-1,12 4,14 1,5-2,4-3,2-1,24-2,13-1,-1-1,-5 0,-13 0,-9-1,-11 1,-13 4,-13 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 180,'1'1,"0"-1,1 0,-1 1,0-1,1 1,-1 0,1-1,-1 1,0 0,1-1,-1 1,0 0,0 0,0 0,0 0,0 0,-1 1,1-1,0 0,0 0,-1 0,2 2,13 35,-13-30,17 56,-3 1,-4 1,6 103,-13 190,-6-232,1-195,3 2,4-2,22-95,-19 128,2 1,0 0,3 0,1 2,0 0,4 1,0 0,34-37,-16 28,2 1,1 1,2 2,2 3,2 0,0 3,2 2,2 1,1 4,95-34,-142 56,5-3,2 2,0-1,-1 1,1 0,15 0,-25 2,1 0,-1 0,2 0,-1 1,-1-1,1 1,-1 0,1-1,-1 1,0 1,2-1,-2 0,0 0,0 0,0 0,0 1,0 0,0 0,0 0,1 0,-2 0,1 0,-1 0,1 0,-1 0,0 0,0 0,1 4,4 16,0 0,-2 0,-1 1,-1-1,-1 1,-4 32,2-6,2-10,-3-1,-1 0,-2 0,-2-1,-19 60,21-83,-2-1,1 1,-1-1,-1 0,0-1,-2 0,1 0,0-1,-2 1,-1-2,1 0,-1 0,0-1,-2-1,0 1,1-1,-27 10,-4-2,-52 13,79-25,0-1,0 0,0 0,0-2,0 0,-27-2,38 0,0-1,0 1,0-1,0 0,1-1,0 1,-2 0,2-1,1-1,-1 1,-1-1,-4-5,-5-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1844">1198 1114,'1'145,"-3"156,-2-261,-1-32,-1-22,0-26,4 17,-3-19,1-1,3 0,2 0,14-81,-13 117,0 0,1 0,0 1,0-1,0 0,1 2,0-1,1 0,0 1,-1-1,1 1,1-1,6-3,-2 2,0 0,0 2,1-1,0 1,0 0,0 2,19-6,0 3,-2 2,2 0,-2 2,2 0,-1 2,33 4,-59-4,0 1,0 0,1-1,-1 1,0 0,0-1,0 2,0-1,1 0,-2 1,1 0,-1 0,1 0,-1 0,0 0,1 0,0 0,-1 0,-1 0,1 1,0 0,-1-1,1 1,-1 0,0 0,0-1,0 1,0 0,-1 0,1 0,-1 0,0 0,0 4,0 1,0-1,0 2,-1-1,-1-1,1 1,-1 0,0-1,-1 1,0 0,0-2,-9 13,-3-2,0 1,-1-3,-1 0,0-1,-1 1,-38 20,20-15,-2 0,-74 26,90-39,0-2,-35 6,42-9,8 3,16 3,21 8,-26-15,174 77,-144-61</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2848">1587 1492,'9'-5,"-1"0,2 0,-1 0,1 1,0 0,-1 1,13-2,-5-1,17-3,1 1,1 1,-1 2,1 1,0 1,0 2,43 4,-76-3,0 0,0 0,0 1,0-1,-1 1,2-1,-1 1,0 0,0 0,-1 0,1 0,0 0,0 1,-1-1,1 1,-1 0,0 0,0 0,0 0,0 0,0 1,1-2,-1 1,-1 1,0 0,1-1,-1 1,0 0,0-1,0 1,-1-1,1 1,-1 0,1 0,-1 0,0 0,0 0,0-1,-1 1,0 3,0 2,-1-2,-1 2,1-1,-2 0,1 0,-1 0,0-1,0 1,-1 0,0-2,0 1,0 0,-13 9,3-6,-16 11,31-19,-2-1,2 0,-1 1,1-1,0 1,-1-1,1 1,0-1,-1 0,1 1,0-1,0 1,0 0,0-1,-1 1,1-1,0 1,0 0,0-1,0 1,0-1,0 1,1 0,-1-1,0 1,0 0,0-1,1 1,-1-1,0 1,0-1,1 1,-1-1,1 1,-1-1,0 1,2-1,-2 1,1-1,-1 0,1 1,-1-1,1 0,-1 1,1-1,0 0,23 14,3 1,-1 1,46 38,-64-48,-2 1,0 0,0 0,1 1,-2 0,0-1,0 2,0-1,-2 0,1 1,-2 0,1 0,3 14,-3 15,-2 0,-1 0,-8 45,7-79,0 1,0-1,0-1,-1 1,0 1,0-1,0 0,-1 0,1-2,-2 2,1 0,0-1,0 0,-1 0,1-1,-2 1,2 0,-1-1,0 1,0-1,-1 0,1 0,-1-1,1 1,0-1,-7 0,1 1,0 0,1 0,-2-1,1 0,0-1,0 0,0-1,0 0,0 0,0-1,-17-4,24 5,1-1,-1 1,1-1,-1 1,0-1,1 0,0 0,0 0,0 0,0 0,0 1,1-2,-1 1,1-1,0 1,-1-1,-1-3,-9-46,11 47,-5-41</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3448">2506 685,'4'0,"12"0,8 0,8 0,9 0,12 0,6 0,7 0,20 0,12 0,-8 0,-19 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4063">2590 963,'0'4,"4"2,12-1,12 4,15 0,6-1,3-4,3 0,25-2,14-1,-2-1,-5 0,-13 0,-10-1,-11 1,-14 4,-14 2</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -15672,13 +15672,13 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 17,'17'71,"66"437,-72-445,29 90,-35-136,1 1,1-2,1 1,0-1,1 0,1-1,0 0,1-1,1 0,14 14,-24-26,0 0,0-1,0 1,0 0,0-1,0 1,0-1,0 0,0 0,1 0,-1 0,0 0,1 0,-1-1,1 1,-1-1,1 1,-1-1,1 0,0 0,-1 0,5-1,-5-1,0 1,1-1,-1 1,0-1,0 0,0 0,0 0,0 0,0 0,-1 0,1-1,-1 1,1 0,-1-1,0 1,0-1,1-3,3-15,0 0,-1-1,-1 0,0-23,-2 36,64-440,-12 129,-45 253</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1262">636 1022,'-2'77,"4"80,4-144,3-18,7-21,17-39,75-132,-94 176,1 0,0 2,2 0,0 0,1 2,38-29,-49 41,1 0,0 1,-1 0,1 1,0-1,1 2,-1-1,0 1,1 0,14 0,-20 1,-1 1,1 0,0 1,0-1,0 0,-1 1,1 0,0-1,-1 1,1 0,0 0,-1 1,1-1,-1 0,0 1,1 0,-1-1,0 1,0 0,0 0,0 0,-1 1,1-1,0 0,-1 1,0-1,1 1,-1-1,0 1,0-1,-1 1,1 0,0 0,-1-1,1 6,-1 4,0 1,-1 0,0-1,-1 1,0-1,-1 0,0 1,-1-1,-9 19,-4 4,-41 64,53-91,0 0,-1-1,0 0,0-1,-1 1,0-1,0 0,0-1,0 1,-1-2,0 1,0-1,-1 0,1-1,-15 4,21-6,0-1,0 1,0-1,0 1,1-1,-1 1,0 0,0 0,1 0,-1 0,0 0,1 1,-1-1,1 0,-1 1,1-1,-2 3,3-3,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 1,0-1,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,1 1,5 7,1-1,1 0,-1-1,19 12,-8-4,3 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2335">1244 1234,'27'-1,"1"-2,28-6,-39 5,0 0,1 2,-1 0,0 1,1 1,-1 0,31 5,-47-5,1 1,0-1,-1 0,1 1,-1-1,1 1,-1-1,1 1,-1 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 1,0-1,-1 0,2 3,-2-3,1 1,-1 0,0-1,-1 1,1 0,0-1,0 1,-1 0,1-1,-1 1,1-1,-1 1,0-1,0 1,1-1,-1 1,-2 1,-6 7,0 0,0-1,-1 0,-12 8,15-12,7-4,-1-1,0 1,1-1,-1 1,1 0,-1-1,1 1,0 0,-1 0,1-1,0 1,-1 0,1 0,0 0,0-1,0 1,0 0,0 0,-1 0,2-1,-1 1,0 0,0 0,0 0,0 0,0-1,1 1,-1 0,0 0,1-1,-1 1,0 0,1 0,-1-1,1 1,-1-1,1 1,0 0,-1-1,1 1,0-1,-1 1,1-1,0 0,-1 1,1-1,1 1,43 23,-39-21,5 2,2 1,0 0,0 1,-1 0,0 0,21 19,-30-22,0-1,0 0,-1 1,1 0,-1 0,0 0,0 0,0 0,-1 0,0 0,1 0,-1 1,-1-1,1 0,-1 1,1-1,-1 1,-1-1,1 1,0-1,-1 0,0 1,-3 6,2-4,0 0,0-1,-1 1,0-1,0 1,-1-1,0 0,0-1,0 1,-1-1,0 1,0-1,0-1,-1 1,1-1,-1 0,0 0,0 0,-1-1,-10 4,0-2,0 0,0-2,-1 0,1 0,-1-2,0 0,-17-2,9 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5063">2011 70,'141'0,"381"16,-415-9,22 2,-101-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5702.99">2382 202,'4'0,"11"0,3 9,-3 12,7 16,-2 15,-3 8,-5 3,-5-5,-3 1,-2-1,-2-5,-1-7,0-3,0-4,1 1,-1-3,1-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6235">2355 943,'4'0,"16"0,8 0,9 0,2 0,4 0,-1 0,1 0,-2 0,1 0,-2 0,-4 0,-3 0,-7 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7330">3123 784,'25'0,"-7"-1,0 1,0 1,-1 1,36 7,-48-8,-1 1,1 0,-1 0,1 0,-1 0,0 1,0-1,0 1,0 0,0 0,-1 1,0-1,1 1,-1 0,0 0,-1 0,1 0,-1 0,0 1,0-1,0 1,0-1,1 7,-1 2,-1 0,0-1,0 1,-1 0,-1 0,0 0,-1 0,0-1,-1 1,-1-1,0 1,0-1,-1 0,-1-1,0 1,-9 12,7-11,-1 0,0-1,-1 0,0-1,-1 0,-1 0,1-1,-2-1,1 0,-1 0,-1-2,1 1,-19 6,27-13,0 0,0 0,0 0,1 0,-1-1,0 1,0-1,0 0,0-1,0 1,0-1,-8-3,12 4,0-1,-1 1,1-1,0 1,0-1,0 0,0 0,-1 0,1 0,0 0,1 0,-1 0,0 0,0 0,0 0,1 0,-1 0,0-1,0-1,1 1,0-1,-1 1,1 0,0-1,1 1,-1 0,0-1,1 1,-1 0,1-1,0 1,0 0,0 0,0 0,2-3,1-4,2 2,-1-1,1 1,0-1,0 1,1 1,0 0,0 0,0 0,1 1,0 0,0 0,1 1,-1 0,1 0,0 1,-1 0,2 1,-1 0,0 0,0 1,15 0,-8 1,0 1,0 0,0 1,0 1,0 1,0 0,0 1,-1 1,0 0,0 1,-1 0,17 13,-22-14,118 75,-108-72,-1-1,1 0,0-1,1-1,31 6,186 29,-180-34</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 16,'18'68,"68"414,-74-422,29 86,-35-130,0 1,1-2,2 1,-1 0,1-1,2-1,-1 0,2 0,0-1,15 13,-25-24,0 0,0-1,1 1,-1 0,0-1,0 1,0-1,0 0,0 0,1 0,-1 0,0 0,1 0,0-1,0 0,-1 0,1 1,-1-1,1 0,0 0,-1 0,6-1,-6 0,0 0,1-1,-1 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,-1-1,0 1,0-1,1-3,3-13,0-1,0-1,-2 0,0-22,-2 34,67-417,-13 122,-47 240</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1262">663 971,'-2'73,"4"77,4-138,4-17,6-19,19-38,77-125,-97 167,0 0,1 2,2 0,0-1,0 3,41-27,-52 38,1 0,1 1,-2 0,1 2,1-2,0 2,-1-1,1 1,0 0,15 0,-21 1,-1 1,1 0,1 1,-1-1,0 0,-1 1,1 0,0-1,-1 1,1 0,0 0,0 1,0-1,-1 0,0 1,1 0,-1-1,0 1,0-1,0 1,0 0,-1 1,2-1,-1 0,-1 1,0-1,1 1,-1-2,0 2,0-1,-1 1,1 0,0 0,-1-1,1 5,-1 5,0 0,-1 0,0 0,-1 0,0 0,-1-1,0 1,-2 0,-8 17,-5 4,-42 61,54-86,1 0,-1-2,0 1,-1-1,0 0,0 0,0 0,-1-2,1 2,-1-2,-1 1,1-1,-1-1,0 0,-15 4,22-6,0-1,0 1,0-1,0 1,1-1,-1 1,0 0,0 0,0 0,0-1,0 1,1 1,-1-1,1 0,-1 1,1-1,-2 3,3-3,0 0,0 0,-1 0,1 0,0 0,0 0,0-1,0 2,0-1,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,1 1,5 6,2 0,0-1,0 0,19 11,-9-4,4 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2335">1297 1173,'28'-1,"1"-2,29-6,-40 6,0-1,1 2,-2 0,1 1,1 1,-1 0,32 5,-49-5,1 1,0-1,-1 0,1 1,-1-1,1 1,-1-1,1 1,-1 0,0-1,1 1,-1 0,1 0,-1 0,1 0,-1 0,0 0,0 0,0 1,0-1,-1 0,2 3,-2-3,1 1,-1-1,0 0,-1 1,1 0,0-1,0 1,-1 0,1-1,-1 1,1-1,-1 1,0-1,0 0,1 0,-1 1,-2 1,-7 7,1-1,-1 0,0-1,-13 8,16-11,7-4,-1-1,0 1,1-1,-1 1,1 0,-1-1,1 1,0 0,-1 0,1-1,0 1,-2 0,2 0,0 0,0-1,0 1,0 0,0-1,-1 1,2-1,-1 1,0 0,0 0,0 0,0 0,0-1,2 1,-2 0,0 0,1-1,-1 1,0 0,1 0,-1-1,1 1,-1-1,1 1,0 0,-1-1,1 1,0-1,-1 1,1-1,0 0,-1 1,1-1,1 1,45 21,-41-19,6 2,1 1,1-1,-1 2,0 0,-1-1,23 19,-32-21,0-1,0 0,-1 0,1 1,-1 0,1 0,-1 0,0-1,-1 1,0 0,1 0,-1 0,-1 0,1 0,-1 1,1-1,-1 0,-1 0,1 1,0-1,-1 0,0 0,-3 7,2-5,0 1,-1-1,0 0,0 0,0 1,-1-2,0 1,0-1,-1 1,0-2,0 2,0-1,0-1,-2 0,2 0,-1 0,0 0,-1 0,0-2,-11 5,1-2,-1 0,0-3,-1 1,2 0,-2-2,0 0,-17-2,9 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5063">2096 67,'147'0,"397"15,-432-9,22 3,-104-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5702.99">2483 192,'4'0,"12"0,3 9,-4 11,8 15,-2 14,-3 8,-6 3,-4-5,-4 1,-2-1,-2-4,-1-8,0-2,0-4,1 1,-1-3,1-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6235">2455 896,'4'0,"17"0,8 0,10 0,1 0,5 0,-1 0,1 0,-2 0,0 0,-1 0,-4 0,-4 0,-7 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7330">3256 745,'26'0,"-8"-1,1 1,0 1,-1 1,37 7,-50-9,-1 2,1 0,0 0,0 0,-1 0,0 1,0-1,1 1,-1-1,0 1,-1 1,0-1,1 1,-1 0,1-1,-2 1,1 0,-1 0,0 1,0-2,0 2,0-1,1 6,-1 3,-1-1,0-1,1 2,-2-1,-2 0,1 1,-1-1,0 0,-1 0,-1-1,0 2,0-2,-2 1,0-2,0 1,-10 12,8-10,-1-1,-1-1,0 1,-1-2,0 1,-2-1,2 0,-3-2,2 1,-2-1,0-1,0 0,-19 7,28-13,-1 0,1 0,0 0,1 0,-1-1,-1 0,1 0,0 0,0 0,-1 0,1-1,-8-3,12 4,0-1,-1 1,0-1,1 1,0-1,0 0,0 0,-1 0,1 0,0 0,1 0,-1 0,0 0,0 0,0 0,1 0,-1 1,0-2,0-1,1 1,0-1,-1 1,1 0,0-1,1 1,-1 1,0-2,1 1,-1 0,1-1,0 1,0 0,0 0,0 0,2-2,1-5,3 2,-2 0,1 0,0 0,1 0,0 1,0 1,1-1,-1 0,1 1,0 1,1-1,0 1,0 0,0 1,0 0,0 0,1 1,-1 0,1 0,-1 1,16 0,-8 1,0 1,-1 0,1 1,0 1,-1 1,1-1,0 2,-2 1,1 0,0 0,-2 1,19 12,-24-13,123 71,-112-69,-1 0,1-1,-1 0,2-1,32 5,195 28,-189-32</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -15705,11 +15705,11 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 68,'3'1,"1"-1,-1 1,1 0,-1 0,1 0,-1 0,1 0,-1 1,0 0,0-1,0 1,0 1,0-1,0 0,-1 1,1-1,-1 1,1 0,-1-1,0 1,0 0,0 1,-1-1,1 0,-1 0,0 1,0-1,1 6,4 13,-1 1,-1-1,1 33,-4-37,13 687,-17-487,1-88,-1-109,-2-30,-2-36,-6-630,15 447,-2 189,5-119,-3 141,1 0,0 0,1 0,1 1,1-1,14-29,-18 42,1 0,0 1,-1 0,1-1,0 1,1 0,-1 0,0 1,1-1,0 1,-1 0,1 0,0 0,0 0,0 1,0-1,0 1,1 0,-1 1,0-1,5 0,13 1,-1 0,0 1,26 5,8 0,-32-4,-1 1,1 0,-1 2,-1 1,1 0,-1 2,0 1,0 0,-1 1,0 1,-1 2,-1-1,20 18,-36-28,1 0,-1 1,0-1,1 0,-1 1,0-1,-1 1,1 0,0-1,-1 1,0 0,1 0,-1 0,0 0,0 0,-1 0,1 0,-1 1,0-1,1 0,-2 0,1 0,0 1,0-1,-1 0,0 0,-1 3,0-1,0-1,-1 0,1 0,-1-1,0 1,0-1,-1 1,1-1,-1 0,1 0,-1 0,0-1,0 1,0-1,-1 0,1 0,-8 2,-240 63,184-57,41-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1295.99">848 861,'-134'146,"117"-125,2 2,0-1,1 2,2 0,-14 32,-15 30,77-141,2 2,3 1,1 2,3 2,2 2,2 2,2 3,93-60,-127 90,1 0,1 1,-1 1,1 1,1 1,0 0,0 2,25-5,-42 10,0 0,0 0,0 0,-1 0,1 0,0 0,0 1,-1-1,1 1,0 0,-1 0,1 0,0 0,2 2,-3-2,-1 0,0 0,0 0,0 1,0-1,0 0,0 0,0 1,0-1,-1 1,1-1,0 1,-1-1,1 1,-1-1,0 1,1-1,-1 4,0 0,-1 1,0-1,0 0,0 1,-1-1,1 0,-1 0,0 0,-1 0,1-1,-1 1,0 0,-6 6,-31 31,-2-2,-1-3,-96 65,103-77,-164 96,182-109,18-12,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 1,-1-1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,37-4,-25 3,49-8,12-3,141-3,-207 15,0 1,-1 0,0-1,1 2,-1-1,0 1,1 0,-1 0,0 1,0 0,-1 0,1 0,-1 1,1 0,7 8,-3-2,-1 1,-1 0,0 0,-1 1,0 0,7 17,3 9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2187.21">1509 1232,'16'-14,"1"0,0 1,1 0,0 2,1 0,1 1,0 1,0 0,0 2,1 1,0 0,1 2,-1 0,1 1,0 1,-1 2,35 2,-53-2,0 1,0 0,0-1,-1 1,1 0,0 1,0-1,-1 0,1 1,-1 0,1 0,-1-1,0 1,0 0,1 1,-2-1,1 0,0 1,0-1,-1 1,1-1,-1 1,0 0,0 0,0-1,0 1,0 0,-1 0,1 0,-1 0,0 0,0 0,0 5,-1 10,0 0,-2 0,0-1,-6 23,6-31,-4 18,-1-1,-1 0,-2 0,0-1,-27 42,28-53,1-1,-2 0,0 0,-1-1,0-1,0 0,-1-1,-1 0,0-1,-24 13,33-20,1-1,-1 1,0-1,0 1,0-1,0-1,-10 1,15 0,-1-1,0-1,0 1,1 0,-1 0,0 0,1 0,-1 0,0-1,1 1,-1 0,0 0,1-1,-1 1,1-1,-1 1,0-1,1 1,-1 0,1-1,-1 0,0 0,1 0,0-1,0 1,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,1 0,-1-1,1 1,-1 0,1 0,-1 0,1 0,1-2,3-5,0 1,1-1,0 1,0 0,0 0,1 1,0 0,0 0,1 1,0 0,10-5,-4 3,0 2,1 0,-1 0,1 1,0 1,20-2,1 3,1 2,0 1,-1 2,70 15,-53-6,-32-6,-1-1,1-1,-1-1,1-1,35 0,-12-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2665.28">2832 411,'0'-4,"4"-6,16-2,21 2,19 2,15 3,15 2,9 2,10 0,-4 1,-20 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3296.29">3123 676,'9'0,"16"0,9 0,12 0,12 5,4 1,6 0,18 7,-1 3,-10-3,-14 2,-13-2,-9-4,-13-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 65,'3'1,"1"-1,-1 1,2 0,-2 0,1 0,-1 0,1 0,-1 1,1 0,-1-1,0 1,0 1,0-1,0 0,-1 1,1-2,-1 2,2 0,-2-1,0 1,0 0,0 1,-1-1,1 0,-1-1,0 2,0-1,1 6,5 12,-2 1,-1-1,1 32,-4-36,14 661,-18-468,1-85,-1-105,-3-29,-1-34,-7-606,17 430,-3 181,5-114,-3 136,1 0,0-1,1 1,1 1,2-2,14-27,-19 40,1 0,0 2,-1-1,1-1,0 1,2 0,-2 0,0 1,1-1,0 1,-1 1,1-1,1 0,-1 0,0 1,0-1,0 1,2 0,-2 1,0-1,5 0,14 1,-1 0,0 1,27 5,9 0,-34-5,-1 2,1 0,-1 2,-1 1,1 0,-1 1,0 2,-1 0,0 0,0 2,-1 1,-1 0,21 17,-38-27,1-1,-1 2,0-1,1 0,-1 1,0-1,-1 1,1 0,0-1,0 1,-1-1,1 1,-1 0,0 0,0 0,-1 0,1 0,-1 1,0-1,1-1,-2 1,1 0,0 1,0-1,-1 0,0 0,-1 2,0 0,-1-1,0 0,1 0,-1-1,0 1,0-2,-1 2,1-1,-2 0,2 0,-1 0,0-1,0 1,0-1,-2-1,2 1,-8 2,-252 61,193-56,43-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1295.99">886 828,'-140'140,"122"-119,2 1,1-1,0 2,2 0,-14 31,-16 29,81-136,2 2,3 1,0 2,4 1,3 3,1 2,2 2,97-57,-132 87,1-1,1 2,-1 0,0 1,2 1,0 1,0 1,26-5,-44 10,0 0,1 0,-1 0,-1 0,1 0,0 0,0 1,-1-1,1 1,1 0,-2 0,1 0,0 0,2 2,-3-2,-1 0,0 0,0 0,0 1,0-1,0 0,0 0,1 1,-1-1,-1 0,1 0,0 1,-1-1,1 1,-1-1,0 1,1-1,-1 4,0 0,-1 0,0 0,0 0,0 1,-2-1,2-1,-1 1,0 0,-1 0,1-1,-1 1,0-1,-7 7,-31 29,-3-1,-1-4,-100 63,107-74,-171 93,190-106,19-11,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 1,-1-1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,39-4,-26 3,50-7,14-4,146-2,-216 14,1 1,-2 0,0-1,2 2,-2-1,0 1,1-1,0 1,-1 1,0 0,-1 0,2 0,-2 1,1 0,8 7,-4-1,0 0,-2 1,0-1,0 2,-1 0,8 15,2 10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2187.21">1576 1185,'17'-14,"1"1,-1 0,2 1,0 1,1 1,1 0,0 1,-1 1,1 1,1 1,0 0,1 3,-1-1,1 1,0 1,-1 2,36 2,-54-2,-1 1,0 0,0-1,-1 1,1 0,0 1,0-1,0 0,0 0,-1 1,1 0,-1-1,0 1,0 0,1 1,-2-1,1 0,1 1,-1-1,-1 1,1-2,-1 2,0 0,0 0,0-1,0 1,0 0,-1 0,1 0,-1-1,0 1,0 0,0 5,-1 9,0 1,-2-1,0-1,-7 23,7-31,-4 18,-1-1,-2 0,-1 0,-1-1,-28 41,30-52,1 0,-3-1,1 1,-2-2,1 0,-1-1,-1 0,0 0,-1-2,-24 13,33-19,2-1,-1 1,0-1,-1 1,1-1,0-1,-11 1,16 0,-1-1,0-1,0 1,1 0,-1 0,0 0,1 0,-1 0,0-1,1 1,-1 0,0 0,1-1,-1 1,1-1,-1 1,0-1,1 1,-1 0,1-1,-1 0,0 0,1 0,0-1,0 1,0 1,0-1,0 0,0-1,0 1,0 0,0 0,0 0,1 0,-1-1,1 1,-1 0,1 0,-1 0,1 0,1-2,3-4,0 0,2-1,-1 1,0 1,0-1,2 1,-1 0,0 1,2 0,-1 0,11-5,-4 4,-1 1,2 0,-2 0,2 1,0 2,20-3,2 3,1 2,-1 1,0 2,73 14,-56-6,-33-5,-1-1,1-1,-1-1,0-1,38 0,-13-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2665.28">2958 395,'0'-4,"4"-5,17-3,22 3,19 1,17 3,15 2,9 2,11 0,-4 1,-21 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3296.29">3262 650,'9'0,"17"0,10 0,12 0,12 5,5 1,6-1,19 8,-1 2,-11-2,-14 1,-14-1,-9-5,-14-1</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -15791,18 +15791,18 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">479 450,'-133'231,"114"-195,-33 70,-72 209,3 121,112-399,2 1,1 0,2 0,1 0,2 1,2-1,1 1,2-1,2 0,2 0,1-1,2 0,22 52,198 526,-224-590,51 147,-48-145,2-1,1-1,0 0,22 29,-31-49,1 1,-1-1,1-1,0 1,0-1,1 0,-1 0,1 0,0-1,0 0,0 0,0-1,1 1,-1-1,13 2,14-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1299">770 1005,'0'-1,"1"0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,0 1,1-1,-1 0,0 1,1-1,-1 1,1 0,-1-1,1 1,-1 0,1 0,2 0,0 0,91-10,1 4,110 8,-96 1,130-13,-202 6,78-13,-87 10</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1850">1378 952,'0'5,"0"10,0 12,0 19,0 24,0 19,0 20,0 29,0 12,0 9,-9-6,-8-6,0-9,2-11,4-23,-1-24,2-25</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2440.52">981 2355,'816'0,"-789"0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3052.52">2093 2117,'4'18,"2"15,0 6,-2 6,-1 17,-1 8,-1-4,0-9,-1-9,0-9,-1-10</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3567.52">2622 1640,'4'-4,"6"-2,16 1,11 0,4 2,9 1,10 1,2 0,6 1,4 0,-6 1,-5-1,-8 0,-14 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4011.52">3574 873,'4'0,"11"0,8 0,8 0,3 0,6 0,-5 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4838.52">3601 899,'13'0,"14"0,11 0,8 0,5 5,8 1,12 4,6 6,14 3,0-1,-7-3,-3-5,-8-3,-10-4,-9-2,-12-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5342.52">4156 1032,'-5'5,"-1"5,-4 24,0 20,-4 18,-7 16,-1 10,-1 11,-1 5,-10 10,-4 3,0 1,-2-7,5-11,5-20,7-24</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5888.52">3363 2513,'9'0,"7"0,10 0,10 0,12 0,7 0,12 0,4 0,2 0,4 0,-8 0,3 0,3 0,-8 0,-9-4,-16-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6945.52">4527 2328,'32'0,"-17"-1,0 0,1 2,-1 0,29 6,-40-6,-1 0,1 0,0 1,0-1,-1 1,1 0,-1 1,1-1,-1 0,0 1,0 0,0 0,0 0,-1 0,1 0,-1 0,1 1,-1-1,0 1,-1 0,1-1,-1 1,2 5,4 32,-2 1,-1 0,-3-1,-1 1,-10 74,7-108,1 0,-1 0,0 0,-1 0,0-1,0 0,-1 1,0-1,0-1,0 1,-1-1,0 0,0 0,-1-1,0 0,0 0,0 0,0-1,-1 0,1-1,-1 1,0-1,0-1,0 0,-16 3,22-5,0-1,0 1,0 0,0 0,0-1,0 1,0-1,0 1,1-1,-1 0,0 0,0 0,1 0,-1 0,0 0,1 0,-1-1,1 1,0-1,-1 1,1-1,-2-2,2 1,-1-1,1 1,-1-1,1 0,0 1,1-1,-1 0,1 0,-1 0,2-7,-1 2,1 1,0 0,1 0,0 0,0 1,1-1,0 0,0 1,0-1,8-9,-9 14,0 1,0 0,0 0,0 0,0 0,0 0,1 0,-1 1,1-1,-1 1,1 0,0-1,-1 1,1 1,0-1,0 0,0 1,0-1,0 1,0 0,0 0,-1 0,1 0,6 1,2 3,0-1,0 2,0-1,-1 2,12 6,-12-6,0 0,0-1,1 0,18 5,2-5,-2-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7835.52">5347 0,'6'1,"1"0,-1 0,0 0,1 1,-1 0,0 0,0 1,0 0,0 0,0 0,-1 1,0-1,1 1,-1 0,8 10,0 0,-1 1,0 0,-1 0,11 22,12 30,-2 2,40 133,20 153,-77-290,28 145,-10 2,-9 0,-5 390,-20-600,0 135,-35 234,29-340,-1 0,-2-1,-1 0,-2-1,-31 54,-101 129,78-121,54-72,4-4,-2-1,0 1,0-2,-21 19,20-24</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">500 433,'-139'222,"119"-188,-34 68,-76 201,4 117,117-385,2 2,0-1,3 1,1-1,2 2,2-2,1 2,2-2,3 1,1-1,1 0,3 0,22 49,207 507,-234-568,54 141,-51-139,3-1,0-1,1 0,22 28,-31-47,0 0,-1 0,1-1,0 1,1-1,0 0,-1-1,1 1,1-1,-1 0,0 0,0-1,2 1,-2-1,14 2,14-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1299">803 966,'0'-1,"1"0,0 0,0 1,0-1,1 0,-1 0,0 0,0 0,2 0,-2 0,0 1,1-1,-1 0,0 1,1-1,-1 1,1 0,-1-1,1 1,-1 0,1 0,2 0,1 0,94-10,1 5,115 6,-101 2,137-12,-212 5,82-12,-90 9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1850">1437 915,'0'5,"0"10,0 11,0 18,0 23,0 19,0 19,0 27,0 12,0 9,-9-6,-9-5,0-9,3-11,3-22,0-23,1-25</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2440.52">1023 2265,'851'0,"-823"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3052.52">2183 2036,'4'17,"2"15,1 5,-3 6,-1 17,-1 7,-1-3,0-9,-1-9,0-9,-1-9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3567.52">2735 1577,'4'-4,"6"-2,17 2,12-1,4 2,9 1,11 1,1 0,7 1,4 0,-6 1,-5-1,-9 0,-14 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4011.52">3728 839,'4'0,"11"0,9 0,9 0,2 0,7 0,-5 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4838.52">3756 864,'13'0,"16"0,10 0,9 0,5 5,9 1,12 4,6 5,15 3,0 0,-7-4,-4-4,-8-4,-10-3,-10-2,-12-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5342.52">4335 992,'-6'5,"0"5,-4 22,-1 20,-3 18,-8 14,-1 10,-1 11,-1 5,-11 9,-3 3,-1 1,-2-6,6-12,5-18,7-24</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5888.52">3508 2416,'9'0,"8"0,10 0,10 0,13 0,8 0,12 0,4 0,2 0,4 0,-8 0,3 0,3 0,-8 0,-9-3,-17-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6945.52">4722 2239,'33'0,"-17"-1,-1 0,2 2,-1 0,30 5,-42-5,-1 0,1 0,0 1,0-1,-1 1,2 0,-2 1,1-1,-1 0,0 1,0-1,0 1,1 0,-2 0,1 0,-1 0,1 1,-1-1,0 0,-1 1,1-1,-1 1,3 5,3 30,-2 1,-1 1,-3-2,-1 2,-10 70,7-103,1 0,-2-1,1 1,-1 0,0-2,0 1,-1 1,-1-1,1-2,0 2,-1-1,-1 0,1-1,-1 0,0 0,-1 0,1 0,0-2,-2 1,2-1,-1 1,-1-1,1-1,0 0,-17 3,23-5,-1-1,1 1,0 0,0 0,0-1,0 1,0-1,0 1,1-1,-1 0,0 0,0 0,1 0,-2 0,1 0,1 0,-1-1,1 1,0-1,-1 1,1-1,-2-2,2 2,-1-2,1 1,-1-1,1 0,0 1,1-1,-2 1,2-1,-1 0,2-7,-1 3,2 0,-1 0,1 1,0-1,0 1,1-1,0 1,0 0,0-1,9-8,-10 13,0 1,0 0,0 0,0 0,0 0,0 1,2-1,-2 1,1-1,-1 1,1 0,0-1,-1 1,1 1,0-1,1 0,-1 1,0-1,0 1,0 0,0 0,-1 0,1 0,7 1,1 3,1-1,-1 2,1-2,-2 3,13 6,-12-7,-1 1,0-1,2 0,18 4,2-4,-1-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7835.52">5577 0,'6'1,"1"0,0 0,-1 0,1 1,0 0,-1 0,0 1,0-1,1 1,-1 0,-1 1,0-1,2 1,-2 0,8 9,1 1,-2 0,1 0,-2 1,12 20,13 30,-3 1,42 128,21 148,-80-280,29 140,-11 2,-9 0,-5 375,-21-577,0 129,-37 226,31-327,-1 0,-3-1,0-1,-3 0,-32 52,-105 124,81-117,57-68,3-5,-1 0,-1 0,1-1,-23 17,22-22</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -15829,12 +15829,12 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">112 1349,'387'2,"408"-4,-331-25,-413 18,75-23,-43 10,-44 12</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1723">6 1270,'-1'0,"1"0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 1,0-1,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 1,1-1,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 1,7 9,12 7,47 23,86 39,-34-20,165 82,-246-125,-1 2,-1 2,0 1,57 47,-88-64,0 0,0 0,-1 1,1-1,-1 1,0-1,0 1,0 0,-1 0,0 1,0-1,0 0,-1 1,0-1,0 1,0-1,0 1,-1-1,0 1,0 0,-1-1,0 1,0-1,0 1,0-1,-1 1,0-1,0 0,0 0,-1 0,-4 6,-5 8,-1 0,0-2,-2 0,0 0,-1-2,-29 24,-60 43,-162 98,224-156,11-8,1 2,1 1,1 2,-48 42,75-61,0 0,0 0,0 0,0 1,0-1,1 0,-1 1,1-1,0 1,-1-1,1 1,0 0,0-1,1 1,-1 0,1 0,-1 0,1 0,0 0,0 3,1-3,0-1,0 1,0-1,1 1,-1-1,1 1,-1-1,1 0,0 0,0 0,0 0,0 0,0 0,0-1,1 1,4 2,7 3,1-1,1 0,-1-1,1-1,26 4,266 32,137 12,-417-51,-5 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3321">3420 1270,'-1'-30,"0"0,-2 0,-1 0,-1 0,-15-48,16 68,1 0,-1 1,0-1,-1 1,0 0,-1 0,0 0,0 1,-1 0,0 0,0 0,-1 1,0 1,0-1,-1 1,0 0,0 1,0 0,-20-7,13 8,-1 0,1 1,-1 1,0 1,0 0,0 2,0-1,0 2,1 0,-1 2,-31 9,29-6,0 0,1 1,0 1,0 1,1 1,0 0,1 1,1 1,-27 27,5 5,2 1,2 2,2 1,2 1,3 2,2 0,-34 110,52-138,2 0,1 0,2 1,0-1,1 1,1 0,2-1,0 0,11 38,10 22,48 107,-42-117,17 44,-6 2,-4 2,23 142,-45-172,-4-33,-2-1,-3 2,-2 78,-4-134,-1 1,1-1,-1 1,0-1,0 1,0-1,0 1,-1-1,0 0,0 0,0 0,0 0,-1 0,1 0,-1-1,0 1,0-1,0 0,-7 5,4-4,0-1,-1 0,1-1,-1 1,1-2,-1 1,0 0,1-1,-1-1,0 1,0-1,-13-1,-2-1,1-2,0 0,0-2,0 0,1-1,0-1,0-1,1-1,0 0,1-1,0-2,1 0,0 0,-23-26,36 35,1-1,0 0,0-1,1 1,-1 0,1-1,0 1,1-1,-1 0,1 0,0 0,1 1,-1-1,1-8,1-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4532.99">3076 3598,'-14'12,"-1"-1,1-1,-2 0,-28 13,4-2,28-14,-1 0,2 1,-1 0,1 1,0 0,-11 14,18-18,0 1,0 0,0 1,1-1,0 1,0-1,1 1,0 0,0 0,0 0,1 0,0 0,1 0,-1 9,1-11,0 1,0-1,1 1,0-1,0 1,0-1,0 1,1-1,0 0,0 0,0 0,1 0,0 0,0 0,0-1,0 0,5 5,-3-4,1-1,-1 0,1-1,0 1,0-1,0 0,0-1,0 0,1 0,-1 0,1 0,0-1,-1 0,9 0,-7-1,1 1,0-1,0-1,-1 1,1-2,0 1,-1-1,1 0,-1-1,11-4,-15 4,0 1,0-1,0 0,0 0,0 0,-1-1,1 1,-1-1,0 0,0 0,-1 0,1 0,-1-1,0 1,0 0,0-1,-1 0,1 1,-1-1,0-5,3-46,-5 31</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5248">3764 26,'1'26,"8"43,1 5,-3 390,-8-313,-1-105,-12 76,9-94</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6100">4213 0,'-1'5,"0"0,0 0,0 0,0 0,-1-1,0 1,0 0,0-1,-1 0,1 1,-1-1,0 0,0 0,-6 5,-60 52,49-45,-229 176,245-189,0 1,0-1,0 1,0 0,0 0,1 1,0-1,0 1,0-1,1 1,-1 0,1 0,0 0,1 0,-1 1,1-1,0 0,0 1,1 6,0-5,1 1,0-1,0 1,1-1,0 0,1 1,-1-1,1 0,1 0,-1-1,1 1,1-1,4 7,24 23,2-1,1-2,1-2,59 39,-85-62,19 13</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">116 1299,'403'2,"424"-4,-344-24,-430 17,78-22,-45 10,-45 11</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1723">6 1223,'-1'0,"1"0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 1,0-1,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 1,1-1,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 1,7 8,13 8,49 21,89 38,-35-19,171 79,-255-121,-2 2,-1 3,1 0,59 45,-92-61,0 0,0 0,-1 1,1-1,-1 0,1 0,-1 1,0 0,-1 0,0 0,0 0,0 0,-1 1,0-1,0 0,0 0,0 1,-1-1,0 1,0-1,-1 0,0 1,0-1,0 1,0-2,-1 2,0-1,0 0,0 0,-1-1,-5 7,-4 7,-2 1,1-3,-3 0,1 1,-2-3,-30 24,-62 41,-169 94,233-150,12-8,1 3,1 0,0 2,-49 41,78-59,0 0,0 0,0 0,0 0,0 0,1 0,-1 1,1-1,0 1,-1-1,1 1,0 0,-1-1,2 1,-1-1,1 1,-1 0,1 0,0 0,0 3,1-3,0-1,1 0,-1 0,1 1,-1-1,1 1,-1-1,1 0,0 0,0 0,0 0,0 0,0 0,0-1,1 0,5 3,6 3,2-1,1 0,-2-2,2 0,27 4,276 30,143 13,-434-50,-5-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3321">3558 1223,'-1'-29,"0"0,-2 0,-1 0,-2 0,-14-46,15 66,2-1,-1 1,0 0,-1 0,0 0,-2 1,1-1,0 1,-1 1,-1-1,1 0,-1 1,-1 2,1-2,-1 1,-1 0,1 2,0-1,-22-7,15 8,-2 0,1 2,0 0,-1 1,0 0,1 2,-1-1,0 2,2 0,-2 1,-32 10,30-6,1-1,0 2,0 1,0 0,2 2,-1 0,1 0,2 2,-29 25,6 5,1 2,3 1,2 1,1 1,4 2,2 0,-35 106,54-132,2-1,0 0,3 1,0-1,1 1,1 0,3-1,-1 0,11 37,11 21,50 103,-44-113,18 43,-6 1,-5 3,25 136,-48-166,-3-31,-3-1,-3 2,-1 75,-5-130,-1 2,1-1,-1 1,-1-1,1 1,0-2,0 2,-1-1,0 0,0 0,0 0,0-1,-1 1,1 0,-1-1,0 1,-1-1,1 0,-7 4,4-3,-1-1,0 0,1-1,-1 1,0-2,0 1,0 0,1-1,-2-1,1 1,0-1,-14-1,-2-1,1-2,0 0,0-2,1 0,0 0,0-2,0-1,1 0,1-1,0-1,0-1,2-1,-1 1,-24-26,38 35,1-2,0 0,0-1,1 1,-2 0,2 0,0 0,1-1,-1 0,1 1,0-1,1 1,-1-1,1-7,1-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4532.99">3200 3464,'-14'12,"-2"-2,1 0,-1-1,-30 14,4-3,30-13,-2-1,3 2,-2 0,2 0,-1 1,-10 13,17-17,1 1,0-1,0 2,1-1,0 1,0-1,1 0,-1 1,1 0,0-1,1 1,0 0,1 0,-1 8,1-10,0 1,0-1,1 0,0 0,0 1,0-1,0 0,1 0,1 0,-1 0,0 0,1 0,0-1,0 1,0-1,0 0,6 5,-4-5,1 0,-1 0,1-1,1 1,-1-1,0 0,0-2,1 1,0 0,-1 0,2 0,-1-1,-1 0,10 0,-8-1,1 1,1-1,-1-1,-1 1,2-2,-1 1,-1-1,2 0,-2-1,12-3,-16 3,0 1,0-1,1 0,-1 0,0 0,-1-1,1 2,-1-2,0 0,0 0,0 0,0 0,-1 0,0 0,0 0,0-1,-1 0,1 1,-1 0,0-6,3-44,-5 30</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5248">3916 25,'1'25,"8"41,2 6,-4 374,-8-300,-1-102,-13 74,10-91</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6100">4383 0,'-1'5,"0"0,0-1,0 1,0 0,-1-1,0 1,0 0,-1-2,0 1,1 1,-1-1,0 0,0 0,-6 4,-63 51,51-44,-238 170,255-182,0 1,-1-1,1 1,0 0,0-1,1 2,0-1,0 1,-1-1,2 1,-1-1,1 1,0 0,1 0,-1 1,1-2,0 1,0 1,1 6,0-6,1 2,0-1,0 0,1 0,0 0,1 1,-1-2,1 1,2 0,-2-1,1 0,1 0,4 7,26 21,1 0,2-2,0-2,62 37,-89-59,21 12</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -15860,7 +15860,7 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1203 1,'-35'-1,"0"1,0 2,0 1,1 2,0 1,-55 17,55-10,0 1,1 2,-50 31,70-38,1 0,0 1,1 0,0 0,0 1,2 1,-1 0,1 0,1 1,0 0,-9 22,-6 29,2 2,4 0,2 1,3 0,4 1,-1 109,6-134,-1 1,-16 66,2-14,-6 80,18-119,0 82,-1 24,-10 272,16-398,-2 0,-1 0,-2 0,-1 0,-3-1,-21 57,22-70,-2 1,0-2,-1 0,-2 0,0-1,-1-1,-1 0,-1-1,0-1,-33 27,40-39,1 0,-1 0,-18 7,24-11,1-1,-1 0,0 1,0-2,1 1,-1 0,0-1,0 1,0-1,0 0,1-1,-1 1,0-1,-4 0,7 0,1 1,-1 0,1 0,-1 0,0 0,1 0,-1 0,1-1,-1 1,0 0,1 0,-1-1,1 1,-1 0,1-1,-1 1,1-1,0 1,-1-1,1 1,-1-1,1 1,0-1,0 1,-1-1,1 1,0-1,0 1,-1-1,1 0,0 1,0-1,0 1,0-1,0 0,0 1,0-1,0 1,0-1,0 0,0 1,1-1,-1 1,0-1,0 0,1 1,-1-1,0 1,1-1,-1 1,0-1,1 1,0-1,1-1,0 0,0 0,0 0,1 1,-1-1,0 1,1-1,-1 1,1 0,4-2,0 3,-1-1,0 1,0 0,0 1,1 0,-1 0,0 0,0 0,0 1,0 0,-1 0,1 1,0 0,-1 0,0 0,0 0,0 1,8 7,-3-2,0 0,-1 1,0 0,0 1,-1 0,-1 0,10 20,-12-18,0-1,-1 1,-1 1,0-1,-1 0,1 26,-7 88,0-51,2-22,0-33,1 0,1 1,1-1,1 1,1-1,0 0,8 22,37 120,-38-120,2-1,1 0,3-1,34 66,-4-27,-13-20,49 65,-75-117,0 0,0-1,1 0,0 0,0 0,1-1,0 0,19 8,3-1,49 14,18 8,-8-4,-68-24</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1246 1,'-36'-1,"-1"1,1 2,0 1,1 2,0 0,-58 17,58-9,0 0,1 3,-52 29,72-36,2-1,-1 2,2-1,0 1,-1 1,3 0,-1 1,0-1,2 2,0-1,-10 22,-6 27,3 3,3-1,2 1,4 1,4 0,-2 105,7-129,-1 2,-17 62,3-13,-7 78,19-116,-1 80,0 22,-10 262,16-382,-3-1,0 1,-2-1,-1 1,-4-2,-21 56,23-68,-2 1,-1-2,0 0,-3 0,1 0,-2-2,0 0,-2-1,1-1,-35 27,41-39,2 1,-1 0,-19 6,25-10,0-1,0 0,0 1,0-2,1 1,-1 0,0-1,-1 1,1-1,0 0,1-1,-1 1,0-1,-4 0,6 0,2 1,-1 0,1 0,-1 0,0 0,1 0,-1 0,1-1,-1 1,0 0,1 0,-1-1,1 1,-1 0,1-1,-1 1,1-1,0 1,-1-1,1 1,-1 0,1 0,0-1,0 1,-1-1,1 1,0-1,0 1,-1-1,1 0,0 1,0-1,0 1,0-1,0 0,0 1,0-1,0 1,0-1,0 0,0 1,1-1,-1 1,0-1,0 0,1 1,-1-1,0 1,1-1,-1 1,0-1,1 1,0-1,1-1,0 0,0 0,0 1,2 0,-2-1,0 1,1-1,-1 1,1 0,4-2,1 3,-2-1,0 1,0 0,0 1,2 0,-2 0,0 0,0 0,0 1,1 0,-2 0,1 0,0 1,-1 0,1 0,-1 0,0 1,8 6,-2-1,-1 0,0 0,-1 1,0 0,-1 1,0 0,9 18,-12-16,1-2,-2 2,-1 0,0 0,-1-1,1 26,-7 84,0-49,2-21,0-32,1 0,1 1,1-1,1 1,1 0,0-1,8 21,39 116,-39-116,1-1,1 1,4-2,35 64,-5-26,-12-20,50 63,-78-112,0 0,0-2,2 1,-1 0,0 0,1-2,1 1,19 8,3-2,51 14,18 8,-8-5,-70-22</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -15913,13 +15913,13 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0,'1'1,"1"-1,0 0,-1 1,1-1,0 1,-1-1,1 1,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,0 1,0-1,1 0,-1 1,-1-1,3 3,16 40,-11-24,1 0,-2 0,0 0,-1 1,-1 0,-1 0,2 22,-3 130,-3-172,1 18,1 1,0 0,1-1,2 1,0-1,0 0,2-1,14 29,-7-20,1-1,1-1,1 0,39 43,-53-64,1-1,-1 1,1 0,0-1,0 0,0 0,1 0,-1-1,0 0,1 1,0-1,0-1,-1 1,1-1,0 0,7 1,-7-2,0-1,-1 0,1 0,-1 0,1 0,-1-1,0 0,1 0,-1 0,0 0,0-1,-1 0,1 1,0-1,-1-1,0 1,6-7,15-20,-1-2,-2 0,18-37,28-41,128-197,-180 277,-1-1,12-39,-5 11,-11 32</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="936">848 635,'35'-38,"-24"26,1-1,0 1,0 1,1 0,28-17,-6 11,1 2,1 1,0 2,46-9,-72 19,0 0,0 1,0 0,1 1,-1 0,0 1,0 0,0 1,0 0,0 1,0 0,-1 0,1 1,-1 1,0 0,0 0,0 1,-1 0,0 1,0 0,-1 0,0 1,0 0,10 14,9 16,-1 1,-2 1,-1 1,24 63,-39-87,2 7,-6-11,1-1,1 0,0-1,0 1,1-1,1-1,16 20,-7-18</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1718.56">1747 397,'-5'0,"-5"0,-11 0,-1 5,-2 5,-6 6,-1 5,-6 3,-4 7,-6 7,7 5,4-3,5-1,3-1,5-4,8-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2398.56">2382 159,'4'0,"7"0,9 0,12 0,8 5,11 1,11 4,13 1,6 2,-5 0,-7-3,-2 1,-3 0,-3-3,-4 2,-6-1,-8-2,-11-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3787.38">2541 609,'38'3,"0"1,-1 2,49 13,10 2,5-8,1-3,134-6,-210-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5541.28">3864 450,'4'0,"6"0,7 0,3 0,4 0,3 0,-5 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6905.92">4525 370,'4'0,"0"-1,0 0,0 0,-1 0,1 0,0-1,0 0,-1 1,1-1,-1-1,1 1,-1 0,0-1,4-4,41-47,-39 42,140-191,-149 202,0 1,1-1,-1 0,1 1,-1-1,0 0,1 1,-1-1,1 0,0 1,-1-1,1 1,-1-1,1 1,0 0,-1-1,1 1,0-1,0 1,-1 0,1 0,0-1,0 1,-1 0,1 0,0 0,0 0,0 0,1 0,-1 1,0 0,-1 0,1 0,0 0,0 0,-1 1,1-1,0 0,-1 0,1 0,-1 1,0-1,1 0,-1 1,0 2,2 67,-2-60,-5 426,5-396</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0,'1'1,"1"-1,0 0,-1 1,1-1,0 1,-1-1,1 1,-1 0,2 0,-2 0,1 0,-1 0,1 0,-1 0,0-1,0 2,0-1,1 0,-1 1,-1-1,3 3,17 38,-12-23,1 0,-1 0,-1 1,-1 0,-1 0,-1 0,3 21,-4 124,-3-164,1 17,1 2,0-1,1-1,2 1,0-1,1 0,1 0,15 26,-8-18,2-1,0-1,2 0,40 41,-55-61,1-1,-1 0,1 1,0-1,1 0,-1 0,1 0,-1-1,0 0,1 0,0 0,1-1,-2 1,1-1,0 0,8 1,-8-2,0-1,-1 0,1 0,-1 0,2 0,-2-1,0 0,1 1,-1-1,0 0,0-1,0 0,0 1,0-1,-1-1,0 1,6-6,16-20,-1-1,-2-1,18-35,30-39,131-189,-185 266,-1-2,11-37,-4 11,-11 30</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="936">878 607,'36'-36,"-24"24,0 0,1 0,-1 2,1-1,30-15,-7 9,1 3,2 1,-1 1,48-8,-75 18,1 0,-1 1,1 0,0 1,-1 0,1 1,-1 0,1 1,-1 0,0 1,1 0,-2 0,1 1,0 0,-1 1,0 0,1 1,-2-1,0 2,1 0,-2-1,0 2,1 0,9 13,10 15,-1 1,-2 2,-1 0,25 60,-41-83,2 7,-6-10,1-2,2 1,-1-2,0 2,1-2,2 0,15 19,-6-18</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1718.56">1809 380,'-5'0,"-6"0,-10 0,-2 4,-2 6,-6 5,-1 5,-6 3,-5 7,-6 6,8 5,4-2,5-2,3-1,5-3,8-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2398.56">2466 152,'5'0,"6"0,10 0,12 0,8 5,12 1,11 3,14 2,6 1,-5 0,-8-2,-2 1,-2-1,-4-2,-4 1,-6 0,-9-2,-11-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3787.38">2631 582,'39'3,"1"1,-2 2,51 12,11 2,4-8,2-2,138-6,-217-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5541.28">4001 430,'4'0,"7"0,6 0,4 0,4 0,3 0,-6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6905.92">4685 354,'5'0,"-1"-1,0 0,0 0,-1 0,1 0,0-1,1 0,-2 1,1-1,-1-1,1 2,-1-1,0-1,5-4,41-45,-39 41,144-183,-154 193,0 1,1-1,-1 0,1 1,-1-1,0 0,1 1,-1-1,1 0,0 1,-1-1,1 1,-1-1,1 1,0 0,-1-1,1 1,0-1,0 1,-1 0,1 0,0-1,0 1,-1 0,1 0,0 0,0 0,1 0,0 0,-1 1,0 0,-1 0,1 0,0 0,0 0,-1 1,1-1,0 0,-1 0,1 0,-1 1,0-1,1 0,-1 1,0 1,2 65,-2-57,-5 407,5-379</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -15948,7 +15948,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0">1 302,'-1'40,"3"-1,1 0,2 0,1 0,3 0,24 71,-10-36,-20-60,1 1,0-1,1 1,1-1,0-1,1 1,0-1,10 14,-14-25,-1 1,0-1,0 0,1 0,-1 0,1-1,-1 1,1 0,0-1,0 0,0 1,0-1,0-1,0 1,0 0,0-1,0 1,0-1,0 0,0 0,1 0,-1 0,0-1,0 1,0-1,0 0,0 0,0 0,0 0,0-1,-1 1,1-1,0 1,-1-1,5-4,9-6,-1-2,-1 0,0-1,16-21,-22 26,189-252,-159 202,-2-1,45-108,4-27,-77 180</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2635.07">795 593,'1'44,"1"-1,3 0,2-1,22 79,-28-117,1 1,0-1,0 0,0 1,0-1,1 0,0 0,0-1,0 1,0-1,0 1,1-1,0 0,-1 0,9 4,-5-3,0-1,0 0,1-1,-1 0,1 0,0-1,-1 1,1-2,9 1,-3-1,-1-1,1 0,-1-1,1-1,-1 0,1-1,-1 0,-1-1,1 0,20-13,-9 2,-1-2,-1-1,36-37,-47 44,-1 0,-1-1,0 0,0-1,-2 1,1-2,-2 1,8-24,-14 36,11-32,-4 26,-2 20,1 53,-3-1,-6 72,0-22,3-53,1-1,-2-1,-17 108,16-152,-2 1,0-1,-1 1,0-1,-2-1,1 1,-2-1,0 0,0-1,-2 0,1 0,-2-1,0 0,0-1,-19 15,22-21,0 0,-1-1,0 0,1-1,-1 0,0 0,0-1,-1 0,1 0,0-1,-11 0,-12-1,-60-8,89 7,0 0,0 1,0-1,0-1,0 1,0 0,1-1,-1 0,0 1,1-1,-1 0,1 0,0 0,0-1,0 1,0-1,0 1,0-1,1 1,-1-1,1 0,0 0,-1 0,1 0,1 0,-1 0,0 0,1 0,0 0,-1-4,0-13,0 1,2-1,4-31,-4 38,-1 9,1 1,0-1,0 0,0 0,0 1,0-1,1 1,0-1,0 1,-1 0,2-1,-1 1,0 0,1 0,-1 1,1-1,0 0,0 1,0 0,0 0,1 0,-1 0,1 0,6-2,7-1,0 1,0 0,0 1,25-1,13-2,10-6,-39 7</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3485.07">1959 381,'4'-4,"7"-2,9 1,7 0,7 2,7 1,11 1,0 0,4 1,3 0,0 1,-1-1,-6 0,-12 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4289.9">1986 540,'0'5,"4"1,6 0,11-1,15-2,28-1,17-1,8 0,3-1,-6-1,-8 1,-18 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4289.89">1986 540,'0'5,"4"1,6 0,11-1,15-2,28-1,17-1,8 0,3-1,-6-1,-8 1,-18 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -16114,7 +16114,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0">53 0,'1'1,"-1"-1,1 1,0-1,0 1,0-1,0 1,0 0,-1-1,1 1,0 0,-1 0,1-1,0 1,-1 0,1 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,-1 1,2 40,-1-36,-15 1352,13-1344,0 1,0-1,-1 0,-1 0,-10 25,-7 32,16-46</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1662.16">714 635,'-3'28,"0"0,-2 0,-1-1,-1 0,-20 49,-13 15,28-67,1 0,1 0,1 1,1 1,2-1,-7 50,11-52,0 3,0 0,2 0,1 0,1 0,1 0,9 37,-11-60,0 0,0 0,0 0,1 0,-1 0,1-1,-1 1,1 0,0-1,0 0,1 1,-1-1,0 0,1 0,-1 0,1-1,-1 1,1 0,0-1,0 0,0 0,0 0,0 0,0 0,0 0,0-1,0 0,0 1,0-1,1 0,-1-1,0 1,0 0,0-1,0 0,0 0,3-1,6-2,0-1,0 0,0-1,-1 0,0-1,0 0,15-14,2-4,-2-2,-1-1,-2-1,35-54,62-138,-94 171,-15 25,-2 0,0-1,8-43,6-17,-14 58</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3748.17">1270 1297,'0'18,"-1"10,7 55,-4-72,1 0,0-1,0 1,1-1,0 0,1 0,0 0,8 11,-2-6,0 0,0 0,2-1,25 23,-35-35,0 0,0 1,0-1,0-1,1 1,-1 0,1-1,-1 0,1 0,0 0,-1 0,1 0,4-1,-5 0,0 0,0-1,-1 1,1-1,0 0,-1 0,1 0,-1 0,1-1,-1 1,0-1,1 1,-1-1,0 0,0 0,0 0,0 0,-1 0,1 0,2-4,6-11,-1-1,-1 0,-1-1,0 0,-1 0,-1 0,-1-1,3-34,-3 25,1 1,2-1,9-27,-16 55,0 0,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 1,0-1,0 0,-1 0,1 1,0-1,0 1,0-1,2 0,-2 1,0 1,0-1,0 0,0 1,0-1,-1 1,1 0,0-1,0 1,-1 0,1-1,0 1,-1 0,1 0,0 0,-1-1,0 1,1 0,-1 0,1 1,17 55,-7 15,-3 1,-3 0,-8 122,0-57,4-118,-2 1,1 0,-2-1,-1 1,-1-1,0 0,-1 0,-2 0,0-1,-1 0,0 0,-2-1,0 0,-14 17,20-29,0-1,0 1,0-1,-1 0,0 0,0-1,0 1,-1-1,0 0,1-1,-1 1,0-1,-1 0,1-1,-1 0,1 0,-1 0,0-1,1 1,-1-2,0 1,0-1,0 0,0 0,1-1,-1 0,0 0,-10-4,13 4,0-1,-1 1,1-1,0 0,0-1,0 1,1-1,-1 1,1-1,-1 0,1 0,0-1,0 1,0-1,1 1,-1-1,1 0,0 0,0 0,0 0,0 0,1-1,0 1,0 0,0-1,0 1,1-1,0 1,0-1,1-8,-1 5,1 1,0-1,1 0,0 1,0-1,0 1,1-1,0 1,1 0,0 0,0 1,0-1,1 1,-1 0,2 0,-1 0,8-6,-2 5,0 1,0 0,1 0,0 1,0 1,0 0,1 0,13-1,107-9,-87 10,0 3,-34 1,0 0,0 0,0-1,0-1,-1 0,1-1,-1 0,19-7,-13-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4650.43">2434 159,'3'56,"2"0,25 104,2 19,57 498,-74-540,-3 256,-13-358</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4650.42">2434 159,'3'56,"2"0,25 104,2 19,57 498,-74-540,-3 256,-13-358</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -16194,7 +16194,7 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1611,'17'-579,"-1"400,47-208,-54 344,6-35,4 0,48-122,-66 195,1 0,0 0,1 1,-1-1,1 1,0-1,0 1,0 0,0 0,1 0,0 1,-1-1,9-4,-11 7,1 1,-1-1,0 1,1 0,-1 0,1-1,-1 1,0 0,1 0,-1 0,1 0,-1 1,0-1,1 0,-1 1,1-1,-1 1,0-1,3 2,-1 0,1 1,-1 0,1 0,-1 0,0 0,0 0,0 0,4 8,13 24,-1 0,-2 2,-1 0,-2 0,13 56,30 208,2 365,-47 2,-15-548,1-59,2-1,8 63,-3-95,19 54,3 13,-19-43,-2 1,0 78,-7-107</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1537,'18'-552,"-1"381,50-198,-57 328,6-34,4 1,52-117,-71 186,1 0,0 1,1 0,0-1,0 1,0-1,0 2,0-1,1 0,0 0,0 1,-1-1,10-3,-12 6,1 1,-1-1,0 1,2 0,-2 0,1-1,-1 1,0 0,1 0,-1 0,1 0,-1 1,0-1,2 0,-2 1,1-1,-1 1,0-1,3 2,-1 0,2 1,-2-1,1 1,-1 0,0 0,1 0,-1 0,4 7,15 24,-2-1,-2 2,-1 1,-2-1,14 54,32 198,2 348,-50 3,-17-524,2-55,2-2,9 60,-4-90,21 51,3 13,-21-41,-1 0,-1 75,-7-102</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -16248,14 +16248,14 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">583 635,'5'-8,"0"1,1-1,0 1,0 0,1 0,-1 1,2-1,-1 2,1-1,11-5,14-8,41-15,-56 26,16-8,0 2,1 2,1 1,40-6,-72 17,0 0,0 0,0 1,1-1,-1 1,0 0,0 1,0-1,0 1,-1-1,1 1,0 0,-1 1,1-1,-1 1,0-1,0 1,0 0,0 0,0 0,-1 1,1-1,-1 1,0-1,2 6,7 10,-2 0,0 1,9 33,-11-26,0 0,-1 1,-2-1,-1 1,-1 41,-2-57,-1 0,0 0,0-1,-1 1,-1 0,0-1,-1 0,0 0,-1 0,0 0,0-1,-1 0,-1 0,0 0,-13 14,-4-1,-1-2,-1 0,-1-2,0-1,-2-1,0-2,-1 0,0-2,-38 11,82-26,1 2,-1 0,1 1,-1 0,0 1,0 1,1 0,22 9,-12-4,-1 1,1 2,-2 0,1 2,24 18,-39-24,0-1,0 0,1 0,0-1,13 5,-4-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1333">1589 1005,'2'1,"0"-1,0 0,0 1,0-1,0 1,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 1,-1-1,1 1,0-1,-1 1,1-1,-1 1,0 0,0-1,1 1,-1 0,0 0,-1 0,1 0,1 3,2 8,-1 0,0 1,2 19,-1-4,2 0,2 0,13 35,-18-57,-1 0,1 0,1 0,0-1,0 1,0-1,0 0,1 0,0 0,0-1,1 0,0 0,0 0,10 6,-12-9,-1-1,1 0,0 0,-1 0,1 0,0 0,0-1,0 0,0 0,-1 0,1 0,0 0,0-1,0 0,-1 1,8-4,-4 1,0-1,0 0,0 0,-1 0,0-1,0 0,11-11,-2-3,0 0,-1 0,-1-1,15-31,1-17,-20 46,22-42,-31 64,0 1,0-1,0 0,0 0,0 1,0-1,0 0,0 0,0 1,0-1,0 0,0 0,0 1,0-1,0 0,1 0,-1 0,0 1,0-1,0 0,0 0,0 0,1 1,-1-1,0 0,0 0,0 0,1 0,-1 0,0 1,0-1,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,0-1,1 1,-1 0,0 0,0 0,0 0,1 0,-1-1,0 1,0 0,0 0,0 0,1-1,-1 1,0 0,0 0,0-1,4 25,-4 354,-4-180,4 145,0-337,0 0,0-1,-1 1,1-1,-1 1,0-1,0 1,-1-1,0 0,0 0,0 0,-1 0,1 0,-1 0,0 0,-1-1,1 0,-1 1,0-1,0-1,0 1,0 0,-1-1,1 0,-1 0,0-1,0 1,0-1,0 0,-1 0,1-1,0 1,-1-1,1 0,-1-1,1 1,-9-2,12 1,-17 1,0 0,0-2,-1 0,-29-7,44 7,1 0,-1-1,1 1,0-1,0 0,-1 0,2 0,-1-1,0 1,0-1,1 0,-1 0,1 0,0-1,0 1,0-1,0 0,1 0,0 0,0 0,0 0,0 0,0 0,1-1,-2-5,0-6,1 0,0 0,1 0,1-1,1 1,3-24,-3 33,0 0,1 0,0 0,1 0,-1 1,1-1,0 1,1 0,0-1,0 2,0-1,0 0,1 1,0 0,0 0,1 0,5-3,202-115,-181 103</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1783.73">2488 952,'9'0,"21"0,18 0,11 0,9 0,6 0,4 0,2-4,1-6,-4-2,-11 2,-12 2,-10 3,-14 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3477.94">3361 767,'11'-2,"0"-1,0 0,-1-1,1 0,-1-1,0 0,0-1,0 0,-1-1,10-8,6-4,1 1,1 1,48-22,-57 32,0 0,1 2,0 0,-1 1,1 1,1 1,25-1,166 7,-205-3,0-1,-1 1,1 1,0-1,-1 1,1 0,-1 0,0 0,0 1,0 0,0 0,0 0,0 1,-1 0,0 0,0 0,0 0,0 0,0 1,-1 0,0-1,0 1,0 1,-1-1,0 0,2 7,5 13,-2 0,0 0,-2 1,3 36,0 38,-11 190,2-271,-1 1,-1 0,-1-1,-1 0,0 0,-2 0,0 0,-1-1,-1 0,0-1,-1 0,-2-1,1 0,-2 0,0-1,0-1,-2 0,0-1,0-1,-22 14,-12 4,-1-1,-1-3,-1-2,-1-3,-1-1,-1-3,-112 18,157-33,0-1,0-1,0 0,0 0,0-1,-1 0,-11-4,21 5,-1-1,0 1,0-1,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 0,1 0,-1-1,1 1,0 0,0-1,-1 1,1-1,-1-2,2 2,-1 0,1-1,0 1,0 0,0 0,0-1,0 1,0 0,1 0,-1-1,1 1,0 0,0 0,-1 0,1 0,1 0,-1 0,0 0,3-3,4-6,2 1,-1 0,1 0,1 1,0 1,0-1,1 2,0 0,0 0,0 1,1 0,0 1,0 1,1 0,21-3,16-2,2 3,92-1,-80 7,98 12,-143-9,1 1,0 1,-1 0,0 2,-1 0,1 2,-1 0,30 20,-25-11</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6519.88">6272 265,'-32'52,"-3"-1,-1-2,-86 88,95-108,-34 36,-3-3,-3-3,-3-3,-2-3,-103 58,167-107,1 0,-1 0,0 1,1-1,0 2,0-1,-7 8,13-13,0 1,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,1 2,0-1,0 0,0 0,0 0,1 0,-1 0,1 0,-1-1,1 1,0-1,0 1,0-1,0 1,0-1,3 1,127 61,15 7,20 28,339 186,-270-164,-152-76</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7759.67">7489 979,'1'-7,"0"-1,1 1,0-1,1 1,0 0,0 0,7-12,2-4,52-119,184-380,-244 515,0 0,0 0,0 1,0 0,1 0,8-8,-12 13,0 1,0-1,0 0,0 1,0-1,0 0,0 1,0-1,0 1,0 0,0-1,1 1,-1 0,0 0,0 0,0 0,1 0,-1 0,2 0,-1 1,0 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 1,-1-1,1 1,-1-1,0 1,0-1,0 1,0 0,1 1,15 31,-3 0,-1 2,-1-1,-2 1,6 41,2 3,157 853,-175-931,53 380,-49-364,-2-7,0-1,0 1,-1 0,0 15,-1-24,0 0,-1 1,1-1,-1 0,1 1,-1-1,0 0,0 1,0-1,0 0,0 0,0 0,-1 0,1 0,-1 0,1 0,-1-1,0 1,0-1,0 1,0-1,0 1,0-1,-3 1,-32 9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8703.82">1 53,'3'5,"1"-1,-1 1,0-1,0 1,-1 0,1 0,-1 0,0 0,-1 0,3 9,7 59,-10-63,14 461,-13-229,2-79,49 315,-50-464,1 1,0-1,1 0,0 0,1 0,1-1,0 0,1 0,0-1,1 0,14 15,-10-15</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9657.41">4684 0,'15'56,"-3"-1,-1 2,4 96,-13-133,25 1209,-30-836,4-362</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">604 610,'5'-8,"0"1,1 0,1 0,-1 0,1 0,-1 2,3-2,-2 2,1-1,12-4,14-8,43-15,-59 25,18-7,-1 1,1 3,1 0,42-5,-75 16,0 0,1 0,-1 1,1-1,-1 1,0 0,0 1,0-1,1 1,-2-1,1 1,0-1,-1 2,1-1,-1 1,0-1,1 1,-1 0,0 0,0 0,-1 0,1 0,-1 1,0-1,2 6,8 9,-3 0,0 1,10 32,-12-25,1 0,-2 1,-2-1,-1 1,-1 39,-2-54,-1-1,0 1,0-2,-1 2,-1-1,0 0,-1-1,-1 1,0-1,0 1,0-1,-1-1,-2 1,1-1,-14 14,-3-1,-2-1,-1-1,-1-2,0-1,-2 0,0-3,-1 0,0-1,-40 10,86-25,0 2,0 0,0 1,0 0,-1 1,1 1,0 0,24 8,-14-3,0 0,1 3,-2 0,1 1,25 18,-41-23,0-2,1 1,0 0,0-1,14 4,-4-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1333">1646 965,'2'1,"0"-1,0 0,0 1,0-1,0 1,1-1,-1 1,0 0,0 0,0 0,0-1,0 1,0 1,-1-1,1 1,0-1,-1 1,1-1,-1 1,0 0,0-1,2 1,-2 0,0 0,-1 0,1-1,1 4,2 8,-1-1,0 2,2 17,-1-3,3 0,1 0,14 33,-19-54,-1 0,1-1,1 1,0-1,0 1,1-2,-1 1,1 0,0 0,0-1,1-1,1 1,-1 0,10 5,-11-8,-2-1,1 0,0 0,-1 0,1 0,0 0,1-1,-1 0,0 0,-1 0,1 0,0 0,0-1,0 0,0 1,7-4,-4 2,0-2,1 0,-1 0,-1 0,0-1,1 1,10-12,-1-2,-1 0,0-1,-2 0,16-30,1-16,-20 44,22-41,-32 62,0 1,0-1,0 0,0 0,0 1,0-1,0 0,0 0,0 1,0-1,0 0,0 0,0 1,0-1,0 0,1 0,-1 0,0 1,0-1,0 0,0 0,0 0,1 1,-1-1,0 0,0 0,0 0,1 0,-1 0,0 1,0-1,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,0-1,1 1,-1 0,0 0,0 0,0 0,1 0,-1-1,0 1,0 0,0 0,0 0,1-1,-1 1,0 0,0 0,0-1,4 24,-4 340,-4-173,4 140,0-325,0 1,0-1,-1 1,1-1,-1 0,0 0,0 1,-1-1,0-1,0 1,0 0,-1 0,1 0,-2-1,1 1,-1-1,1 0,-1 1,0-1,0-2,0 2,-1 0,0-1,1 0,-1 0,0-1,0 1,-1-2,1 1,-1 0,1-1,0 1,-2-1,2 0,-1-1,1 1,-10-2,13 1,-17 1,-1 0,0-2,-1 0,-29-7,45 7,0 1,0-2,1 1,0-1,0 0,-1 0,1 0,0-1,0 1,0-1,1 0,-1 1,1-1,0-1,-1 1,1-1,0 0,1 0,0 1,0-1,0 0,0 0,0 0,1-1,-2-4,0-7,0 1,1 0,1-1,1 0,1 1,4-24,-4 33,0-1,1 0,0 0,1 1,-1 0,1-1,0 1,1 1,0-2,1 2,-1-1,0 1,1 0,0 0,0 0,2 0,4-2,210-111,-188 98</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1783.73">2577 914,'10'0,"21"0,18 0,13 0,8 0,7 0,4 0,1-4,2-6,-4-1,-12 1,-12 3,-10 2,-15 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3477.94">3482 736,'11'-2,"1"0,-1-1,-1-1,2 0,-2-1,0 0,1 0,-1-1,-1-1,11-7,6-5,1 2,1 1,50-22,-60 32,1-1,1 2,-1 0,0 2,1 0,0 1,27-1,172 7,-213-3,0-1,-1 1,1 1,1-1,-2 0,1 1,-1 0,0 0,1 1,-1 0,0 0,0 0,0 1,-1-1,1 1,-1 0,0 0,0 0,0 1,-1-1,0 0,0 1,1 1,-2-1,0-1,2 8,5 12,-2 0,1 0,-3 1,3 34,0 37,-11 183,2-261,-1 1,-1 0,-1 0,-1-1,0 0,-3 0,1 1,-1-2,-2 0,1-1,-1 1,-3-2,2 1,-3-1,1-1,0 0,-3-1,0 0,1-2,-23 14,-13 4,-1-1,-1-3,-1-2,-1-3,-1-1,0-3,-117 18,162-32,1-1,-1-1,1 0,0 0,-1-1,0 0,-12-4,22 5,-1-1,0 1,0-1,1 0,-1 0,0 0,1 0,-1 0,1 1,-1-1,0 0,0-1,1 1,0 0,0-1,-1 1,1-1,-1-2,2 2,-1 0,1-1,0 1,0 1,0-1,0-1,0 1,0 0,1 0,-1-1,1 1,0 0,0 0,-1 0,1 1,1-1,-1 0,0 0,4-3,3-6,2 2,0-1,0 1,1 0,1 1,-1 0,2 1,-1 0,0 0,1 2,0-1,1 1,-1 1,2 0,21-2,17-3,2 3,95 0,-83 6,102 11,-148-8,1 1,-1 1,0-1,0 3,-2 0,2 2,-1-1,31 20,-27-11</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6519.88">6497 254,'-33'50,"-3"-1,-1-2,-90 85,99-104,-35 34,-3-2,-4-4,-2-2,-3-3,-106 55,173-102,0 0,0 0,0 1,1-1,-1 1,1 0,-7 8,13-13,0 1,1 0,-1 0,-1-1,2 1,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,1 2,0-1,0 0,1-1,-1 1,1 0,-1 0,1 0,-1-1,1 1,0-1,0 1,0-1,0 1,0-1,3 1,132 58,15 7,21 27,352 179,-281-158,-157-73</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7759.67">7758 940,'1'-7,"0"-1,1 2,0-2,1 1,1 1,-1-1,7-11,2-4,55-115,190-364,-253 494,0 1,0-1,0 1,0 0,2 1,7-9,-12 13,0 1,0-1,0 0,0 1,0-1,0 0,0 1,0-1,0 1,0 0,0 0,1 0,0 0,-1 0,0 0,0 0,1 0,-1 0,2 0,-1 0,0 1,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 1,-1-1,1 1,0-1,-1 1,0-1,0 1,0 0,1 1,15 29,-2 1,-2 1,0 0,-3 1,7 38,1 4,164 819,-182-894,55 365,-51-350,-2-7,0 0,0 1,-1-1,0 15,-1-23,0 0,-1 1,1-1,-1 0,1 1,-1-2,0 1,0 1,0-1,0 0,0 0,0 0,-1 0,1 0,-2 0,2 0,-1-1,0 1,0-2,0 2,0-1,0 1,0-1,-3 1,-34 9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8703.82">1 51,'3'5,"1"-1,-1 0,0 0,1 1,-2 0,1 0,-1-1,0 1,-1 0,3 8,7 57,-9-60,13 442,-13-219,2-77,51 303,-52-446,1 2,1-2,0 1,0-1,1 1,1-2,1 0,0 1,0-2,2 1,13 14,-9-15</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9657.41">4852 0,'16'54,"-4"-1,0 1,3 93,-13-128,26 1161,-31-803,4-347</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -16417,15 +16417,15 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">644 91,'-17'3,"1"0,0 1,0 1,1 0,0 1,-1 0,2 2,-15 8,25-14,-62 37,1 2,2 4,2 2,-106 107,160-147,1 0,0 1,0-1,1 2,0-1,1 1,-1-1,2 1,-1 0,1 0,0 1,1-1,-2 15,4-20,0 1,0-1,0 1,0-1,1 0,0 1,-1-1,2 0,-1 0,0 1,1-1,0 0,0 0,0 0,0-1,1 1,0-1,-1 1,1-1,0 0,1 0,-1 0,0 0,1-1,0 1,0-1,-1 0,1 0,0 0,9 2,-8-2,1-1,-1 1,0-1,1 0,0 0,-1-1,1 1,-1-1,1-1,0 1,-1-1,1 0,-1 0,1-1,-1 1,1-1,-1 0,5-3,0-2,0-1,0 0,-1 0,0-1,0 0,-1 0,8-13,1 2,-1-1,-1-1,0-1,-2 0,-1 0,-1-2,0 1,-2-1,11-52,9-129,-14 128,-14 74,0 0,0 0,1 0,-1 0,1 0,0 0,0 1,1-1,-1 1,1-1,-1 1,1 0,0 0,0 0,7-4,-9 6,0 1,0 0,0-1,0 1,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 1,0-1,0 0,0 1,0-1,0 0,0 1,0 0,0-1,0 1,0 0,0-1,0 1,0 0,-1 0,1 0,0-1,-1 1,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 1,0 1,11 48,-11-50,7 114,-10 138,1 32,6-244,2-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="518.43">803 779,'4'0,"7"0,0 5,9 10,0 12,-4 5,-3 3,-5-1,-4-2,-2-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="896.81">1094 700,'0'14,"0"8,4 10,2 4,0 5,-1 4,-2 0,-1-5,-1-3,0-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="26303.29">1518 356,'0'-5,"0"-1,0 0,1 0,0 0,0 0,1 1,0-1,0 0,0 1,1 0,-1-1,1 1,0 0,1 1,7-9,-9 10,1 1,-1 0,1 0,0 0,0 0,0 1,0-1,0 1,0 0,1 0,-1 0,0 0,0 0,1 1,-1 0,1-1,-1 1,0 0,1 1,-1-1,1 1,-1-1,0 1,1 0,-1 0,0 1,0-1,4 3,5 3,-1 0,0 1,0 0,-1 1,0 0,0 1,10 14,55 84,-36-49,128 143,-116-145,-16-7,-25-28</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="31288.19">1465 356,'-11'-2,"16"-5,20-4,25 5,1 3,-1 1,73 8,-112-4,0 0,0 1,0 0,0 1,0 0,-1 1,0 0,0 1,0 0,-1 0,0 1,0 0,-1 1,9 9,6 8,-2 2,0 0,23 41,107 159,-136-199</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="32121.57">2153 356,'0'0,"0"0,0 0,0-1,0 1,0 0,0 0,0-1,0 1,0 0,0-1,0 1,0 0,0 0,0-1,0 1,0 0,0-1,0 1,0 0,0 0,0-1,-1 1,1 0,0 0,0 0,0-1,0 1,-1 0,1 0,0 0,0-1,-1 1,1 0,0 0,0 0,0 0,-1 0,1-1,0 1,-1 0,1 0,0 0,-1 0,-11 9,-8 20,13-13,-36 85,-72 121,93-193,-1-1,-1 0,-1-2,-46 37,44-40</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="33264.13">2761 277,'0'5,"0"10,0 7,0 13,0 6,0 4,0 4,0-2,0 0,0-4,0-4,0-4,0-5,0-1,0-3,0 0,0-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="33949.95">2523 621,'0'-4,"9"-2,7 0,6 1,3 2,3 1,4 1,12 0,10 1,6 0,-3 1,-2-1,-1 0,-6 0,-6 0,-11 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="121889.87">3793 171,'-71'0,"-80"1,148-1,-1 1,0 0,1-1,-1 1,1 1,-1-1,1 0,0 1,-1 0,1-1,0 1,0 1,0-1,0 0,1 1,-1-1,1 1,-1 0,1 0,0 0,0 0,0 0,0 1,1-1,0 0,-1 1,1-1,0 1,1-1,-1 1,0 0,1 4,-1 10,0-1,1 1,1 0,1-1,6 28,-5-33,1-1,0 1,0-1,1 0,0 0,1-1,0 1,1-1,0-1,13 15,-13-17,-1-1,1 0,0 0,1-1,-1 0,1 0,0-1,1 0,-1 0,1-1,-1 0,1 0,0-1,14 1,-20-3,-1 1,0-1,0-1,1 1,-1 0,0-1,1 1,-1-1,0 1,0-1,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0-1,-1 1,1-1,-1 0,1 0,-1 1,1-1,-1 0,0 0,0 0,0 0,0-1,0-1,3-9,0-1,-1 1,-1-1,1-15,1-8,5-4,0 2,-2-1,-1 0,1-75,-8 350,1 46,1-275,-1 0,1 0,0 0,1 0,0 0,-1-1,6 10,4 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">665 87,'-17'3,"0"0,1 1,-1 1,2 0,-1 0,0 1,1 2,-15 7,26-13,-64 36,1 1,2 4,2 2,-110 103,166-141,1 0,-1 0,1 0,1 2,0-1,1 0,-1 0,2 0,-2 1,2 0,0 0,1 0,-2 14,4-19,0 1,0-1,0 0,0 0,1 0,0 1,-1-1,2 0,-1-1,0 2,1-1,0 0,0 0,0 0,1-2,0 2,0-1,-1 1,1-1,0 0,1 0,-1 0,0-1,1 0,1 1,-1-1,-1 0,1 0,0 0,10 2,-9-2,1-1,-1 1,0-2,1 1,1 0,-2-1,1 1,-1-1,1-1,1 1,-2-1,1 0,-1 1,1-2,-1 1,2-1,-2 0,5-3,0-2,1 0,-1-1,-1 0,1 0,-1-1,-1 0,9-12,0 2,0-1,-2-1,1-1,-3-1,0 1,-2-2,1 1,-3-1,11-50,10-124,-14 124,-15 70,0 0,0 0,1 0,-1 0,1 0,0 1,0 0,1-1,0 1,0-1,-1 1,1 0,0 1,0-1,7-4,-9 6,0 1,0 0,0-1,0 1,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 1,0-1,0 0,0 1,0-1,0 0,0 1,0 0,0-1,0 1,0 0,0-1,0 1,0 0,-1 0,1 0,0-1,-1 1,1 0,-1-1,1 1,-1 0,1 0,-1 0,1 0,-1 1,0 1,12 46,-12-48,7 110,-10 132,1 30,6-233,2-9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="518.42">830 748,'4'0,"7"0,1 5,8 10,1 10,-5 6,-2 3,-6-2,-4-1,-2-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="896.81">1130 672,'0'14,"0"7,5 10,1 3,0 6,-1 3,-2 0,-1-4,-1-4,0-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="26303.29">1569 342,'0'-5,"0"-1,0 1,1-1,0 0,0 0,1 2,0-2,0 0,0 1,1 0,-1 0,1 0,0 0,1 1,8-8,-10 9,1 1,-1 0,1 0,0 0,0 0,0 1,0-1,1 1,-1 0,1 0,-1 1,0-1,0 0,1 1,-1 0,1-1,0 1,-1 0,1 1,-1-1,1 1,-1-1,0 1,1-1,-1 1,1 1,-1-1,4 3,5 3,0 0,-1 0,0 1,0 1,-1-1,0 2,11 13,57 81,-38-48,132 138,-119-139,-17-7,-25-27</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="31288.19">1514 342,'-12'-2,"18"-5,19-3,27 4,1 3,-2 1,76 8,-115-4,-1 0,1 1,-1 0,0 0,1 1,-2 1,0 0,1 1,-1-1,-1 1,1 1,-1 0,-1 0,10 10,6 7,-3 2,1 0,23 39,111 153,-140-191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="32121.57">2225 342,'0'0,"0"0,0 0,0-1,0 1,0 0,0 0,0-1,0 1,0 0,0-1,0 1,0 0,0 0,0-1,0 1,0 0,0-1,0 1,0 0,0 0,0-1,-1 1,1 0,0 0,0 0,0-1,0 1,-1 0,1 0,0 0,0-1,-1 1,1 0,0 0,0 0,0 0,-1 0,1-1,0 1,-2 0,2 0,0 0,-1 0,-11 9,-9 19,14-13,-37 82,-75 116,96-185,-1-1,0 0,-2-2,-48 36,46-39</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="33264.12">2853 266,'0'5,"0"9,0 7,0 13,0 5,0 5,0 3,0-2,0 0,0-4,0-3,0-5,0-4,0-1,0-3,0 0,0-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="33949.95">2607 597,'0'-4,"9"-2,8 0,6 1,2 3,4 0,4 1,13 0,10 1,6 0,-3 1,-3-1,0 0,-6 0,-7 0,-11 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="121889.87">3919 164,'-73'0,"-83"1,153-1,-1 1,-1 0,2-1,-1 1,1 1,-1-1,1 0,0 1,-1 0,1-1,-1 1,1 1,0-1,0-1,1 2,-1-1,1 1,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 1,1-1,0 1,1-1,-1 0,0 1,1 4,-1 9,0 0,1 0,1 0,1-1,7 28,-6-33,1 0,0 0,0 0,1-1,0 1,2-1,-1 0,1 0,0-2,14 16,-14-18,-1 0,2 0,-1 0,1-2,-1 1,2 0,-1-1,1 0,-1-1,2 0,-2 0,1 0,1-1,13 1,-20-3,0 1,-1-1,0-1,1 1,-1 0,0-1,1 1,-1-1,0 1,0-1,0 0,0 0,0 0,0 0,1-1,-1 1,0 0,0-1,-1 1,1 0,-1-1,1 0,-1 1,1-1,-1 0,0 0,0 0,0 0,0-1,0-1,3-8,0-2,0 2,-2-1,1-15,1-8,5-3,0 1,-1 0,-2-1,1-71,-8 336,1 44,1-265,-1 1,1 0,0 0,1-1,0 1,-1-1,7 9,3 4</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -16478,23 +16478,23 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 450,'18'-2,"1"0,-1-2,0 0,0-1,0-1,-1-1,31-16,-27 13,1 0,0 1,46-10,-61 17,1 1,-1 1,1-1,0 1,-1 1,1-1,0 1,-1 1,1 0,-1 0,0 0,0 1,1-1,-2 2,1-1,10 8,2 3,-1 0,0 2,-1 0,0 2,-2-1,0 2,13 21,8 20,29 67,-26-48,-15-35,3-1,37 48,-41-62</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="774">927 27,'0'2,"1"24,-1 0,-1 0,-1 1,-1-1,-2 0,0-1,-17 47,13-51,-68 150,62-141,-2-2,-1 0,-37 43,-236 242,199-222,68-67</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1513">1191 529,'4'0,"11"0,16 0,12 0,22 5,7 1,6 0,3-1,-12 2,-9 1,-10-1,-9-2,-7 3,-5 0,2-2,-1-1,1-2,-6-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2391.99">1403 847,'9'5,"7"1,10-1,6 0,14 7,23 7,8 4,-4-2,-6-4,-10-5,-5-5,-12-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4332">2303 370,'-1'88,"2"98,0-176,0-1,1 1,0 0,0-1,1 1,0-1,1 0,0 0,0 0,1-1,8 12,-11-17,0-1,0 1,0-1,1 0,-1 0,1 0,-1 0,1 0,-1-1,1 1,0-1,0 0,0 1,0-1,0-1,0 1,0 0,0-1,1 0,-1 1,0-1,0 0,0-1,0 1,1-1,-1 1,0-1,0 0,0 0,0 0,0-1,-1 1,1-1,0 1,-1-1,1 0,-1 0,5-4,5-6,0-1,0-1,-1 0,-1 0,0-1,14-30,9-13,0 10,-19 28,0-1,-1 0,-1-1,13-33,-22 51,0 12,-1 34,-3 58,1-100,1 225,-5 124,3-339,1 0,-2 0,1 0,-1 0,-1 0,0-1,0 1,-1-1,0 0,-1 0,-7 12,8-16,-1 0,1-1,-1 0,0 1,0-2,0 1,0-1,-1 1,1-1,-1-1,0 1,0-1,0 0,0 0,0-1,0 0,0 0,-1 0,-7-1,-12 1,0-1,0-1,0-2,-40-8,59 10,1 0,0-1,0 0,-1-1,1 1,1-1,-1-1,0 1,1-1,-1 1,1-2,0 1,1 0,-1-1,1 0,0 0,0-1,0 1,1-1,0 1,0-1,0 0,-3-11,4 7,0 0,0 0,1-1,0 1,0-1,2 1,-1 0,1-1,1 1,-1 0,6-16,-4 20,0 0,0-1,0 1,0 1,1-1,0 1,1-1,-1 1,1 0,0 1,0-1,0 1,1 0,0 0,-1 1,1-1,1 1,8-3,7-1,0 2,0 0,31-2,-32 5,0-1,0-1,40-13,-22 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5706.01">2991 159,'0'-5,"1"-1,0 1,1 0,0-1,-1 1,2 0,-1 0,0 0,1 0,0 0,0 1,1-1,-1 1,1 0,0 0,0 0,1 0,5-3,3-3,0 1,1 1,0 1,0 0,19-7,-26 11,0 1,0 0,1 1,-1 0,0 0,1 0,7 1,-12 0,-1 0,1 1,-1-1,1 1,-1-1,0 1,1 0,-1 0,0 0,1 0,-1 0,0 1,0-1,0 1,0-1,0 1,0 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,2 4,2 8,0 0,-2 1,0-1,0 1,0 28,-5 82,0-77,1-29,0 0,-1 0,-1-1,-1 1,-1-1,0 0,-1 0,-16 31,18-43,1 1,-1-1,-1 0,1-1,-1 1,0-1,0 1,0-2,-1 1,0 0,0-1,0 0,0-1,-1 1,1-1,-1-1,0 1,0-1,0 0,0-1,0 1,0-1,-1-1,1 1,-11-2,15 1,1-1,0 1,-1-1,1 1,0-1,-1 0,1 0,0 0,0 0,0 0,0 0,0-1,0 1,0-1,0 1,0-1,1 0,-1 1,-1-4,0 0,0 1,1-1,0 0,0 0,1 0,-1 0,1-1,-1-7,1 0,0 0,1 0,1 0,0 0,0 0,7-21,-6 29,0-1,1 1,-1 0,1 1,0-1,1 0,-1 1,1 0,0-1,0 2,0-1,1 0,0 1,-1 0,1 0,0 0,0 1,0-1,1 1,-1 1,1-1,-1 1,1 0,-1 0,11 0,8-1,0 2,-1 0,1 2,46 8,-28 0,51 18,-56-14</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6339.02">3679 1032,'13'0,"14"0,11 0,12-9,12-3,4 1,4 2,4 2,-6 3,-15 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7525.99">4261 529,'8'-1,"1"-1,0-1,-1 0,0 0,0 0,0-1,0-1,0 1,7-6,7-4,49-28,-36 20,0 1,51-19,-52 26,97-31,-120 42,0 0,0 1,0 1,0 0,0 0,0 1,0 0,0 1,20 4,-27-3,1-1,-1 1,0 0,0 0,0 1,0-1,-1 1,1 0,-1 0,1 0,-1 0,0 1,0-1,0 1,-1 0,0-1,1 1,-1 1,0-1,-1 0,2 6,2 9,-1-1,-1 1,1 34,-3-42,4 84,-4 1,-15 129,7-190,0-1,-3 0,-1-1,-1 0,-2-1,-1 0,-1-1,-2-1,-1-1,-1 0,-36 37,35-45,-1 0,0-2,-2 0,-46 26,-109 48,169-88,-20 10,16-7,0-1,0 0,-1-1,0 0,0-1,0-1,-1-1,1 0,-26 1,39-4,-1 0,1-1,-1 1,1-1,-1 0,1 0,0 0,-1 0,1 0,0-1,0 1,0-1,0 1,0-1,0 0,0 0,1 0,-1 0,1 0,-1 0,1 0,0 0,-1-1,1 1,1 0,-1-1,0 1,0-1,1 1,0-1,-1 1,1-4,-1-10,0 1,1-1,5-30,-4 37,1-12,1 0,1 0,1 1,1-1,1 1,1 1,0-1,1 1,15-21,-18 31,1-1,1 2,0-1,0 1,1 0,-1 1,2 0,-1 0,1 1,0 0,0 1,1 0,0 1,-1 0,2 1,-1 0,0 0,15 0,-12 1,1 1,0 1,-1 1,1 0,-1 1,1 0,-1 1,0 1,0 0,0 1,0 1,18 10,3 6,-1 1,62 55,31 24,-121-99,-1 0,1-1,0 1,0-1,0 0,0-1,1 0,-1 0,0 0,1-1,-1 1,0-2,1 1,-1-1,0 0,1 0,-1 0,0-1,0 0,0 0,7-4,34-16</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9213.99">5716 873,'-1'112,"2"127,0-225,0-1,0 0,2 0,-1 0,2 0,0 0,0-1,1 0,10 19,-12-26,1 0,-1-1,1 1,0-1,1 0,-1 0,0 0,1 0,0-1,0 0,0 0,0 0,1-1,-1 1,1-1,0 0,-1-1,1 0,0 0,0 0,0 0,0-1,9-1,10-1,-1-1,1-2,-1 0,0-2,0-1,43-19,-22 4,0-3,54-40,-80 52,-2-1,1-1,-2 0,0-2,-1 0,-1 0,-1-1,11-22,-15 26,-2 0,0-1,-1 0,0 0,-2-1,1 1,-2-1,-1 0,0 0,-1 0,-1-23,-7 149,8 330,-4 175,1-571,-2 1,-14 63,13-84,-2-1,0-1,-1 1,-1-1,-1 0,-21 31,27-47,0 0,0 0,-1-1,1 1,-1-1,-1 0,1 0,0-1,-1 0,0 0,1 0,-1-1,0 1,-1-1,1-1,-8 2,-2-1,1 0,0-2,-1 0,1 0,-26-5,35 3,0 0,0 0,0 0,1-1,-1 0,1 0,-1 0,1-1,0 1,1-1,-1 0,1-1,0 1,0-1,0 0,0 0,1 0,0-1,0 1,0-1,1 1,-3-9,-2-7,1 0,1-1,0 0,-2-42,6 47,1 0,1 1,0-1,1 1,1-1,0 1,2 0,-1 0,2 0,14-29,-14 35,0 1,1-1,-1 1,2 0,-1 1,1 0,1 0,-1 1,1 0,1 0,-1 1,1 0,0 1,0 0,1 0,0 2,11-4,43-10,98-39,-138 45,0-1,-1 0,-1-2,0-1,-1-1,35-33,-32 24</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9840.99">7303 370,'9'0,"3"14,-1 18,3 12,-2 12,-2 11,-3 6,-3 10,3-1,0 4,3 1,4-6,1-7,-4-12,-2-12,-4-14</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10425">7145 926,'13'0,"9"0,10 0,4 0,14 0,7 0,3 0,5 0,-4 0,-8 0,-9 0,-6 0,-2 0,-2 0,-7 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11246">7885 847,'7'0,"1"-1,0 0,0-1,-1 0,1 0,-1 0,1-1,-1 0,0-1,0 0,-1 0,10-7,9-9,39-42,-24 22,107-89,-77 72,-3-4,100-117,-163 173,1-2,0 0,0 1,1 0,0 0,0 0,12-8,-17 13,0 1,0-1,0 1,0-1,0 1,1 0,-1 0,0-1,0 1,0 0,1 0,-1 0,0 0,0 0,0 0,1 0,-1 1,0-1,0 0,2 2,-1-1,0 1,1-1,-1 1,-1 0,1 0,0 0,0 0,-1 0,1 0,-1 0,0 1,1-1,0 4,8 19,-2 0,-1 0,0 1,5 51,-2 113,-8-132,1 585,-6-326,3-293</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="28251.71">4419 2064,'-51'-8,"12"0,17 6,-20-4,0 2,0 2,-1 1,-70 10,106-8,0 0,0 0,1 1,-1 0,1 0,0 1,-1 0,1 0,0 0,0 1,1 0,-1 0,1 0,0 1,0-1,1 1,-1 0,1 1,0-1,0 1,1 0,-1 0,2 0,-1 1,0-1,1 0,1 1,-1 0,1-1,0 1,0 0,1 8,-1 19,0-4,1 0,2 0,9 55,-10-82,0 0,0 1,0-1,0 0,1-1,0 1,-1 0,1 0,0-1,0 1,1-1,-1 0,0 1,1-1,0 0,-1 0,1-1,0 1,0-1,0 1,0-1,0 0,0 0,4 1,9 0,0 0,0 0,0-2,18-1,-21 0,0 1,1 0,-1 1,22 4,-19 1,1 0,-1 0,-1 2,1 0,-2 1,1 0,-1 1,0 1,-1 0,0 1,-1 1,0-1,-1 2,-1 0,0 0,-1 1,0 0,-1 0,-1 1,10 32,2 10,-11-37,-1 0,-1 0,-1 1,-1 0,2 23,-6-38,0-1,-1 0,0 0,0 1,0-1,0 0,-1 0,0 0,0 0,-1-1,0 1,0-1,0 1,0-1,-1 0,0 0,0 0,0-1,-1 0,0 1,1-2,-11 8,-3-2,0 1,0-2,-1-1,0 0,-1-1,1-1,-1-1,-39 3,-17-3,-78-6,77-1,53 2,0 0,1-2,0-1,-1-1,1-1,-27-10,38 11,0 0,0-1,1-1,0 1,0-2,1 0,0 0,0 0,1-2,0 1,0-1,-13-20,20 27,0-1,0 1,0-1,1 1,0-1,-1 0,1 0,0 0,1 0,-1 0,1 0,0 0,-1 0,2 0,-1 0,0 0,1 1,0-1,0 0,2-4,-1 3,0 1,1-1,0 1,0-1,0 1,1 0,-1 0,1 1,0-1,0 1,0 0,1 0,-1 0,7-3,22-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="28874.69">5028 2752,'13'0,"18"0,14 0,15 0,17 0,9 0,2 0,10 0,-4 0,-8 0,-10 0,-18 5,-18 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="30666.69">6404 3016,'2'17,"1"-1,0 0,2 0,0 0,1 0,0-1,1 0,1 0,13 19,15 33,7 34,-38-92,-1-11,0-23,-1-37,14-574,-17 630,0-1,1 1,0-1,0 1,0-1,1 1,-1 0,2 0,-1-1,1 1,0 1,0-1,0 0,1 1,0 0,0-1,0 2,1-1,-1 0,1 1,0 0,1 0,-1 0,1 1,0 0,-1 0,1 0,1 1,-1 0,0 0,0 1,8-2,35-3,0 1,0 2,98 9,-34-1,565-4,-673-1,1 0,0 0,-1 0,1 1,-1 0,1 0,-1 0,1 1,-1 0,10 4,-13-4,0 0,0 0,0 0,0 0,0 0,-1 1,1-1,0 1,-1-1,0 1,0 0,0-1,0 1,0 0,0 0,-1 0,1 0,-1 0,0 0,0-1,0 1,-1 4,0 18,-1-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="31767.69">7039 3096,'0'-7,"1"0,0-1,1 1,0 0,0-1,0 1,1 0,0 1,1-1,-1 0,1 1,0 0,1 0,0 0,0 1,0-1,0 1,8-5,-9 7,-1 0,2 0,-1 0,0 1,1-1,-1 1,1 0,-1 1,1-1,0 1,0 0,0 0,0 0,0 1,0 0,0 0,0 0,0 0,0 1,0 0,0 0,-1 0,1 0,0 1,-1 0,1 0,8 6,11 9,-1 2,-1 1,-1 1,25 31,63 101,-84-113</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="32747.69">7541 2937,'-5'0,"-10"18,-7 11,-4 9,-3 2,0 4,0 4,-4 6,3-1,3-5,1-11,1-2,-1-3,5-2,6-3,5 0,5-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 431,'19'-2,"0"0,0-2,-1 0,1 0,-1-2,0-1,31-15,-27 13,1-1,-1 1,48-9,-62 16,0 1,-1 1,1-1,1 1,-2 1,1-1,0 1,0 1,0 0,-1 0,0 0,0 1,2-1,-3 2,1-2,11 9,1 2,0 1,-1 1,0 0,-1 3,-1-2,-1 2,14 20,8 20,30 64,-26-47,-17-33,4 0,38 45,-42-60</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="774">956 26,'0'2,"1"23,-1 0,-1-1,-1 2,-2-1,-1 0,0-1,-18 45,14-49,-70 144,63-135,-1-3,-2 1,-37 41,-244 232,205-213,70-64</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1513">1228 507,'4'0,"11"0,17 0,13 0,22 4,7 2,6 0,4-1,-13 1,-9 2,-11-1,-8-2,-8 2,-5 1,2-2,-2-2,2-1,-6-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2391.99">1446 811,'10'5,"6"1,11-2,6 1,14 7,24 6,9 4,-5-2,-6-4,-10-4,-5-5,-13-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4332">2374 354,'-1'85,"2"93,0-169,0 0,1 1,0-1,0 0,2 0,-1 0,1 0,0-1,0 1,1-2,9 13,-12-18,0 0,0 1,0-1,1 0,-1 0,1 0,-1 0,1 0,-1-1,1 1,0-1,1 0,-1 0,0 0,0-1,0 1,0 0,0-1,1 0,-1 1,0-1,0 0,1-1,-1 1,1-1,-1 1,0-1,0 0,0 0,0 1,0-2,-1 1,1-1,1 1,-2-1,1 0,-1 0,5-4,5-5,1-2,-1 0,-1 0,0-1,-1 0,15-29,9-13,0 10,-20 27,1-1,-2 0,0-1,12-32,-22 49,0 12,0 32,-5 56,2-96,2 215,-7 120,4-326,1 1,-2-1,1 1,-1-1,-1 1,0-1,0 0,-1 0,0-1,-1 1,-8 11,9-15,-1 0,1-1,-1-1,-1 2,1-2,0 1,0-1,-1 1,1-2,-2 0,1 1,0-1,0 0,0 0,0-1,-1 0,1 0,-1 0,-7-1,-13 1,0-1,0-1,0-2,-41-8,61 10,1 1,0-2,-1 0,0-1,1 1,1-1,-1-1,0 1,0-1,0 2,1-3,0 1,1 0,-1-1,1 1,-1-1,1-1,0 1,1 0,0 0,0-1,0 0,-3-10,4 6,-1 1,1-1,1 0,0 0,0 0,2 0,-1 0,1 0,1 0,-1 1,7-16,-5 19,0 0,0 0,0 0,0 1,1-1,0 2,2-2,-2 1,1 0,0 1,0 0,0 0,1 0,1 0,-2 1,1-1,1 2,9-4,6-1,1 2,0 1,31-3,-32 5,0-1,-1-1,42-12,-23 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5706.01">3083 152,'0'-5,"1"0,0 0,2 0,-1-1,-1 2,2-1,-1 0,0 0,1 0,0 1,0 0,1-1,-1 1,1 0,1 1,-1-1,1 0,5-3,4-2,-1 0,1 1,1 2,-1-1,20-6,-26 10,-1 1,0 0,1 1,-1 0,1 0,0 0,7 1,-12 0,0 0,0 1,-1-1,1 1,-1-1,0 1,1 0,-1 0,0 0,1 0,-1 0,0 1,0-1,0 0,1 0,-1 1,0 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,2 3,2 9,0-1,-2 2,0-2,1 1,-1 28,-5 77,0-73,0-28,1 1,-1-1,-1-1,-1 1,-1 0,0-1,-1 0,-17 30,19-41,1 0,-1 0,-1 0,0-1,0 0,0 0,0 1,0-2,-1 1,-1-1,1 0,0 0,0-1,-1 1,0-1,0-1,0 0,0 0,0 0,-1-1,1 1,0-1,-1-1,0 1,-10-2,15 1,1-1,0 1,-1-1,1 1,-1-1,0 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0-1,1 0,-1 1,-1-4,-1 0,1 1,1 0,0-1,0 0,1 0,-1 1,1-2,-1-7,1 1,0-1,1 1,1 0,0-1,0 1,7-21,-6 28,0 0,2 0,-2 0,1 1,0-1,1 1,-1 0,1 0,0-1,0 2,0-1,2 1,-1 0,-1 0,1 0,0 0,0 1,1-1,0 1,-1 1,1 0,-1 0,1 0,0 0,10 0,9-1,0 2,-2 0,2 2,47 7,-29 1,53 17,-58-14</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6339.02">3793 988,'13'0,"15"0,11 0,13-8,12-4,4 2,4 1,4 2,-6 4,-15 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7525.99">4393 507,'8'-1,"1"-1,0-1,0 0,-1 0,0 0,0-1,1 0,-1 0,7-6,8-3,50-27,-37 19,0 0,53-17,-54 25,100-30,-123 40,-1 0,0 1,1 1,-1 0,0 0,1 1,-1 0,0 1,21 4,-28-3,2-1,-2 1,0 0,0-1,0 2,0-1,-1 1,1 0,-1 0,2 0,-2 0,0 0,0 0,0 1,-1 0,0-1,1 1,-1 0,0 0,-1 0,2 6,3 8,-2-1,-1 1,1 33,-3-40,4 80,-4 1,-15 123,6-181,1-2,-3 1,-1-2,-2 1,-1-2,-2 1,0-1,-3-1,0-2,-2 1,-37 35,37-43,-2 1,0-3,-1 0,-49 25,-111 46,174-84,-21 9,16-6,1-1,-1-1,0 0,-1 0,1-1,0-2,-2 0,2 0,-28 1,41-4,-1 0,1-1,-1 1,1-1,-1 0,1 0,0 0,-1 0,1 0,-1-1,1 1,0-1,0 2,0-2,0 0,0 0,1 0,-1 0,1 0,-1 0,1 0,0 0,-1-1,1 2,1-1,-1-1,0 1,0-1,1 1,0-1,-1 1,1-4,-1-9,0 1,1-2,5-28,-4 36,1-12,1 0,1-1,1 2,1-1,2 1,0 1,0-1,1 0,16-19,-19 30,2-2,0 2,0 0,0 0,2 0,-2 2,2-1,-1 0,2 2,-1-1,0 1,2 0,-1 1,-1 1,3 0,-2 0,0 0,16 0,-12 1,0 1,1 1,-2 1,1 0,0 1,0 0,0 1,-1 1,1-1,-1 2,0 1,19 9,4 6,-2 1,64 53,31 23,-123-95,-2 0,1-2,0 2,0-1,1 0,-1-1,1 0,-1 0,0 0,2-1,-2 1,0-2,1 1,-1-1,1 0,0 0,-1 0,0-1,0 0,0 0,8-3,34-16</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9213.99">5893 836,'-1'107,"2"122,0-215,0-2,0 0,2 1,-1-1,2 1,0-1,0 0,1-1,11 19,-13-25,1 0,-1-2,1 2,0-1,2 0,-2 0,0-1,1 1,0-1,0 0,0 0,1 0,0-1,-1 1,1-1,0-1,0 0,0 0,0 0,0 0,0 0,0-1,10-1,10-1,-2-1,2-1,-1-1,0-2,-1 0,45-19,-22 4,-1-3,56-38,-82 49,-3 0,2-2,-3 1,1-2,-2 0,0-1,-2 0,12-21,-16 25,-1-1,-1 0,-1 0,0-1,-2 0,1 1,-2-2,0 1,-1 0,-1 0,-1-23,-8 144,9 315,-4 168,1-547,-2 1,-14 61,12-81,-1-1,0-1,-1 1,-2-1,0 0,-22 30,28-45,0 0,0-1,-1 0,1 1,-2-1,0 0,1 0,0-2,-1 1,0 0,0 0,0-1,0 1,-1-1,1-1,-9 2,-1-1,0-1,1-1,-2 0,2 0,-27-4,35 2,1 0,0 0,0 0,1-1,-2 0,2 0,-1 1,1-2,0 1,1-1,-1 0,0-1,1 2,0-2,0 0,0 0,1 0,0 0,0 0,0-1,0 1,-2-8,-2-7,1 0,1-1,0 0,-3-41,7 46,1 0,1 0,0 0,2 1,0-2,0 2,2 0,-1 0,2-1,15-27,-15 34,0 0,1-1,0 2,1-1,-1 1,1 1,2-1,-2 1,1 1,1-1,0 1,0 0,0 2,1-1,0 0,0 2,12-3,44-11,101-36,-142 42,0 0,-2-1,0-1,0-2,-2 0,37-32,-33 23</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9840.99">7529 354,'9'0,"3"14,0 16,2 13,-1 10,-3 11,-3 6,-3 10,3-2,1 5,2 0,4-6,2-6,-5-11,-2-12,-3-14</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10425">7366 887,'13'0,"10"0,10 0,4 0,15 0,6 0,4 0,5 0,-4 0,-8 0,-10 0,-6 0,-2 0,-2 0,-7 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11246">8129 811,'7'0,"1"-1,0 0,1-1,-2 0,1 0,-1 1,2-2,-2 0,0-1,0 0,-1 0,11-6,9-9,40-41,-25 22,110-86,-78 70,-4-5,103-111,-168 165,1-2,0 1,0 0,2 0,-1 1,0-1,13-8,-18 13,0 1,0-1,0 1,0-1,0 1,1 0,-1 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,2 2,-1-1,0 1,2-1,-2 1,-1 0,1 0,0 0,0 0,-1 0,1 0,-1 0,0 0,1 0,0 4,8 18,-1 0,-2 0,0 1,6 49,-3 108,-8-127,1 561,-6-313,3-280</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="28251.71">4556 1977,'-53'-8,"13"0,17 6,-20-3,0 1,-1 2,0 1,-73 10,110-8,0-1,0 1,1 1,-2 0,2 0,0 1,-1 0,1 0,-1 0,1 1,1-1,-1 1,1 0,0 1,-1-1,2 0,-1 1,1 1,0-1,0 0,1 1,-1 0,1 0,0 0,0 0,1 0,1 1,-1-1,1 0,0 1,0-1,1 9,-1 17,0-3,1 0,2 0,9 52,-10-78,0 0,0 1,1-2,-1 1,1-1,0 1,-1 0,1 0,0-1,0 1,1-1,-1-1,0 2,1-1,0 0,-1 0,1-1,1 1,-1-1,0 1,0-1,0 0,0 0,4 1,10 0,-1-1,1 1,-1-2,19-1,-21 0,-1 1,1 0,0 1,22 4,-20 1,2 0,-2-1,0 3,0 0,-1 0,0 1,0 1,-1 0,0 1,-1 0,-1 2,1-2,-2 2,-1 1,1-1,-2 2,0-1,-1 0,0 2,9 30,3 9,-12-35,-1 0,-1 1,0 0,-2 0,2 22,-6-37,0 0,-1 0,0 0,0 0,0 0,0 0,-1 0,0-1,0 1,-1-1,-1 1,1-2,0 2,0-1,-1 0,0 0,0-1,0 0,-2 0,1 1,1-2,-11 7,-4-1,1 0,-1-1,-1-1,1 0,-2-2,2 0,-2-1,-40 3,-17-4,-81-5,80 0,54 1,0 0,2-2,-1-1,-1-1,1-1,-27-9,38 10,1 1,0-2,0-1,1 1,0-1,0-1,1 0,0 1,1-3,-1 2,1-2,-14-19,21 26,0 0,0 0,0-1,1 1,0-1,-1 0,1 0,0 1,1-1,-1 0,1 0,0 0,-1 0,2 1,-1-1,0 0,1 1,0-1,0 0,2-3,-1 2,0 1,1-1,0 2,0-2,0 1,2 0,-2 0,1 1,0 0,0 0,0 0,1 0,-1 0,8-3,22-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="28874.69">5183 2636,'14'0,"18"0,14 0,16 0,17 0,10 0,2 0,10 0,-4 0,-9 0,-9 0,-19 4,-19 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="30666.69">6602 2888,'2'17,"1"-2,0 0,2 1,0-1,2 0,-1 0,1-1,1 0,14 19,15 31,7 33,-38-89,-2-10,0-21,-1-37,14-549,-17 603,0 0,1 0,1-1,-1 1,0 0,1 0,-1 0,2 0,-1 0,1 0,0 1,0 0,0-1,1 1,0 0,1-1,-1 3,1-2,-1 0,1 1,0 0,1 1,0-1,0 1,0 0,-1 0,1 0,2 1,-2 0,0 0,0 2,9-3,35-3,1 1,-1 2,102 9,-36-1,583-4,-694-1,1 0,1 0,-2 0,1 1,-1 0,1 0,-1 0,2 0,-2 1,10 4,-13-4,0 0,0 0,0 0,1 0,-1 0,-1 0,1 0,0 1,-1-1,0 1,0 0,0-1,0 1,0 0,0-1,-1 1,1 0,-1 0,0 0,0-1,0 1,-1 3,0 18,-1-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="31767.69">7257 2965,'0'-7,"1"1,0-2,1 1,0 0,0 0,0 0,1 0,0 2,1-2,-1 0,1 2,1-1,0 0,0 0,0 1,0 0,0 0,9-5,-10 7,-1 1,2-1,-1 0,0 1,1-1,0 1,0 0,-1 1,1-1,0 1,0 0,0 1,1-1,-1 1,0 0,0 0,0 0,0 0,1 1,-1-1,0 1,-1 0,1 0,0 1,-1 0,2 0,7 6,12 8,-2 2,0 1,-1 1,25 30,66 97,-88-109</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="32747.69">7774 2813,'-5'0,"-11"17,-6 11,-5 8,-3 2,0 5,0 2,-4 7,3-1,4-5,0-11,1-1,-1-3,5-3,7-2,5 0,5-5</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -16521,7 +16521,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">403 21,'-1'-1,"1"0,0 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,0 0,1 0,-1 1,0-1,0 0,0 0,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0 0,0 0,0 0,-1 0,1-1,0 1,0 1,0-1,0 0,0 0,-1 0,0 1,-45 8,24-1,0 1,0 0,1 2,0 1,1 1,1 0,-36 31,45-34,1-1,1 2,0-1,0 2,1-1,0 1,1 0,0 0,1 1,1 0,0 0,1 0,0 1,1 0,-2 18,4-27,1 1,0-1,0 1,1 0,0-1,0 1,0-1,0 1,1-1,0 0,0 0,1 0,-1 0,1 0,0 0,0 0,1-1,-1 0,1 0,0 0,0 0,0 0,1-1,0 0,-1 0,1 0,0 0,0-1,0 0,7 2,7 2,1-1,-1-1,1 0,0-2,1 0,-1-1,22-3,-16 1,110-11,-124 11,-1-1,0-1,0 0,0-1,0 0,-1 0,0-1,1-1,12-9,-19 11,0 1,-1-1,1 0,-1-1,0 1,-1-1,1 1,-1-1,0 0,0 0,0 0,0 0,-1 0,0 0,0-1,0-7,0-11,-2 0,-4-35,1 8,2-103,1 328,3 159,2-298,2-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1118.16">800 550,'4'0,"11"0,0 0,0 1,0 0,27 7,-38-6,0-1,0 1,1 0,-1 0,-1 0,1 0,0 1,-1 0,1 0,-1 0,0 0,0 0,0 1,0-1,0 1,-1 0,0-1,0 1,0 1,3 6,0 12,0-1,-1 1,-2 0,0 1,-1-1,-1 0,-2 0,-6 36,6-51,0 0,-1-1,0 1,-1-1,0 0,0 0,0 0,-1 0,0-1,0 0,0 0,-1 0,0-1,0 1,-1-1,-13 7,10-6,0 0,-1-1,1 0,-1-1,0-1,0 1,-1-2,1 0,0 0,-1-1,-14 0,6-6,32-4,33-4,16 9,77 3,-73 2,-36-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1118.15">800 550,'4'0,"11"0,0 0,0 1,0 0,27 7,-38-6,0-1,0 1,1 0,-1 0,-1 0,1 0,0 1,-1 0,1 0,-1 0,0 0,0 0,0 1,0-1,0 1,-1 0,0-1,0 1,0 1,3 6,0 12,0-1,-1 1,-2 0,0 1,-1-1,-1 0,-2 0,-6 36,6-51,0 0,-1-1,0 1,-1-1,0 0,0 0,0 0,-1 0,0-1,0 0,0 0,-1 0,0-1,0 1,-1-1,-13 7,10-6,0 0,-1-1,1 0,-1-1,0-1,0 1,-1-2,1 0,0 0,-1-1,-14 0,6-6,32-4,33-4,16 9,77 3,-73 2,-36-1</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1922.16">1329 868,'0'-22,"1"0,1 1,1-1,1 0,1 1,0 0,2 0,1 0,0 1,2 0,0 1,14-20,-24 38,1 0,-1 0,1 1,-1-1,1 0,-1 1,1-1,-1 0,1 1,-1-1,1 1,0-1,-1 1,1-1,0 1,0-1,-1 1,1 0,0 0,0-1,-1 1,1 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,-1 0,1 1,0-1,0 0,0 1,-1-1,1 0,0 1,-1-1,1 1,0-1,-1 1,1 0,-1-1,1 1,-1-1,1 1,-1 0,1 0,-1-1,1 1,-1 0,0 0,0-1,1 1,-1 2,20 58,-17-50,2 10,28 99,21 158,-52-260</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2896.16">1726 524,'0'-36,"1"-1,14-71,-13 97,1 0,0-1,1 1,0 1,0-1,1 0,1 1,-1 0,2 1,0-1,0 1,0 0,14-12,-17 19,0-1,-1 0,1 1,1 0,-1 0,0 0,0 0,1 1,-1 0,1 0,-1 0,1 0,0 1,-1-1,1 1,-1 0,6 1,-2 1,1 0,-1 1,0-1,0 1,0 1,0 0,-1 0,12 8,6 8,0 2,-2 0,36 44,-59-66,58 73,-3 2,53 95,-96-148</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3507.22">2413 259,'-16'1,"1"0,0 1,0 1,1 0,-1 1,0 1,1 0,0 1,0 0,1 1,0 1,0 0,-17 15,12-8,1 0,1 2,1 0,1 0,0 1,1 1,1 0,-13 27,21-37,-2 0,1-1,-1 1,-1-1,-8 9,13-15,0 0,-1 0,1 0,-1 0,0 0,1-1,-1 1,0-1,-3 2,5-3,0 0,-1 1,1-1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0-1,0 1,0 0,0-1,0 1,0-1,0 0,0 1,0-1,0 0,1 1,-1-1,0-1,-10-15</inkml:trace>
@@ -16554,7 +16554,7 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">327 79,'-27'0,"-2"-1,0 2,0 0,0 2,-38 9,61-11,0 1,1-1,-1 1,0 0,1 1,0 0,-1 0,1 0,0 0,1 1,-1-1,0 1,1 1,0-1,0 1,0-1,1 1,0 0,0 0,0 1,0-1,1 0,0 1,0 0,0 0,1-1,-1 8,-2 58,2 1,11 90,-9-159,0 0,1-1,-1 1,0 0,1 0,0 0,0-1,-1 1,2-1,-1 1,0 0,0-1,1 0,0 1,-1-1,1 0,0 0,0 0,0 0,0 0,0 0,1-1,2 2,-3-2,1 0,-1-1,0 1,1-1,-1 0,1 0,-1 0,1 0,-1 0,1-1,-1 1,1-1,-1 0,0 1,1-1,-1 0,0 0,0-1,1 1,-1 0,0-1,0 1,-1-1,1 0,0 0,1-1,11-13,-1-1,-1 0,0-1,-1 0,-1 0,-1-1,-1-1,0 1,7-34,-12 33,-2 1,0-1,-3-20,1 27,0 1,1-1,0 1,1 0,0-1,1 1,1 0,0 0,5-16,2 76,-8 317,-3-187,1-157</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1221.93">274 688,'29'-36,"-25"31,-1 0,0 0,1 1,0-1,0 1,1 0,-1 0,1 0,0 1,0 0,0 0,0 0,0 0,1 1,5-2,-3 1,0 1,-1 1,1-1,0 1,0 1,0-1,0 1,10 2,-15-2,0 1,-1 0,1-1,-1 1,1 0,-1 1,1-1,-1 0,0 1,0-1,0 1,0 0,0-1,0 1,0 0,0 0,-1 0,1 1,-1-1,1 0,-1 1,0-1,0 1,0-1,0 1,-1-1,2 6,-1 2,1 1,-2-1,1 0,-2 1,1-1,-1 0,-1 1,0-1,0 0,-1 0,0 0,-1-1,0 1,-1-1,0 0,0 0,-1 0,0-1,-13 15,6-10,-1-1,0 0,0-1,-1-1,0 0,-1-1,0-1,0 0,-1-1,-27 7,3-6,39-8,0 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,0-1,1 1,-1-1,0 1,1-1,-1 0,1 0,-1 0,1 1,-1-1,1-1,-3-1,4 3,0-1,0 1,0-1,0 1,0-1,0 0,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0-1,1 1,-1-1,0 1,0-1,1 1,-1-1,0 1,1 0,-1-1,0 1,1-1,-1 1,0 0,1-1,-1 1,1 0,-1 0,1-1,-1 1,1 0,-1 0,1-1,24-10,-21 9,18-7,0 1,0 0,1 2,0 0,0 2,1 0,-1 2,1 0,0 2,32 3,-25 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2326.26">776 688,'2'0,"0"-1,0 0,1 1,-1-1,0 0,0-1,0 1,0 0,0-1,0 1,0-1,1-1,21-13,-24 16,1 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0 1,-1-1,1 0,0 0,-1 1,1-1,0 0,-1 1,1-1,-1 1,1-1,0 1,-1-1,1 1,-1-1,0 1,1-1,-1 1,1 0,-1-1,0 1,0 0,1-1,-1 1,0 0,0 0,0 0,5 18,-1 1,-1-1,0 1,-2-1,0 1,-4 33,1-7,-4 29,6-72,-1 0,0 1,0-1,0 0,0 0,0 0,-1 0,1 0,-1 0,0 0,0 0,0-1,0 1,0-1,0 1,-1-1,0 0,1 0,-6 3,7-5,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0-1,0 1,0-1,0 1,1 0,-1-1,0 0,0 1,0-1,0 0,1 1,-1-1,0 0,1 0,-1 1,1-1,-1 0,1 0,-1 0,1 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,1 0,-1 0,1 1,-1-1,1 0,0 0,1-1,1-1,1 0,0 0,1 0,-1 1,0 0,1-1,-1 2,1-1,0 0,0 1,-1 0,1 0,7 0,70-2,-68 3,12 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2326.25">776 688,'2'0,"0"-1,0 0,1 1,-1-1,0 0,0-1,0 1,0 0,0-1,0 1,0-1,1-1,21-13,-24 16,1 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0 1,-1-1,1 0,0 0,-1 1,1-1,0 0,-1 1,1-1,-1 1,1-1,0 1,-1-1,1 1,-1-1,0 1,1-1,-1 1,1 0,-1-1,0 1,0 0,1-1,-1 1,0 0,0 0,0 0,5 18,-1 1,-1-1,0 1,-2-1,0 1,-4 33,1-7,-4 29,6-72,-1 0,0 1,0-1,0 0,0 0,0 0,-1 0,1 0,-1 0,0 0,0 0,0-1,0 1,0-1,0 1,-1-1,0 0,1 0,-6 3,7-5,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0-1,0 1,0-1,0 1,1 0,-1-1,0 0,0 1,0-1,0 0,1 1,-1-1,0 0,1 0,-1 1,1-1,-1 0,1 0,-1 0,1 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,1 0,-1 0,1 1,-1-1,1 0,0 0,1-1,1-1,1 0,0 0,1 0,-1 1,0 0,1-1,-1 2,1-1,0 0,0 1,-1 0,1 0,7 0,70-2,-68 3,12 1</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4034.61">1491 0,'-2'131,"-1"-36,13 123,-7-199,0 0,2-1,0 0,1 0,1 0,0-1,2 1,0-2,0 1,2-2,0 1,25 25,-30-34,0-1,1 0,0-1,1 1,-1-1,1-1,0 1,0-1,1-1,-1 1,1-2,-1 1,1-1,0 0,0-1,0 0,0 0,0-1,0 0,0-1,0 0,0 0,0-1,0 0,0-1,-1 0,1 0,12-8,-5 2,0-1,-1-1,0-1,0 0,-1-1,-1 0,0-1,-1 0,-1-1,11-19,11-23,40-96,-36 71,-31 69,-1 0,0-1,-1 0,0 0,-1 0,2-22,-9 621,5-355,-1-221,0 0,-1 0,0 0,0 0,-1 0,0 0,-1-1,0 1,0-1,-1 0,0 0,0 0,-1 0,0 0,0-1,-1 0,0 0,-12 10,9-11,1 0,-1 0,-1-1,1-1,-1 0,1 0,-1-1,0 0,0 0,-1-1,1-1,0 0,-1 0,1-1,-21-2,24 2,0-1,0 0,0 0,0-1,0 0,1 0,-1 0,1-1,-1 0,1 0,0-1,-7-5,10 6,-1-1,1 0,1 1,-1-1,0 0,1-1,0 1,0 0,0-1,0 1,1-1,0 1,0-1,0 0,0 1,1-1,0 0,1-9,-1 10,0 0,0-1,1 1,0 0,0 0,0 0,0 0,1 0,0 0,0 0,0 1,0-1,0 0,1 1,-1 0,7-6,-4 5,1-1,0 1,1 0,-1 0,1 1,-1 0,1 0,0 1,8-2,14-2,1 2,0 1,54 1,-63 2,38 3,-42-1,-1-1,0-1,1 0,-1-1,31-6,-43 5,0 0,0 1,0-2,-1 1,1 0,-1-1,1 1,-1-1,0 0,0 0,4-6,15-19</inkml:trace>
 </inkml:ink>
 </file>
@@ -16635,7 +16635,7 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0,'2'2,"0"-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,-1 1,0-1,1 0,0 6,11 43,-6-17,31 111,31 251,-61-315,-3 1,-5 0,-2-1,-26 151,12-182,9-39</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1308.22">80 1138,'0'-7,"1"0,0 0,1 1,0-1,0 0,0 0,1 1,0-1,0 1,0 0,1 0,0 0,6-6,9-10,40-35,-40 39,-2 3,1 1,0 0,1 1,0 1,1 1,1 1,0 1,26-9,-40 16,0 0,0 1,1 0,-1 0,0 0,1 1,-1 0,1 1,-1 0,1 0,-1 0,11 4,-13-3,0 1,0 0,0 0,-1 0,1 1,-1-1,1 1,-1 0,0 0,-1 1,1-1,-1 1,0 0,0 0,0 0,-1 0,1 0,1 8,1 2,0 0,-2 0,1 1,-2-1,0 1,-1 0,0-1,-2 1,1 0,-7 30,5-39,0 0,0 0,0 0,-1 0,0 0,-1-1,0 1,0-1,0 0,0 0,-1 0,0-1,-1 1,1-1,-1-1,0 1,0-1,0 0,-1 0,1-1,-1 0,0 0,0 0,-12 2,-13 2,-132 26,154-33,0-1,1 0,-1 0,0-1,1 0,-1 0,1-1,0-1,0 1,0-2,0 1,1-1,-1 0,1-1,-8-7,-6-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2538.2">688 1112,'11'-5,"0"1,1 0,0 1,0 0,0 0,19 0,79 0,-61 4,-18-2,-16 0,0 0,0 1,1 1,24 5,-37-6,1 1,-1 0,0 0,0 1,1-1,-1 1,0-1,-1 1,1 0,0 0,0 0,-1 1,1-1,-1 1,0-1,0 1,0 0,0 0,0 0,-1 0,1 0,-1 0,0 0,0 0,2 7,0 14,-1 0,-1 1,0-1,-2 0,-8 46,6-59,0-1,-1 0,0 0,-1 0,0 0,0-1,-1 0,-1 0,1 0,-1-1,-1 0,-12 11,-7 3,-1 0,-47 27,56-37,11-6,0 0,-1-1,1 0,-1 0,0-1,0 0,-1-1,1 0,-1 0,-14 1,23-4,0 0,0 0,-1-1,1 1,0 0,0-1,-1 1,1-1,0 1,0-1,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,1 0,-1 0,1-1,-1 1,1 0,0 0,0-1,-1 1,1 0,0 0,0-1,0 1,0 0,0-1,1 1,-1-2,1-3,0 0,1 1,-1-1,1 0,1 1,-1 0,4-8,1 3,-1 0,2 1,-1-1,1 1,1 1,-1-1,1 1,1 1,0 0,0 0,0 1,1 0,-1 1,1 0,1 1,-1 0,1 1,-1 0,1 1,0 0,0 1,0 0,0 1,0 0,0 1,0 1,0-1,12 5,126 47,-128-45</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2538.19">688 1112,'11'-5,"0"1,1 0,0 1,0 0,0 0,19 0,79 0,-61 4,-18-2,-16 0,0 0,0 1,1 1,24 5,-37-6,1 1,-1 0,0 0,0 1,1-1,-1 1,0-1,-1 1,1 0,0 0,0 0,-1 1,1-1,-1 1,0-1,0 1,0 0,0 0,0 0,-1 0,1 0,-1 0,0 0,0 0,2 7,0 14,-1 0,-1 1,0-1,-2 0,-8 46,6-59,0-1,-1 0,0 0,-1 0,0 0,0-1,-1 0,-1 0,1 0,-1-1,-1 0,-12 11,-7 3,-1 0,-47 27,56-37,11-6,0 0,-1-1,1 0,-1 0,0-1,0 0,-1-1,1 0,-1 0,-14 1,23-4,0 0,0 0,-1-1,1 1,0 0,0-1,-1 1,1-1,0 1,0-1,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,1 0,-1 0,1-1,-1 1,1 0,0 0,0-1,-1 1,1 0,0 0,0-1,0 1,0 0,0-1,1 1,-1-2,1-3,0 0,1 1,-1-1,1 0,1 1,-1 0,4-8,1 3,-1 0,2 1,-1-1,1 1,1 1,-1-1,1 1,1 1,0 0,0 0,0 1,1 0,-1 1,1 0,1 1,-1 0,1 1,-1 0,1 1,0 0,0 1,0 0,0 1,0 0,0 1,0 1,0-1,12 5,126 47,-128-45</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -16719,12 +16719,12 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">186 0,'2'1,"0"-1,0 1,0-1,0 1,0 0,-1 0,1 0,0 0,0 0,0 0,-1 1,1-1,-1 0,1 1,-1 0,1-1,-1 1,0 0,0-1,0 1,0 0,0 0,0 0,-1 0,1 0,0 0,-1 0,0 0,1 3,2 12,0 1,0 26,-3-26,4 434,-8-408,-2 0,-2-1,-2 0,-1 0,-3-1,-36 79,28-73</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1437.15">477 847,'-4'-2,"0"-1,0 0,0 1,0 0,0-1,0 2,-1-1,1 0,-1 1,1 0,-1 0,-6 0,-63-2,53 3,10 0,0 0,0 1,-1 0,1 1,0 0,0 0,1 1,-1 1,-16 7,20-7,1 0,0 1,0-1,1 1,-1 0,1 1,0-1,0 1,1 0,0 0,0 0,0 1,1-1,0 1,-4 12,4-10,0 1,1-1,-1 1,2-1,0 1,0 0,1 0,0-1,0 1,1 0,0 0,5 15,-4-19,1 1,0-1,0 0,1 0,-1 0,1-1,0 1,1-1,-1 0,1 0,0-1,0 1,1-1,0 0,-1 0,1-1,0 0,10 4,10 2,-1-2,2 0,-1-2,1 0,0-2,-1-1,1-2,48-4,-68 3,0 0,-1-1,0 0,1 0,-1-1,0 0,0 0,0 0,0-1,-1 0,1 0,-1 0,0-1,0 1,-1-1,1 0,-1-1,0 1,-1-1,1 0,-1 0,0 0,-1 0,1 0,1-10,-1 8,-1 0,0 0,-1 0,1-1,-2 1,1 0,-1-1,0 1,-1 0,0-1,0 1,-1 0,0 0,-1 0,1 0,-2 0,1 1,-1-1,0 1,-6-8,1 5,0 0,-1 0,-1 1,1 0,-2 1,1 0,-1 1,-18-9,27 15,0 0,0-1,-1 2,1-1,0 0,0 1,-1-1,1 1,0 0,-1 0,1 0,0 1,0-1,-1 1,1 0,-5 2,4-1,1 0,0 0,0 1,1-1,-1 1,1 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 1,1-1,0 1,0 0,0-1,-1 6,-1 4,1-1,1 1,0 0,1 1,0-1,1 0,0 0,1 0,1-1,0 1,0 0,2-1,-1 0,10 17,-7-15,1-2,0 1,1-1,0 0,1 0,1-1,-1-1,2 0,-1 0,1-1,1-1,17 9,-6-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2378.25">1033 1112,'0'5,"0"5,0 6,0 5,0 8,0 7,0 7,4 6,2-2,0 1,-1-4,3-5,4-9,5-13,0-11</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2924.34">2038 979,'9'0,"12"0,25 0,31 0,21 0,3 0,-2 0,-5 0,4 0,-10 0,-15 0,-20 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8118.32">1 1588,'0'-1,"0"1,0-1,1 0,-1 0,1 0,-1 0,1 0,-1 1,1-1,0 0,-1 0,1 1,0-1,-1 0,1 1,0-1,0 1,0-1,-1 1,1-1,0 1,0 0,0-1,0 1,0 0,0 0,0 0,1 0,37-4,-31 3,710-8,-442 12,-152-4,-31-1,100 10,-150-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9582.28">425 1932,'-2'0,"1"-1,-1 0,1 0,-1 1,1-1,-1 1,1-1,-1 1,1 0,-1-1,0 1,1 0,-1 0,0 0,1 0,-1 0,1 1,-1-1,0 1,1-1,-1 1,1-1,-1 1,1 0,-1-1,-1 3,-40 26,39-26,-5 4,1 0,-1 1,1 1,1-1,0 1,0 1,0-1,1 1,1 0,0 0,0 1,1 0,0 0,1 0,0 0,1 0,0 1,1-1,0 1,1-1,0 1,0-1,4 16,-3-23,0 0,1-1,-1 1,1 0,-1-1,1 1,0-1,1 0,-1 0,0 1,1-2,0 1,0 0,0 0,0-1,0 0,0 1,1-1,-1 0,1-1,-1 1,1-1,0 0,0 1,-1-2,7 2,11 2,1-1,-1-1,33-2,-46 0,4 1,0-1,-1-1,1 0,0-1,0 0,-1-1,13-4,-20 5,0 0,0 0,0-1,-1 1,1-1,0 0,-1 0,0 0,0-1,0 1,0-1,-1 1,1-1,-1 0,0 0,0 0,0-1,-1 1,1 0,-1-1,1-5,2-13,0-1,-1 1,-2-1,-1 1,0-1,-2 0,0 1,-2-1,-1 1,0 0,-2 0,-1 1,-11-23,16 39,0 0,0 0,-1 0,0 0,0 1,-1 0,0 0,0 0,0 0,0 1,-1 0,1 0,-1 0,-10-4,-3 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">191 0,'2'1,"1"-1,-1 1,0-1,0 1,0 0,-1 0,1 0,0 0,0 0,0 0,-1 0,1 0,-1 0,1 1,-1 0,1-1,-1 1,0 0,0-1,0 1,0 0,0 0,1 0,-2-1,1 1,0 0,-1 0,0 0,1 3,2 11,0 1,0 25,-3-25,4 415,-8-390,-2 0,-3-1,-1 0,-1 0,-4-1,-36 76,28-71</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1437.15">491 808,'-4'-1,"0"-2,0 0,0 1,-1 0,1-1,0 2,-1-1,1 0,-1 1,1 0,-2 0,-5 1,-65-3,54 3,11 0,0 0,-1 1,0 0,1 0,-1 1,1 0,1 1,-2 1,-15 6,19-6,2 0,0 1,0-1,1 0,-1 1,0 1,1-1,0 0,1 1,0 0,0 0,0 0,1 0,0 1,-5 11,5-10,0 2,1-1,-1 0,2 0,0 0,0 1,1-1,0 0,0 1,1-1,0 1,5 13,-4-17,1 1,0-1,0-1,2 1,-2 0,1-1,0 0,1 0,-1 0,1 0,0-2,1 2,0-1,0 0,-1 0,1-2,0 1,11 4,10 2,-2-3,3 1,-1-2,1 0,0-3,-2 0,2-2,49-4,-69 4,-1-1,-1-1,0 0,1 0,-1-1,1 0,-1 0,0 0,0 0,-1-1,2 0,-2 0,0-1,0 2,-1-2,1 0,-1-1,0 2,0-2,0 0,-1 0,0 1,-1-1,1 0,1-9,-1 7,-1 1,0-1,-1 0,1 0,-2 0,1 0,-1 0,0 0,-1 1,0-2,0 1,-1 1,0-1,-1 0,1 1,-2-1,1 2,-1-2,0 1,-7-7,2 4,0 1,-1-1,-2 2,2-1,-2 1,0 1,0 0,-19-8,28 14,0 0,0-1,-1 2,1-1,-1 0,1 1,-1-1,1 1,0 0,-1 0,1 0,0 1,0-1,-1 1,0 0,-4 2,4-1,1 0,0 0,0 0,1 0,-1 1,1 0,-1 0,0 0,1 0,0 0,0-1,0 1,0 1,1-1,0 1,0 0,0-2,-1 7,-1 3,1 0,1 0,0 1,1 0,0 0,1-1,0 0,1 1,1-2,0 2,0-1,2-1,-1 1,11 16,-8-15,1-2,1 2,0-2,0 1,1-1,2 0,-2-2,2 1,0-1,0 0,1-1,18 8,-6-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2378.25">1063 1061,'0'5,"0"5,0 5,0 5,0 8,0 6,0 7,4 6,3-2,-1 1,-1-4,3-5,5-9,4-11,1-12</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2924.34">2098 934,'9'0,"13"0,25 0,32 0,22 0,3 0,-2 0,-5 0,4 0,-11 0,-15 0,-20 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8118.32">1 1516,'0'-1,"0"1,0-1,1 0,-1 0,1 0,-1 0,1 0,-1 1,1-1,0 0,-1 0,1 1,0-1,-1 0,1 1,0-1,0 1,0-1,-1 1,1-1,0 1,0 0,0-1,0 1,0 0,1 0,-1 0,1 0,38-3,-32 2,731-8,-455 12,-156-4,-32-1,102 10,-154-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9582.28">437 1844,'-2'0,"1"-1,-1 0,1 0,-1 1,1-1,-1 1,1-1,-1 1,1 0,-1-1,0 1,1 0,-1 0,0 0,1 0,-1 0,1 1,-1-1,0 1,0-1,0 1,1-1,-1 1,1 0,-1-1,-1 3,-41 25,40-26,-5 5,0 0,0 0,1 2,1-1,-1 0,1 2,0-2,1 2,1 0,-1-1,1 2,1-1,0 1,1-1,0 1,1-1,0 2,1-2,0 1,1 0,0 0,0 0,4 15,-3-22,0-1,1 0,-1 1,1 0,-1-1,1 1,0-2,1 1,-1 0,0 1,2-2,-1 1,0 0,0-1,0 0,0 0,0 1,1-1,-1 0,1-1,-1 1,2-1,-1 0,0 1,-1-2,7 2,12 1,0 0,0-1,34-2,-48 0,4 1,1-1,-2-1,1 0,1-1,-1 0,-1-1,14-3,-21 4,0 0,0 0,0-1,0 1,0-1,0 1,-1-1,0 0,0-1,0 1,0-1,-1 1,1 0,-1-1,0 0,1 0,-1-1,-1 2,1-1,-1-1,1-5,2-11,0-2,-1 1,-2-1,-1 1,0-1,-2 0,0 1,-2-1,-1 1,0 0,-3 0,0 1,-11-22,16 38,-1-1,1 0,-1 0,0 1,0 0,-1 0,0 0,0 1,-1-1,1 1,-1 0,1 0,-1 1,-11-5,-2 4</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -16778,7 +16778,7 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0,'0'5,"0"5,0 11,0 10,0 5,0 5,0 0,0-3,0-2,0-4,0 2,0 0,9 12,7 2,6 3,3-8,-2-11</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="524.18">292 370,'4'9,"2"8,5 14,-1 6,-1 6,-2 1,-3 5,-2 0,-1-5,0-4,-2-10</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1231.18">557 396,'4'9,"2"8,0 5,-2 8,-1 8,-1 2,-1 3,0-1,3 1,2-2,4-8,5-10,0-9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1231.17">557 396,'4'9,"2"8,0 5,-2 8,-1 8,-1 2,-1 3,0-1,3 1,2-2,4-8,5-10,0-9</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -16804,7 +16804,7 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">983 85,'-1'0,"1"-1,0 0,-1 0,1 0,-1 0,1 1,-1-1,1 0,-1 0,0 1,1-1,-1 0,0 1,0-1,1 1,-1-1,0 1,0-1,0 1,1 0,-1-1,0 1,0 0,0 0,-1-1,-28-4,26 4,-254-21,185 11,-1-1,-127-3,142 14,34-1,0 2,0 0,0 2,-28 5,48-5,-1 1,1-1,0 1,1 0,-1 1,0-1,1 1,0-1,0 1,0 1,0-1,1 0,-1 1,1 0,0 0,1 0,-1 0,1 0,0 1,0-1,-1 8,-4 14,1 1,-4 54,4 329,9-224,-1-151,1-1,3 1,0-1,2 0,2-1,1 0,2-1,24 46,-20-40,-3 2,0 0,-3 0,-1 1,7 81,-9 217,-9-238,1-93,0 0,-1 1,0-1,0 0,0-1,-2 1,1 0,-1 0,0-1,-1 1,1-1,-2 0,1 0,-1-1,-1 1,1-1,-1 0,0-1,-1 1,0-1,0-1,0 1,0-1,-16 8,6-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1026 82,'-1'0,"1"-1,0 0,-1 0,1 0,-1 0,1 1,-1-1,1 0,-1 0,0 1,1-1,-1 0,0 1,0-1,1 1,-1-1,-1 1,1-1,0 1,1 0,-1-1,0 1,0 0,0 0,-1-1,-29-3,27 3,-266-21,194 12,-1-2,-133-2,149 13,34-1,1 2,0 0,0 2,-29 5,50-5,-2 0,2 0,0 1,1 0,-1 1,-1-1,2 1,0-1,0 0,0 2,-1-1,2 0,-1 1,1 0,0-1,1 1,-1 0,1 0,-1 1,1-2,-1 9,-4 13,1 1,-5 52,5 316,9-215,-1-146,1 0,4 1,-1-2,2 1,3-1,0 0,3-2,24 45,-20-38,-3 1,-1 1,-2-1,-2 1,8 79,-10 208,-9-229,1-89,0-1,-1 2,0-2,0 1,0-1,-2 0,1 1,-1 0,0-2,-2 2,2-1,-2 0,1-1,-1 0,-2 1,2-2,-1 1,0-1,-2 1,1-2,0 0,-1 1,1-1,-17 7,6-6</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -16884,38 +16884,38 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">138 688,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2867.46">138 53,'-2'1,"0"-1,0 1,0-1,1 1,-1-1,0 1,0 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 1,0-1,-1 0,1 1,0-1,0 1,0-1,0 1,1 0,-1 0,-1 1,-16 53,12-34,-6 17,1 0,2 0,1 1,-2 43,0 14,-5 88,14-147,0-22,1-1,0 0,1 1,5 26,-5-38,0-1,0 1,1 0,-1 0,1-1,0 1,0-1,0 1,1-1,-1 0,1 0,0 0,0 0,0 0,0-1,0 1,1-1,-1 0,1 0,-1 0,1-1,6 3,-2-2,0 0,0 0,-1 0,1-1,0 0,0-1,0 0,0 0,0-1,0 0,0 0,0-1,-1 0,1 0,0-1,-1 0,0 0,0-1,0 0,0 0,8-6,-1-3,0 0,-1-1,0-1,-1 0,0-1,-2 0,16-29,-2-2,-2-1,21-64,-35 84,-1-1,-1 0,-1-1,-2 1,0-48,-8-21,-82 412,8-32,74-263,2 1,0-1,1 1,1-1,1 1,2 23,-1-38,-1 0,1 0,0 0,0 1,1-2,-1 1,1 0,1 0,-1 0,0-1,1 0,0 1,0-1,0 0,1 0,0 0,-1-1,1 0,0 1,0-1,1 0,-1-1,1 1,0-1,-1 0,1 0,0-1,7 2,-8-2,-1-1,0 1,1-1,-1 0,0 0,1-1,-1 1,0-1,0 1,1-1,-1 0,0 0,4-3,11-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3717.07">852 0,'-5'6,"1"1,0-1,0 1,1-1,0 1,0 0,1 0,-1 0,-1 13,-3 7,-92 312,57-223,31-92,1-1,2 2,0-1,1 1,2 0,1 0,-3 49,8-37,-2-15,1 1,2-1,0 1,9 36,-10-54,1-1,-1 1,1 0,0-1,1 0,-1 1,1-1,-1 0,1 0,0 0,1-1,-1 1,1-1,-1 0,1 0,0 0,0 0,1 0,-1-1,0 0,1 0,0 0,-1-1,1 1,0-1,0 0,5 0,17-4,-4-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4482.55">905 529,'1'-4,"1"-1,-1 1,1-1,1 1,-1-1,1 1,-1 0,1 0,1 1,-1-1,0 0,5-2,2-6,6-6,0 0,1 1,0 1,1 0,1 2,1 0,29-16,-40 26,0 0,0 1,0 0,0 0,1 1,-1 0,1 1,0 0,-1 0,1 1,0 0,-1 1,1 0,0 1,-1 0,1 0,-1 1,0 0,0 1,17 8,-14-4,0 0,-1 1,0 0,0 0,-1 1,-1 1,1 0,-1 0,-1 0,11 21,3 12,29 79,-36-82,-6-16</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4993.16">1646 185,'0'14,"-9"13,-21 20,-15 11,-12 5,-7 5,4-5,3-3,11-8,9-13,6-4,9-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5519.19">1725 635,'0'5,"0"15,0 8,0 8,0 13,-5 1,-5-3,-2-5,-3-5,1-4,3-4,4-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6929.23">2148 318,'-11'85,"8"-73,1-1,0 1,0 0,1 0,1 0,0 0,0-1,1 1,1 0,6 23,-6-31,1 0,0 1,0-1,0-1,1 1,-1 0,1-1,0 0,0 0,0 0,1 0,-1-1,0 1,1-1,0 0,-1-1,1 1,0-1,0 0,0 0,0 0,0-1,0 0,0 0,6-1,-4 1,0 0,0-1,0 0,0 0,0-1,0 1,0-2,-1 1,1-1,-1 0,0 0,0-1,0 1,0-1,0-1,-1 1,8-10,-7 4,0 0,-1-1,0 0,-1 1,-1-2,1 1,2-21,-4 19,1 0,1 0,8-23,-8 63,-16 174,-5 186,19-344,-1-23,-1 0,0-1,-1 1,-1 0,-5 20,6-36,0 0,0 0,-1 0,0 0,0 0,0-1,0 1,0 0,-1-1,1 0,-1 1,0-1,0 0,0-1,-1 1,1 0,-1-1,1 0,-1 0,0 0,0 0,0-1,0 1,0-1,0 0,0 0,-1 0,-6-1,-4 2,0-2,-1 0,1 0,-1-2,-18-3,30 4,0 0,0 0,0 0,0-1,0 0,0 1,1-1,-1 0,1-1,-1 1,1-1,0 1,0-1,0 0,0 0,1 0,-1-1,1 1,0-1,0 1,0-1,0 0,-2-7,1-6,1 1,1-1,1 0,0 1,1-1,0 0,2 1,6-25,1-16,-6 28</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7645.21">2651 106,'5'0,"1"0,-1 0,1 1,-1-1,1 1,-1 0,1 1,-1-1,0 1,0 0,1 0,-1 1,-1 0,1 0,0 0,-1 0,0 1,1-1,-1 1,-1 0,1 1,0-1,-1 0,0 1,0 0,4 9,9 18,0 1,-3 0,0 1,-3 0,0 1,-3 0,5 41,5 256,-17-289,1-27,-6 336,4-340,-1 0,0 0,-1-1,-1 1,0-1,0 1,-1-1,-1-1,1 1,-2-1,0 0,0 0,0-1,-1 0,-16 14,35-42,14-13,15-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8180.9">3445 714,'4'0,"6"0,7 0,3 0,4 0,3 0,0 0,0 0,1 0,-5 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8782.98">3207 1032,'0'5,"4"1,6-1,7 0,3-2,18-1,6 4,5 0,-2 0,-4-1,-9-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11511.14">4450 450,'-1'1,"0"-1,0 0,0 1,0-1,0 0,0 1,0-1,0 1,1-1,-1 1,0 0,0-1,1 1,-1 0,0-1,1 1,-1 0,1 0,-1 0,1 0,-1-1,1 1,0 0,-1 0,1 0,0 0,0 2,-6 30,6-30,0 4,-4 19,1 1,2-1,1 1,0-1,3 0,0 1,7 27,-9-52,-1 0,1 1,0-1,-1 0,1 0,0 0,1 0,-1-1,0 1,0 0,1 0,-1-1,1 1,0-1,-1 1,1-1,3 2,-4-2,1-1,-1 0,0 0,1 1,-1-1,0 0,1 0,-1 0,1-1,-1 1,0 0,1 0,-1-1,0 1,1-1,-1 1,0-1,0 0,0 1,2-3,3-1,-1-1,0 0,0 0,-1 0,1-1,-1 1,-1-1,1 0,4-10,36-105,13-29,-57 148,1 1,-1-1,1 1,0-1,-1 1,1-1,0 1,0 0,0-1,0 1,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,3-1,-3 2,0 0,0 0,0 0,0 1,0-1,-1 0,1 0,0 1,0-1,-1 1,1-1,0 1,0-1,-1 1,1-1,0 1,-1 0,1-1,-1 1,1 0,-1-1,1 1,-1 0,1 1,3 7,0 0,0 1,-1-1,3 17,6 58,-4-1,-4 1,-11 159,6-230,0 0,-1 0,0 0,-1 0,-1 0,0-1,0 1,-2-1,1 0,-11 17,11-23,0 0,0 0,0-1,-1 0,0 0,0 0,0 0,-1-1,1 0,-1-1,0 1,0-1,0 0,-1-1,1 0,-1 0,1-1,-1 0,-9 1,-23-1,0-2,1-1,-1-2,1-2,-43-12,75 16,-1-1,0 0,1 0,0-1,0 0,0 0,-9-8,15 11,0 1,0-1,1 0,-1 1,0-1,0 0,1 0,-1 0,1 0,-1 0,0 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0-2,1 1,0 1,0-1,1 1,-1-1,0 1,1 0,-1 0,0-1,1 1,0 0,-1 0,1 0,-1 1,1-1,0 0,0 1,0-1,-1 1,4-1,10-3,0 0,0-1,-1-1,1 0,-2-1,1-1,-1 0,0-1,19-17,-14 7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12641.11">4847 53,'3'-2,"0"0,1-1,0 1,-1 0,1 1,0-1,0 1,0-1,0 1,0 1,5-2,51-2,-44 3,9-1,-12 1,0 0,0 0,0 2,17 1,-27-1,0-1,0 1,-1 0,1 0,0 0,-1 0,1 0,-1 0,0 1,1-1,-1 1,0 0,0-1,0 1,0 0,0 0,0 0,-1 1,1-1,-1 0,1 1,-1-1,0 1,0-1,1 5,2 10,0 0,-2 0,0 0,-1 0,0 1,-1-1,-5 31,3-39,0 1,0-1,-1 0,0 0,-1 0,0 0,0-1,0 0,-1 1,-1-2,1 1,-1-1,-1 1,1-2,-13 11,-5 1,-1-1,-49 24,73-41,0 0,0 0,0 1,0-1,0 1,0-1,0 1,0-1,1 1,-1-1,0 1,0 0,0-1,0 1,1 0,-1 0,0 0,1-1,-1 1,1 0,-2 1,20 5,51-8,-58 1,191-4,-179 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13232.11">5429 767,'9'5,"16"1,13 4,14 1,7-2,2 2,-4-1,-8-1,1-3,-3-3,0-1,4-1,4-1,1-1,-10 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14335.46">6302 476,'7'-6,"0"1,1 0,-1 0,1 0,1 1,-1 0,0 0,1 1,0 0,0 1,0 0,12-1,15 0,66 2,-58 1,-36 0,0 0,0 1,0-1,0 2,0-1,-1 1,1 0,13 6,-17-6,0 1,0 0,0-1,-1 1,1 1,-1-1,0 0,1 1,-2 0,1 0,0 0,-1 0,0 0,0 0,3 9,2 16,0 0,-3 0,0 0,-2 1,-1-1,-1 0,-2 1,-9 55,7-70,-1 1,0-1,-1 0,-1-1,0 1,-1-1,0-1,-1 1,-1-1,-20 21,17-21,1-1,-1-1,-1 0,0 0,-1-2,0 0,0 0,-1-1,-27 9,1-8,40-9,0 0,0 1,-1-1,1 0,0 0,0 0,0-1,0 1,0 0,-1-1,1 1,0-1,0 0,0 0,1 0,-4-2,5 3,0-1,1 0,-1 0,0 1,1-1,-1 0,1 1,-1-1,1 0,-1 1,1-1,-1 1,1-1,0 1,-1-1,1 1,0-1,0 1,-1 0,1-1,0 1,0 0,-1 0,1-1,0 1,1 0,26-9,-10 3,0 1,1 1,24-2,-38 6,-1-1,0 1,1 0,-1 0,0 1,1-1,-1 1,0 0,0 0,0 0,0 1,0-1,0 1,0 0,0 0,0 1,-1-1,1 1,-1-1,6 7,22 39,-17-27</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15734.41">7308 900,'-1'32,"0"-22,0 1,1-1,1 1,-1-1,5 19,-4-27,0 1,0 0,0-1,1 1,-1-1,1 1,-1-1,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0-1,1 1,-1-1,1 1,-1-1,1 0,0 0,-1 0,1-1,0 1,-1-1,5 1,36 3,1-2,82-7,-123 5,0 0,1 0,-1-1,0 1,1-1,-1 0,0 0,0 0,0 0,0-1,0 1,0-1,0 0,0 0,0 0,-1 0,1 0,-1-1,0 1,0-1,0 0,0 1,0-1,0 0,-1 0,1 0,-1 0,0 0,0-1,0 1,0 0,-1 0,1-1,-1 1,0-1,0 1,0 0,0-1,-1-3,-20 62,-4 51,-5-1,-4-2,-90 185,114-270,0-1,-2 0,0-1,0 0,-2 0,1-2,-18 15,25-25,0 1,0-1,0 0,-1 0,1 0,-1-1,0 0,0-1,0 0,0 0,-1 0,1-1,0 0,-1 0,1-1,-1 1,1-2,0 1,-1-1,1-1,-1 1,-9-4,13 3,1-1,-1 1,1-1,-1 1,1-1,0 0,0 0,0-1,0 1,0 0,1-1,0 0,0 0,0 0,0 0,0 0,1 0,0 0,0 0,0 0,0-1,1 1,-1-6,1 5,-1 0,1 1,0-1,0 0,0 1,1-1,0 0,0 1,0-1,0 1,1-1,0 1,0 0,0-1,0 1,1 0,-1 1,1-1,0 0,0 1,6-5,4 0,0 1,1 1,0 0,0 1,0 1,0 0,1 1,22-2,15 1,58 4,-9 0,-94 0,0-1,0 1,-1-2,1 1,0-1,-1 0,9-3,4-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16316.46">8525 318,'0'9,"0"17,0 12,0 14,-9 24,-8 14,-5 9,1 1,-5-3,-2 5,3-11,6-21</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16779.34">8234 1032,'4'0,"11"0,7 0,9 0,4 0,9 0,11 0,4 0,7 0,-4 0,-4 0,-11 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17529.34">8816 926,'32'-17,"-1"-2,-1-2,-1 0,0-2,-2-2,33-36,0-9,66-98,-96 120,-18 29,0 1,28-32,-40 49,1 0,-1 0,1 0,0 1,0-1,-1 0,1 0,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0 0,0 0,0 0,0-1,0 1,0 0,1 0,-1 1,0 0,0-1,0 1,0-1,-1 1,1 0,0 0,0-1,-1 1,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 2,5 57,-6-54,3 88,-5 0,-4 0,-4 0,-4-1,-37 127,12-90,27-88</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19745.91">243 2223,'32'0,"-20"-1,0 0,0 2,0-1,1 2,22 4,-31-4,-1-1,1 1,-1 0,0-1,0 1,0 1,0-1,0 0,0 1,0 0,-1-1,1 1,-1 0,0 0,0 0,0 1,0-1,-1 0,1 1,-1-1,0 1,0 0,0-1,0 5,2 23,0 1,-2-1,-6 57,2-48,4 76,0-105,1 1,0-1,1 1,0-1,0 0,2 0,-1 0,1 0,1-1,11 18,-13-23,0 0,1 0,-1-1,1 0,0 0,0 0,0 0,0-1,1 1,-1-2,1 1,0 0,0-1,11 2,-7-2,0-1,0 0,0-1,-1 0,1-1,0 0,0 0,17-6,-6 0,-1 0,0-2,0-1,-1 0,0-1,-1-1,32-27,-38 28,-1-1,-1 0,0-1,-1 0,0-1,-1 0,0 0,-2 0,1-1,4-19,4-19,11-92,-2 13,16-37,-32 143</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20498.35">1540 2037,'-97'84,"64"-58,-36 38,58-53,1 1,1 0,0 1,0-1,2 2,-1-1,-5 16,7-8,0-1,1 1,1-1,1 1,-1 36,10 108,-3-121,-2-18,1-1,2 1,0-1,2 0,1 0,14 34,-19-53,1 0,0-1,0 1,0-1,1 0,0 0,0 0,0 0,0-1,1 1,0-1,0 0,0-1,0 1,1-1,-1 0,1 0,0-1,0 0,0 0,0 0,0-1,1 0,-1 0,0 0,0-1,1 0,-1 0,0-1,1 1,8-4,21-6,-5-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="21165.45">1990 2275,'-1'1,"1"-1,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 0,0-1,-1 1,1 0,0 0,-1 0,1 0,0-1,-1 1,1 0,0 0,0 0,-1-1,1 1,0 0,0-1,-1 1,1 0,0-1,0 1,0 0,0-1,-1 1,1 0,0-1,0 1,0 0,0-1,0 1,0 0,0-1,0 1,0-1,0 1,0 0,0-1,0 1,1 0,-1-1,0 1,0 0,0-1,0 1,1 0,-1-1,0 1,0 0,0-1,1 1,-1 0,0 0,1 0,-1-1,21-19,-11 14,0 0,1 1,0 0,0 1,0 0,1 1,-1 0,1 0,0 1,-1 1,19 0,-24 1,0 0,0 1,0 0,1 0,-1 1,0-1,0 1,-1 0,1 1,0-1,-1 1,1 1,-1-1,0 1,0-1,0 2,-1-1,1 0,-1 1,0 0,-1 0,1 0,3 7,7 21,-2 0,-1 0,13 69,-18-70,1-1,2 1,1-2,23 51,-31-77,0 0,1-1,-1 1,1-1,-1 0,1 1,0-1,0-1,0 1,1 0,-1-1,1 1,-1-1,1 0,0 0,0-1,0 1,7 1,24 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="21682.69">2519 2328,'-9'9,"-17"12,-8 12,-25 17,-12 11,1-2,5-6,-1-8,15-11,17-11</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22877.04">2730 2328,'-3'60,"-19"105,4-35,17-126,0-1,1 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,1 1,0-1,0-1,0 1,0 0,1 0,-1 0,1 0,3 4,-2-5,0 0,0 0,1 0,-1 0,0-1,1 1,-1-1,1 0,0 0,-1 0,1-1,0 1,0-1,-1 0,7 0,-3 0,19 0,0 0,0-2,45-8,-65 8,1 1,0-1,-1-1,1 0,-1 1,0-2,0 1,0-1,-1 0,1 0,-1-1,0 1,0-1,0 0,-1-1,0 1,0-1,0 0,3-6,9-29,-1-1,16-81,-27 114,-2 10,1 23,-1 42,-1 27,-5 179,3-253,-2 1,0-1,-1 0,0 0,-2-1,-14 34,17-45,0 0,-1-1,0 1,0-1,0 0,-1 0,1-1,-2 1,1-1,0 0,-1 0,0-1,0 0,-1 0,1 0,-1-1,0 0,1 0,-1-1,-13 4,-16-3,-1 0,1-3,-52-5,85 5,0 0,1 0,-1-1,0 1,1-1,-1 0,0 0,1 0,-1 0,1 0,0-1,-1 1,1-1,0 1,0-1,0 0,0 0,0 0,0 0,1 0,-1 0,0-1,-1-3,1-1,-1-1,1 1,1-1,0 1,0-1,0 1,1-9,0-16</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="23711.87">2651 2672,'0'9,"0"8,0 5,0 3,0 3,0 0,0 0,-9 5,-3 0,0-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="24511.09">3471 1879,'2'34,"1"0,3 0,0-1,15 43,4 21,1 32,-5 1,-7 1,-3 262,-28-257,11-92,2-16</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="25046.29">4053 2328,'4'0,"7"0,14 0,8 0,11 0,12 5,11 1,28 0,9-1,-1-2,-9-1,-11-1,-15 0,-15-1,-17-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="25662.37">4186 2752,'0'5,"9"5,20 2,20-2,24-2,16-2,26-3,16-2,2 0,-6-1,-22-1,-27 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="27113.08">6249 2302,'-1'-1,"1"0,0 0,-1 1,1-1,0 0,-1 0,1 0,-1 0,1 0,-1 0,0 1,1-1,-1 0,0 0,1 1,-1-1,0 0,0 1,0-1,0 1,0-1,0 1,1 0,-1-1,0 1,0 0,0 0,-2-1,-33-4,34 5,-65-1,-118 12,53 0,110-10,8-1,0 0,1 2,-1 0,-21 5,32-6,0 0,-1 0,1 1,0-1,0 1,0 0,0 0,0 0,1 0,-1 1,0-1,1 1,0-1,0 1,-1 0,2 0,-1 0,0 0,1 0,-1 0,1 1,0-1,-1 4,-2 21,1-1,1 1,1 0,2 0,1 0,6 33,-7-58,-1 1,1-1,0 1,0-1,0 1,1-1,-1 0,1 0,0 1,0-1,0 0,0 0,0-1,1 1,-1 0,1-1,0 0,0 1,0-1,0 0,0-1,3 3,6 0,0-1,0 0,0 0,0-1,16 0,45 10,-68-11,-1 0,0 1,1 0,-1 0,0 0,0 0,0 1,-1-1,1 1,-1 0,1 0,-1 1,4 4,-2 0,0 0,-1 1,0-1,-1 1,0 0,0 0,0 0,-2 1,1-1,0 16,-1 13,-5 52,0-29,4-55,0 0,-1 0,0-1,0 1,0-1,0 1,-1 0,0-1,0 0,-1 0,1 1,-1-1,0-1,-1 1,1 0,-6 4,3-4,1 0,-1-1,-1 0,1 0,0-1,-1 0,0 0,0-1,0 1,0-1,0-1,-11 2,-42 3,0-2,0-3,-85-9,142 7,-1 1,1-1,0 0,-1 0,1 0,0-1,-1 1,1-1,0 0,0 0,0 0,1 0,-1 0,0 0,1-1,0 0,-1 1,1-1,0 0,0 0,1 0,-1 0,1 0,-1-1,1 1,0 0,0-1,0 1,0-5,-4-23</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="28185.7">6461 2937,'0'-2,"1"0,-1-1,1 1,0 0,0 0,0 0,0-1,0 1,0 0,1 0,-1 1,1-1,-1 0,1 0,0 1,0-1,0 1,0-1,0 1,0 0,0 0,0 0,0 0,1 0,-1 0,5 0,11-4,0 1,27-3,-23 3,-14 3,272-56,-236 50,-24 5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="29336.68">7149 2884,'0'11,"2"0,0-1,0 1,1-1,7 20,2 2,88 329,-97-350,1-1,0 0,0 0,11 19,-15-29,0 0,1 1,-1-1,0 0,0 1,1-1,-1 0,0 1,0-1,1 0,-1 0,0 1,1-1,-1 0,0 0,1 0,-1 1,1-1,-1 0,0 0,1 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,1 0,0-1,10-13,4-29,-14 39,147-652,-124 529,-14 64,-9 45,1 1,1 0,1 0,0 0,2 0,8-21,-11 35,-1-1,1 0,0 1,0 0,1 0,-1 0,0 0,1 0,0 0,0 1,0 0,0 0,0 0,0 0,0 1,7-2,8-1,0 1,31-2,-33 4,417-11,-117 7,-286 3,-21 0,-1 1,1 1,0-1,-1 2,1-1,0 1,-1 1,0 0,1 0,9 4,-4 5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="30126.54">7731 2752,'0'0,"0"1,0-1,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 1,0-1,0 0,1 0,-1 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,-1 0,1 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 1,0-1,16 8,15-2,-1-2,2-1,-1-2,45-3,43 1,-111 2,0 1,-1 0,1 0,0 0,-1 1,1 0,-1 0,0 1,0 0,0 0,-1 1,0 0,1 0,9 11,5 7,-1 2,24 38,-26-36,49 67,-50-73</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="30704.57">8393 2619,'-9'9,"-12"12,-21 16,-16 16,-8 6,-14 8,-31 24,-4 5,12-9,19-15,24-19</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">143 663,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2867.46">143 51,'-2'1,"-1"-1,1 1,0-1,1 1,-1-1,0 1,0 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 1,0-1,-1-1,1 2,0-1,0 1,0-1,-1 1,2 0,-1 0,-1 1,-16 51,12-33,-7 17,2-1,2 1,0 0,-1 42,0 14,-6 84,15-142,0-20,1-2,0 1,1 0,5 26,-5-38,0 0,0 1,1 0,-1 0,2-1,-1 1,0-2,0 2,1-1,-1 0,1 0,0 0,0 0,0 0,0-1,0 0,2 0,-2 0,1 0,-1 0,1-1,6 3,-1-2,-1 0,0 0,-1 0,2-1,-1 0,0-1,1 0,-1 0,0-1,0 0,1 0,-1-1,-1 0,1 0,1-1,-2 0,0 0,0-1,1 1,-1-1,8-6,0-2,-1-1,0 0,-1-2,-1 1,1-2,-3 1,17-29,-2-1,-2-1,21-62,-36 81,0-1,-2 0,-1-1,-2 2,0-48,-8-19,-85 396,8-30,77-254,2 2,0-2,1 1,1-1,1 2,2 21,-1-36,-1 0,1-1,0 1,0 1,1-2,-1 1,1 0,1-1,-1 1,1-1,0 0,0 1,0-1,0-1,1 1,0 0,-1-1,1 0,1 1,-1-1,1 0,-1-2,1 2,0-1,-1 0,2 0,-1-1,7 2,-8-2,-1-1,1 1,0-1,-1 0,0 0,1-1,-1 1,0-1,0 1,1-1,0 0,-1 0,4-3,11-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3717.07">880 0,'-5'6,"1"1,0-2,0 2,1-1,0 1,0-1,0 1,0 0,-1 12,-3 7,-95 301,58-216,33-88,1-1,1 3,1-2,1 1,2 0,1 0,-4 47,9-35,-2-15,1 1,2-1,0 1,10 35,-11-52,1-1,-1 1,1 0,0-2,1 1,-1 1,1-1,-1 0,1 0,1 0,0-2,-1 2,1-1,-1 0,1 0,0 0,0 0,2 0,-2-1,0-1,1 1,0 0,-1-1,2 1,-1-1,0 0,5 0,18-4,-4-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4482.55">935 509,'1'-3,"1"-2,-1 1,1-1,1 1,0-1,0 2,-1-1,1 0,1 1,-1-1,0 0,5-1,3-7,5-5,1-1,0 2,1 1,1-1,0 3,2-1,29-15,-40 25,-1 1,0 0,1 0,-1 0,1 1,0 0,0 1,0 0,0 0,0 1,0 0,0 1,0 0,0 1,0 0,0 0,-1 1,0 0,1 0,17 9,-15-4,0-1,0 2,-1 0,1-1,-2 2,-1 1,1-1,0 1,-2-1,12 21,2 12,31 75,-37-78,-7-16</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4993.16">1701 178,'0'14,"-9"12,-22 19,-16 11,-12 4,-7 6,4-5,3-4,12-7,8-12,7-4,10-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5519.19">1783 612,'0'4,"0"16,0 7,0 7,0 13,-6 2,-4-4,-2-5,-4-4,2-4,2-4,5-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6929.23">2220 306,'-12'82,"9"-70,1-2,0 2,0-1,1 1,1-1,0 1,0-1,1 0,1 1,6 21,-6-29,1 0,1 1,-1-1,0-1,1 1,-1-1,1 0,0 0,0 0,1 0,0 0,-1-1,0 1,1-1,0 0,-1-2,2 2,-1-1,0 0,0 0,0 0,0-1,1 0,-1 0,6-1,-4 1,1 0,-1-1,0 0,0 0,1-1,-1 2,0-3,-1 1,1-1,0 0,-1 0,0-1,0 1,0-1,1 0,-2 0,8-10,-7 5,1-1,-2-1,0 1,-1 0,-1-1,1 0,3-20,-5 19,1-1,1 1,8-23,-8 61,-16 168,-6 178,21-330,-2-23,-1 0,0 0,-1 0,-2 0,-4 20,6-36,0 1,0 0,-1 0,0 0,0 0,0-1,0 0,0 1,-1-1,1 0,-2 1,1-1,0 0,0-1,-1 1,1-1,-1 0,1 0,-1 0,-1 0,1 0,0-1,0 1,0-1,0 0,0 0,-2 0,-5-1,-4 2,-1-2,0 0,0 0,-1-2,-18-3,31 4,0 0,0 0,0 0,0-1,0 0,-1 1,2-1,-1 0,1 0,-1 0,1-1,0 1,0-1,0 0,-1 0,2 0,-1-1,1 1,0 0,0 0,0-1,0 0,-2-7,1-5,1 1,1-2,1 1,0 1,1-2,0 1,2 0,6-23,1-16,-5 27</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7645.21">2739 102,'6'0,"0"0,-1 0,1 1,-1-1,2 1,-2 0,1 1,-1-1,0 1,0 0,2 0,-2 1,-1-1,1 1,0 0,-1 0,1 1,0-1,-1 1,-1 0,1 0,0 0,-1 0,0 1,0 0,5 8,8 18,1 1,-4 0,1 0,-4 1,0 1,-2-1,4 41,6 245,-18-277,1-27,-7 324,5-327,-1-1,0 1,-1-2,-1 2,0-1,0 0,-1 0,-2-2,2 2,-2-1,0-1,-1 1,1-1,-1-1,-17 14,37-40,13-13,17-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8180.9">3560 688,'4'0,"6"0,8 0,3 0,3 0,4 0,0 0,0 0,1 0,-5 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8782.98">3314 994,'0'5,"4"0,6 0,8 0,3-2,18-1,6 4,6-1,-2 1,-5-1,-9-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11511.14">4598 433,'-1'1,"0"-1,0 0,0 1,0-1,0 0,0 1,0-1,0 1,1-1,-1 1,0 0,0-1,1 1,-1 0,0-1,1 1,-1 0,1 0,-1 0,1 0,-1-1,1 1,0 0,-1 0,1 0,0 0,0 2,-6 28,6-28,0 4,-4 18,0 1,3-1,1 1,0-1,4 0,-1 1,7 26,-9-50,-1 0,1 1,0-1,-1 0,1 0,0 0,1 0,-1-1,0 0,0 1,1 0,-1-1,1 1,1-1,-2 1,1-1,3 2,-4-2,1-1,-1 0,0 0,1 1,-1-1,0 0,1 0,-1 0,1-1,-1 1,0 0,1 0,-1-1,0 1,2-1,-2 1,0-1,0 0,0 1,2-3,3-1,-1-1,0 1,0-1,0 0,0-1,-1 1,-1 0,1-1,4-10,38-100,13-29,-59 144,1 0,-1-1,1 1,0-1,-1 1,1-1,0 1,0 0,0-1,0 1,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,3-1,-3 2,1 0,-1 0,0 0,0 1,0-1,-1 0,1 0,0 1,0-1,-1 1,1-1,0 1,0-1,-1 1,1-1,0 1,-1 0,1-1,-1 1,1 0,-1-1,1 1,-1 0,1 1,3 7,0-1,0 2,0-1,2 16,6 55,-4 0,-3 1,-13 153,7-221,0-1,-1 1,0-1,-1 1,-1-1,0 0,0 1,-3-2,2 1,-11 16,11-23,-1 1,1 0,0-1,-1 0,0-1,-1 1,1 0,-1-1,1 0,-1-1,-1 0,1 0,0 0,-1-1,0 0,0 0,1-1,-1 0,-10 1,-23-1,-1-2,2-1,-1-2,0-2,-43-11,76 15,0-1,0 0,1 0,-1-1,1 1,0-1,-10-8,16 11,0 1,0-1,1 0,-1 1,0-1,0 0,1 0,-1 0,1 1,-1-1,0 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0-2,1 1,0 1,0-1,1 1,-1-1,0 1,1 0,-1 1,0-2,2 1,-1 0,-1 0,1 0,-1 1,1-1,0 0,0 1,0-1,-1 1,4-1,11-3,-1 0,1-1,-2 0,2-1,-3-1,2-1,-2 1,0-2,21-16,-16 7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12641.11">5009 51,'3'-2,"0"0,1-1,0 1,-1 0,1 1,1 0,-1 0,0-1,0 1,0 1,5-2,53-2,-45 3,9-1,-13 1,1 0,-1 0,1 2,17 1,-28-1,0-1,0 1,-1 0,1 0,0 0,-1 0,1 0,-1 0,0 1,1-1,0 1,-1-1,0 0,0 1,0 0,0 0,0 0,-1 1,1-1,-1 0,1 1,-1-1,0 1,0-1,1 4,2 11,1-1,-3 0,0 1,-1-1,0 1,-1 0,-5 29,3-37,-1 0,1 0,-1 0,0-1,-1 1,0 0,0-2,0 1,-1 1,-2-2,2 0,-1 0,-1 1,1-3,-14 12,-5 0,-1 0,-50 22,75-39,0 0,0 0,0 1,0-1,0 1,0-1,0 1,-1-1,2 1,-1-1,0 1,0 0,0-1,0 1,1 0,-1 0,0 0,1-1,-1 1,1 0,-2 0,21 6,52-8,-60 1,198-4,-185 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13232.11">5610 739,'9'4,"17"2,14 4,13 0,8-1,2 2,-4-2,-8 0,1-3,-4-3,1-1,3-1,5-1,1-1,-10 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14335.46">6512 458,'8'-5,"-1"0,1 0,-1 0,2 0,0 2,-1-1,0 0,2 1,-1 0,0 1,1 0,11-1,16 0,69 2,-61 1,-36 0,-1 0,0 1,0-1,1 2,-1-1,-1 1,1 0,14 6,-18-6,0 1,1 0,-1-2,-1 2,1 1,-1-1,0 0,1 1,-2 0,1 0,1-1,-2 1,0 0,0 0,3 8,2 16,0 0,-3 0,1 0,-3 1,-1-1,-1 0,-2 1,-10 53,8-68,-1 2,0-2,-1 0,-2 0,1 0,-1 0,0-2,-2 2,0-2,-21 21,18-20,0-2,0 0,-2-1,1 1,-2-2,1-1,-1 1,0-1,-29 8,2-7,41-9,0 0,0 1,-1-1,1 0,-1 0,1 0,0-1,0 1,0 0,-1-1,1 1,0-1,0 0,0 0,1 0,-4-2,5 3,0-1,1 0,-1 0,0 1,1-1,-1 0,1 1,-1-1,1 0,-1 1,1-1,-1 1,1-1,0 1,-1-1,1 1,0-1,0 1,-1 0,1-1,0 1,0 0,-1 0,1-1,0 1,1 0,27-8,-10 2,-1 1,2 1,24-1,-38 5,-2-1,0 1,1 0,-1 0,0 1,1-1,0 1,-1 0,0-1,0 1,0 1,0-1,0 1,1 0,-1 0,0 1,-1-1,1 1,-1-1,6 6,23 39,-17-27</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15734.41">7552 867,'-1'31,"0"-22,0 2,1-2,1 2,-1-1,5 18,-4-27,0 2,0 0,0-1,1 1,-1-1,1 1,-1-1,1 0,0 0,1 0,-1 0,0-1,0 1,0 0,0-1,1 1,-1-1,1 1,-1-1,1 0,0 0,-1 0,2-1,-1 1,-1-1,5 1,37 3,2-2,84-7,-127 5,0 0,1 0,-1-1,1 1,0-1,-1 0,0 0,0 0,0 0,0-1,0 1,0-1,1 0,-1 0,0 0,-1 1,1-1,-1-1,0 1,0-1,0 0,0 1,0-1,0 0,-1 0,1 1,-1-1,1 0,-1-1,0 1,0 0,-1 0,1-1,-1 1,0 0,0 0,0 0,0-1,-1-3,-21 60,-4 49,-5-1,-4-1,-93 177,117-260,1 0,-2-1,-1-1,1 1,-3-1,2-1,-19 14,26-24,0 0,-1 0,1 0,-1 0,1 0,-1-1,-1 0,1-2,0 1,0 0,-2 0,2-1,0 0,-1 0,0-1,0 1,1-2,0 1,-2-1,2-1,-1 1,-10-4,14 4,1-2,-1 1,1-1,-1 1,1-1,0 0,-1 0,1-1,0 2,0-1,1-1,0 0,0 0,0 0,0 0,0 1,1-1,0 0,0 0,0 0,0-1,1 1,-1-5,1 4,-2 0,2 1,0-1,0 1,0 0,2-1,-1 0,0 1,0 0,0 0,1-1,0 1,0 0,0-1,0 1,1 1,-1 0,1-1,0 0,0 1,7-5,3 1,1 0,0 1,1 0,-1 2,0 0,1 0,0 1,24-2,14 1,61 4,-10 0,-96 0,-1-1,0 1,-1-2,2 2,-1-2,-1 0,10-3,3-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16316.46">8809 306,'0'9,"0"16,0 12,0 13,-9 23,-8 13,-6 10,1 0,-5-2,-2 4,4-11,5-19</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16779.34">8509 994,'4'0,"11"0,8 0,9 0,4 0,10 0,11 0,4 0,7 0,-4 0,-4 0,-12 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17529.34">9110 892,'33'-17,"-1"-1,-1-2,-1 0,0-2,-2-3,34-33,0-10,68-94,-99 116,-18 28,-1 1,29-32,-41 49,2-1,-2 0,1 0,0 1,0-1,-1 0,1 0,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0 0,0 0,0 0,0-1,0 1,0 0,1 0,-1 1,0 0,0-1,0 1,0-1,-1 1,1 0,0 0,0-1,-1 1,2 0,-2 0,1 0,-1 0,1-1,-1 1,1 0,-1 0,1 2,5 55,-6-52,3 84,-5 1,-4-1,-5 1,-3-2,-39 123,13-86,27-86</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19745.91">251 2141,'33'0,"-20"-1,-1 0,0 2,1-1,0 2,23 4,-32-4,0-2,0 2,-1 0,0-1,0 1,0 1,0-1,0 0,0 1,1 0,-2-1,1 1,-1-1,0 1,0 0,0 1,0-1,-1 0,1 1,-1-1,0 0,0 1,0-1,0 5,2 22,0 1,-1-2,-8 56,3-46,4 72,0-100,1 1,0-2,2 2,-1-2,0 1,2-1,-1 1,1 0,1-2,12 18,-14-22,0 0,1 0,0-1,0-1,0 1,0 0,0 0,0-1,2 1,-2-2,1 1,0-1,0 0,12 2,-8-2,1-1,-1 0,0-1,0 0,0-1,0 0,1 0,16-6,-5 1,-1-1,-1-2,1 0,-1-1,-1-1,0 0,33-27,-40 28,-1-2,0 1,-1-2,-1 1,1-2,-2 1,0-1,-2 1,2-2,3-18,5-18,10-88,-1 12,17-36,-34 138</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20498.34">1591 1962,'-100'81,"66"-56,-37 36,59-50,2 0,1 1,-1 1,1-2,2 3,-1-2,-6 16,8-8,0-1,1 2,0-2,2 1,-1 35,10 104,-2-117,-3-17,1-1,2 2,0-2,2 0,1 0,15 33,-20-52,1 1,0-1,0 1,1-1,0-1,0 1,0 0,0 0,0-1,1 0,1 0,-1 0,0-1,0 1,1-1,-1 0,2 0,-1-2,0 1,0 0,0 0,1-1,0 0,-1 0,0 0,0-1,2 0,-2 0,0-1,1 1,9-4,21-5,-5-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="21165.45">2056 2191,'-1'1,"1"-1,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 0,0-1,-1 1,1 0,0 0,-1 0,1 0,0-1,-1 1,1 0,0 0,0 0,-1-1,1 1,0 0,0-1,-1 1,1 0,0-1,0 1,0 0,0-1,-1 1,1 0,0-1,0 1,0 0,0-1,0 1,0 0,0-1,0 1,0-1,0 1,0 0,0-1,0 1,1 0,-1-1,0 1,0 0,0-1,0 1,1 0,-1-1,0 1,0 0,0-1,1 1,-1 0,0 0,1 0,-1-1,22-18,-12 13,0 1,2 0,-1 0,1 1,-1 0,1 1,0 1,0-1,1 1,-2 1,20 0,-25 1,0 0,0 1,1 0,0 0,-1 1,0-1,1 0,-2 1,1 1,0-1,-1 1,1 1,0-1,-1 1,0-1,0 1,-1 0,1 0,0 1,-1 0,-1 0,1-1,3 8,8 20,-3 0,-1-1,14 68,-19-69,2 0,1 1,1-2,24 49,-32-74,1 0,0-2,-1 2,1-1,-1 0,1 1,0-1,0-1,0 1,1 0,-1-1,2 0,-2 0,1 0,0 0,0-1,0 1,8 1,24 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="21682.69">2603 2242,'-9'9,"-18"11,-8 12,-26 16,-13 11,2-3,5-5,-1-7,15-12,18-9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22877.04">2821 2242,'-3'58,"-20"101,5-34,17-121,0-1,1-1,0 1,0 0,0 0,0 0,0 0,1 0,-1 0,1 1,0-2,0 0,0 1,0 0,1 0,-1 0,1 0,3 4,-2-6,0 1,0 0,2 0,-2 0,0-1,1 1,-1-1,1 0,0 0,-1 0,1-1,1 1,-1-1,-1 0,7 0,-3 0,20 0,0 0,0-2,46-8,-66 8,0 1,0 0,-1-2,1 0,0 1,-1-2,0 1,0-1,-1 0,2 1,-2-2,0 1,0-1,0 0,-1-1,1 2,-1-2,0 0,3-6,10-27,-2-1,17-79,-28 110,-2 10,1 23,0 39,-2 27,-6 172,4-244,-2 1,0-1,-1 1,0-1,-2-1,-15 33,18-43,0 0,-1-1,0 0,-1 0,1 0,-1 0,1-1,-2 0,1 0,-1 0,0 0,0-1,0 0,-1-1,0 1,0-1,0 0,1 0,-1-1,-14 4,-16-4,-2 1,2-3,-54-4,88 4,0 0,1 0,-1-1,0 1,1-1,-1 0,0 0,1 0,-2 0,2 0,0-1,-1 1,1-1,0 1,0-1,0 0,0 0,0 0,0 0,1 0,-1 1,0-2,-2-3,2-1,-1-1,1 2,1-2,0 1,0 0,0 0,1-9,0-14</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="23711.87">2739 2573,'0'9,"0"7,0 5,0 4,0 2,0-1,0 1,-9 5,-3 0,-1-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="24511.09">3587 1810,'2'32,"1"1,3 0,0-1,16 41,4 20,1 31,-6 2,-6 0,-4 252,-28-247,11-88,1-16</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="25046.29">4188 2242,'4'0,"8"0,14 0,8 0,11 0,13 5,11 1,29-1,10 0,-2-2,-9-1,-11-1,-15 0,-17-1,-17-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="25662.37">4326 2650,'0'5,"9"5,21 1,21-1,24-2,17-3,27-2,16-2,3 0,-7-1,-23-1,-27 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="27113.08">6458 2217,'-1'-1,"1"0,0 0,-2 1,2-1,0 0,-1 0,1 0,-1 0,1 0,-1 0,0 1,1-1,-1 0,0 0,1 1,-1-1,0 0,0 1,0 0,0 0,0-1,0 1,1 0,-1-1,0 1,0 0,0 0,-2-1,-34-4,35 5,-68-1,-121 11,55 1,113-10,9-1,-1 0,2 2,-2 0,-21 5,33-6,0 0,-1-1,1 2,-1-1,1 1,0 0,0 0,0 0,1 0,-1 1,0-1,1 1,0-1,0 1,-2-1,3 1,-1 0,0 0,1 0,-1 0,1 1,0-1,-1 3,-2 21,1-1,1 1,1 0,2 0,1 0,6 32,-7-56,-1 1,1-1,0 0,0 0,0 1,1-1,-1 0,1 0,1 1,-1-1,0-1,0 1,0-1,1 1,-1 0,1-1,0 0,0 1,0-1,0 0,1-1,2 2,6 1,1-1,-1 0,0 0,1-1,16 0,46 9,-70-10,-1 0,1 1,0 0,-1 0,0 0,0 0,0 1,-1-1,1 1,0 0,0-1,-1 2,4 4,-2 0,0-1,0 2,-1-1,-1 0,0 1,0 0,0-1,-2 2,1-1,0 15,-1 12,-5 51,0-28,4-53,0-1,-1 1,0-1,0 1,0-1,0 0,-1 1,0-1,0 0,-1 0,0 0,0 0,0-1,-1 1,1 0,-6 3,3-3,0 0,0-1,-1 0,1-1,0 0,-2 0,1 0,0-1,0 1,-1-1,1-1,-11 2,-44 2,0-1,0-3,-88-8,147 6,-2 1,2-1,0 0,-1 0,1 0,0-1,-1 1,1-1,0 0,-1 0,1 0,1 0,-1 0,0 0,1 0,0-1,-1 1,1-1,0 0,0 0,1 0,-1 0,1 0,-2 0,2 0,0 0,0-1,0 1,0-5,-4-22</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="28185.7">6677 2828,'0'-1,"1"-1,-1-1,1 1,0 0,0 0,0 0,0-1,0 1,0 0,1 0,-1 1,1-1,-1 1,1-1,0 1,0-1,0 1,0-1,0 1,1 0,-1 0,0 0,0 0,1 0,-1 0,5 0,12-4,-1 1,29-2,-24 2,-15 3,281-54,-243 48,-26 5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="29336.68">7388 2777,'0'11,"2"0,0-2,0 2,1-2,7 20,3 2,90 317,-100-338,1 0,0 0,0-1,12 19,-16-28,0 0,1 1,-1-1,0 0,0 1,1-1,-1 0,0 1,0-1,1 0,-1 0,0 1,1-1,-1 0,0 0,1 0,-1 1,1-1,-1 0,0 0,1 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,1 0,0-1,11-12,3-29,-14 38,152-627,-128 508,-15 63,-9 42,1 2,2 0,0-1,0 1,2-1,8-19,-10 33,-2-1,1 0,0 1,0 0,1 1,-1-1,0 0,1 0,1 0,-1 1,0 0,0 0,0 0,0 0,0 1,8-1,7-2,1 1,32-2,-35 4,432-11,-122 8,-295 2,-21 0,-2 1,1 1,1-1,-2 2,1-1,1 1,-2 1,0 0,2 0,8 3,-3 6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="30126.54">7989 2650,'0'0,"0"1,0-1,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 1,0-1,0 0,1 0,-1 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,-1 0,1 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 1,0-1,17 8,15-3,-1-1,2-1,-1-2,46-3,45 1,-115 2,1 1,-2 0,1 0,0 0,0 1,0 0,-1 0,0 0,1 1,-1 0,-1 1,0 0,2 0,8 10,6 7,-2 2,26 37,-27-35,50 64,-52-69</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="30704.57">8673 2522,'-9'9,"-13"11,-21 16,-17 15,-8 6,-15 7,-32 24,-4 4,13-8,19-15,25-18</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -16941,12 +16941,12 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">350 79,'0'0,"0"0,0 0,0-1,0 1,0 0,0-1,0 1,0 0,0-1,0 1,0 0,0-1,0 1,0 0,0-1,0 1,0 0,0-1,0 1,-1 0,1 0,0-1,0 1,0 0,0-1,-1 1,1 0,0 0,0 0,-1-1,1 1,0 0,0 0,-1 0,1-1,0 1,-1 0,1 0,-1 0,-10 9,-12 23,22-30,-95 137,52-80,3 3,-63 127,100-179,0-1,0 1,1 0,1 0,-1 1,0 13,3-22,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,0-1,1 1,-1 0,0-1,1 1,-1-1,1 0,-1 1,1-1,0 0,0 0,-1 0,1 0,0 0,0 0,0-1,0 1,0-1,0 1,0-1,0 0,0 0,4 0,52 2,95-10,-131 6,-13 1,0 0,0-1,0 0,0-1,0 0,-1 0,1-1,-1 0,0-1,0 1,0-1,9-9,-6 4,0-1,0-1,-1 0,-1 0,0-1,13-25,-9 10,-1 0,-1 0,-2-1,-1 0,-1-1,-2 1,2-34,-6 56,15-147,-6 76,-9 55</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="889.15">614 582,'7'-5,"1"0,0 1,1 0,-1 0,1 1,0-1,0 2,0 0,0 0,19-1,-7-1,2 0,0 1,0 1,1 1,-1 1,0 1,1 0,-1 2,26 7,-38-7,1 1,-1 0,0 1,0 0,-1 1,1 0,-1 0,-1 1,1 0,-1 1,0 0,-1 1,0 0,0 0,-1 0,0 1,9 18,-2 3,-2 1,-1 1,7 38,12 36,-20-80</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1786">1170 582,'-5'0,"-5"5,-2 14,-12 14,-2 5,-1 1,4-2,6-2,2-4,-2-5,2-5,0 1,2-1,3 2,3 1,4-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2316">1329 132,'4'0,"15"0,10 0,12 0,17 0,13 0,8 0,-1 0,-9 0,-12 0,-15 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2934">1540 397,'0'5,"13"1,14-1,16 0,14-2,6-1,1-1,-1 0,-2-1,-7-1,-8 1,-8 0,-9 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6142.13">3181 0,'-23'0,"1"1,0 0,0 2,-33 7,45-7,0 1,1 0,-1 0,1 1,0 1,0-1,1 1,-1 1,1 0,1 0,-13 15,4-4,1 2,0 0,2 1,1 0,0 1,2 0,0 1,2 0,0 0,2 1,0 0,2 0,0 1,1 24,3-45,-1 15,1 0,1-1,4 28,-4-40,1-1,0 1,-1-1,2 1,-1-1,1 0,0 0,0 0,0 0,0 0,1-1,0 1,0-1,0 0,7 4,26 17,2-1,0-3,1-1,1-2,1-1,0-3,82 17,-114-29,0 0,0-1,0-1,0 0,0 0,0-1,0 0,0-1,0 0,0-1,0 0,-1 0,0-1,10-5,-13 6,-1-1,1 0,-1 0,1-1,-1 0,0 0,-1 0,1 0,-1-1,0 1,-1-1,1 0,-1-1,0 1,-1 0,0-1,0 0,0 1,-1-1,1 0,-1-8,-2-219,-3 91,5 137,-1 0,0 0,0 0,-1 0,0 0,0 0,0 0,-1 0,0 0,0 0,-1 1,1-1,-1 1,0 0,-1 0,1 0,-1 0,0 0,0 1,0-1,-1 1,0 0,0 1,0-1,0 1,0 0,-1 0,-6-2,-4-2,0 2,-1-1,0 2,0 0,0 1,-21-1,-106 4,93 2,27-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">360 76,'0'0,"0"0,0 0,0-1,0 1,0 0,0-1,0 1,0 0,0-1,0 1,0 0,0-1,0 1,0 0,0-1,0 1,0 0,0-1,0 1,-1 0,1 0,0-1,0 1,0 0,0-1,-1 1,1 0,0 0,0 0,-1-1,1 1,0 0,0 0,-1 0,1-1,0 1,-1 0,1 0,-1 0,-10 9,-13 21,23-28,-98 131,54-76,3 2,-65 122,103-171,-1-2,1 2,1 0,1-1,-1 2,0 12,3-21,0-1,0 1,0 0,0 0,0 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0-1,0 1,0-1,1 1,-1 0,0-1,1 1,-1-1,1 0,0 1,0-1,0 0,0 0,-1 0,1 0,0 0,0 0,0-1,0 1,0-1,0 0,0 0,0 0,0 0,4 0,54 2,98-9,-136 5,-12 1,-1 0,0-1,0 0,1-1,-1 0,-1 0,1 0,0-1,-1-1,0 1,0-1,10-8,-7 3,0 0,1-2,-2 1,-1-1,1 0,12-24,-8 9,-2 0,-1 0,-2-1,0 1,-2-2,-2 1,2-32,-6 53,16-140,-7 72,-9 53</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="889.15">632 557,'7'-4,"1"-1,0 1,2 0,-2 0,1 1,0 0,1 1,-1 0,0 0,20-1,-7-1,1 0,1 1,0 1,0 2,0 0,0 0,0 1,0 2,27 7,-40-7,1 1,0-1,-1 2,0 0,-1 1,2-1,-2 1,-1 1,2 0,-2 0,0 1,-1 1,1-1,-1 1,-1-1,0 2,10 17,-3 2,-2 2,0 1,6 36,13 34,-21-76</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1786">1204 557,'-5'0,"-5"5,-3 13,-12 14,-1 4,-2 2,4-3,7-1,1-5,-1-4,1-5,1 1,2-1,2 2,4 1,4-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2316">1368 126,'4'0,"15"0,11 0,12 0,18 0,13 0,8 0,0 0,-10 0,-13 0,-15 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2934">1585 380,'0'5,"13"1,15-2,16 1,15-2,6-1,0-1,0 0,-2-1,-7-1,-9 1,-8 0,-9 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6142.13">3273 0,'-23'0,"0"1,0 0,1 2,-35 6,47-6,0 1,0 0,0 0,1 1,0 0,-1 0,2 1,-1 0,1 1,0 0,-12 14,3-4,2 2,-1 1,3 0,1 0,-1 1,3 0,0 1,2 0,-1 0,3 1,0 0,2 0,0 1,1 23,3-43,-1 14,1 0,1-1,4 27,-4-38,1-1,0 1,-1-2,2 2,-1-1,1 0,0-1,0 1,0 0,1 0,0-1,0 0,0 0,0 0,7 4,27 16,3-1,-1-3,1-1,1-2,1-1,0-2,85 16,-118-29,1 1,-1-1,0-1,1 0,-1 0,0-1,0 0,1-1,-1 1,0-2,1 0,-2 0,0-1,11-5,-14 7,-1-2,1 0,-1 0,1-1,0 1,-1-1,-1 0,1 0,-1-1,0 2,-1-2,1 0,0-1,-1 2,-1-1,0-1,0 1,0 0,-1-1,1 0,-1-7,-2-210,-3 87,5 131,-1 1,0-1,0 0,-1 0,0 1,0-1,0 0,-1 0,0 1,0-1,-2 1,2-1,-1 2,0-1,-1 0,1 0,-1 0,0 1,0 0,0-1,-2 1,1 0,0 1,0 0,0 0,0 0,-1 0,-7-2,-3-2,-1 3,0-2,-1 2,1 0,-1 1,-21 0,-109 3,96 2,27-2</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -17030,12 +17030,12 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 57,'0'-1,"0"0,1 0,-1 0,1 0,-1-1,1 1,0 0,0 0,-1 0,1 0,0 1,0-1,0 0,0 0,0 0,0 1,0-1,0 0,0 1,0-1,1 1,-1 0,0-1,0 1,0 0,1-1,1 1,41-5,-40 5,8-1,0 1,0 0,0 1,0 1,-1 0,1 0,0 1,-1 0,0 1,0 1,0 0,0 0,-1 1,0 0,0 1,-1 0,1 0,-1 1,15 18,-13-12,-1 1,0 0,-1 1,0 0,-2 0,0 1,-1 0,0 0,-1 0,-1 1,-1-1,1 31,-4 139,-1-3,1-176,1 0,-1 0,2 0,-1 0,1-1,0 1,1 0,0-1,0 0,1 0,0 0,0 0,0 0,1-1,0 0,0 0,1 0,9 7,-6-6,1-1,0-1,0 0,1 0,-1-1,1 0,0-1,0 0,0-1,0 0,1-1,15 0,-7-1,0 0,-1-2,1-1,-1 0,1-1,-1-1,0-1,-1-1,0 0,0-2,0 0,19-13,-25 13,-1 1,0-1,0-1,-1 0,0 0,-1-1,0-1,-1 1,0-1,-1-1,0 1,-1-1,0-1,-1 1,-1-1,0 1,3-25,2-93,6-38,2 52,14-70,-27 167</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="850.43">1059 745,'33'-2,"0"-1,0-2,33-9,56-8,177 15,-297 7,2 0,0 1,0 0,0 0,0 0,-1 0,1 1,0 0,-1-1,1 1,-1 0,1 1,-1-1,0 1,0-1,0 1,0 0,-1 0,1 0,-1 1,0-1,0 1,2 3,6 13,-1 0,12 40,-14-41,15 72,-11-37,-10-52,-1 0,1 1,0-1,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,1 0,-1-1,1 1,0 0,2 1,-3-3,0 1,0-1,0 1,0-1,0 0,0 1,0-1,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0-1,0 1,0 0,0-1,0 1,0-1,0 1,0-1,0 0,0 1,0-1,0 0,-1 0,2-1,9-12</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1549.25">2064 559,'-89'104,"44"-49,-48 63,59-71,-2-2,-2-2,-2-1,-46 37,66-65</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2138.33">2355 295,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2924.26">2355 215,'4'-4,"29"-2,27 1,16 0,5 2,-3 1,-1 1,-9-4,-12-1,-10 1,-14 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3660.51">2593 533,'18'0,"19"0,13 0,11 0,9 0,6 0,-1 0,-5 0,-4 0,-14 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 55,'0'-1,"0"0,1 0,-1 0,1 0,-1-1,1 1,0 0,0 0,-1 0,1 0,0 1,0-1,0 0,0 0,0 0,0 1,0-1,0 1,0 0,1-1,0 1,-1 0,0-1,0 1,0 0,1-1,1 1,42-5,-41 5,9-1,-1 1,1 0,-1 1,0 1,0 0,0 0,0 0,0 1,-1 1,0 1,1 0,-1 0,-1 0,1 1,-1 1,-1 0,2-1,-2 2,16 17,-14-11,-1 0,1 0,-2 2,0-1,-1 1,-1 0,-1 0,0 1,-1-1,-1 1,0 0,0 29,-4 134,-1-3,1-169,1-1,-1 1,2 0,-1-1,1 0,0 1,1-1,0 0,0 0,1 0,0-1,1 1,-1 0,1-1,0-1,0 1,1 0,10 6,-7-5,1-1,1-1,-1 0,1-1,0 0,0 0,0-1,1 0,-1-1,1 0,0-1,16 0,-8-1,1 0,-1-2,0-1,0 0,1-1,-2-1,1-1,-2 0,1-1,-1-2,1 1,19-13,-25 12,-2 1,0 0,1-2,-2 0,0 1,0-2,-1 0,-1 0,0-1,0 0,-1 0,-1 0,0-2,-1 2,-1-2,1 2,2-25,2-89,7-36,1 49,15-67,-28 161</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="850.43">1093 717,'34'-2,"0"-1,0-2,34-8,58-9,182 16,-306 6,3 0,-1 1,0 0,0 0,0 0,-1 0,1 0,0 1,0-1,0 1,-1 0,1 1,-1-1,0 1,0-1,0 1,0 0,-1-1,2 1,-2 1,0-1,0 1,2 3,6 12,-1 0,13 39,-15-40,16 70,-12-36,-10-50,-1 0,1 0,1 0,-1 0,0 0,0 0,0 0,0 0,1 0,-1 0,1 0,-1-1,1 1,0 0,2 0,-3-2,0 1,0-1,0 1,0-1,0 0,0 1,0-1,1 0,-1 0,1 0,-1 0,0 0,0 0,0 0,1 0,-1 0,0 0,0-1,0 1,0 0,0-1,0 1,0-1,0 1,0-1,0 1,0 0,0-1,0 0,-1 0,2-1,10-12</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1549.25">2130 538,'-92'100,"45"-47,-48 60,59-68,-1-1,-2-3,-2 0,-48 35,68-63</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2138.33">2430 284,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2924.26">2430 207,'4'-4,"30"-2,28 1,17 1,4 1,-2 1,-2 1,-9-4,-12-1,-10 1,-15 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3660.51">2676 513,'18'0,"20"0,14 0,11 0,9 0,7 0,-2 0,-5 0,-4 0,-14 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -17062,7 +17062,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">1 741,'0'-4,"0"-11,0-7,13 0,9 4,10 4,4 6,5 3,0 3,1 2,0 1,-9 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="759.84">953 0,'0'9,"0"30,0 22,0 14,0-1,0 0,0-3,0-10,0-6,0-7,-5-4,-1-4,-4-5,-1 1,2-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="759.83">953 0,'0'9,"0"30,0 22,0 14,0-1,0 0,0-3,0-10,0-6,0-7,-5-4,-1-4,-4-5,-1 1,2-5</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1345.57">741 953,'0'5,"13"1,10-1,4 0,12-2,9-1,8-1,5 0,0-1,-5-1,-8 1,-7 0,-11 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2761.72">689 1455,'0'-2,"1"-1,0 0,0 1,0-1,0 1,0-1,1 1,-1 0,1-1,0 1,-1 0,1 0,0 0,0 0,1 1,-1-1,0 0,3-1,45-25,-33 21,0 0,1 1,0 1,0 1,0 0,0 1,34 0,-44 2,-1 1,0 0,1 1,-1 0,1 0,-1 1,0 0,0 0,0 0,0 1,0 0,0 1,-1-1,0 1,1 0,-1 1,-1 0,1 0,-1 0,0 0,8 11,-6-3,-1 1,0 0,-1-1,0 2,-1-1,-1 1,0-1,2 30,-4 1,-7 74,5-114,0 0,1 0,-1 0,-1 0,1 0,-1 0,0 0,0 0,0-1,-1 1,0-1,0 0,0 1,0-1,0-1,-1 1,0 0,0-1,0 0,-5 3,-5 2,-1-1,-1 0,1-1,-30 7,19-6,-47 15,0-3,-99 12,168-30,-1-1,1 0,0 0,0-1,-1 1,1-1,0 0,0 0,0 0,0-1,0 1,0-1,-5-4,7 5,1 0,0 0,0 0,-1 0,1 0,0-1,0 1,0 0,1-1,-1 1,0-1,0 1,1-1,-1 1,1-1,0 1,-1-1,1 0,0 1,0-1,0 1,0-1,0 0,0 1,0-1,1 0,-1 1,0-1,1 1,0-1,-1 1,1-1,0 1,0-1,0 1,0 0,1-2,3-4,1 0,1 1,-1 0,1 0,0 0,0 1,0 0,1 0,0 1,0 0,0 0,0 1,1 0,-1 1,1-1,0 2,11-2,19-1,1 2,59 3,-87 0,-4-1,-1 1,1 0,-1 1,0-1,0 2,0-1,0 1,0 0,0 0,-1 0,1 1,-1 0,0 1,10 9,-9-9,33 17,-20-16</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5044.88">1720 900,'18'1,"0"1,0 0,0 1,0 1,-1 0,1 1,-1 2,0-1,0 2,-1 0,0 1,-1 1,0 0,0 1,-1 1,-1 0,0 1,0 0,-2 1,17 24,10 29,28 73,-38-80,-18-36,-2-4</inkml:trace>
@@ -17097,7 +17097,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">29 106,'1'1,"0"-1,-1 0,1 1,0-1,0 1,0-1,0 1,0-1,0 1,-1 0,1-1,0 1,-1 0,1 0,0 0,-1-1,1 1,-1 0,1 0,-1 0,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 1,-8 49,5-40,-8 54,3-34,2 1,2 0,1-1,1 1,5 57,-1-80,1 0,0 0,1 0,-1-1,2 0,-1 0,1 0,1 0,-1-1,1 0,0 0,1 0,0-1,0 0,10 6,-8-5,0-1,0 0,1-1,-1 0,1-1,0 0,1 0,-1-1,1 0,0-1,-1 0,19 0,-23-3,-1 0,0 0,1 0,-1-1,0 0,0 0,0 0,0 0,-1-1,1 0,-1 0,1 0,-1-1,0 1,-1-1,1 0,0 0,-1-1,0 1,0 0,0-1,-1 0,0 0,3-6,5-14,-2-1,0 0,5-39,-11 55,4-23,40-164,-32 147,11-67,-40 245,-22 152,34-266,-1 1,-10 26,9-29,1 0,0 0,0 1,1-1,-1 20,4-29,0 0,0 1,0-1,1 0,-1 1,1-1,0 0,0 0,0 0,1 1,-1-1,1-1,-1 1,1 0,0 0,0-1,1 1,-1-1,0 1,1-1,-1 0,1 0,0 0,0 0,5 2,6 2,1 0,0 0,31 6,-17-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1827.18">717 608,'0'9,"-1"7,1 1,2-1,4 29,-5-40,1 0,0 0,0 0,0 0,0-1,1 1,-1-1,1 1,0-1,1 0,-1 0,1-1,0 1,-1-1,2 0,4 4,-3-3,6 4,1 0,-1-1,1-1,1 0,-1 0,18 4,-27-9,-1-1,1 0,0 0,-1 0,1 0,-1 0,1 0,-1-1,1 0,-1 0,1 0,-1 0,0 0,1-1,-1 0,0 1,0-1,0 0,0 0,0-1,-1 1,1-1,-1 1,0-1,1 0,-1 0,0 0,-1 0,1 0,0 0,1-6,1-3,0 0,0-1,-1 0,-1 0,0 0,-1 0,0-18,7-46,-5 68,0 11,2 21,1 35,-4 338,-3-204,1-186,0 0,0-1,-1 1,0 0,0-1,0 1,0-1,-1 0,0 1,0-1,0 0,-1 0,0 0,0 0,0-1,-6 7,5-7,-1 0,0-1,0 1,-1-1,1-1,0 1,-1-1,0 0,0 0,1 0,-1-1,0 0,0 0,0 0,-7-1,-2 1,-1-1,1 0,0-1,-21-4,32 4,0 0,0 0,0-1,0 1,0-1,0 0,0 0,1-1,-1 1,1-1,-1 1,1-1,0 0,0 0,0-1,1 1,-1-1,1 1,0-1,-3-6,-1-6,1 0,1-1,0 0,1 0,-1-34,6-93,1 76,-2 35</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1827.17">717 608,'0'9,"-1"7,1 1,2-1,4 29,-5-40,1 0,0 0,0 0,0 0,0-1,1 1,-1-1,1 1,0-1,1 0,-1 0,1-1,0 1,-1-1,2 0,4 4,-3-3,6 4,1 0,-1-1,1-1,1 0,-1 0,18 4,-27-9,-1-1,1 0,0 0,-1 0,1 0,-1 0,1 0,-1-1,1 0,-1 0,1 0,-1 0,0 0,1-1,-1 0,0 1,0-1,0 0,0 0,0-1,-1 1,1-1,-1 1,0-1,1 0,-1 0,0 0,-1 0,1 0,0 0,1-6,1-3,0 0,0-1,-1 0,-1 0,0 0,-1 0,0-18,7-46,-5 68,0 11,2 21,1 35,-4 338,-3-204,1-186,0 0,0-1,-1 1,0 0,0-1,0 1,0-1,-1 0,0 1,0-1,0 0,-1 0,0 0,0 0,0-1,-6 7,5-7,-1 0,0-1,0 1,-1-1,1-1,0 1,-1-1,0 0,0 0,1 0,-1-1,0 0,0 0,0 0,-7-1,-2 1,-1-1,1 0,0-1,-21-4,32 4,0 0,0 0,0-1,0 1,0-1,0 0,0 0,1-1,-1 1,1-1,-1 1,1-1,0 0,0 0,0-1,1 1,-1-1,1 1,0-1,-3-6,-1-6,1 0,1-1,0 0,1 0,-1-34,6-93,1 76,-2 35</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2399.45">1352 185,'4'-4,"6"-2,11 0,6 1,3 2,9-4,4 0,-2 1,-3 2,-4 1,-3 1,-6 1</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2998.07">1246 423,'225'14,"-24"0,38-14,-216-1</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4589.72">2304 0,'1'1,"0"-1,0 0,0 1,0-1,0 1,0 0,0-1,0 1,0 0,0-1,0 1,0 0,0 0,0 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,1 1,-1-1,0 0,0 0,0 0,0 1,0-1,0 0,-1 2,-4 45,-26 60,22-83,1 1,2 0,0 0,-4 52,9-60,1-1,1 1,0-1,2 0,4 22,-5-34,0 1,0-1,1 0,-1 0,1 0,1 0,-1 0,1-1,-1 0,1 1,0-1,1-1,-1 1,1 0,-1-1,1 0,0 0,1-1,7 4,6 1,1-1,0-1,0-1,0-1,30 2,107-7,-74 0,-80 2,0 0,0 0,0 0,0 0,0-1,1 1,-1-1,0 0,0 0,0 0,0 0,-1 0,1-1,0 1,0-1,-1 0,1 1,-1-1,0-1,1 1,2-4,-2 0,-1 1,0-1,0 1,0-1,-1 0,0 0,0 0,0 0,-1 0,0-11,0-21,-4-70,3 99,0 0,-1 0,0-1,-1 1,0 1,-1-1,1 0,-2 1,-4-9,-9-9,-2 0,0 2,-1 0,-47-39,60 58,1 1,-1 0,0 1,0 0,-1 0,1 1,-17-3,-17-6,14 2,0 2,0 1,-58-6,59 11</inkml:trace>
@@ -17154,7 +17154,7 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1637 138,'-7'-1,"0"0,1 0,-1-1,1 0,-1-1,-7-3,-9-4,0 3,-192-61,172 57,0 3,0 1,-55-1,85 8,-75-3,-92 10,169-5,1 0,0 0,0 1,0 0,0 1,0 0,0 1,1 0,0 0,0 1,1 0,-1 0,-10 12,9-8,1 1,0 0,0 1,1 0,1 0,0 1,0 0,1 0,-4 17,-23 64,21-66,2 1,1 0,1 0,1 1,2 0,-2 50,7 77,2 110,2-224,1 0,2-1,16 51,47 120,-41-133,35 77,-42-108,-1 2,-3-1,16 74,-18-46,-5-28,-2 1,3 75,-11-75,-4 156,2-203,1 1,-1-1,0 1,-1-1,1 0,-1 1,1-1,-1 0,-1 0,1 0,0-1,-1 1,0 0,0-1,-5 5,1-3,1 0,-1 0,-1 0,1-1,-1 0,0-1,-13 5,-6-1,0-2,-1 0,1-2,-31 0,-185-4,-31 1,230 8,44-8,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,0 1,0-1,-1 0,1 0,0 0,0 0,0 1,-1-1,1 0,0 0,0 0,0 1,0-1,0 0,-1 0,1 1,0-1,0 0,0 0,0 1,0-1,0 0,0 0,0 1,0-1,0 0,0 0,0 1,20 9,85 14,-70-18,57 19,-79-20,0 0,0 1,0 1,-1 0,0 1,-1 0,19 18,-19-15,-1 0,0 0,-1 1,0 0,-1 1,0 0,-1 0,0 0,-1 1,-1 0,-1 1,0-1,0 1,-1 0,-1 0,-1 0,0 0,-2 23,-26 389,23-382,1 0,2 0,2 0,2 1,11 59,-10-87,1 0,0-1,1 1,1-1,1 0,0-1,1 0,1 0,1-1,0 0,1-1,0 0,1-1,0 0,26 17,-18-16,1-1,0-1,1-2,0 0,0-1,1-1,45 8,-13-9,0-2,77-2,254-6,-343 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1680 132,'-7'-1,"0"0,0 1,0-2,1 0,-1-1,-7-3,-10-4,0 4,-196-60,176 56,-1 2,1 2,-56-2,86 8,-76-3,-95 10,174-5,1 0,0-1,-1 2,1 0,0 1,-1 0,1 1,1-1,0 1,0 1,0 0,0 0,-10 11,8-8,2 2,0 0,0 0,0 1,2-1,0 2,0-1,1 0,-5 17,-22 61,20-63,3 1,1 0,1 0,0 1,3-1,-2 49,7 74,2 105,2-215,1 0,3 0,15 48,49 115,-42-127,35 74,-42-104,-1 2,-4-1,17 71,-19-45,-4-26,-3 1,3 72,-11-72,-4 150,2-195,1 0,-1 0,0 1,-1-1,1 0,-1 0,1 0,-1 0,-1 0,1 0,0-1,-1 1,-1-1,1 0,-5 5,1-3,1 0,-1-1,-2 1,2-1,-1 0,0-1,-14 4,-5 0,-1-2,-1 0,1-2,-31-1,-190-3,-33 1,237 8,45-8,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,0 1,0-1,-1 0,1 0,0 0,0 0,0 1,-1-1,1 0,0 0,0 0,0 1,0-1,0 0,-1 0,1 1,0-1,0 0,0 0,0 1,0-1,0 0,0 0,0 1,0-1,0 0,0 0,0 1,21 8,86 14,-71-17,59 18,-82-19,0 0,1 1,-1 0,-1 1,1 1,-2-1,20 18,-20-14,-1-1,1 1,-2 0,0 1,-1 0,0 1,0-1,-1 1,-1 0,-1 1,-1 0,0 0,0 0,-1 0,0 1,-2-1,0 1,-2 21,-27 374,24-367,1 0,2 0,2 0,2 1,11 57,-10-84,1 1,0-2,2 1,0 0,1-1,0-1,1 1,2-1,0-1,0 1,2-2,-1 1,1-2,1 1,26 15,-19-14,2-2,-1 0,2-3,0 1,-1-1,2-2,46 9,-14-10,1-1,78-2,261-6,-352 3</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -17207,14 +17207,14 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0,'0'1590,"0"-1562</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1423.29">504 952,'5'-6,"0"-2,-1 1,1 0,-1-1,-1 0,0 0,4-14,6-11,12-15,2 2,2 1,3 1,1 2,44-44,-62 70,1 1,0 0,1 2,1 0,0 1,0 0,1 2,1 0,0 2,0 0,1 1,0 1,0 0,0 2,1 1,23-1,-36 4,1 1,-1 0,0 0,0 1,0 0,0 1,0 0,0 1,0-1,-1 2,0-1,13 10,-10-5,0 1,0 0,-1 1,-1 0,0 0,0 1,10 19,-4 1,0 1,-2 0,-2 0,-1 2,10 66,-15-74,-2 0,-2 1,0 0,-2-1,0 1,-7 28,4-38,0-1,-2 0,0 0,0-1,-2 0,0 0,-1-1,-1 0,0 0,-17 18,-5 2,-2-1,-1-3,-2 0,-1-3,-1-1,-1-1,-56 24,88-46,0 0,-1-1,0-1,1 1,-1-2,0 1,0-1,-18 0,25-1,-1 0,0-1,0 1,1-1,-1 1,0-1,1 0,-1 0,1 0,-1-1,1 1,-1-1,1 1,0-1,0 0,0 0,0 1,0-2,0 1,0 0,1 0,-1-1,1 1,-1 0,1-1,0 0,0 1,0-1,1 1,-1-1,0-5,-1-3,0 0,1 0,1 0,0 0,0 0,1 0,0 0,1 0,3-10,-4 19,0 1,0-1,0 1,0-1,0 1,0 0,0 0,1 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,1 0,0 1,-1-1,1 1,0-1,-1 1,1 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,-1 1,1-1,3 2,8 2,0 1,1 0,11 7,-17-9,108 56,-63-31,1-1,1-3,77 23,-105-43,0 0,-1-2,1-1,42-4,-16 1,-28 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2788.39">1959 1296,'-3'27,"-1"0,-1 0,-1-1,-2 0,-17 42,3-6,17-46,-1-2,2 0,0 0,1 0,0 1,-1 19,4-31,0 0,0 0,0 0,1-1,-1 1,1 0,-1 0,1-1,0 1,0 0,1-1,-1 1,0-1,1 1,0-1,-1 0,1 0,0 0,0 0,0 0,0 0,1 0,-1-1,0 1,1-1,-1 0,1 1,-1-1,1 0,0-1,0 1,-1 0,1-1,3 1,2 0,0 0,0 0,-1-1,1 0,0 0,0 0,0-1,0-1,0 1,0-1,-1-1,1 1,-1-1,0-1,1 1,-1-1,12-10,-11 7,0 0,-1-1,0-1,0 1,-1-1,0 0,0 0,-1-1,0 0,-1 0,0 0,4-20,40-209,-48 236,0 1,1-1,-1 0,1 1,0-1,0 0,0 1,0-1,0 1,0-1,1 1,-1 0,3-4,-3 6,-1 0,0 0,1 0,-1-1,0 1,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 1,-1-1,0 0,1 0,-1 0,0 0,0 1,1-1,-1 0,0 0,1 1,11 23,9 61,-4 1,-3 0,-5 1,-1 134,-8-168,-3 161,2-210,1 1,-1-1,0 0,0 0,0 0,-1 0,1 0,-1 0,0-1,0 1,-1 0,1-1,-1 0,1 1,-1-1,0 0,0 0,-1-1,1 1,-1-1,1 1,-1-1,0 0,1-1,-1 1,0-1,0 1,-1-1,-3 0,-14 3,0-1,0-1,0-1,-30-3,38 1,5 0,1 0,-1-1,1 0,-1 0,1-1,0 0,-1-1,2 1,-13-9,15 9,1 0,0 0,-1 0,1 0,1-1,-1 0,0 1,1-1,0-1,0 1,0 0,0-1,1 0,0 1,0-1,0 0,-2-8,5 10,-1 0,1 1,-1-1,1 0,0 0,0 0,0 0,0 1,1-1,-1 1,1-1,-1 1,1-1,0 1,0 0,0 0,0 0,1 0,-1 0,0 0,1 1,-1-1,1 1,4-2,44-26</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3250.4">2965 1455,'4'0,"6"0,6 0,14 0,15 0,9 0,9 0,2 0,-4 0,-5 0,-7 0,-7 0,-6 0,-10 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4452.78">3679 1085,'9'-7,"0"1,0-1,1 1,0 1,1 0,-1 0,1 1,0 1,0 0,0 0,0 1,13-1,27-8,58-12,143-13,-242 35,-1 0,0 1,1 0,-1 0,1 1,16 3,-23-3,0 0,0 1,-1-1,1 0,0 1,-1 0,1-1,-1 1,0 0,0 0,1 0,-1 1,-1-1,1 1,0-1,0 1,-1-1,0 1,1 0,-1 0,0-1,0 1,-1 0,1 0,0 3,3 19,-2-1,0 1,-1 0,-2 0,0 0,-2-1,0 1,-2-1,-1 1,-1-1,-1-1,-1 0,0 0,-2-1,-1 0,-1 0,-1-2,0 0,-2 0,0-1,-35 30,20-20,-2-2,-1-2,-2 0,0-3,-61 29,94-49,0-1,1 0,-1 0,0 0,0-1,0 1,0-1,0 1,1-1,-1 0,0 0,0 0,0-1,0 1,0-1,0 1,-5-3,6 2,1-1,-1 1,1 0,-1-1,1 1,0-1,0 0,-1 1,1-1,0 0,1 0,-1 1,0-1,0 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,1 0,-1 0,0 0,2-3,-1 0,0-1,0 1,1-1,0 1,0-1,0 1,1 0,-1 0,1 0,1 0,-1 1,1-1,-1 1,1 0,0 0,6-4,-3 3,0 1,1 0,0 0,0 0,0 1,1 0,-1 0,1 1,14-2,-6 3,0 0,0 0,0 2,0 0,0 1,0 1,0 0,-1 2,0-1,22 11,-5 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7112.19">4922 132,'-34'766,"15"-197,20-437,0-93,11 52,0 18,-6-45,0-38</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9284.18">6219 661,'-4'1,"1"0,0 0,0 0,0 0,0 1,1-1,-1 1,0-1,0 1,-3 3,-6 4,-27 13,-1-1,0-2,-2-1,-70 18,66-23,1 2,1 2,0 2,-58 35,100-53,0 0,0 0,0 0,0 0,0 1,0-1,0 1,1-1,-1 1,1 0,-1-1,1 1,0 0,-1 0,1 0,0 0,0 0,1 1,-1-1,0 3,1-4,0 1,0 0,1 0,-1-1,1 1,0 0,-1-1,1 1,0-1,0 1,0-1,0 1,0-1,0 0,1 1,-1-1,0 0,1 0,2 2,9 5,1-1,0-1,0 0,22 7,-28-11,34 14,-2 2,0 1,0 2,-2 2,-1 1,-1 2,62 58,-90-75,1-2,0 1,0-1,1-1,15 9,-5-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10045.19">6536 714,'9'-6,"-1"-1,1 0,-1-1,0 0,-1-1,0 1,0-1,-1-1,0 1,0-1,3-10,11-14,73-136,34-50,-126 218,0 0,0 0,0 1,1-1,-1 0,0 1,1 0,-1-1,1 1,0 0,-1 0,1-1,0 1,0 1,-1-1,5-1,-5 2,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0 0,0 0,0-1,0 1,-1 0,1 0,0 1,5 6,-2 1,1 0,-1 0,0 0,4 18,58 311,-43-200,2 19,-7 1,-4 283,-15-428,0 0,-1-1,-6 25,2-17</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0,'0'1530,"0"-1503</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1423.29">519 916,'5'-6,"0"-1,-1 0,2 0,-2 0,-1-1,0 0,4-13,6-11,13-14,2 2,2 0,3 2,1 2,45-43,-63 67,0 2,1 0,0 1,2 1,-1 0,1 1,0 1,2 0,-1 3,1-1,1 1,-1 1,1 1,0 1,0 1,25-1,-38 4,1 1,-1 0,1 0,-1 1,0 0,0 1,1 0,-1 0,0 0,0 2,-1-1,13 9,-9-4,-1 1,0-1,0 2,-2-1,0 1,0 1,11 17,-5 2,1 1,-3 0,-1-1,-2 3,11 63,-16-71,-2 0,-2 1,0 0,-2-1,0 1,-7 27,3-37,1 0,-2-1,0 0,0 0,-2-1,-1 1,0-2,-1 1,-1-1,-16 18,-6 1,-2 0,-1-3,-2 0,-2-3,0-1,-1-1,-58 23,91-44,0 0,-2-2,1 0,1 1,-1-2,-1 1,1-1,-19 0,26-1,-1 0,0-1,0 1,1-1,-1 1,0-1,1 0,-1 0,0 0,0-1,1 1,-1-1,1 1,0 0,0-1,0 0,0 1,0-2,0 1,0 0,1 0,-1-1,1 1,-1 0,1-1,0 1,0 0,-1-1,2 1,-1-1,0-5,-1-2,0-1,1 1,1-1,0 0,0 1,1-1,0 1,1-1,4-9,-5 18,0 1,0-1,0 1,0-1,0 1,0 0,0 0,1 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,1 0,0 1,-1 0,1 0,0-1,-1 1,1 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,-1 1,1-1,3 1,8 3,1 1,0 0,12 6,-18-8,112 54,-66-30,2-1,1-3,79 22,-109-41,1 0,-1-2,1-1,43-4,-17 1,-28 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2788.39">2018 1247,'-4'26,"0"0,-1 0,-1-1,-2 0,-18 41,3-7,18-43,-1-3,2 1,0-1,1 1,0 0,-2 19,5-30,0 0,0-1,0 1,1-1,-1 1,2 0,-2 0,1-1,0 1,0 0,1-2,-1 2,0-1,1 1,0-1,-1 0,1 0,0 0,0 0,0 0,0 0,1 0,-1-1,0 0,1 0,0 0,0 1,-1-1,1 0,0-1,0 1,-1 0,1-1,3 1,3 0,-1 0,0 0,-1-1,1 0,1 0,-1 0,0-1,0-1,1 1,-1-1,-1-1,1 1,0 0,-1-2,1 1,-1-1,13-10,-12 8,0-1,-1-1,1 0,-1 0,-1-1,0 1,0-1,0-1,-1 1,-1-1,0 0,4-18,42-202,-50 227,0 1,1-1,-1 0,1 1,0-1,0 0,0 1,0 0,0 0,0-1,1 1,-1 0,3-4,-3 6,-1 0,0 0,1 0,-1-1,0 1,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 1,-1-1,0 0,1 0,-1 0,0 0,0 1,1-1,-1 0,0 0,1 1,12 22,8 59,-3 1,-4-1,-4 2,-2 129,-8-162,-3 155,2-202,1 0,-1 0,0 0,0 0,0 0,-1 0,1 0,-2-1,1 0,0 1,-1 0,1-1,-1 0,1 1,-1-2,0 1,0 0,-1-1,1 1,-2-1,2 1,-1-1,0 0,1-1,-1 1,0-1,0 0,-1 0,-4 0,-13 3,-1-1,0-1,1-1,-32-3,40 1,4 0,2 0,-1-1,1 0,-2 0,2 0,0-1,-1-1,1 1,-12-9,15 10,1-1,-1 0,0 0,1 0,1-1,-1 0,0 1,1 0,0-2,0 1,-1 0,1-1,1 0,0 2,0-2,0 0,-2-8,5 11,-1-1,1 1,-1-1,1 0,0 0,0 0,0 0,0 1,1-1,-1 2,1-2,-1 1,1-1,1 1,-1 0,0 0,0 0,1 0,-1 0,0 0,1 1,-1-1,1 2,4-3,46-25</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3250.4">3054 1400,'4'0,"6"0,6 0,15 0,16 0,8 0,10 0,2 0,-4 0,-5 0,-8 0,-7 0,-6 0,-10 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4452.78">3789 1044,'9'-7,"0"2,1-2,0 1,0 1,2 0,-2 1,1 0,1 1,-1 0,0 0,1 1,12-1,29-7,59-12,148-13,-250 34,-1 0,0 1,2 0,-2 0,1 1,17 3,-24-3,0 0,0 1,-1-1,2 0,-1 1,-1 0,1-2,-1 2,0 0,0 0,1 0,-1 1,-1-1,1 1,0-1,0 1,-1-1,0 0,1 1,-1 0,0-1,1 1,-2 0,1 0,0 3,3 18,-2-1,0 1,-1 0,-2 0,0 0,-2-1,0 1,-3-1,0 1,-1-1,-1 0,-1-1,-1 0,-1-1,-1 0,-2 0,0-1,-1-1,-1 0,-1-1,-35 30,20-21,-2-1,-1-2,-2 1,0-4,-63 28,97-47,0-1,1 0,-1 0,-1 0,1-1,0 1,0-1,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0-1,-1 1,-4-3,6 2,1-1,-1 1,1 0,-1-1,1 1,0-1,0 0,-1 1,1-1,0 0,1 0,-1 1,0-1,0 1,1-1,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,1 0,-1 0,0 0,2-2,-1-1,0-1,0 1,1-1,0 2,0-2,0 1,1 0,-1 0,1 1,1-1,-1 1,2-1,-2 1,1 0,0 1,6-5,-3 3,1 1,0 0,0 1,0-1,1 1,0 0,-1 0,1 1,15-2,-6 3,-1 0,1 0,-1 2,1 0,-1 1,1 1,-1 0,0 2,-1-1,23 10,-5 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7112.19">5069 127,'-35'737,"15"-189,22-421,-1-90,11 51,0 17,-6-44,1-36</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9284.18">6405 636,'-4'1,"1"0,0 0,-1 0,1 0,0 1,1-1,-1 1,0-1,0 1,-3 2,-7 5,-27 12,-1-1,0-1,-2-2,-73 18,69-23,1 3,0 1,1 2,-60 34,103-51,0 0,0 0,0 0,0 0,-1 1,1-1,0 1,1-1,-1 1,1 0,-1-1,1 1,0 0,-1-1,1 1,0 0,0 0,1 1,-1-1,0 3,1-4,0 1,0 0,1 0,-1-1,1 0,0 1,-1-1,1 1,0-1,0 1,0-1,0 1,0-1,0 0,1 1,-1-1,0 0,1 0,3 2,8 4,1 0,1-1,-1 0,23 6,-29-10,36 13,-3 3,0 0,0 2,-2 2,0 2,-2 1,64 55,-93-71,1-2,0 0,1 0,0-1,16 8,-6-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10045.19">6731 687,'10'-6,"-2"0,1-1,-1-1,1 0,-2 0,0 0,0-1,-1 0,1 0,-1 0,3-11,12-12,74-132,36-48,-130 210,0 0,0 0,0 2,1-2,-1 0,0 1,1 0,-1-1,2 1,-1 0,-1 0,1-1,0 1,0 1,-1-1,5-1,-5 2,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 1,0-1,0 1,0-1,0 1,0-1,1 1,-1 0,0 0,0-1,0 1,-1 0,1 0,0 1,5 5,-2 2,1 0,-1-1,0 1,5 17,59 299,-45-192,3 18,-7 1,-5 273,-15-413,0 1,-1-2,-6 25,1-17</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -17240,17 +17240,17 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 979,'4'0,"7"0,5 0,5 0,3 0,2 0,1 0,5 0,2 0,-1 0,-1 0,-2 0,3 0,5 0,1 9,2 3,-1 0,-7-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="965">821 265,'3'1,"0"0,0 0,1 0,-1 0,0 0,0 1,0-1,0 1,0 0,0 0,-1 0,1 0,-1 0,1 1,-1-1,0 1,0 0,0-1,0 1,0 0,-1 0,1 0,1 5,4 9,0 1,8 33,-6 3,-2 0,-3 0,-2 1,-6 71,1-17,3-77</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2417.23">716 1164,'57'0,"68"1,-122-1,1 1,-1-1,0 1,0 0,1 0,-1 0,0 0,0 1,0-1,0 1,0-1,-1 1,1 0,0 0,-1 1,1-1,2 3,-2 1,1-1,-1 0,0 1,-1-1,1 1,-1 0,0 0,2 11,0 9,-2 1,-1-1,-3 42,1-40,1 7,1-17,-2 0,0 0,-7 36,7-50,0 1,-1 0,1-1,-1 1,0-1,-1 0,1 1,-1-1,0 0,0-1,0 1,0 0,-1-1,0 0,1 0,-1 0,0 0,-1-1,-5 4,-9 0,0-1,0 0,-1-2,0 0,1-1,-1-1,-20-1,-5 0,44 1,-60-3,59 2,0 0,0-1,0 1,0 0,1 0,-1-1,0 1,0-1,0 0,1 1,-1-1,0 0,1 0,-1 0,1 0,-1 0,1-1,-1 1,1 0,0-1,0 1,0-1,0 1,0-1,0 1,0-1,-1-3,2 4,0 0,1-1,-1 1,0 0,1 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 1,0-1,0 0,0 1,0-1,0 1,0 0,0-1,1 1,-1 0,2 0,43-7,-41 7,72-4,138 9,-173 5,-26-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2980.42">742 1006,'4'0,"16"0,8 0,8 9,4 3,-2-1,-2-2,6-2,-4-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3889.58">1377 1058,'17'-14,"1"1,1 0,0 2,34-16,-27 14,7-4,1 1,0 2,1 2,1 0,56-9,-76 19,0 0,1 1,-1 1,0 1,1 0,-1 1,0 0,1 1,-2 1,1 1,0 1,-1 0,0 0,28 18,-23-10,-1 0,0 2,-1 0,-1 2,0-1,-2 2,26 38,-17-19</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4624.36">2171 741,'-109'94,"2"3,77-73,2 1,1 1,-44 54,64-69,-3 0,2 0,0 1,0 0,1 1,1-1,0 1,1 1,0-1,-5 24,8-15</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5380.54">2435 0,'4'0,"7"0,0 5,0 10,-3 7,-3 9,7 27,1 11,-1-1,-3-7,-3-15</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5917.74">2039 397,'0'5,"4"1,11-1,2 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7410.17">2012 318,'4'5,"7"1,5-1,5 0,3-2,2 4,1 0,5-1,2-1,-1-2,-1-1,-7-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8224.56">2806 159,'0'9,"0"8,-5 9,-6 10,-5-2,-5 3,-12 9,-5 0,4-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9896.49">2700 503,'393'-29,"-381"28,-9 0,-1 1,1 0,0-1,0 1,0 0,-1 0,1 0,0 1,0-1,0 1,-1 0,1-1,0 1,-1 0,1 1,-1-1,1 0,-1 1,1-1,-1 1,0 0,0 0,0 0,2 3,-2-1,0 0,0 0,0 1,-1-1,0 0,0 1,0-1,-1 1,1 0,-1-1,0 1,-1-1,1 1,-2 6,0-1,-1 1,1 0,-2-1,0 0,0 0,-1 0,0 0,-1-1,0 0,0 0,-1 0,0-1,0 0,-1 0,0-1,-1 0,0 0,-16 8,5-4,0 0,-1-2,-1-1,1-1,-1 0,0-2,-45 6,65-11,0 1,1-1,-1 0,0 1,0-1,1 0,-1 0,0 0,0-1,0 1,1 0,-1-1,0 1,0-1,1 1,-1-1,0 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,0 0,0-1,0 1,-1-1,1 1,1-1,-2-1,2 1,0 0,0 0,0 1,1-1,-1 0,0 0,1 0,0 1,-1-1,1 0,0 1,0-1,0 1,0-1,0 1,0-1,1 1,-1 0,0 0,1-1,-1 1,1 0,-1 0,1 0,-1 1,1-1,0 0,0 1,-1-1,4 0,3-2,1 0,-1 1,1 0,-1 0,1 1,0 1,0-1,-1 1,1 0,0 1,0 0,-1 1,1 0,8 3,-1 1,0 1,0 1,0 1,-1 0,27 23,18 14,-33-28</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 942,'4'0,"7"0,6 0,5 0,2 0,3 0,1 0,5 0,2 0,-1 0,-1 0,-2 0,3 0,5 0,2 8,1 4,-1-1,-7-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="965">847 255,'3'1,"0"0,0 0,1 0,0 0,-1 0,0 1,0-1,0 0,0 1,0 0,-1 0,1 0,-1 0,1 1,-1-1,1 1,-1 0,0-1,0 0,0 1,-1 0,1 0,1 5,4 8,0 1,9 33,-7 1,-2 1,-2 0,-3 1,-7 68,2-16,3-74</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2417.23">739 1120,'58'0,"71"1,-125-1,0 1,-1-1,0 0,0 1,1 0,-1 0,0 0,0 1,0-1,1 1,-1-1,-1 1,1 0,0 0,-1 1,1-1,2 2,-2 2,1-1,0 0,-1 1,-1-2,1 2,-1 0,0 0,2 10,0 9,-2 1,-1-1,-3 41,1-40,1 8,1-17,-2 1,0-1,-7 35,7-48,0 1,-1-1,1 0,-1 1,0-1,-1 0,0 1,0-2,0 1,0-1,0 1,0 0,-1-1,0 0,1 0,-1-1,-1 1,0-1,-5 4,-10 0,1-1,-1-1,-1-1,1 0,0-1,0-1,-22-1,-4 0,45 1,-62-3,61 2,0 0,0-1,0 1,0 0,1 0,-1-1,-1 1,1-1,0 0,1 1,-1-1,0 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,0-1,0 1,0-1,0 1,0-1,0 1,0-1,-1-3,2 4,0 0,1-1,-1 1,0 0,1 1,-1-1,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 1,0-1,0 0,0 1,0-1,0 1,0 0,0-1,1 1,-1 0,2 0,45-7,-43 7,74-3,143 7,-178 6,-28-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2980.42">766 968,'4'0,"16"0,9 0,8 8,5 4,-3-2,-2-1,6-2,-4-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3889.58">1421 1018,'17'-14,"2"2,0-1,1 3,35-16,-29 13,9-3,0 0,0 3,1 1,1 1,58-9,-79 18,1 0,0 1,0 1,-1 1,2 0,-2 1,1 0,1 0,-3 2,1 1,1 1,-2 0,1-1,28 19,-23-11,-1 0,-1 3,0-1,-2 3,1-2,-3 2,28 37,-19-18</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4624.36">2240 713,'-113'90,"3"3,79-69,2 0,1 1,-45 52,66-67,-4 1,3-1,0 2,0-1,1 2,0-2,1 2,1 0,0 0,-6 22,9-13</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5380.54">2512 0,'4'0,"8"0,-1 5,0 9,-2 7,-4 9,7 26,2 10,-2 0,-3-8,-3-13</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5917.74">2104 382,'0'5,"4"0,11 0,3 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7410.17">2076 306,'4'5,"7"0,6 0,4 0,4-2,2 4,1-1,5 0,2-1,-1-2,-1-1,-7-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8224.56">2895 153,'0'9,"0"7,-5 9,-7 10,-4-3,-6 4,-12 8,-5 0,4-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9896.49">2786 484,'405'-28,"-393"27,-8 0,-2 1,1 0,0-1,0 1,0 0,-1 0,1 0,0 1,0-1,0 1,0 0,0-1,0 1,-1 0,1 1,-1-1,1 0,-1 1,1-1,-1 1,0-1,0 1,0 0,3 3,-3-1,0 0,0 0,0 0,-1 0,0 0,0 1,0-1,-1 1,1-1,-1 0,0 1,-1-1,1 1,-2 5,0 0,-1 0,1 1,-2-1,-1-1,1 1,-1 0,0-1,-1 0,0-1,-1 1,0 0,0-2,0 1,-2 0,1-1,-1-1,0 1,-17 8,5-5,1 1,-2-3,-1 0,2-1,-2-1,0-1,-46 6,67-11,0 1,1-1,-1 0,0 1,0-1,1 0,-1 0,0 0,-1-1,1 1,1 0,-1-1,0 1,0-1,1 1,-1-1,0 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,0 0,0-1,0 1,-1-1,1 2,1-2,-3-1,3 1,0 0,0 0,0 1,1-1,-1 0,0 0,2 0,-1 1,-1-1,1 0,0 2,0-2,0 1,0-1,0 1,0-1,1 1,-1 0,0 0,1-1,-1 1,1 0,-1 0,1 0,-1 1,1-1,0 0,0 1,-1-1,5 0,2-2,1 1,-1 0,2 0,-2 0,1 1,0 1,1-1,-2 1,1 0,1 1,-1 0,-1 1,1 0,9 2,-2 2,1 1,-1 1,1 0,-2 1,29 22,18 13,-34-27</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -17276,10 +17276,10 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0,'2'1,"0"-1,0 1,-1-1,1 1,0-1,0 1,0 0,0 0,0 0,-1 0,1 0,-1 1,1-1,-1 0,1 1,-1-1,0 1,1 0,-1-1,0 1,0 0,0 0,0-1,-1 1,2 3,15 59,-13-43,13 54,-4 0,6 128,-18 158,-3-196,-1 1018,4-1151</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1261.3">3864 79,'-1'1,"0"-1,0 0,0 1,0-1,0 1,0-1,0 1,0-1,0 1,1-1,-1 1,0 0,1-1,-1 1,0 0,1 0,-1 0,1 0,-1-1,1 1,-1 0,1 0,0 0,-1 0,1 0,0 0,0 2,-5 33,4-31,-4 127,6 0,22 170,-15-222,7 88,106 903,-36-692,-51-249,-5-15,-26-94</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2144.12">4605 846,'4'1,"1"-1,0 1,0 0,0 0,0 1,-1-1,1 1,-1 0,1 0,-1 1,0-1,0 1,0 0,0 0,0 0,-1 1,1-1,5 9,3 5,0 1,-1 1,9 20,-12-23,27 59,-3 2,-4 1,27 118,17 251,-66-400,0-11</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2810.4">4605 1508,'0'-4,"4"-7,11 0,20 0,23-1,20 0,18 4,7-8,3-4,-6-4,-8 3,-14 4,-17 5,-18 1,-11-3,-8 2,-8 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0,'2'1,"0"-1,0 1,-1-1,1 1,0-1,0 1,1 0,-1 0,0 0,-1 0,1 0,-1 1,1-1,-1-1,1 2,-1-1,0 1,1 0,-1-1,0 1,0 0,0 0,0-1,-1 1,2 3,16 56,-14-41,14 52,-5 0,7 123,-19 152,-3-188,-1 977,4-1105</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1261.3">3994 76,'-1'1,"0"-1,0 0,0 1,0-1,0 1,0-1,0 1,0-1,0 1,1-1,-1 1,0 0,1-1,-1 1,0 0,1 0,-1-1,1 1,-1-1,1 1,-1 0,1 0,0 0,-1 0,1 0,0 0,0 2,-6 32,5-31,-4 123,6 0,23 163,-16-213,8 84,109 868,-37-665,-53-239,-5-14,-27-91</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2144.12">4760 813,'4'1,"2"-1,-1 1,0 0,0 0,0 1,-1-2,2 2,-2 0,1 0,-1 1,0-1,0 1,0 0,0 0,1 0,-2 0,1 0,5 9,4 4,-1 1,-1 2,10 18,-13-21,28 56,-2 2,-6 1,29 113,18 241,-69-384,0-10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2810.4">4760 1449,'0'-4,"4"-7,12 1,20-1,24 0,21-1,18 4,7-7,4-4,-7-4,-8 3,-14 3,-18 6,-18 0,-12-2,-9 1,-7 3</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -17360,10 +17360,10 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">640 356,'-4'65,"-3"-1,-2-1,-26 94,-9 47,43-196,-1 0,1 1,1-1,0 1,0-1,0 1,4 16,-4-24,0 0,1-1,-1 1,0 0,0-1,1 1,-1 0,0-1,1 1,-1 0,1-1,-1 1,1-1,-1 1,1 0,0-1,-1 0,1 1,-1-1,1 1,0-1,-1 0,1 1,0-1,0 0,-1 0,1 0,0 0,0 1,-1-1,1 0,0 0,0 0,-1 0,1-1,0 1,0 0,-1 0,1 0,0-1,0 1,-1 0,1-1,0 1,-1 0,1-1,-1 1,1-1,1-1,33-30,-33 29,22-25,-1-2,-2 0,-1-2,-1 0,14-37,65-182,-88 223,52-170,10-26,-70 219,-1 0,2 0,-1 1,0-1,1 0,5-6,-8 10,1 1,-1 0,0 0,0-1,1 1,-1 0,0 0,1 0,-1-1,0 1,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 1,0-1,0 0,1 0,-1 0,0 1,1-1,-1 0,0 0,0 1,1-1,-1 0,0 1,0-1,0 0,0 1,1-1,-1 0,0 1,0-1,0 0,0 1,5 16,-1-1,-1 1,0 0,-1 0,-1 0,0 0,-4 28,2 3,2 49,-5-1,-5 1,-3-1,-5-1,-3 0,-43 118,21-104,-102 194,113-251,-1 0,-3-3,-2 0,-3-3,-61 58,91-95,-1-1,-1 0,1 0,-1-1,-1-1,1 0,-1-1,0 0,0-1,-1 0,1-1,-1-1,0 0,0-1,-17 0,21-2,0 1,0-2,1 1,-1-1,1 0,0-1,-1 0,1-1,1 0,-1 0,0-1,1 0,0-1,0 1,1-2,0 1,0-1,0 0,1 0,0-1,0 0,-5-9,4 4,0 0,2-1,-1 1,2-1,-1 0,-2-21,6 28,1 1,-1 0,1 0,0 0,1 0,-1-1,1 1,1 0,-1 0,1 0,0 0,0 1,1-1,0 0,0 1,0 0,7-10,18-12,2 0,0 2,56-36,35-28,-84 56</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="742.99">1592 488,'4'0,"11"0,12 0,10-9,3-3,0 1,1 2,13 2,1 3,0 2,4 1,2 1,-10 5,-10 2,-6-1,-10-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1288.01">1619 832,'4'0,"15"0,19 0,15 0,35 0,16 0,-1 0,-13 0,-17 0,-18 0,-12 0,-10 0,-10 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2172.64">2598 515,'16'-1,"0"0,-1-2,1 0,0 0,-1-2,0 0,0-1,0 0,-1-1,25-16,12-12,69-63,-33 25,-78 66,142-100,-149 105,1 1,-1-1,0 1,1 0,-1 0,1-1,0 2,-1-1,1 0,0 0,-1 1,1 0,0-1,0 1,-1 0,1 0,0 1,0-1,-1 1,5 0,-5 1,0-1,0 1,0 0,0 0,0 0,-1 0,1 0,0 0,-1 1,0-1,0 0,1 1,-1-1,-1 1,1 0,0-1,-1 1,1-1,-1 1,1 5,2 53,-2 0,-7 67,-1 15,6-46,3 190,3-253,-4-28,0 0,0 1,-1-1,1 0,-1 1,-1-1,-1 12,-5-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">665 340,'-5'62,"-2"-1,-2-1,-27 90,-10 45,45-188,-1 1,1 1,1-2,0 2,0-1,0 0,4 16,-4-23,0 0,1-1,-1 1,0 0,0-1,1 1,-1 0,0-1,1 1,-1 0,1-1,-1 1,1-1,-1 1,1-1,0 0,-1 0,1 1,-1-1,1 1,0-1,-1 0,1 1,0-1,0 0,-1 0,1 0,0 0,0 1,-1-1,1 0,1 0,-1 0,-1 0,1-1,0 1,0 0,-1 0,1 0,0-1,0 1,-1 0,1-1,0 1,-1 0,1-1,-1 1,1 0,1-2,34-29,-34 28,23-24,-1-1,-2-1,-1-1,-1-1,14-35,68-173,-92 212,54-162,11-25,-73 209,-1 1,2-1,-1 1,1-1,0 0,5-5,-8 9,1 1,-1 0,0 0,0-1,1 1,-1 0,0 0,1 0,-1-1,0 1,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 1,0-1,0 0,1 0,-1 0,0 1,1-1,-1 0,0 0,0 1,1-1,-1 0,0 1,0-1,0 0,0 1,2-1,-2 0,0 1,0-1,0 0,0 1,5 15,-1-1,-1 1,0 1,-1-1,-1 0,0 0,-4 27,2 3,2 47,-5-2,-5 2,-4-1,-4-2,-4 1,-45 112,23-99,-107 186,118-241,-1 1,-4-3,-1-1,-4-2,-62 56,93-92,0 0,-2-1,2 1,-2-1,0-1,0-1,0 0,-1 0,1-1,-2-1,2 0,-2-1,1 0,-1-1,-17 0,22-2,-1 1,1-2,1 1,-2-1,2 0,0 0,-2-1,2-1,0 0,0 0,0-1,0 1,1-2,0 1,1-2,-1 2,1-2,0 0,1 1,-1-2,1 0,-5-8,3 4,1-1,2 0,-1 1,2-2,-2 1,-1-21,6 28,1 0,-1 0,1 1,0-1,1 0,-1-1,1 2,1-1,-1 0,1 1,0-1,0 1,2-1,-1 1,0 0,0 0,7-9,19-12,3 0,-1 2,58-34,37-27,-88 54</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="742.99">1653 466,'4'0,"12"0,12 0,10-9,4-2,0 0,0 3,14 1,1 3,0 2,5 1,1 1,-10 5,-10 2,-7-1,-10-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1288.01">1681 794,'4'0,"16"0,20 0,15 0,36 0,17 0,-1 0,-13 0,-19 0,-18 0,-12 0,-11 0,-10 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2172.64">2698 492,'17'-1,"-1"0,0-2,0 0,1 0,-1-2,-1 1,1-2,-1 0,0-1,25-14,13-13,72-59,-35 23,-80 63,146-95,-153 100,0 1,-1-1,0 1,1 0,-1 0,1 0,0 1,-1-1,1 0,1 0,-2 1,1 0,0-1,0 1,-1 0,1 0,0 1,0-1,-1 1,6 0,-6 0,0 0,0 1,0 0,0 0,0 0,-1 0,1 0,0 0,-1 1,0-1,1-1,0 2,-1-1,-1 1,1 0,0-1,-1 1,1-1,-1 1,1 4,2 51,-2 1,-7 63,-2 14,7-43,3 181,4-242,-5-26,0 0,0 0,-1 0,1 0,-1 1,-1-2,-1 13,-6-2</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -17415,15 +17415,15 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 953,'0'-4,"0"-7,0-5,4 0,7-2,0 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1398.47">107 53,'1'1,"0"-1,0 1,0-1,0 1,0 0,1-1,-1 1,0 0,-1 0,1 0,0-1,0 1,0 0,0 0,-1 0,1 1,0-1,-1 0,1 0,-1 0,1 0,-1 1,0-1,1 0,-1 0,0 1,0 1,5 41,-5-39,0 59,-3 0,-16 91,4-45,5-9,3-1,10 139,-2-231,0 1,0-1,1 0,0 0,0 0,1 0,0-1,1 1,-1-1,1 1,1-1,0-1,0 1,0-1,0 1,1-1,0-1,12 9,9 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2150.59">319 688,'0'-7,"0"1,1-1,-1 0,2 0,-1 0,1 0,0 1,0-1,1 1,4-7,-6 11,0 0,0 0,1 0,-1 0,1 1,0-1,-1 0,1 1,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 1,0-1,1 1,-1-1,0 1,1 0,-1 0,0 0,1 0,-1 1,0-1,0 1,1-1,-1 1,0 0,3 1,3 2,-1 0,1 0,-1 1,0 0,0 1,-1 0,1 0,-1 0,-1 0,8 11,49 82,-46-72,44 85,-27-49,43 63,-74-123,0 0,0 0,0 0,0-1,1 1,-1-1,1 1,-1-1,1 0,0 0,0 0,0-1,0 1,1-1,-1 1,0-1,1 0,-1 0,0-1,1 1,-1-1,1 1,-1-1,1 0,-1-1,1 1,-1 0,1-1,-1 0,0 0,1 0,-1 0,0-1,0 1,1-1,-1 1,0-1,-1 0,1-1,0 1,-1 0,1-1,-1 1,0-1,0 0,0 0,0 0,0 0,0 0,-1 0,2-6,8-20</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2570.71">795 503,'-9'5,"-12"10,-12 11,-9 11,-19 17,-9 8,-2 3,8-1,9-7,15-13</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3075.79">927 794,'0'5,"0"6,0 9,0 16,9 6,3 4,-1 0,-2 0,-2-2,-3-6,-2-3,-1-4,-1-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4386.11">1059 582,'1'1,"0"-1,0 1,0-1,0 1,0-1,0 1,0 0,0 0,0-1,0 1,-1 0,1 0,0 0,0 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,1 1,-1-1,0 0,0 2,5 39,-4-36,0 30,-2-29,1 1,0 0,1 0,0 0,0 0,0-1,1 1,0-1,1 1,-1-1,5 8,-6-14,0 1,0-1,0 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,1 0,-1 0,0-1,1 1,0-1,-1 1,1-1,-1 1,1-1,-1 0,1 0,2 0,1-1,-1 1,1-1,-1 0,1-1,-1 1,0-1,1 0,3-2,8-6,-1 0,-1-1,17-15,-15 10,0 0,-1-1,-1-1,-1-1,20-35,-26 40,0-1,0 0,-1 0,-1-1,-1 1,0-1,2-27,-14 716,9-545,-1-125,0 1,0-1,0 0,0 0,0 0,-1 1,0-1,1 0,-1 0,0 0,0 0,-1 0,1 0,-1 0,1-1,-1 1,0 0,0-1,-5 5,3-5,-1 1,1-1,-1 0,0 0,0-1,0 0,0 0,0 0,0 0,-1-1,-8 0,9 0,0 1,0-1,0-1,0 1,0-1,0 0,0 0,0 0,0-1,1 1,-1-1,1 0,-1-1,1 1,0-1,-1 0,1 0,-4-4,4 1,0 1,1-1,0 1,0-1,0 0,1 0,-1-1,2 1,-1 0,1-1,0 1,0-1,0-10,0-2,0 0,2 1,0-1,1 0,0 1,9-30,-5 32</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5049.7">1800 0,'3'2,"0"-1,0 1,0-1,0 1,0 0,0 0,0 1,-1-1,1 0,-1 1,0 0,1-1,-1 1,0 0,-1 0,1 0,0 0,1 5,2 1,35 63,-3 3,-4 1,26 88,55 250,-102-366,-2 0,-2 1,-3 1,0 75,-6-104,-1 1,0-1,-2 1,0-1,-2-1,0 1,-1-1,-1 0,-1 0,-1-1,-1 0,-21 30,26-43,0 1,0-1,0 0,-1-1,1 0,-14 8,17-11,-1 0,1 0,-1-1,0 1,0-1,1 0,-1 0,0 0,0-1,0 1,0-1,0 0,0 0,0-1,0 1,-4-2,-15-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5560.56">2356 582,'4'0,"11"0,7 0,14 0,4 0,10 0,5 0,7 0,23 0,8 0,-13 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6107.38">2224 821,'4'0,"15"0,18 0,21 0,9 0,12 0,5 0,-2 0,-7 0,-6 0,-11 0,-10 0,-6 0,-4 0,-4 0,-4 0,2 0,-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 913,'0'-3,"0"-8,0-4,4-1,8-1,-1 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1398.47">113 51,'1'1,"0"-1,0 1,0-1,0 1,0 0,1-1,-1 1,0 0,-1 0,1-1,0 0,1 1,-1 0,0 0,-1 0,1 1,0-1,-1 0,1 0,-1 0,1 0,-1 1,0-1,1 0,-1 0,0 1,0 1,5 39,-5-37,0 56,-3 0,-17 88,4-44,6-8,2-1,11 133,-2-221,1 0,-1 0,1 0,0-1,0 1,1 0,0-2,1 2,0-1,0 0,1 0,0-1,1 0,-1 0,0 1,2-1,-1-2,13 10,9 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2150.59">336 659,'0'-6,"0"0,2-1,-2 0,2 1,-1-1,1 0,0 2,0-2,1 1,5-6,-7 10,0 0,0 0,1 0,-1 0,1 1,0-1,-1 0,1 1,0-1,1 1,-1 1,0-1,0 0,0 0,0 0,0 0,1 0,-1 1,1-1,0 1,-1-1,0 1,1 0,-1 0,0 0,2 0,-2 1,0-1,0 1,1-1,-1 1,0 0,4 1,2 1,-1 1,2 0,-2 1,1 0,-1 0,-1 1,2 0,-2 0,-1-1,9 12,51 78,-48-69,47 81,-30-47,47 61,-79-118,0 0,0 0,0-1,0 0,1 1,-1-1,2 1,-2-1,1 0,0 0,0 0,0-1,0 1,2-1,-2 0,0 0,1 0,-1 0,1-1,0 1,-1-1,1 1,-1-1,2 0,-2-1,1 1,-1 0,1-1,0 0,-1 0,1 0,-1 1,0-2,0 1,2-1,-2 1,0-1,-1 0,1-1,0 1,-1 0,2-1,-2 1,0 0,0-1,0 0,0 0,0 0,0 0,-1 0,3-5,7-20</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2570.71">839 482,'-10'5,"-12"9,-13 11,-9 11,-20 15,-10 9,-2 2,8-1,10-6,16-13</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3075.79">978 761,'0'5,"0"5,0 9,0 16,9 5,4 4,-1 0,-3 0,-1-1,-4-7,-2-2,-1-5,-1-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4386.11">1117 558,'1'1,"0"-1,0 1,0-1,0 1,1-1,-1 1,0 0,0 0,0-1,0 0,-1 1,1 0,0 0,0 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,1 1,-1-1,0 0,0 2,5 37,-3-34,-1 28,-2-27,1 1,0-1,1 1,0 0,0-1,0 0,1 1,0-2,1 2,-1-1,6 7,-7-13,0 1,0-1,0 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,1 0,0 0,-1-1,1 0,0 0,-1 1,1-1,-1 1,1-1,-1 0,1 0,3 0,0-1,-1 1,1-1,-1 1,2-2,-2 1,0-1,1 0,4-2,8-6,-1 1,-2-2,19-14,-16 10,0 0,-1-2,-2 0,0-1,21-34,-28 39,1-2,-1 1,-1 0,0-2,-2 2,0-1,3-27,-16 687,10-522,-1-120,0 1,0-1,0-1,0 1,0 0,-1 1,0-1,1 0,-1 0,0 0,0-1,-1 1,1 0,-1 0,1-1,-2 1,1 0,0-1,-5 4,3-4,-2 1,2-1,-1 0,0 0,-1-1,1 0,0 0,-1 0,1 0,-1-1,-9 0,10 0,0 1,-1-1,1-1,0 1,-1-1,1 0,0 0,0 0,-1-1,2 1,-1-1,1 0,-2-1,2 1,0-1,-1 1,0-1,-3-4,4 1,0 1,0 0,1 0,0-1,0 0,1 1,-1-2,2 1,-2 0,2 0,0 0,0-1,0-9,0-2,0 0,2 0,0 0,1 0,0 1,10-29,-6 30</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5049.7">1899 0,'3'2,"0"-1,0 1,1-1,-1 1,0 0,0 0,0 0,-1 0,2 0,-2 1,0 0,1-1,-1 1,0 0,-1 0,1-1,0 1,2 5,1 1,37 60,-3 2,-4 2,27 84,58 240,-107-351,-2 0,-3 1,-3 1,1 72,-7-100,-1 1,-1-1,-1 1,0-1,-2 0,-1 0,0-1,-2 0,0 0,-2-1,0 1,-23 28,28-42,-1 2,1-1,0 0,-2-2,2 1,-15 8,18-11,-1-1,0 1,0-1,0 1,0-1,1 0,-2 0,1 0,0-1,0 1,-1-1,1 0,0 0,0-1,0 1,-5-2,-15-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5560.56">2486 558,'4'0,"12"0,7 0,15 0,4 0,11 0,5 0,7 0,25 0,8 0,-14 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6107.38">2346 787,'5'0,"15"0,19 0,22 0,9 0,14 0,4 0,-1 0,-8 0,-6 0,-12 0,-10 0,-7 0,-4 0,-4 0,-4 0,1 0,-3 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -17477,20 +17477,20 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">21 574,'-15'182,"9"-133,6-37,0 0,1 0,0 0,1 0,0 0,1 0,0-1,1 1,1-1,-1 0,2 0,-1-1,2 1,-1-1,1-1,1 1,0-1,14 12,-15-13,0-1,1-1,0 1,1-1,-1-1,1 0,0 0,0 0,1-1,-1-1,1 0,0 0,0-1,0 0,0 0,0-1,0-1,0 0,1 0,-1-1,20-4,-12-2,0 0,-1-2,0 0,0-1,-1 0,-1-1,0-1,15-15,10-13,51-65,-57 59,-2-1,-2-1,-2-1,39-99,-55 127,-8 46,-5 415,-3-156,5-218,-2 0,-4-1,-3 1,-28 116,34-177,1 0,-1 0,0 0,0 0,-1 0,1-1,-1 1,0-1,-1 1,1-1,-1 0,1 0,-1-1,0 1,-1-1,1 0,-5 3,1-3,-1 0,1 0,-1-1,1 0,-1-1,0 0,1 0,-1-1,-14-1,-287-10,306 11,0-1,-1 0,1 0,0 0,0 0,0-1,0 0,0 1,0-2,0 1,0 0,1-1,-1 0,1 1,0-1,0-1,0 1,0 0,0-1,1 1,0-1,0 0,0 0,0 0,0 0,1 0,0 0,-1 0,2-1,-2-6,0-7,0 0,1 0,1 0,1 0,1 0,4-22,-3 27,0-1,0 1,2 0,0 0,0 0,1 0,12-17,-15 24,1 1,0 0,1 0,-1 1,1-1,0 1,0 0,0 0,0 1,1-1,0 1,-1 0,1 1,0 0,0 0,1 0,-1 0,9 0,-12 2,8-1,1 0,-1 0,1-2,-1 1,0-1,1-1,19-9,-8-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1546.8">1291 18,'3'-2,"0"0,0 0,0 0,1 1,-1-1,0 1,1 0,0-1,-1 2,1-1,0 0,-1 1,1 0,0-1,6 2,59 10,-48-6,-1 1,1 2,-1 0,-1 1,0 1,0 0,-1 2,0 0,-1 1,25 24,-33-27,0 0,0 0,-1 0,-1 1,0 1,0-1,-1 1,0 0,-1 0,-1 1,0 0,-1 0,0 0,0 0,-2 0,0 0,0 0,-3 23,1-31,0 1,0-1,-1 0,0 0,0 0,0 0,0 0,-1-1,0 1,0-1,0 1,-1-1,1 0,-7 5,3-3,0 0,-1-1,0 1,0-2,-1 1,1-1,-1 0,-11 3,13-5,-1 0,1 0,-1-1,0 0,1-1,-1 1,0-2,1 1,-1-1,-8-2,12 2,0 0,0 0,0-1,0 1,0-1,0 0,1 0,-1-1,1 1,0-1,-1 0,1 0,1 0,-1 0,0 0,1 0,-1-1,-2-6,4 8,-1 0,1 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,1-1,0 1,-1 0,1-1,0 1,0 0,0 0,1-1,-1 1,1 0,-1 0,1-1,-1 1,1 0,0 0,0 0,0 0,1 0,-1 0,0 0,1 1,2-4,-1 3,1 1,-1-1,1 1,0-1,-1 1,1 0,0 0,0 1,0-1,0 1,-1 0,1 0,0 0,0 0,0 1,0 0,7 2,14 6,0 1,0 1,-1 1,-1 1,34 25,-34-22,0-1,1-1,0-1,1-1,37 12,-28-16,0-2,1-1,-1-1,47-2,-50-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2207.8">2244 1130,'18'0,"10"0,10 0,2 0,0 0,-4 0,-2 0,-7 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3214.11">3117 865,'50'-56,"-33"36,1 0,25-20,-36 34,1 0,0 1,-1 1,2-1,-1 1,0 0,1 1,0 0,0 0,11-1,-1 1,0 0,0 2,-1 0,1 1,33 5,-45-4,-1 0,1 1,-1 0,0 0,0 1,0-1,0 1,0 1,0-1,-1 1,0 0,1 0,-1 1,-1-1,1 1,-1 0,0 1,0-1,5 10,-1 2,0 2,-1-1,-1 1,-1 0,-1 0,0 0,-1 1,-1-1,-1 1,-1 0,-5 36,3-38,-1-1,-1 0,-1 0,0 0,-1-1,-1 1,0-2,-2 1,1-1,-2 0,0-1,-1 0,-20 20,-1-6,0-2,-3-1,0-2,-47 24,22-18,-1-3,-65 18,120-42,-1 0,1 0,-1-1,0 0,0 0,1-1,-9 0,14 0,-1-1,1 1,0 0,0 0,-1-1,1 1,0-1,0 1,-1-1,1 1,0-1,0 0,0 0,0 1,0-1,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,1-1,-1 1,1 0,-1 0,1 0,-1-1,1 1,0 0,0-1,0 1,-1 0,1 0,0-1,1 1,-1 0,0-1,0 1,0 0,1 0,-1-1,2-1,0-2,0 0,1 0,-1 0,1 0,0 0,1 1,-1-1,1 1,0 0,0 0,0 1,1-1,-1 1,1 0,7-4,0 0,0 1,1 0,-1 1,1 1,19-5,-20 7,0 1,0 0,0 0,0 1,0 1,0 0,0 1,0 0,0 1,-1 0,1 1,-1 0,0 1,0 0,-1 1,14 9,1 4,0 1,-1 1,0 1,36 48,-41-48</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4495.66">4308 892,'2'3,"-1"0,1 0,0 0,-1 0,0 0,0 1,1-1,-2 0,1 1,0-1,-1 0,0 1,0 5,1 3,7 213,-8-157,2 1,3-1,16 78,-16-132,0 0,0 0,2 0,0-1,0 0,1 0,1-1,0 0,14 14,-6-7,2-2,0 0,1-1,35 22,-47-34,-1 0,1 0,0-1,0 0,0 0,0-1,0 0,1 0,-1-1,1 0,-1-1,1 1,-1-2,1 1,-1-1,1-1,-1 1,1-2,-1 1,0-1,0 0,0-1,-1 1,1-2,-1 1,0-1,0 0,10-10,-3 1,-1 1,0-2,-1 0,-1-1,0 0,-1 0,-1-1,-1 0,0-1,-1 0,-1 0,4-19,0-28,-2 0,-3 0,-5-86,0 680,-2-202,3-280,-3 78,1-115,0 0,-1 0,0 0,-1-1,0 1,0-1,-1 1,0-1,-9 14,10-20,-1 1,1-1,-1 0,0 1,0-2,0 1,-1 0,1-1,0 0,-1 0,0 0,0-1,1 1,-1-1,0 0,0-1,-7 1,-7 0,0-1,0 0,-24-5,20 1,0-1,1-1,0-1,0-2,0 0,1-1,0 0,-30-22,27 14,1-1,0 0,1-2,1 0,1-2,-22-31,33 40,1 0,0 0,1-1,1 0,-6-19,10 26,0 1,0-1,1 0,0 0,0 0,1 0,0 0,0 0,1 0,0 0,1 0,2-9,6-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5285.17">5974 706,'-2'1,"0"-1,0 1,0 0,0 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 1,1-1,0 0,-1 1,1 0,0-1,0 1,0 0,0-1,0 1,0 0,0 0,1 0,-1 0,1 0,-1 0,1 0,0 0,0 3,-11 71,4 2,5 147,4-128,0 15,2-56,-4 1,-2 0,-11 70,8-110,0-29,1-19</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5868.66">5789 1235,'0'-4,"9"-2,12 1,20 0,17 2,12 1,-1 1,0 0,-1 6,-5 1,-7 4,-9 1,-13-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6609.15">6874 1024,'128'-254,"33"-48,-159 298,25-32,-26 35,-1 1,1-1,-1 1,1-1,-1 1,1 0,-1-1,1 1,-1 0,1-1,0 1,-1 0,1 0,-1-1,1 1,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 1,1-1,0 0,-1 0,1 0,-1 1,1-1,0 0,-1 1,1-1,-1 1,1-1,-1 1,1-1,-1 1,0-1,1 1,-1-1,1 1,-1-1,0 1,0 0,1-1,-1 1,0 0,0-1,0 1,0 0,0-1,0 1,0 0,0 0,10 40,-2 0,-2 0,1 44,-3-33,10 441,-10-163,0-289,1-11</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7861.59">7721 1024,'0'-1,"0"-1,0 1,1-1,-1 1,1-1,-1 0,1 1,0 0,-1-1,1 1,0-1,0 1,0 0,0 0,0-1,0 1,1 0,-1 0,0 0,1 0,-1 1,0-1,1 0,-1 0,1 1,1-1,45-11,-45 12,94-10,1 5,120 8,-61 0,-21-2,-97-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9062.76">9097 653,'-6'-5,"0"-1,1 0,-1 0,1 0,1-1,-1 0,-3-7,7 11,0 0,0 0,0-1,1 1,-1 0,1 0,-1-1,1 1,0 0,0 0,1-1,-1 1,1 0,-1 0,1 0,0-1,0 1,1 0,-1 0,3-4,0 2,0 1,0-1,0 1,0 0,1 0,0 0,0 1,0 0,0 0,0 0,0 0,1 1,-1 0,1 0,0 1,0-1,10 0,12-1,0 1,39 2,-57 0,5 0,1 1,-1 0,0 1,0 1,0 0,0 1,0 1,-1 1,0-1,0 2,0 0,-1 1,0 0,0 1,15 14,5 8,-2 0,-1 2,-1 1,-2 2,-1 0,-2 2,-2 1,27 64,-29-60,30 49,-41-78,0 0,1 0,1-1,1-1,-1 1,26 18,-34-28,1-1,-1 0,0 0,1-1,-1 1,1 0,0-1,0 0,7 1,5-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9633.04">10049 204,'-9'6,"0"0,0 0,1 0,0 1,1 0,-11 13,-8 7,-318 282,-92 90,410-372,1 0,2 1,0 2,-25 44,34-45</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10204.79">10287 600,'4'-4,"7"-2,9 1,12 0,12 2,18 1,12 1,10 0,6 1,-5 0,-2 1,11-1,-6 0,-13 0,-19 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10873.06">10472 865,'-5'0,"8"0,26 0,30 0,24 0,19 5,7 1,-3 0,-4-1,-12 2,-12 1,-19-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12384.24">12351 362,'0'0,"0"0,0-1,0 1,0-1,-1 1,1-1,0 1,0 0,0-1,0 1,0-1,-1 1,1-1,0 1,0 0,0-1,-1 1,1 0,0-1,-1 1,1 0,0 0,-1-1,1 1,0 0,-1 0,1-1,-1 1,1 0,0 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,-23 4,-20 16,-31 26,-132 107,194-142,1 1,0 0,1 0,1 1,0 1,1 0,0 0,1 1,0 0,-6 18,7-9,0 1,2-1,1 1,1 0,1 0,1 27,0 12,0-15,10 86,-7-120,1 0,0-1,1 0,1 1,0-1,1-1,0 1,1-1,1 0,10 13,-11-16,0-1,1 1,0-2,1 1,-1-1,2 0,-1-1,1 0,0-1,1 0,-1 0,1-1,0-1,1 1,-1-2,1 0,-1 0,1-1,0-1,24 1,-21-2,-1-1,1-1,0 0,-1-1,1 0,-1-2,0 1,0-2,-1 0,1 0,-1-1,0-1,-1 0,12-11,-5 3,-1-2,-1 0,-1-1,-1-1,0-1,-2 0,17-35,-25 46,6-8,-1-1,-1-1,-1 0,-1 0,-1-1,-1 1,0-1,1-25,-1-38,-10-120,3 195,0 0,0 0,-1 1,0-1,-1 1,0 0,0 0,-1 0,-9-12,-57-64,61 72,-2 0,0 1,-1-1,0 2,-1 0,0 0,-1 2,1-1,-19-6,22 11,0 0,0 1,0 0,-1 0,1 1,-1 1,1 0,-1 1,1 0,-1 1,0 0,-16 4,-12 6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">22 554,'-16'175,"10"-128,6-35,0-1,1 1,0 0,1-1,0 1,1-1,0 0,2 1,0-2,-1 1,2-1,-1 0,2 1,0-2,0 0,1 1,0-2,15 13,-16-14,1 0,0-1,0 1,1-2,0 0,0 0,0 0,1 0,0-2,-1 0,2 0,-1 0,0-1,1 0,-1 0,0-1,1-1,-1 0,1 0,0-1,20-4,-13-2,1 1,-2-3,1 0,0 0,-2-1,0-1,-1 0,16-15,11-13,52-62,-59 57,-2-2,-2 0,-2-1,40-96,-57 123,-7 44,-6 400,-4-150,6-210,-2-1,-4 0,-3 1,-29 111,35-170,1 0,-1 0,0-1,-1 1,0 0,1-1,-1 1,0-1,-1 0,1 0,-1 0,1 0,-2-1,1 1,-1-1,1 0,-5 2,0-2,0 0,1 0,-1-1,0 0,0-1,0 0,0 0,0-1,-15-1,-296-10,316 11,0-1,-2 0,2 0,0 0,0 0,0-1,0 1,0 0,0-2,-1 1,1 0,1-1,-1 0,1 1,0-1,0-1,0 1,0 1,-1-2,2 1,0-1,0 0,0 0,0 0,0 1,1-1,0 0,-1 0,2-1,-2-6,0-6,0 0,1-1,1 1,1 0,1-1,4-20,-3 25,0 0,0 0,2 1,1-1,-1 1,1-1,13-16,-16 23,1 2,0-1,1 0,-1 1,1-1,1 1,-1 0,0 1,0 0,1-1,1 1,-2 0,1 1,0 0,0 0,2 0,-2 0,9 0,-12 2,9 0,0-1,-1 0,2-2,-2 1,1-1,0-1,20-9,-8 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1546.8">1334 17,'4'-2,"-1"1,0-1,0 0,1 1,-1-1,0 1,1 0,0-1,0 2,0-1,0 0,-1 1,1 0,0-1,7 2,60 10,-49-7,-2 2,2 2,-1 0,-2 0,1 2,0 0,-2 1,1 1,-2 0,27 24,-35-26,0-1,1 1,-2 0,-1 0,0 2,1-2,-2 2,0-1,-1 1,-1 1,0-1,0 1,-1-1,0 1,-2-1,0 1,0-1,-3 23,1-30,0 1,0-2,-1 1,0 0,0 0,-1 0,1 0,-1-2,0 2,0-1,0 1,-1-1,1 0,-8 4,4-2,0 0,-1-1,-1 1,1-3,-1 2,1-1,-2 0,-10 3,12-5,0 0,1-1,-1 0,-1 0,2-1,-1 1,0-2,0 1,0-1,-9-1,13 1,0 0,0 0,0-1,0 1,0-1,0 0,0 0,0-1,1 1,0-1,-1 0,1 0,1 1,-1-1,0 0,1 0,-2-1,-1-6,4 8,-1 1,1-1,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,1-1,0 1,-1 0,1-1,0 2,0-1,0 0,1-1,-1 1,1 0,-1 0,1-1,-1 1,1 0,0 0,0 0,0 0,1 1,-1-1,0 0,1 1,2-4,0 3,0 1,-1-1,1 1,0-1,-1 1,1 0,0 0,1 1,-1-1,0 1,-1 0,1 0,0 0,0 0,0 1,1 0,6 2,15 6,0 0,0 2,-2 1,0 0,35 25,-35-22,0 0,0-2,1 0,1-2,38 12,-29-15,0-2,2-1,-2-1,48-2,-51-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2207.8">2320 1090,'18'0,"11"0,10 0,3 0,-1 0,-4 0,-2 0,-7 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3214.11">3222 834,'52'-54,"-35"35,2 0,25-20,-37 33,2 0,-1 2,-1 0,3-1,-2 1,0 0,1 1,1 0,-1 1,12-2,-2 1,1 0,0 2,-2 0,2 1,34 5,-47-4,-1 0,1 1,-1 0,1 0,-1 0,0 0,0 1,0 1,1-1,-2 1,0 0,1 0,-1 0,0 0,0 1,-1 0,0 1,0-1,5 9,0 2,-1 3,-1-2,-1 1,0 1,-2-1,0 0,-1 2,-1-2,-1 1,-1 1,-5 34,3-37,-1-1,-1 1,-2-1,1 0,-1 0,-1 0,0-1,-3 0,2 0,-2-1,-1 0,0-1,-21 20,-1-6,0-2,-3-1,-1-2,-47 24,22-18,-1-3,-68 17,125-40,-1 0,1 0,-2-1,1 0,0 0,1-1,-10 0,15 0,-1-1,1 1,0 0,0 0,-1-1,1 1,0-1,0 1,-1-1,1 1,0-1,0 0,0 0,0 1,0-1,0 0,0 0,-1 0,2 0,-1 0,0 0,0 0,1-1,-1 1,1 0,-1 0,1 1,-1-2,1 1,0 0,0-1,0 1,-1 0,1 0,0-1,1 1,-1 0,0-1,0 1,0 0,1 0,-1-1,2-1,0-1,1-1,0 0,-1 0,1 0,0 0,1 2,-1-2,1 1,0 0,1 0,-1 1,1-1,-1 2,1-1,8-4,-1 0,0 1,2 1,-2 0,2 1,19-5,-21 7,1 1,-1 0,0 0,1 1,-1 1,1 0,-1 1,0 0,1 1,-2 0,2 1,-2 0,0 0,1 1,-2 1,15 9,1 3,-1 1,0 1,0 2,37 45,-42-46</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4495.66">4453 860,'2'3,"-1"0,1 0,0 0,-1 0,0 0,0 0,1 0,-2 0,1 1,1-1,-2 0,0 1,0 4,1 4,7 205,-8-151,2 0,3 0,17 74,-17-126,0-1,0 1,2-1,1 0,-1 0,1-1,2 0,-1-1,15 14,-7-6,3-3,-1 0,2 0,36 21,-49-34,-1 1,2 0,-1-1,0 0,1 0,-1-1,0 0,1 0,0-1,0-1,-1 0,2 1,-2-2,1 1,-1 0,2-2,-2 1,1-2,0 1,-1-1,0 0,0-1,0 1,0-2,-1 2,0-2,1 0,9-10,-2 2,-2 0,0-1,0 0,-2-2,1 1,-2-1,-1 0,0-1,-1 0,-1 0,-1-1,5-17,-1-28,-2 0,-3 1,-5-84,0 656,-2-194,3-271,-3 75,1-110,0 0,-1-1,0 1,-1-1,0 0,0 0,-1 1,-1-2,-8 14,10-19,-1 1,1-1,-1 0,-1 1,1-2,0 1,-1 0,1-2,0 1,-1 0,-1 0,1-1,1 1,-1-1,0 0,0-1,-8 1,-6 0,-1-1,0 0,-24-5,20 1,0 0,2-2,-1-1,0-2,0 1,2-2,-1 0,-31-21,28 14,2-1,-1-1,1-1,1 0,2-2,-24-30,35 38,1 1,-1-1,2 0,1-1,-6-18,10 26,-1 0,1-1,1 1,0-1,0 0,1 0,0 1,0-1,1 0,0 1,1-1,3-9,5-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5285.17">6175 681,'-2'1,"0"-1,0 1,0 0,0 0,0 0,1 0,-1 0,0 0,1 0,-2 0,1 0,1 0,0 0,-1 1,1 0,0-1,0 1,0 0,0-1,0 1,0 0,0 0,1 0,-1 0,1 0,-1 0,1-1,0 1,0 3,-11 68,3 3,6 141,4-124,0 15,3-54,-5 1,-3 0,-10 68,8-107,0-28,1-17</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5868.66">5984 1191,'0'-4,"9"-2,13 2,20-1,18 2,13 1,-2 1,0 0,0 6,-6 1,-7 3,-10 2,-13-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6609.15">7105 988,'133'-245,"33"-47,-164 288,26-30,-27 33,-1 1,1-1,-1 1,1-1,-1 1,1 0,-1-1,1 1,-1 0,1-1,0 1,-1 0,1 0,-1-1,1 1,0 0,-1 0,2 0,-1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 1,1-1,0 0,-1 0,1 0,-1 1,1-1,0 0,-1 1,1-1,-1 1,1-1,-1 1,1-1,-1 1,0-1,1 1,-1-1,1 1,-1-1,0 1,0 0,1-1,-1 1,0 0,0-1,0 1,0-1,0 0,0 1,0 0,0 0,10 39,-1-1,-3 1,1 42,-3-32,11 426,-11-158,0-279,1-10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7861.59">7981 988,'0'-1,"0"-1,0 1,1-1,-1 1,1-1,-1 0,1 1,0 0,-1-1,1 1,0-1,0 1,0 0,0 0,0-1,0 1,1 0,-1 0,0 0,2 1,-2 0,0-1,1 0,-1 0,1 1,1-1,46-11,-45 12,96-10,1 6,124 7,-62-1,-23-1,-99-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9062.76">9403 630,'-6'-5,"0"-1,1 0,-2 1,2-1,1-1,-1 0,-3-6,7 10,0 0,0 0,0-1,1 1,-1 0,1 1,-1-2,1 1,0 0,0 0,1-1,-1 1,1 0,-1 0,1 1,0-2,0 1,1 0,-1 0,3-4,0 2,0 2,0-2,0 1,1 0,0 0,0 0,0 1,0 1,0-1,1 0,-1 0,1 1,-1 0,1 0,1 1,-1-1,10 0,13-1,0 1,40 2,-58 0,4 0,2 1,-2 0,1 1,-1 1,1 0,-1 1,1 1,-2 1,1-2,-1 3,1 0,-2 1,1-1,-1 2,16 13,5 8,-2 0,-1 2,-1 1,-2 1,-1 1,-2 2,-3 0,29 63,-30-59,30 48,-41-76,-1 1,1-1,2 0,0-2,0 2,26 17,-35-27,1-1,-1 0,0 0,1-1,0 0,0 1,0-1,0 0,7 1,6-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9633.04">10387 197,'-9'6,"0"-1,-1 1,2 0,0 1,1-1,-12 14,-8 6,-328 272,-96 86,424-357,1-1,2 1,1 2,-27 42,36-43</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10204.79">10633 579,'4'-4,"8"-2,9 1,12 0,12 2,19 2,13 0,9 0,8 1,-7 0,-1 1,11-1,-6 0,-13 0,-20 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10873.06">10825 834,'-6'0,"9"0,27 0,31 0,25 0,20 5,6 1,-2 0,-5-2,-12 3,-12 1,-20-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12384.24">12767 349,'0'0,"0"0,0-1,0 1,0-1,-1 1,1-1,0 1,0 0,0-1,0 1,0-1,-1 1,1-1,0 1,0 0,0-1,-1 1,1 0,0-1,-1 1,1 0,0 0,-1-1,1 1,0 0,-1 0,1-1,-1 1,1 0,0 0,-1 0,1 0,-1 0,1 0,-2 0,1 0,-23 4,-22 16,-31 24,-137 104,200-138,2 2,-1-1,2 1,1 0,-1 2,2-1,0 1,1 0,-1 1,-5 17,7-9,-1 1,3-1,1 1,1 0,1 0,1 27,0 10,0-13,10 82,-7-116,1 1,0-2,1 1,2 0,-1 0,1-2,0 2,1-2,2 1,9 12,-10-16,-1 0,1 1,0-3,2 2,-2-1,2 0,-1-2,2 1,-1-1,2 0,-2-1,1 0,1-1,0 1,-1-2,2 0,-2 0,2-1,-1-1,25 0,-21-1,-2-1,2 0,-1-1,0-1,0 0,0-2,-1 1,1-2,-2 1,1-1,0-1,-1-1,0 1,12-12,-6 4,0-2,-2-1,0 0,-2-1,1-2,-3 1,18-34,-25 44,5-7,-1-1,0-2,-2 1,-1 0,-1-1,-1 0,1 0,0-24,-1-37,-10-116,3 188,0 1,0-1,-2 1,1-1,-1 2,0-1,0 0,-1 1,-10-13,-58-61,63 70,-3-1,1 2,-2-2,1 2,-2 1,1-1,-2 2,2 0,-20-7,23 11,-1 1,1 0,-1 0,0 0,1 1,-2 1,2 0,-2 1,2 0,-1 1,-1 0,-16 4,-12 5</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -17516,13 +17516,13 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">848 266,'-2'17,"-1"-1,0 0,-1 0,-1-1,-8 20,3-8,-7 20,6-18,1 1,-8 43,17-69,0-1,1 1,0-1,0 1,0 0,0-1,1 1,-1-1,1 1,0-1,0 1,0-1,1 1,-1-1,1 0,0 0,0 0,0 0,0 0,0 0,1-1,-1 1,1-1,0 1,-1-1,1 0,0 0,1 0,-1-1,0 1,0-1,1 1,-1-1,1 0,5 1,13 2,0-1,0 0,1-2,32-2,-46 1,41 0,-30 2,0-2,1-1,-1-1,0 0,23-6,-37 5,-1 0,0 0,0 0,0-1,0 1,0-1,0 0,-1-1,0 1,0-1,0 0,-1 0,0 0,0 0,0-1,0 1,2-10,1-2,0 1,-2-1,0 0,3-34,-7 22,3-25,-3 51,0 0,1 0,-1 0,1 0,0 0,0 0,0 1,0-1,1 0,-1 1,1-1,-1 1,3-3,-3 4,-1 1,0 0,0 0,1-1,-1 1,0 0,0 0,1 0,-1 0,0 0,0-1,1 1,-1 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 1,0-1,1 0,-1 0,0 0,0 0,1 0,-1 1,0-1,0 0,1 0,-1 0,0 1,0-1,0 0,1 0,-1 1,0-1,0 0,0 0,0 1,0 0,7 17,0 34,-1 0,-3 0,-4 61,0-30,0 338,1-412,0 1,-1-1,0 1,-1-1,0 1,-1-1,0 0,0 0,0 0,-2 0,1-1,-1 1,0-1,-1 0,1-1,-2 1,1-1,-14 11,10-11,0 0,-1 0,0-1,0 0,-1-1,1-1,-1 0,0 0,-1-1,1-1,0 0,-1-1,-24 0,36-1,-19 1,0-2,0 0,0-2,0 0,-32-9,48 10,1 1,-1-1,0 1,1-1,0 0,-1 0,1-1,0 1,0-1,0 1,1-1,-1 0,1 0,-1 0,1 0,0-1,0 1,1-1,-1 1,1-1,-1 0,1 1,0-1,0 0,1 0,-1 0,1 0,0 1,0-1,0 0,1 0,-1 0,1 0,0 0,0 1,2-6,-1 3,0 0,1 1,-1-1,1 1,1-1,-1 1,1 0,-1 0,1 1,1-1,-1 1,6-5,11-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="856.77">239 558,'0'18,"0"11,0 8,0 13,0 6,0 7,0-3,0-2,0-6,0-9,0-6,-5-18,-1-13</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1375.2">1 769,'9'0,"7"0,19 0,36 0,9 0,5 5,-7 1,-9 0,-6-1,-10-2,-13-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2494.2">1774 108,'10'-9,"0"1,1 0,1 0,-1 1,1 0,1 1,-1 0,24-6,-3 2,0 2,45-5,-76 12,12-1,0 1,0 0,0 1,18 1,-28 0,0 0,0 0,0 0,0 0,0 1,0 0,0-1,0 2,-1-1,1 0,-1 1,0-1,1 1,-1 0,0 0,-1 0,1 1,2 3,6 10,-2 0,0 1,-1 0,-1 0,-1 1,0 0,-2 0,0 0,2 38,-5-43,-1 0,0 1,-1-1,-1 0,0 0,-1 0,0 0,-1 0,-1-1,0 1,-1-1,0-1,-1 1,-12 14,13-18,0-1,-1 0,0-1,-1 1,0-1,0-1,0 0,-1 0,0 0,0-1,-1-1,1 0,-1 0,0 0,0-2,0 1,0-1,-1 0,1-1,-1-1,1 1,-1-2,-10-1,20 3,-1-1,0 0,0-1,0 1,0 0,0 0,1-1,-1 1,0-1,0 0,1 1,-1-1,0 0,1 0,-1 0,1 0,-1 0,1-1,0 1,-1 0,1-1,0 1,0-1,0 1,0-1,0 1,0-1,0 0,1 1,-1-1,0-2,1 2,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 1,0-1,0 0,1 1,-1-1,0 1,1-1,-1 1,1-1,-1 1,1 0,-1 0,1 0,0 0,0 0,0 0,-1 1,1-1,0 0,0 1,3-1,23-4,0 1,1 1,-1 2,46 2,-40 0,0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3143.33">2567 663,'0'5,"9"1,16 0,18-1,15-7,6-2,7 0,-1-5,6 0,-5 1,-10 2,-21 2,-25 2,-16 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5070.78">3573 319,'18'-10,"0"-1,-1-1,22-20,-20 16,39-24,-13 14,80-34,-104 52,1 1,1 1,-1 1,1 1,0 1,28 0,-35 3,-6-1,0 1,0 1,0-1,1 1,11 4,-19-4,0-1,-1 2,1-1,-1 0,1 0,-1 1,1 0,-1-1,0 1,0 0,0 0,0 0,0 0,0 1,-1-1,1 0,-1 1,1-1,-1 1,0 0,0-1,0 1,0 4,5 25,-3 0,0 0,-2 1,-6 56,1-17,4-53,-1-1,-1 1,-1-1,0 0,-2 0,0 0,-1 0,0-1,-2 0,0 0,-1-1,0 0,-2-1,0 0,0 0,-1-1,-1-1,-16 14,7-7,-47 33,64-49,0-1,0 0,-1 0,1 0,-1 0,1-1,-1 0,0 0,0-1,0 0,0 0,0 0,0 0,-1-1,1 0,-9-2,12 1,0 0,0 0,1 0,-1-1,0 1,1-1,-1 0,1 1,-1-1,1 0,0-1,0 1,0 0,0-1,0 1,1-1,-1 1,1-1,0 0,-1 0,1 0,1 1,-1-1,0 0,1 0,-1 0,1 0,0 0,0-1,1-3,-1 3,0 0,1 0,-1 1,1-1,0 0,0 0,1 1,-1-1,1 1,-1 0,1-1,0 1,1 0,-1 0,0 0,1 0,0 0,0 1,-1-1,2 1,-1 0,0 0,0 0,4-2,5 0,1 1,-1 0,1 1,0 0,0 1,0 0,0 1,-1 0,1 1,0 1,0 0,19 6,-14-3,-1 2,-1 0,1 1,-1 1,0 0,-1 1,-1 1,19 15,-21-15,25 23,-36-33,0-1,0 1,-1 0,1-1,-1 1,1 0,-1-1,1 1,-1 0,1 0,-1 0,1-1,-1 1,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0-1,-1 1,1 0,-1 0,1 0,-1-1,1 1,-1 0,0-1,0 2,-17 7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7886.24">5451 81,'-5'3,"-1"0,1 0,0-1,0 0,-1 0,0 0,1-1,-1 0,0 0,1-1,-1 1,-11-2,-2 2,-190 8,-61 6,261-14,0 0,0 0,0 2,0-1,0 1,0 0,-15 9,20-10,0 1,0 0,0 0,1 1,-1-1,1 1,0-1,0 1,0 0,1 0,0 0,-1 1,1-1,1 1,-1-1,-1 9,-10 40,-10 99,23-148,-1-1,1 1,0 0,0 0,0 0,1 0,-1-1,1 1,0 0,0 0,0-1,1 1,-1-1,1 1,0-1,0 0,0 1,0-1,1 0,-1-1,4 4,0-2,0-1,0 1,0-2,1 1,0-1,-1 1,1-2,0 1,0-1,13 1,51 2,83-6,-90-1,-1 3,73 9,-123-7,0 1,0 1,0 0,0 1,-1 1,1 0,-2 0,1 1,-1 1,0 0,0 0,-1 1,0 0,0 1,-1 0,-1 1,12 17,-12-15,-1 0,0 0,-1 0,0 1,-1 0,-1 0,0 1,-1-1,0 1,-1-1,-1 1,-1 0,0 0,0 0,-2-1,-3 16,4-26,0-1,0 0,-1 0,0 1,1-1,-1 0,0-1,0 1,-1 0,1-1,-1 1,1-1,-1 1,0-1,0 0,0 0,0-1,0 1,0-1,-1 1,1-1,0 0,-6 1,-10 2,0-1,0-1,-23 0,28-1,-470-1,297-4,154 4,24 1,0 0,0-1,-1 0,1 0,0-1,0 0,0-1,0 0,0-1,0 0,0 0,-9-6,0-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">874 254,'-2'16,"-1"-1,0 1,-1-1,-2-1,-7 20,3-9,-8 20,7-17,1 1,-9 40,18-65,0-1,1 1,0-1,0 1,0-1,0 0,1 1,-1-1,1 1,0-1,0 0,0 0,1 1,-1-1,1 0,0 0,0 0,0-1,1 1,-1 0,1-1,-1 1,1-1,0 1,-1-1,1-1,0 1,1 0,-1-1,1 1,-1-1,1 1,-1-1,1 0,5 1,14 2,0-1,-1-1,2-1,33-2,-48 1,42 0,-30 2,0-2,0-1,0-1,0 1,23-7,-38 5,-1 0,0 0,1 0,-1 0,0 0,0-1,0 0,-1-1,0 2,1-2,-1 0,-1 0,0 0,0 1,0-2,0 1,2-9,1-2,1 0,-3 0,0 0,3-33,-7 22,3-25,-3 49,0 0,1 0,-1 1,1-1,0 0,0 0,0 1,0-1,1 0,-1 1,2 0,-2 0,3-3,-3 4,-1 1,0 0,0 0,1-1,-1 1,0 0,0 0,1 0,-1 0,0 0,0-1,1 1,-1 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 1,0-1,1 0,-1 0,0 0,0 0,1 0,-1 1,0-1,0 0,1 0,-1 0,0 1,0-1,0 0,1 0,-1 1,0-1,0 0,0 0,0 1,0 0,7 16,0 33,0-1,-4 1,-4 58,0-29,0 323,1-394,0 2,-1-2,0 2,-1-1,-1 0,0 0,0-1,0 1,0 0,-2-1,1 0,-1 0,0 0,-2 0,2-2,-2 2,1-1,-15 10,11-11,0 1,-2 0,1-1,0-1,-2 0,2-1,-2 0,1 0,-1-2,0 0,1 0,-1-1,-26 0,38-1,-19 1,-1-2,1 0,-1-2,0 0,-32-8,49 9,0 1,0-1,0 1,1-1,0 0,-1 1,1-2,0 1,0-1,0 1,1-1,-2 0,2 0,-1 1,1-1,0-1,0 1,1-1,-1 1,1-1,-1 1,1 0,0-1,0 0,1 0,-1 1,1-1,0 1,0-1,0 0,1 0,-1 1,1-1,0 0,0 1,2-6,-1 4,0-1,1 1,-1 0,1 0,1-1,0 1,0 0,-1 1,1 0,1-1,-1 1,6-4,12-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="856.77">246 533,'0'17,"0"11,0 7,0 13,0 5,0 7,0-3,0-1,0-7,0-8,0-5,-5-18,-1-12</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1375.2">1 734,'9'0,"8"0,19 0,37 0,9 0,6 5,-8 1,-8-1,-7 0,-11-2,-13-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2494.19">1828 103,'11'-8,"-1"0,1 0,2 1,-2 0,1 0,2 2,-2-1,25-6,-3 3,0 1,47-4,-79 11,12-1,1 1,-1 0,1 1,18 1,-29 0,0 0,0 0,0 0,0 0,0 1,0 0,1-2,-1 3,-1-1,1 0,-1 1,0-1,1 1,-1 0,0 0,-1-1,2 2,1 3,6 9,-2 0,1 2,-2-1,-1 0,-1 1,0 0,-1 0,-1 0,2 37,-5-42,-1 1,0 0,-1-1,-1 1,0-1,-1 0,0 1,-2-1,0-1,0 2,-1-2,0 0,-2 0,-11 14,13-18,0 0,-2 0,1-2,-1 2,0-1,-1-2,1 1,-1 0,0 0,-1-2,0 0,1 0,-2 0,1 0,0-2,-1 0,1 0,-1 0,1-1,-2-1,2 1,-1-2,-11-1,21 3,-1-1,0 0,0-1,0 1,0 0,0 0,0-1,0 1,0-1,0 0,1 1,-1 0,0-1,1 0,-1 0,1 0,-1 0,1-1,0 1,-1 0,1-1,0 1,0-1,0 1,0-1,0 1,0-1,0 1,1 0,-1-1,0-2,1 2,1 0,-1 0,1 0,0 0,-1 0,1 0,0 1,0 0,0-1,0 0,1 1,-1-1,0 1,1-1,-1 1,1-1,-1 1,1 0,-1 0,1 0,0 0,0 0,0 1,-1 0,2-1,-1 0,0 1,3-1,24-4,0 1,0 1,0 2,48 2,-42 0,0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3143.33">2646 633,'0'5,"9"0,17 1,18-1,16-7,6-2,7 0,-1-4,7-1,-6 2,-10 1,-22 2,-26 2,-16 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5070.78">3683 305,'18'-10,"1"-1,-2 0,24-20,-22 16,41-23,-14 13,83-32,-107 49,0 2,2 0,-1 1,1 1,-1 1,30 1,-37 2,-5-1,-1 1,0 1,1-1,0 1,12 3,-20-3,0-1,-1 2,1-1,-1 0,1 0,-1 1,1 0,-1-1,0 1,0 0,0 0,1-1,-1 1,0 1,-1-1,1 0,-1 1,1-1,-1 1,0 0,0-2,0 2,0 4,5 24,-3-1,0 1,-2 0,-6 54,1-16,4-51,-1-1,-1 1,-1-1,0 1,-2-1,0 0,-2 0,1-1,-2 1,0-1,-2-1,1 0,-2 0,-1-1,1 0,-1 0,-2-2,-16 14,8-7,-49 32,65-48,1 0,0 0,-1 0,1 0,-1 0,0-1,0 0,0-1,0 0,0 0,0 0,-1 0,1 0,-1-1,1 0,-10-2,13 1,0 0,0 0,1 0,-1 0,0 0,1-1,-1 0,1 1,-1-1,0 0,1-1,0 1,0 0,0-1,0 2,1-2,-1 1,1-1,0 0,-1 0,1 0,1 1,-1 0,0-1,1 0,-1 0,1 0,0 0,0-1,1-2,-1 2,0 0,1 0,-1 1,1 0,0-1,0 0,1 1,-1-1,1 1,-1 1,1-2,0 1,1 0,-1 0,0 0,2 0,-1 1,0 0,-1-1,2 1,-1 0,0 0,0 0,4-2,6 1,0 0,0 0,0 1,0 0,1 1,-1 0,1 1,-2 0,1 1,1 1,-1 0,20 5,-14-2,-2 2,0 0,0 0,0 2,-1-1,0 2,-2 0,20 15,-22-14,27 21,-38-31,0-1,0 1,-1 0,1-1,-1 1,1 0,-1-1,1 1,-1 0,1 0,-1 0,1-1,-1 1,0 0,0 0,1 0,-1 0,0 0,0 0,0-1,0 1,0-1,0 1,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0-1,-1 1,1 0,-1 0,1 0,-1-1,1 1,-1 0,0-1,0 2,-18 6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7886.24">5618 77,'-5'3,"-1"0,1 0,0-1,0 0,-2 0,1 0,1-1,-1-1,0 1,1-1,-2 1,-10-2,-3 2,-195 8,-63 5,268-13,1 0,0 0,-1 2,1-1,0 1,0 0,-16 8,21-9,0 1,0 0,-1 0,2 0,-1 0,1 1,0-1,0 1,0 0,1-1,0 1,-1 1,1-1,1 1,-2-2,0 10,-10 37,-11 96,24-143,-1 0,1 1,0 0,0 0,0-1,1 1,-1-1,1 1,0 0,0 0,0-2,1 2,-1-1,2 1,-1-1,0 0,0 1,0-2,1 1,-1-1,4 4,0-2,0-1,1 0,-1-1,1 1,0-1,-1 1,2-2,-1 1,0-1,14 1,52 1,86-4,-93-2,-1 3,75 8,-127-6,1 1,-1 1,0 0,1 0,-2 2,1 0,-1 0,0 0,0 2,-1 0,0-1,-1 2,1-1,-1 2,-1 0,0 0,11 17,-12-15,0 1,-1-1,-1 0,0 2,-1-1,0 0,-1 2,-1-2,0 1,-1 0,-1 0,-1 0,0 1,0-1,-2-1,-3 16,4-25,0-1,0 0,-1 0,0 0,1 0,-2 0,1-1,0 1,-1 0,1-1,-1 0,1 0,-1 1,0-1,0 0,0 0,0-1,-1 1,1-1,-1 1,1-1,0 0,-6 1,-11 1,1 0,-1-1,-23 0,28-1,-484-1,307-4,158 4,24 1,1 0,0-1,-1 0,0 0,1-1,0 0,-1-1,1 0,0-1,0 1,-1-1,-8-6,-1-7</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -17548,22 +17548,22 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 291,'75'-1,"-26"-1,67 7,-109-4,-1 1,0 0,0 1,0-1,0 1,0 0,-1 1,0-1,1 1,-1 0,0 1,-1-1,1 1,-1 0,0 0,0 0,0 1,-1-1,0 1,3 8,4 6,-2 0,-1 1,0 0,6 39,-10-31,-1 56,-3-65,1-1,1 1,0 0,1-1,2 1,8 29,-10-44,0-1,0 1,0-1,1 0,-1 0,1-1,0 1,0 0,1-1,-1 0,1 0,0 0,0 0,0 0,0-1,6 4,-1-3,-1-1,0 0,0 0,1 0,-1-1,1 0,0 0,14-2,-6-1,1 0,-1-1,0-1,0-1,-1 0,1-1,-1-1,24-14,-34 16,1 1,-1-2,0 1,0-1,0 0,-1 0,0 0,0-1,-1 0,1 0,-2 0,1-1,-1 1,0-1,0 0,-1 1,1-11,2-14,-2 0,-2 0,-2-39,0 36,4-53,10 24,-4 38</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="601.64">1351 53,'1'1,"0"-1,0 1,0 0,0-1,0 1,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,-1 0,1 1,-1-1,1 0,-1 0,0 0,1 1,-1-1,0 0,0 0,0 1,0-1,0 0,0 1,0-1,-1 2,-3 48,3-48,0 9,-35 267,30-210,4 0,6 76,-3-140,0-1,0 1,0 0,1-1,-1 1,1-1,0 0,0 1,1-1,-1 0,1 0,0-1,0 1,0-1,1 1,-1-1,1 0,0 0,-1 0,1-1,1 1,-1-1,0 0,1 0,4 1,21 7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1296">1615 529,'12'-11,"1"1,1 0,0 1,0 0,1 1,0 1,1 0,-1 1,1 1,0 0,31-4,10 2,1 3,61 3,-60 1,-7-2,-12 1,43 3,-73-2,-1 2,0-1,1 1,-1 0,0 1,0 0,0 1,-1-1,1 2,8 5,-14-7,1 0,0 0,-1 0,1 1,-1 0,0 0,0-1,-1 2,1-1,-1 0,0 1,0-1,0 1,1 4,0 6,-1-1,-1 0,1 20,-2-22,0 0,1 0,1 0,0-1,4 13,-6-23,0-1,0 1,0-1,0 1,0-1,0 0,0 1,0-1,0 1,0-1,0 0,0 1,0-1,0 1,1-1,-1 0,0 1,0-1,0 0,1 1,-1-1,0 0,1 1,-1-1,0 0,0 0,1 1,-1-1,1 0,-1 0,0 0,1 1,-1-1,0 0,1 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,1 0,-1-1,0 1,1 0,-1 0,1-1,5-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1802.7">2515 265,'0'9,"0"12,-9 21,-8 11,-1 7,-5-3,0-3,-1-9,1-4,2-5,2-3,3-3,5-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3333.01">2753 556,'-1'18,"1"-5,0 0,0-1,1 1,1 0,5 23,-6-34,0 1,0-1,0 1,1-1,-1 0,1 0,-1 1,1-1,0 0,0 0,0 0,0-1,0 1,0 0,0-1,1 1,-1-1,0 0,1 0,-1 0,1 0,0 0,-1-1,1 1,0-1,-1 1,1-1,0 0,-1 0,1 0,0-1,-1 1,5-2,-1 1,1 0,-1 0,0-1,0 0,-1 0,1-1,0 1,-1-1,1-1,-1 1,0-1,0 0,-1 0,1 0,-1-1,1 1,-2-1,1 0,0 0,-1-1,0 1,0-1,-1 1,1-1,-1 0,-1 0,3-11,1-13,-2-1,-1 1,-1-1,-6-46,2 19,1-109,28 235,10 55,21 143,-48-199,-2 0,-3 0,-3 0,-7 69,4-125,-1 0,0-1,0 1,-1-1,0 0,0 0,-2 0,1 0,-1-1,0 0,-1-1,0 1,0-1,-9 7,12-11,-1 0,1 0,-1 0,0-1,1 0,-1 0,-1 0,1-1,0 1,-1-1,1-1,-1 1,0-1,1 0,-1 0,0-1,0 1,1-1,-1-1,0 1,0-1,0 0,1 0,-1-1,1 1,-1-1,-7-4,-13-11,2-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3991.72">2647 768,'4'-4,"2"7,0 7,-6 12,-3 6,0 8,-5 6,-6 1,1-3,-4-8,-2-13,2-11</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4738.73">3414 0,'3'2,"1"-1,-1 1,1 0,-1 0,0 0,0 1,0-1,0 1,0-1,-1 1,1 0,-1 0,1 0,-1 1,0-1,2 6,3 2,18 27,-1 1,-2 1,-2 1,-2 1,-2 1,-1 1,-2 0,-3 0,-1 1,-2 0,1 56,-4 5,-14 160,9-254,-1-1,-1 0,1 0,-2 0,0 0,0-1,-1 1,0-1,-1 0,0-1,0 0,-1 1,-1-2,1 1,-1-1,-1-1,-9 8,17-14,0 0,1 0,-1-1,0 1,1-1,-1 1,0-1,0 1,0-1,0 1,0-1,1 0,-1 1,0-1,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0-1,0 1,1 0,-1-1,0 1,0-1,0 1,0-1,1 1,-1-1,0 0,1 1,-1-1,0 0,1 0,-2-1,0-2,0-1,0 0,0 0,1 0,-1 0,0-9,-3-19</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5272.01">3970 318,'9'0,"12"0,6 0,5 0,-1 0,1 0,-2 0,4 0,9 0,2 0,2 0,-2 0,0 0,-8 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5802.24">4023 635,'4'0,"11"0,16 0,12 0,12 0,6 0,-3 0,-3 0,-6 0,-6 0,-7 0,-4 0,5 0,1 0,3 0,0 0,-9 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6565.47">4843 450,'0'-6,"0"0,1 0,0-1,0 1,1 0,-1 0,1 0,1 0,-1 0,1 1,0-1,7-8,-3 5,1 0,0 0,1 1,-1 1,1-1,14-7,11-4,0 2,1 1,41-13,-76 29,17-6,0 0,0 1,0 1,1 1,24-2,-36 4,1 2,-1-1,1 1,-1 0,1 0,-1 1,1 0,-1 0,0 1,0-1,0 1,-1 1,1-1,-1 1,1 0,-1 0,7 8,11 15,-1 2,-2 0,-1 1,-1 1,26 62,-28-55,2-1,1-1,3-1,29 38,-11-27,-23-30</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7084.2">5796 265,'-5'5,"-19"19,-15 19,-9 11,3 6,-4 6,1 5,10-5,-3 0,5-7,6-9,-3 1,1-4,10-10,17-25,11-15</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7611.07">6245 450,'4'0,"2"9,0 8,-1 14,-2 6,-1 6,-1 5,0 3,-1-2,0-6,-1-5,1-5,0-3,0-2,-9-7,-3-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7995.64">6034 715,'4'0,"6"0,11 0,15 0,6 0,9 0,9 0,4 0,-4 0,-9 0,-3 0,-6 0,-10 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9191.96">6854 450,'2'1,"0"-1,-1 0,1 0,0 1,0-1,0 1,0 0,0 0,0 0,-1-1,1 2,0-1,-1 0,1 0,-1 0,1 1,-1-1,1 1,-1-1,0 1,0-1,0 1,0 0,0 0,0 0,-1-1,1 1,0 2,3 9,-1-1,-1 0,2 20,-2-8,3 8,-3-11,1 1,2-1,7 24,-11-41,1 1,-1-1,1 0,1 1,-1-1,0 0,1 0,0 0,0-1,0 1,0-1,1 0,-1 0,1 0,0 0,0 0,0-1,0 0,0 0,6 2,3-1,0 0,0-1,1 0,-1-1,1-1,-1 0,1-1,-1 0,0-1,1 0,-1-2,0 1,0-1,12-7,-14 6,-1 0,0-1,0 0,0-1,-1 0,0 0,0-1,-1 0,0-1,0 0,-1 0,0 0,-1-1,0 0,0-1,5-15,10-64,-15 82,-1 19,2 23,1 79,-9 203,0-289,-2 1,-1-1,-1-1,-2 1,0-1,-2 0,-1 0,-14 26,15-36,0-1,-1-1,-1 1,0-2,-1 0,-1 0,0-1,0 0,-1-1,-1-1,1 0,-2-1,-23 10,20-11,0-1,0-1,-1 0,1-2,-1 0,-40 1,53-5,-1 0,1-1,0 0,0 0,0 0,0-1,1 0,-1-1,0 1,-6-5,8 4,2 0,-1 0,0 0,0 0,1-1,0 1,0-1,0 0,0 0,0 0,1 0,0-1,0 1,0-1,0 1,-1-7,-3-24,3 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9730.42">7965 635,'9'0,"21"0,14 5,13 6,11 5,7 0,9-2,3 0,-3-1,-13-4,-12-3,-18-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10931.99">9394 477,'0'0,"0"0,1 0,-1-1,0 1,0 0,1-1,-1 1,0 0,1-1,-1 1,0 0,0-1,0 1,0 0,1-1,-1 1,0-1,0 1,0 0,0-1,0 1,0-1,0 1,0 0,0-1,0 1,0-1,0 1,0-1,-1 1,1 0,0-1,0 1,-1-1,-14-7,-24 4,32 6,0 0,1 0,-1 1,1 0,-1 0,1 0,0 1,0 0,1 0,-1 0,1 1,0 0,0 0,-5 7,-4 6,0 0,1 1,-12 25,19-34,1 1,1-1,0 1,0 1,1-1,0 0,-1 17,4-25,0 0,0 0,0 0,0 0,0 0,0 0,1 0,0 0,-1 0,1-1,0 1,0 0,1 0,-1-1,1 1,-1-1,1 1,0-1,0 0,0 0,0 1,0-1,0-1,1 1,-1 0,1-1,-1 1,1-1,0 1,-1-1,1 0,0-1,3 2,21 2,0 0,0-2,-1-1,44-4,-38 1,1 1,41 5,-69-3,-1-1,1 1,-1 0,0 1,0-1,0 1,0 0,0 0,0 0,0 0,-1 1,1-1,-1 1,1 0,-1 0,0 0,4 6,-4-3,1 0,-1 1,0-1,0 1,-1 0,0 0,0-1,-1 2,2 12,-3 6,0-1,-2 1,0 0,-13 49,12-61,-1-1,0 1,-1 0,0-1,-1 0,-1 0,0-1,-13 18,15-24,-1-1,1 1,-1-1,0 0,0-1,0 1,-1-1,0 0,1-1,-1 1,-1-2,1 1,0-1,-1 0,1 0,-1-1,-11 1,-161 1,157-4,0-1,1-1,-1-1,1-1,-41-15,56 17,0 0,1-1,-1 0,1 0,0-1,0 1,0-2,-6-6,-6-12</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 279,'78'-1,"-27"-1,71 7,-115-4,-1 0,0 1,1 1,-1-1,0 1,1 0,-2 1,0-1,1 0,-1 1,1 1,-2-1,1 1,-1-1,0 1,1 0,-1 1,-1-1,0 0,3 9,5 5,-3 0,-1 1,1 0,5 38,-10-30,-1 53,-3-62,1-1,1 1,1 1,0-2,2 1,8 28,-10-42,1-2,-1 2,0-1,1 0,-1 0,1-1,0 0,0 1,1-1,0 0,0 0,0 0,0 0,0 0,1-2,5 5,-1-3,0-1,-1 0,0 0,2 0,-2-1,2 0,-1 0,15-2,-6-1,1 0,-2-1,1-1,0-1,-2 1,2-2,-1-1,25-13,-36 15,1 1,0-1,-1 0,0-1,0 0,0 1,-1-1,0-1,-1 0,1 1,-1-1,0-1,-1 2,0-2,0 0,-1 2,1-12,3-12,-3-1,-2 0,-2-37,0 35,4-51,10 22,-3 37</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="601.64">1411 51,'1'1,"0"-1,0 1,0 0,0-1,0 1,0 0,0-1,0 1,0-1,0 1,0 0,0 0,0 0,-1 0,1 0,0 0,-1 0,1 1,-1-1,1 0,-1 0,0 0,1 1,-1-1,0 0,0 0,0 1,0-1,0-1,0 2,0-1,-1 2,-3 46,3-46,0 8,-36 257,30-202,5 0,6 73,-3-135,0 0,1 1,-1 0,1-1,-1 0,1 0,0 0,0 1,1-1,-1 0,1-1,0 0,1 1,-1-1,1 1,-1-1,1 0,0-1,0 1,0-1,1 1,-1-1,0 0,2 0,3 1,22 6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1296">1686 507,'13'-11,"0"1,2 1,0 0,-1 1,2 0,0 1,0 1,0 0,1 1,-1 0,33-3,11 1,1 3,63 3,-63 1,-6-2,-14 1,46 3,-76-2,-2 2,0-1,2 1,-2 0,1 1,-1 0,0 0,0 0,0 2,9 5,-15-7,1-1,0 1,0 0,0 1,-1 0,0 0,0-1,-1 1,1 0,-1 0,0 1,1-1,-1 0,1 5,0 5,-1 0,-1-1,1 20,-2-22,0 1,1-1,1 1,0-2,5 13,-7-22,0-1,0 1,0-1,0 1,0-1,0 0,0 1,0-1,0 1,0-1,0 0,0 1,0-1,0 1,1-1,-1 0,0 1,0-1,0 0,1 1,-1-1,0 0,1 1,-1-1,0 0,0 0,1 1,-1-1,1 0,-1 0,0 0,1 1,-1-1,0 0,1 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,1 0,-1-1,0 1,1 0,-1 0,1-1,6-9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1802.7">2626 254,'0'8,"0"13,-9 19,-9 10,-1 8,-5-3,0-4,-1-8,1-3,2-6,2-2,4-4,4-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3333.01">2875 532,'-1'18,"1"-6,0 1,0-2,1 2,1-1,5 22,-6-32,0 1,0-1,0 1,1-1,-1 0,1 0,-1 1,2-1,-1-1,0 1,0 0,0-1,0 1,0 0,0-1,1 1,-1-1,0 0,2 0,-2 0,1 0,0 0,-1-1,1 1,0-1,-1 1,2-1,-1 0,-1 0,1 0,0-1,-1 1,5-2,0 1,0 0,-1 0,0-1,1 0,-2 0,1-1,1 1,-2-1,1 0,-1 0,0-1,1 0,-2 0,1 0,-1 0,1 0,-1-1,0 0,0 0,-1 0,0 0,0-1,-1 1,2 0,-2-1,-1 0,3-10,1-13,-2-1,-1 2,-1-2,-6-44,2 19,1-105,29 225,11 53,21 136,-49-189,-3-1,-3 0,-3 0,-7 66,4-119,-1-1,-1 0,1 1,-1-2,0 1,0-1,-2 1,0-1,0 0,0 0,-2-2,1 2,0-1,-10 6,13-10,-1 0,1-1,-2 1,1-1,1 0,-1 0,-2 0,2-1,0 1,-1-1,1-2,-2 2,1-1,1 0,-1 0,-1-1,1 1,1-1,-1-1,-1 1,1-1,0 0,1 0,-2-1,2 2,-1-2,-8-4,-13-10,2-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3991.72">2764 735,'4'-3,"2"6,1 6,-7 12,-4 6,1 7,-5 7,-7 0,2-3,-5-7,-2-13,2-10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4738.72">3565 0,'3'2,"1"-1,-1 1,1 0,0 0,-1 0,0 0,0 0,0 1,0-1,-1 1,1 0,0 0,0 0,-1 0,0 0,2 6,3 1,19 27,-1 0,-2 2,-2 0,-2 1,-2 1,-1 1,-3 0,-2 1,-2 0,-2 0,2 53,-5 6,-15 153,10-244,-1 0,-1-1,1 1,-2-1,0 1,-1-2,0 2,0-1,-1-1,-1 0,1-1,-1 2,-1-2,0 0,0 0,-2-1,-8 7,17-13,0 0,1 0,-1-1,-1 1,2-1,-1 1,0-1,0 1,0-1,0 1,0-1,1 0,-1 1,0-1,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0-1,0 1,1 0,-2-1,1 1,0-1,0 1,0-1,1 1,-1-1,0 0,1 1,-1-1,0 0,1 0,-2-1,0-2,0 0,0-1,0 0,1 0,-1 0,-1-8,-2-19</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5272.01">4145 305,'10'0,"12"0,6 0,5 0,0 0,0 0,-2 0,5 0,9 0,2 0,2 0,-2 0,0 0,-9 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5802.24">4201 608,'4'0,"12"0,16 0,13 0,12 0,7 0,-3 0,-4 0,-6 0,-6 0,-7 0,-5 0,6 0,0 0,4 0,0 0,-10 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6565.46">5057 431,'0'-6,"0"0,1 1,0-2,0 1,1 1,-1-1,1 0,1 0,0 1,0 0,0-1,7-7,-2 4,0 0,0 1,2 0,-2 1,1 0,15-8,12-3,-1 2,2 1,42-13,-79 28,18-6,0 0,0 1,-1 2,2 0,25-2,-38 4,2 2,-2-1,1 1,-1 0,2 0,-2 1,1 0,0 0,-1 0,0 0,0 1,0 1,0-1,-1 1,1 0,0-1,6 9,12 14,-1 2,-2-1,-1 2,-1 1,26 59,-28-53,2 0,1-2,3 0,30 36,-11-26,-24-29</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7084.2">6052 254,'-5'5,"-20"18,-16 18,-9 10,3 7,-4 5,1 5,10-5,-3 1,6-8,5-8,-2 1,0-4,11-10,18-23,11-15</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7611.07">6521 431,'4'0,"2"9,1 7,-2 14,-2 5,-1 6,-1 5,0 3,-1-2,0-6,-1-5,1-4,0-3,0-2,-9-7,-4-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7995.64">6301 685,'4'0,"6"0,12 0,16 0,6 0,9 0,9 0,5 0,-4 0,-10 0,-3 0,-6 0,-10 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9191.95">7157 431,'2'1,"0"-1,-1 0,1 0,0 1,0-1,0 1,0 0,1 0,-1 0,-1-1,1 2,0-1,-1 0,1-1,-1 1,1 1,-1-1,1 1,-1-1,0 1,0-1,0 1,0 0,1 0,-1 0,-1-1,1 1,0 1,3 10,-1-2,-1 1,2 19,-2-9,4 9,-4-11,1 1,2-1,8 24,-12-41,1 2,-1-1,1 0,1 1,-1-2,0 1,1 0,0 0,0-1,1 1,-1-2,1 1,-1 0,1 0,0 0,1 0,-1-1,0 0,0 0,7 1,2 0,1 0,-1-1,2 0,-2-1,2-1,-1 0,0-1,0 0,-1-1,2 0,-1-2,-1 2,1-2,12-7,-15 6,0 1,-1-2,1 0,-1-1,0 1,-1-1,0-1,0 1,-1-2,0 0,0 1,-1-1,-1 0,1-1,-1-1,5-13,11-63,-16 80,0 17,1 23,1 75,-9 195,0-277,-2 0,-1 0,-1-1,-3 1,1-1,-2 0,-2 0,-14 24,16-33,-1-2,0 0,-2 0,1-2,-2 1,0-1,-1 0,1-1,-2 0,-1-2,2 1,-3-1,-24 9,22-11,-1 0,0-1,-1 0,1-3,-1 1,-41 1,54-5,0 0,1-1,-1 0,1 0,0 0,-1-1,2 0,-1 0,0 0,-7-5,9 4,2 0,-2 0,1 0,0 1,1-2,0 1,0-1,0 0,-1 0,1 0,1 1,0-2,0 1,0-1,0 1,-1-6,-4-24,4 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9730.42">8317 608,'9'0,"23"0,14 5,13 5,12 6,7-1,10-2,3 1,-3-2,-14-3,-13-3,-18-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10931.99">9809 457,'0'0,"0"0,1 0,-1-1,0 1,0 0,1-1,-1 1,0 0,1-1,-1 1,0 0,0-1,0 1,0 0,1-1,-1 1,0-1,0 1,0 0,0-1,0 1,0-1,0 1,0 0,0-1,0 1,0-1,0 1,0-1,-1 1,1 0,0-1,0 1,-1-1,-15-6,-24 3,32 6,1 0,1 0,-1 0,0 1,0 0,1 0,-1 1,1 0,1 0,-1-1,0 2,1 0,0 0,-5 6,-5 7,0-1,2 1,-13 24,19-32,2 0,1 0,0 0,0 2,0-2,1 1,-1 16,4-24,0-1,0 1,0 0,0 0,0 0,0 0,1 0,0 0,-1-1,1 0,0 1,0 0,1 0,0-1,0 1,-1-1,1 1,0-2,0 1,0 0,0 1,0-1,0-1,1 1,0 0,0-1,-1 1,1-1,0 1,-1-1,1 0,0-1,4 1,21 3,0 0,0-2,-1-1,46-4,-39 1,0 1,44 5,-73-3,-1-1,1 1,-1 0,1 1,-1-1,0 1,0 0,0 0,0-1,1 1,-2 1,1-1,-1 1,1 0,-1 0,0 0,5 5,-5-2,1 0,-1 0,0 0,1 1,-2 0,0-1,0 0,-1 2,2 11,-3 6,0-1,-2 1,0 0,-14 46,13-57,-1-2,0 2,-2-1,1-1,-1 1,-1-1,-1 0,-13 17,16-24,-1 0,1 1,-2-1,1-1,0 0,0 1,-2-1,1 0,1-1,-2 0,0-1,1 1,-1-1,0 0,1 0,-2-1,-10 1,-169 1,164-4,0-1,1-1,-1-1,1-1,-43-14,59 16,-1 0,2 0,-1-1,0 0,1-1,0 1,0-1,-7-7,-6-11</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -17698,12 +17698,12 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">160 118,'-13'24,"5"-11,-19 40,3 1,2 1,2 1,-22 106,41-152,0 1,0 0,1-1,0 1,1-1,0 1,1-1,0 1,0-1,1 0,7 17,-7-22,0 1,0-1,1 0,-1 0,1 0,0-1,1 1,-1-1,1 0,0 0,0-1,0 1,0-1,0 0,1-1,0 1,-1-1,1 0,0 0,0-1,9 1,0 0,0 0,0-1,0-1,-1-1,1 0,0-1,0 0,-1-1,1-1,21-8,-26 7,0 0,-1-1,0 0,1-1,-2 0,1 0,-1-1,0 0,-1 0,0-1,0 0,-1 0,0 0,8-19,-1-1,-2-1,0-1,11-61,2-98,-21 156,2 7,1 0,2 1,0 0,14-29,-10 27,-8 19,0 9,-2 21,-4 32,-3-18,-1 0,-2-1,-1 0,-16 38,-64 121,34-81,47-93,1 0,0 0,2 1,0 0,1 0,1 0,-1 26,4-38,-1 0,2 1,-1-1,1 0,0 0,1 1,0-1,0 0,1 0,0-1,0 1,1-1,0 1,0-1,1 0,0 0,0-1,0 0,1 0,7 6,53 28,-33-22</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1928.18">715 541,'-3'80,"2"64,2-128,1 0,0 0,1-1,1 1,0-1,10 24,-11-35,0 0,0 0,0-1,1 1,0-1,-1 1,1-1,0 0,1-1,-1 1,0-1,1 1,0-1,-1-1,1 1,0-1,0 0,0 0,0 0,0 0,0-1,0 0,10-1,-1 0,0 0,1-1,-1 0,0-1,0 0,-1-2,19-7,-16 5,-1-2,0 0,-1 0,0-1,17-16,-26 21,0-1,0 1,0-1,-1 0,0 0,0-1,0 1,-1-1,0 0,-1 0,1 0,-1 0,-1 0,1 0,-1-8,-4-127,3 798,-1-645,0-1,0 1,-1-1,-1 1,0-1,0 0,0 0,-6 10,-46 75,27-51,24-38,0 0,0 0,-1 0,0-1,0 0,0 0,-1 0,0-1,0 1,0-2,0 1,-1 0,0-1,-13 4,9-4,0 0,-1-1,0 0,1-1,-1-1,0 0,0 0,-19-4,26 4,1-1,0 0,-1-1,1 1,0-1,0 0,0 0,0 0,0-1,0 1,1-1,-1 0,1 0,0 0,0 0,-4-7,2 3,1 0,0-1,0 1,1-1,0 0,1 0,0-1,-2-11,2 3,0 0,1 0,2 0,-1 0,2 0,0 0,1 0,8-24,20-34,-24 54</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3150.46">1721 144,'12'8,"0"0,-1 1,0 0,0 0,-1 1,0 1,-1-1,0 2,12 19,-11-16,1 0,0 0,1-1,1-1,16 13,-25-22,1-1,0 0,0 0,1 0,-1-1,1 0,-1 0,1 0,0 0,0-1,-1 0,1-1,0 1,0-1,9-1,2-1,-1-2,1 0,30-12,8-2,-26 13,-5 6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4676.12">1694 462,'6'0,"0"-1,1-1,-1 1,0-1,0 0,0 0,0-1,0 0,5-4,-3 3,-1 0,1 1,0 0,13-4,-7 4,0 2,0-1,0 2,0 0,0 1,18 2,4 5,40 14,-68-20,1 1,0-1,0-1,0 1,0-1,0-1,0 1,0-2,0 1,17-4,-3-2,0-1,30-14,-31 12,-20 8,-1 0,0 0,1 1,-1-1,0 0,1 1,-1 0,1-1,-1 1,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 1,-1-1,1 0,-1 1,0-1,1 1,-1 0,0-1,1 1,-1 0,0 0,0 0,2 2,-1 1,1 0,-1 0,0 1,-1-1,1 1,-1 0,1 8,1-1,3 15</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6895.78">3044 382,'0'-16,"-1"0,1 1,1-1,0 1,6-24,-5 33,0 0,1 0,-1 0,1 1,1-1,-1 1,1 0,0 0,0 0,0 0,1 1,0 0,0 0,7-5,-1 2,0 1,0 1,1 0,0 0,0 1,0 1,0 0,22-2,-27 4,-1 0,0 0,1 1,-1 0,1 0,-1 1,0 0,1 0,-1 0,0 1,0 0,0 0,0 1,0 0,0 0,-1 0,1 0,8 8,-11-7,0 1,0-1,0 1,-1 0,1 0,-1 0,0 1,0-1,-1 0,0 1,0-1,0 8,0 73,-2-60,1-10,0 30,-3 0,-10 63,10-94,-1 0,-1 0,0 0,-1 0,0-1,-2 0,1-1,-2 1,0-1,-19 22,6-14,-1-1,0 0,-2-2,0 0,-1-2,0-1,-1-1,-1-2,-1 0,1-2,-1-1,-1-1,-46 5,73-12,1-1,-1 0,0 0,0 0,1 0,-1 0,0 0,1-1,-1 1,1-1,-1 0,0 0,1 0,-1 0,1 0,0 0,-1-1,1 1,0-1,0 1,0-1,0 0,0 0,0 0,1 0,-1 0,1-1,-1 1,1 0,0-1,0 1,0-1,0 1,0-1,1 0,-1 1,1-1,0 0,-1 1,1-1,1-3,-1-3,0-1,1 1,1 0,-1 0,1 0,1 1,0-1,0 0,0 1,1 0,7-12,-2 9,1-1,-1 1,2 1,-1 0,2 0,-1 1,1 0,0 1,1 1,0 0,0 0,21-6,-26 10,0 1,0 0,0 1,0-1,1 1,-1 1,0 0,0 0,1 0,-1 1,0 1,0-1,0 1,0 0,0 1,-1 0,1 0,-1 1,1 0,-1 0,0 1,-1 0,10 9,23 27,56 79,-80-100,-1-4,-2-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8909.31">3626 594,'-2'27,"0"-1,-8 32,4-30,-2 50,7-59,1 0,1 0,0 0,2 0,9 35,-11-50,0-1,0 1,0-1,1 1,0-1,0 0,0 0,0 1,0-1,0-1,1 1,0 0,-1-1,1 1,0-1,0 0,0 0,1 0,-1 0,0-1,1 1,-1-1,1 0,-1 0,1 0,0 0,-1-1,1 0,0 1,0-1,-1-1,1 1,0 0,-1-1,1 0,0 0,5-2,0-1,0 1,0-2,0 1,0-1,-1-1,0 0,0 0,-1 0,1-1,-1 0,-1 0,1-1,-1 0,-1 0,1-1,-1 1,5-13,7-18,-2-1,18-68,-32 103,20-64,-21 69,0 0,0 0,0 0,0 0,1-1,-1 1,0 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0-1,0 1,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 1,0-1,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,1 0,4 16,0 21,0 76,-15 185,4-258,-2-1,-1 0,-2-1,-2 0,-2-1,-1-1,-1 0,-2-1,-43 58,59-89,-1 1,1-1,-1-1,0 1,0 0,0-1,-1 0,1 0,-1 0,0 0,0-1,0 0,0 0,0 0,0-1,-1 0,1 0,0 0,-1 0,1-1,-7 0,8-1,0 1,0-1,0 0,1 0,-1 0,0 0,1-1,-1 1,1-1,-1 0,1 0,0 0,0-1,0 1,0-1,0 0,1 1,-1-1,1 0,0-1,0 1,0 0,0-1,0 1,1-1,-1 1,1-1,0 0,-1-7,1 4,0-1,0 1,1-1,0 1,0-1,1 1,0-1,2-9,-2 13,1 1,-1-1,1 1,-1 0,1 0,0 0,0 0,0 0,0 0,1 0,-1 1,1-1,0 1,-1 0,1 0,0 0,0 0,1 0,3-1,14-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">167 113,'-14'23,"6"-10,-20 38,3 1,2 1,2 0,-23 103,43-146,0 0,0 1,1-2,0 2,1-1,0 0,1 0,0 0,0 0,1 0,8 15,-8-20,0 1,0-1,1 0,0-1,0 1,0-1,1 1,-1-1,2 0,-1-1,0 0,0 1,0-1,1 0,0-1,0 1,-1-1,2 0,-1-1,0 0,10 1,-1 0,1 0,0-1,-1-1,0-1,1 0,-1-1,1 0,-2 0,2-2,22-8,-28 7,0 1,0-2,-1 0,2-1,-3 1,1-1,0-1,-1 0,-1 1,1-2,-1 0,-1 1,0-1,9-18,-1-1,-3 0,1-2,11-59,2-93,-22 149,2 7,1 0,2 1,1 0,14-27,-11 25,-8 18,1 9,-3 20,-4 31,-4-17,0-1,-2 0,-2 0,-16 36,-66 116,34-77,50-90,1 0,-1 1,3 0,0 0,1 0,1 1,-2 24,5-37,-1 1,2 1,-1-2,1 1,0 0,2 0,-1 0,0 0,1-1,0 0,0 1,1-1,0 0,1 0,0 0,0-1,0 0,0 0,2 0,6 5,56 28,-35-22</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1928.17">746 520,'-4'77,"3"61,2-123,1 1,1-1,0 0,1 0,0-1,11 24,-12-34,0-1,0 1,0-1,1 1,1-1,-2 1,1-1,0 0,1-2,-1 2,1-1,0 1,0-1,-1-1,1 1,1-1,-1 0,0 0,0 0,0 0,1-1,-1 0,10-1,0 0,0 0,0-1,0 0,0-1,-1 0,0-2,19-6,-16 4,-2-1,1-1,-1 0,-1 0,19-16,-28 20,0-1,0 1,0 0,0-1,-1 0,0-1,0 2,-1-2,0 0,-1 0,2 1,-2-1,-1 0,1 0,-1-7,-4-122,3 766,-1-620,0 0,0 1,-2-2,0 2,0-2,0 1,0 0,-6 9,-49 72,29-49,25-36,0 0,-1 0,0-1,0 0,0 0,0 0,-2 0,1-2,0 2,0-2,-1 1,0 0,0-1,-14 3,9-3,1 0,-2-1,1 0,0-1,0-1,-1 0,1 0,-20-4,26 4,2-1,0 0,-1-1,1 1,-1-1,1 1,0-1,0 0,0-1,0 1,1-1,-2 0,2 0,0 0,0 0,-4-6,1 2,2 0,0 0,0 0,1-1,0 1,1-1,-1-1,-1-10,2 3,0-1,1 1,2 0,-1-1,2 1,0 0,1-1,9-22,20-33,-24 52</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3150.46">1795 138,'12'8,"1"0,-2 0,1 1,-1 0,-1 0,1 2,-2-2,1 3,12 18,-12-16,1 1,1-1,0-1,2 0,16 12,-26-21,2-1,-1 0,0-1,1 1,-1-1,2 0,-2 0,1 0,0 0,1-1,-2 0,1-1,0 1,1-1,8-1,3-1,-1-2,0 0,32-11,9-2,-28 12,-5 6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4676.12">1766 444,'7'0,"-1"-1,1-1,-1 1,1-1,-1 0,0 0,1-1,-1 1,5-5,-2 3,-2 0,1 1,1 0,12-3,-6 3,0 2,-1-1,1 2,-1 0,1 1,18 2,5 4,41 15,-70-21,0 2,0-1,1-1,-1 1,0-1,1-1,-1 1,1-2,-1 1,18-4,-3-2,0 0,31-14,-32 11,-21 8,-1 0,0 0,2 1,-2-1,0 0,1 1,-1 0,1-1,-1 1,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 1,0-1,0 0,-1 1,0-1,1 1,-1 0,0-1,1 1,-1 0,0 0,0 0,2 2,-1 1,1-1,0 1,-1 1,-1-1,1 1,-1 0,1 7,1 0,3 13</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6895.78">3174 367,'0'-15,"-1"-1,1 2,1-1,0 0,6-22,-4 31,-1 0,1 0,-1 1,1 0,1-1,-1 1,1 0,1 1,-1-1,0 0,1 1,0 0,1 0,6-4,0 1,-1 1,1 2,0-1,1 0,-1 1,1 1,-1 0,24-1,-29 3,-1 0,0 0,2 1,-2 0,1 0,-1 1,1 0,0 0,-1-1,1 2,-1 0,0 0,0 1,1 0,-1 0,-1 0,1 0,9 7,-12-6,0 1,0-1,0 1,0-1,0 1,-1 0,0 1,0-2,-1 1,0 1,0-1,0 7,0 71,-2-58,1-10,0 30,-3-1,-11 60,11-89,-1-1,-1 1,0-1,-2 0,1 0,-2-1,1 0,-3 0,1 0,-20 20,6-12,-1-2,0 0,-2-2,-1 1,0-3,0-1,-1 0,-1-3,-1 1,0-2,0-2,-1 0,-48 4,76-11,0-1,0 0,0 0,0 0,1 0,-1 0,0 0,1-1,-1 1,0-1,0 0,0 0,1 1,-1-1,1 0,0 0,-1-1,1 1,0-1,-1 1,1-1,0 0,0 0,0 0,1 0,-1 0,1-1,-1 2,1-1,0-1,0 1,0-1,0 1,0-1,1 0,-1 1,1-1,0 1,-2 0,2-1,2-3,-2-3,0 0,1 0,1 0,-1 1,1-1,1 1,0 0,0-1,0 1,1 1,8-12,-3 8,2-1,-2 2,3 0,-2 1,3-1,-2 1,2 1,-1 0,2 1,-1 1,1-1,21-6,-26 11,-1 0,0 0,1 1,-1-1,1 1,0 1,-1 0,0 0,2 0,-2 1,0 1,1-1,-1 1,0 0,1 0,-2 1,1 0,0 1,0 0,-1 0,1 1,-2-1,11 10,23 25,59 76,-83-95,-1-5,-3-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8909.31">3781 571,'-2'26,"0"-1,-9 30,5-28,-2 48,7-57,1 1,1-1,0 0,2 0,10 34,-12-48,0-1,0 1,0-1,1 1,0-1,0-1,0 1,0 1,0-1,0-1,1 1,1 0,-2-1,1 1,0-2,0 1,0 0,1 0,-1 0,1-1,0 1,-1-1,1 0,-1 0,1 0,1 0,-2-1,1 0,0 1,0-1,-1-1,1 1,1 0,-2-1,1 0,0 0,5-2,1-1,-1 1,1-1,-1 0,0-1,0-1,-1 0,0 1,0-1,0-1,-1 0,0 1,0-2,-1 0,-1 1,2-2,-2 1,5-12,8-17,-2-2,18-65,-33 100,21-63,-22 67,0 0,0 0,0 0,0 0,1-1,-1 1,0 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0-1,0 1,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 1,0-1,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,1 0,5 16,-1 19,0 74,-15 177,3-247,-1-2,-1 0,-3 0,-1-1,-3 0,-1-1,-1-1,-1 0,-46 55,62-85,-1 1,1-1,-2-1,1 0,0 1,0-1,-1 0,1 0,-2 0,1 0,0-1,0 0,-1-1,1 1,0-1,-1 0,1 0,-1 0,0 0,1-1,-8 0,9-1,0 1,0-1,0 0,1 0,-2 0,1 0,1-1,-1 2,1-2,-1 0,0 0,1 0,0-1,0 1,0-1,0 0,1 1,-1-1,1 1,-1-2,1 1,0 0,0-1,0 1,1-1,-1 2,1-2,0 0,-1-7,1 5,0-2,0 1,1-1,0 2,0-2,1 1,0 0,2-10,-2 13,1 2,-1-2,1 1,-1 0,1 0,0 0,0 0,1 0,-1 1,1-1,-1 1,1-1,0 1,-1 0,1 0,0 0,1 0,0 0,3-1,15-3</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -17815,16 +17815,16 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1484 344,'-1'2,"0"-1,-1 1,1-1,0 0,0 1,0-1,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1-1,0 1,1 0,-1-1,0 1,1-1,-4 1,-5 2,-117 43,39-16,2 4,-148 80,217-103,1-1,0 2,1 0,-27 28,38-36,0 1,0 0,1 0,-1 1,1-1,0 1,1-1,-1 1,1 0,0 0,1 0,-1 1,1-1,0 0,1 0,-1 1,2-1,0 12,0-15,0-1,0 1,0 0,0-1,1 1,-1-1,1 1,-1-1,1 0,0 1,0-1,0 0,0 0,1-1,-1 1,0 0,1-1,-1 1,1-1,-1 0,1 0,0 0,0 0,-1 0,1-1,4 1,10 2,0-1,0-1,22-1,-25 0,44 3,1 2,-1 4,89 23,-130-28,0 2,1 0,-2 1,1 1,-1 0,0 1,-1 1,23 18,-29-20,-1 0,0 1,0 0,-1 0,0 1,-1-1,0 2,0-1,-1 1,0-1,-1 1,0 1,-1-1,2 16,0 11,-3 0,-1 1,-5 54,3-89,0 1,0-1,0 1,-1-1,0 1,0-1,0 0,0 0,-1 0,1 0,-1 0,0-1,0 1,-1-1,1 0,0 0,-1 0,0 0,0-1,0 0,0 1,0-1,-1-1,1 1,0-1,-1 1,1-1,-6 0,-16 4,-1-2,1 0,-46-3,50 0,-48 1,-6 0,-118-13,182 10,1 0,-1 0,1-1,0-1,0 0,0 0,0-1,-15-10,21 12,1 0,0-1,0 0,0 0,0 0,1 0,0-1,0 1,0-1,0 0,1 0,-1 0,1 0,1 0,-1 0,1-1,0 1,0 0,0-1,1-5,1-48,1 34</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="538.28">1987 847,'4'0,"7"0,14 0,17 0,14 0,16 0,5 0,2 0,-2 0,-6 5,-2 1,-7-1,-11 4,-4 1,-6-2,-10-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1756.28">3363 423,'-2'186,"4"197,-1-373,-1 0,1 1,1-1,0 0,0 0,5 11,-6-18,1-1,-1 1,1 0,0-1,-1 1,1-1,0 1,0-1,1 0,-1 0,0 0,1 0,0 0,-1-1,1 1,0-1,0 0,0 1,-1-1,1-1,0 1,1 0,-1-1,3 1,21 0,1-1,0-2,-1 0,1-2,-1-1,0-1,-1-1,1-2,-1 0,-1-2,32-18,-19 8,-1-2,-1-2,-1-1,-1-2,-2-1,41-47,-51 49,-1-2,-1 0,-1-1,-2-1,-1 0,-2-2,11-33,-22 57,1 0,-1 0,2 0,8-14,-13 23,1-1,-1 1,0 0,1-1,-1 1,1 0,-1-1,0 1,1 0,-1 0,1-1,-1 1,0 0,1 0,-1 0,1 0,-1 0,1 0,-1-1,1 1,-1 0,1 0,-1 0,1 0,-1 1,1-1,-1 0,1 0,-1 0,0 0,1 0,-1 1,1-1,-1 0,1 0,-1 1,0-1,1 0,-1 1,0-1,1 0,-1 1,0-1,1 0,-1 1,0-1,0 1,0-1,1 1,-1-1,0 1,0-1,0 0,0 1,0-1,0 1,0-1,0 1,0 0,10 37,-9-34,11 83,3 150,-6-55,4 445,-14-606,-1 0,-2 1,0-1,-1 0,-1 0,-1-1,-1 0,-1 0,0-1,-2 0,0-1,-1 0,-1 0,0-1,-1-1,-25 22,31-33,0 0,0-1,-1 1,0-1,1-1,-1 0,-1 0,1-1,0 0,0 0,-17 0,-14-1,-57-7,68 4,21 2,0 0,1-1,-1 0,1 0,-1-1,1 0,-1 0,1-1,0 0,0 0,0-1,1 1,-1-1,1-1,0 0,0 1,1-2,-1 1,1-1,0 0,0 0,1 0,0 0,0-1,1 0,-1 0,1 0,1 0,-1 0,-1-15,0-1,2-1,1 1,2-36,0 30</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3056.16">4951 185,'2'-2,"1"0,1 0,-1 0,0 0,0 0,1 1,-1 0,1-1,-1 1,1 0,-1 1,5-1,50-3,-36 4,-5-1,12-1,-1 1,1 2,48 6,-68-5,0 0,0 1,0-1,-1 2,1 0,-1 0,0 0,0 1,-1 0,1 0,-1 1,0 0,-1 1,1-1,9 14,-7-5,0 0,-1 0,-1 1,0 0,-1 0,-1 0,-1 1,0 0,2 25,-3-19,-2 1,-1-1,-1 0,0 1,-2-1,-8 34,9-52,0 1,0 0,-1-1,1 1,-1-1,-1 0,1 0,-1 0,1 0,-1 0,-1-1,1 0,-10 7,11-9,0 0,0 0,0 0,0-1,-1 0,1 1,-1-1,1 0,0-1,-1 1,0-1,1 1,-1-1,1 0,-1 0,1-1,-1 1,1-1,-1 0,1 0,-1 0,1 0,0 0,-6-4,6 3,0-1,0 1,0-1,1 1,0-1,-1 0,1 0,0 0,0-1,0 1,1 0,-1-1,1 1,0-1,0 1,0-1,0 0,1 1,0-1,-1 0,1 1,1-6,-1 5,0-1,0 0,1 1,0-1,0 1,0-1,1 1,-1 0,1-1,0 1,0 0,0 0,1 0,0 0,-1 1,1-1,6-4,-3 4,1 0,0 0,0 1,0 0,1 0,-1 1,1 0,-1 1,1-1,0 1,0 1,0-1,-1 2,13 0,12 4,0 0,37 13,-43-11,8 3,54 26,-59-23,1-1,39 11,-37-17</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4174.18">241 0,'-2'1,"-1"-1,1 0,0 1,0 0,0-1,1 1,-1 0,0 0,0 0,0 0,1 0,-1 1,0-1,1 0,-1 1,1-1,-1 1,1-1,0 1,0 0,0 0,0 0,0-1,-1 5,-15 51,-26 199,24-125,12-86,-103 802,108-830,1 0,1 0,0 0,2 0,0 0,0 0,2-1,0 1,1-1,0 0,2 0,0-1,0 1,15 20,5 4,50 59,-61-82,1 0,0-2,1 0,1-1,27 16,55 24,-71-42</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5186.97">4739 27,'6'1,"0"0,1 0,-1 1,0 0,0 0,0 0,0 0,0 1,0 0,-1 1,1-1,-1 1,0 0,0 0,6 8,5 5,-1 0,-2 0,13 21,-5-2,-1 1,-2 1,19 59,26 125,-41-114,11 171,-9-60,-12-110,-5 0,-9 157,1-254,0 0,-1 0,0-1,-1 1,0-1,0 0,-2 0,1 0,-2 0,1-1,-1 0,-1 0,0 0,0-1,-1 0,0-1,0 1,-19 12,7-3,12-10,0 0,0-1,-1 0,0-1,0 0,0 0,-1-1,0 0,-18 6,27-11,0 0,-1 0,1 0,0-1,-1 1,1 0,0 0,0-1,-1 1,1-1,0 1,0-1,0 1,0-1,-1 0,0-1,-15-18</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5716.26">6512 635,'8'0,"18"0,21 0,17 0,15 0,17 0,5 0,-1 0,-3 0,-15 0,-20 5,-22 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6161.27">6459 1350,'9'0,"16"0,9 0,2 0,5 0,18 0,3 0,0 0,-6 0,-12 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6994.26">7755 741,'31'-29,"1"2,2 1,1 1,1 2,52-25,-64 37,0 0,1 2,0 1,0 1,1 1,0 2,0 0,0 2,50 1,-68 2,-1 0,1 1,0 0,-1 1,0-1,1 1,-1 1,0-1,-1 1,1 1,-1-1,1 1,-2 0,9 9,6 8,-2 0,25 40,-29-41,76 124,-58-88,3-2,2-1,3-2,47 49,-82-96,1 0,0 0,1 0,-1-1,1 0,-1 0,1 0,10 3,-13-6,0 0,-1 0,1-1,0 1,0-1,0 0,0 0,0 0,0 0,0-1,-1 1,1-1,0 0,0-1,-1 1,1 0,-1-1,1 0,3-2,31-29,0-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7614.26">9025 397,'-9'9,"-12"12,-7 12,-12 8,-4 3,-4 11,-6 10,-8 12,-21 24,0 0,0-4,1-5,10-14,12-15,8-10,13-13</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1533 330,'-1'2,"0"-1,-1 1,1-2,0 1,0 1,-1-1,0 0,1 0,-1 0,1 0,-1 0,1 0,-1-1,0 1,1 0,-1-1,0 1,1-1,-4 1,-6 2,-120 41,40-15,2 3,-152 77,223-98,2-1,-1 1,2 1,-29 26,40-34,0 1,0-1,1 1,-1 1,1-1,-1 0,2 0,-1 1,1 0,0-1,1 1,-1 1,1-1,0-1,1 1,-1 1,2-1,0 11,0-14,0-1,0 1,0-1,0 0,1 1,-1-1,1 1,-1-1,1 0,1 1,-1-1,0 0,0-1,1 0,-1 1,0 0,1-1,-1 1,1-1,-1 0,1 0,0 0,1 0,-2 0,1-1,4 1,11 2,-1-1,1-1,22-1,-26 0,46 2,1 3,-1 4,92 22,-134-28,-1 3,2 0,-3 1,2 0,-2 1,1 1,-2 0,25 18,-31-19,-1-1,0 2,1 0,-2-1,0 2,-1-2,1 3,-1-1,-1 0,0 0,-1 0,0 2,-1-2,3 16,-1 11,-3-1,-1 1,-5 53,3-87,0 2,0-1,0 1,-1-1,-1 0,1 0,0 0,0 0,-1 0,1 0,-1-1,0 0,0 1,-1-1,1 0,-1 0,0 0,0-1,0 0,0 0,0 1,0-1,-1-1,0 1,1-1,-1 1,1-1,-6 0,-17 4,-1-3,1 1,-47-3,51 0,-49 1,-7 0,-121-12,187 9,2 0,-1 0,0-1,1-1,0 0,-1 1,1-2,-16-10,22 13,1-1,0-1,-1 0,1 0,0 0,1 1,0-2,0 1,0-1,0 0,1 1,-2-1,2 0,1 0,-1 0,1 0,0 0,0 0,0-1,1-4,1-47,1 33</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="538.28">2052 812,'4'0,"8"0,14 0,17 0,15 0,16 0,6 0,1 0,-1 0,-7 5,-2 0,-6 0,-13 4,-3 0,-7-1,-10-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1756.28">3474 405,'-3'179,"6"188,-2-358,-1 1,1 1,1-2,0 1,0-1,5 11,-6-17,1-1,-1 1,1 0,0-1,-1 1,1-1,0 1,1-2,0 1,-1 0,0 0,1 0,0 0,-1-1,1 1,0-1,0 0,0 1,-1-1,2-1,-1 1,1 0,-1-1,3 1,22 0,1-1,0-2,-1 0,1-2,-1-1,-1-1,0 0,1-3,-1 0,-1-1,33-18,-20 8,-1-2,-1-2,0-1,-2-2,-2-1,42-45,-52 48,-2-3,0 0,-1-1,-3 0,0-1,-3-2,12-31,-23 54,1 1,-1-1,3 0,7-13,-13 22,1-1,-1 1,0 0,1-1,-1 1,1 0,-1 0,0 0,1 0,-1 0,1-1,-1 1,0 0,1 0,-1 0,1 0,-1 0,1 0,-1-1,1 1,-1 0,1 0,-1 0,1 0,-1 1,1-1,-1 0,1 0,-1 0,0 0,2 0,-2 1,1-1,-1 0,1 0,-1 0,0 0,1 0,-1 1,0-1,1 0,-1 1,0-1,1 0,-1 1,0-1,0 1,0-1,1 1,-1-1,0 1,0-1,0 0,0 1,0-1,0 1,0-1,0 1,0 0,10 35,-9-32,11 80,4 143,-7-53,5 427,-15-581,-1 1,-3 0,1-1,-1 0,-1 0,-1-1,-2 0,0 1,0-2,-2 0,-1-1,0 0,-2 1,1-2,-2-1,-25 22,32-32,0-1,-1 0,0 1,0-1,1-1,-2 0,0-1,1 0,-1 0,1 0,-18 0,-14-1,-59-7,70 4,21 2,1 0,1-1,-1 0,0 0,0 0,1-1,-1 0,0-1,1 0,0 0,0-1,1 1,-2 0,2-2,0 0,0 1,1-2,-2 2,2-2,0 0,0 0,1 1,0-1,0-1,0 0,0 1,1-1,1 0,-1 1,-1-15,0-2,2 0,1 1,2-34,0 28</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3056.16">5114 177,'2'-2,"1"0,1 1,-1-1,0 0,0 0,1 1,0 0,0-1,-1 1,1 0,-1 1,5-1,52-3,-37 4,-6-1,13-1,-1 1,1 2,50 6,-71-5,0 0,1 1,-1-1,-1 2,2-1,-2 1,0 0,0 1,0 0,0-1,-1 2,0 0,0 1,0-2,9 15,-6-6,-1 0,-1 1,-1 0,1 0,-2 1,-1-1,-1 1,0 1,2 23,-2-18,-3 1,-1-1,-1 0,-1 1,-1-1,-8 33,9-50,0 0,0 1,-1-1,1 1,-1-2,-2 1,2 0,-1 0,1 0,-1-1,-1 0,1 0,-11 7,12-10,0 1,0 0,0 0,0-1,-1 0,0 1,0-1,1 0,0-1,-1 1,0-1,1 1,-1-1,1 0,-2 0,2-1,-1 1,1-1,-1 0,1 0,-1 0,1 0,0 0,-7-4,7 3,0 0,0 0,0-1,1 1,0-1,-1 0,1 0,-1 0,1 0,0 0,1 0,-1-1,1 1,0-1,0 1,0 0,0-1,1 1,0-1,-1 0,1 1,1-5,-1 4,0-1,0 0,1 1,0 0,0 0,0-1,1 1,-1 0,1 0,0 0,1 0,-1 0,1 0,0 0,-1 1,1 0,6-5,-3 4,2 0,-1 0,0 2,0-1,2 0,-2 1,1 0,-1 1,2-1,-1 1,0 1,0-1,0 2,12 0,13 4,0 0,39 12,-45-10,8 2,56 26,-62-23,2 0,41 10,-39-16</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4174.18">249 0,'-2'1,"-1"-1,1 0,0 1,0 0,-1-1,2 1,-1 0,0 0,0 0,0 0,1 0,-1 1,0-1,1-1,-1 2,1-1,-1 1,1-1,0 1,0 0,0 0,0 0,0-1,-1 5,-16 48,-26 192,24-121,13-82,-107 769,112-796,1 1,1-1,0 0,2 1,0-1,0 0,2 0,0 0,2-1,-1 0,2 1,0-2,0 2,16 18,5 4,52 57,-64-78,2-1,-1-2,2 1,0-2,29 16,56 23,-73-41</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5186.96">4895 26,'6'1,"0"0,1 0,0 1,-1 0,0 0,0-1,0 1,1 1,-1 0,-1 1,1-1,-1 1,0-1,1 1,5 8,6 4,-2 0,-2 1,14 19,-5-1,-1 0,-3 1,20 57,28 120,-44-109,12 163,-9-57,-12-105,-6-1,-9 151,1-244,0 1,-1-1,-1 0,0 1,0-2,0 1,-2-1,1 1,-2-1,1 0,-2-1,0 1,0 0,0-2,-2 1,1-1,0 0,-20 12,7-2,13-11,0 1,0-1,-2-1,1 0,0 0,-1 0,0-2,0 1,-19 6,28-11,0 0,-1 0,1 0,0-1,-2 1,2 0,0 0,0-1,-1 1,1-1,0 1,0-1,0 1,0-1,-1 0,0-1,-16-17</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5716.26">6726 609,'8'0,"19"0,22 0,17 0,15 0,19 0,4 0,-1 0,-3 0,-15 0,-21 4,-23 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6161.27">6671 1294,'10'0,"15"0,11 0,1 0,5 0,19 0,3 0,0 0,-6 0,-13 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6994.26">8010 710,'32'-28,"1"3,2 0,1 1,1 2,54-24,-66 35,0 1,1 1,0 1,-1 2,2 0,0 2,0 0,0 2,51 1,-69 2,-2 0,1 1,0 0,0 1,-1-1,1 1,-1 0,1 0,-2 1,1 1,-1-1,1 1,-1-1,8 10,7 7,-3 0,27 38,-31-38,79 118,-60-85,3-1,2-1,4-3,48 48,-85-92,1 0,0 0,1-1,0 0,0 0,-1 0,1 0,11 3,-14-7,0 1,-1 0,1-1,0 1,1-1,-1 0,0 0,0 0,0 0,0-1,-1 1,2-1,-1 0,0 0,-1 0,1 0,-1-1,1 0,3-2,33-28,-1-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7614.26">9322 381,'-10'8,"-11"12,-8 12,-13 7,-3 3,-5 11,-5 9,-9 12,-22 23,0 0,0-4,2-5,9-13,13-15,9-9,12-13</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -17906,12 +17906,12 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 39,'24'-1,"0"-2,0 0,31-10,-39 9,-1 0,1 0,0 2,0 0,0 0,0 2,1 0,30 5,-41-3,1 0,-1 1,0 0,0 0,-1 0,1 1,-1 0,1 0,-1 0,0 1,-1 0,1 0,-1 0,0 0,0 1,-1-1,0 1,0 0,0 0,0 0,-1 1,0-1,1 10,3 14,-1 0,-1 1,-1 49,-3-75,2 49,-2 109,-1-141,-1 0,-2 0,0-1,-1 0,-10 26,12-40,0 0,-1 0,0 0,-1-1,1 0,-1 0,0 0,-1 0,1-1,-1 0,0 0,-1 0,1-1,-1 0,0-1,0 1,0-1,0 0,-1-1,1 0,-1 0,1-1,-1 0,0 0,1 0,-1-1,0 0,0-1,0 0,1 0,-1-1,1 0,-1 0,-13-6,16 4,1 1,-1 0,1-1,0 0,0 0,1 0,-1-1,1 1,0-1,0 0,0 0,1 0,0 0,0 0,0 0,0-1,1 1,0-1,0 1,1-1,-1 1,1-9,0 6,0-1,1 1,0 0,0-1,1 1,0 0,0 0,1 0,0 0,0 0,1 0,0 1,0 0,8-10,-4 8,1 2,0-1,0 1,0 0,1 1,0 0,0 1,0 0,1 0,0 1,0 1,0 0,0 0,23-2,-26 5,0-1,0 2,1-1,-1 1,0 0,0 0,0 1,0 0,0 1,-1 0,1 0,-1 0,0 1,0 0,0 1,0 0,-1 0,1 0,-1 0,-1 1,10 11,25 35,92 88,-117-126</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="913.94">742 304,'0'-4,"1"-1,0 0,0 0,0 0,1 1,0-1,0 1,0-1,0 1,1 0,0 0,-1 0,2 0,-1 0,0 1,1-1,-1 1,1 0,5-3,11-8,0 2,35-17,-35 19,-4 2,-5 1,0 2,0-1,1 2,0-1,23-4,-31 8,1 1,-1 0,0 0,1 1,-1-1,0 1,1 0,-1 0,0 1,0-1,0 1,0 0,0 0,0 0,0 0,-1 1,1-1,-1 1,0 0,6 7,10 13,-1 0,-1 2,-1 0,17 38,-13-26,33 49,-34-57,28 58,-37-64,2 0,1 0,1-1,31 37,-24-41,-2-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1656.07">1536 39,'-3'1,"1"1,0-1,0 0,0 1,0-1,0 1,0-1,0 1,1 0,-1 0,1 0,-1 0,1 0,0 0,0 0,0 1,0-1,-1 3,-4 6,-58 95,-72 112,103-172,0-2,-66 64,31-44,40-38</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2332.79">1932 462,'4'0,"11"0,7 0,10 0,2 0,10 0,11 0,5 0,1 0,4 0,0 0,2 0,-5 0,-10 0,-13 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3876.94">2832 118,'40'-2,"0"-2,0-2,-1-1,51-17,-6 2,-81 21,0 0,0 0,0 0,0 1,1-1,-1 1,0 0,0 0,0 0,1 1,-1-1,0 1,0-1,0 1,0 0,0 0,0 1,5 2,-5-1,0 0,-1 0,1 0,-1 0,0 1,0-1,0 1,-1-1,1 1,-1 0,0-1,0 1,0 0,-1 0,1 5,5 49,-3 0,-2 0,-12 101,8-139,-2 0,0 0,-2-1,0 1,-1-2,-1 1,0-1,-21 28,-110 129,114-145,16-20,1 0,-2-1,1 0,-1-1,0 0,-1 0,0-1,-14 5,23-10,1-1,-1 0,0 1,0-1,0 0,0-1,-1 1,1 0,0-1,0 0,0 0,-1 0,1 0,0 0,0-1,0 1,0-1,0 0,0 0,0 0,0 0,0-1,0 1,0-1,1 1,-1-1,0 0,1 0,0-1,-1 1,1 0,0-1,0 1,1-1,-1 0,0 1,1-1,-1 0,0-5,-3-7,1 0,1 0,0 0,1 0,1-1,1-16,8-93,-7 122,-1-1,0 1,1-1,-1 1,1 0,0-1,0 1,0 0,1-1,-1 1,1 0,0 0,0 0,0 1,0-1,0 0,1 1,-1-1,1 1,-1 0,7-4,-5 5,1-1,-1 1,1 0,-1 0,1 1,-1-1,1 1,0 0,-1 0,1 1,-1-1,1 1,-1 0,6 2,11 5,-1 0,0 1,-1 1,0 1,27 20,93 61,-78-53,-33-21</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5835.72">3652 356,'-2'60,"0"-38,1-1,1 1,2-1,6 42,-6-59,0 1,0 0,0-1,1 1,0-1,0 0,0 1,0-1,1-1,-1 1,1-1,0 1,0-1,1 0,-1 0,0-1,1 1,0-1,-1 0,1 0,0-1,0 0,0 1,7-1,14 3,0-1,1-2,37-2,-47 1,-9 0,-1-1,1 1,0-2,-1 1,1-1,-1 0,1 0,-1-1,0 0,0-1,0 1,0-1,-1-1,0 1,1-1,-2 0,1 0,-1-1,1 0,-1 0,7-12,0-1,-1-1,0 1,-2-2,0 1,-2-2,0 1,-1-1,-1 1,-2-1,3-40,-9 298,-2 27,2-225,-2 0,-2 0,-1-1,-24 66,18-69,-2-1,-1 0,-2-2,-1 0,-1-1,-2-1,-1-1,-1-1,-1-2,-1 0,-2-2,0 0,-1-3,-52 27,67-39,-1-2,1 0,-1-1,0-1,-22 4,34-8,-1 1,1-1,-1 0,0 0,1-1,-1 1,1-1,-1 0,1 0,-8-3,10 2,0 1,0 0,-1-1,1 1,1-1,-1 0,0 0,0 0,1 0,-1 0,1 0,-1 0,1 0,0-1,0 1,0 0,0-1,0 1,1-1,-1-3,-2-13,0 0,2 0,0 0,1 0,1 0,1 0,1 0,0 1,2-1,7-22,-8 35,1 0,-1 0,1 1,0 0,0-1,1 2,-1-1,1 1,0-1,1 2,-1-1,1 1,-1 0,1 0,0 1,0-1,0 2,10-2,18-3,-1 1,51 1,-76 4,258-15,-207 12,-46 4,-1-1,1-1,0 0,-1-1,1 0,-1-1,0-1,19-7,-14 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 38,'25'-1,"0"-2,0 0,32-9,-40 8,-2 0,2 0,0 2,-1 0,1 0,-1 2,2 0,31 5,-43-3,2 0,-2 1,0 0,0 0,-1-1,2 2,-2 0,1 0,-1 0,1 1,-2 0,1 0,-1-1,0 1,0 1,-1-1,1 1,-1 0,0-1,0 1,-1 1,0-1,1 10,3 13,0 0,-2 1,-1 48,-3-73,2 47,-2 107,-1-138,-1 0,-2 1,0-2,-2 1,-9 24,12-38,0 0,-2 0,1 0,-1-1,1-1,-1 1,-1 0,0 0,1-1,-1 0,0-1,-2 1,2-1,-1 0,-1-1,1 1,0-1,0 0,-2-1,2 0,-1 0,0-1,0-1,0 1,1 0,-2-1,1 0,0-1,-1 0,2 1,-1-2,0 0,0 0,-14-6,17 4,1 1,-1 0,1-1,-1 0,1 1,1-1,-1-1,1 1,0-1,0 0,-1 0,2 0,0 1,0-1,0 0,0-1,1 1,0-1,0 1,1 0,-1 0,1-9,0 6,0 0,1 0,0 0,0-1,1 2,0-1,0 0,1 0,0 0,1 1,0-1,0 1,0 0,9-9,-5 7,1 2,1-1,-1 2,0-1,2 1,-1 0,1 1,-1 0,1 0,1 2,-1 0,1 0,-1 0,24-2,-26 5,-1-1,0 2,2-1,-2 1,0 0,1 0,-1 1,0 0,1 1,-2 0,1 0,0-1,-1 2,0 0,0 1,1 0,-2 0,1 0,-1 0,0 0,9 12,27 33,95 87,-121-124</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="913.94">771 296,'0'-4,"1"-1,1 0,-1 0,0 0,1 1,0 0,0 0,0-1,0 1,1 0,0 0,-1 0,2 0,0 0,-1 2,1-2,-1 1,1 0,6-3,10-8,1 3,36-17,-36 18,-4 2,-6 1,1 2,-1 0,2 1,-1-1,24-4,-31 8,0 1,-1 0,0 0,1 1,-1-1,1 1,0 0,-1 0,0 1,0-1,0 1,1 0,-1 0,0 0,0 0,-1 0,1 0,-1 1,1 0,5 7,11 12,-2 1,0 1,-1 0,17 38,-13-26,34 47,-35-55,29 57,-39-63,2 1,2-1,0 0,33 35,-25-40,-2-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1656.07">1597 38,'-3'1,"1"1,0-1,0 0,0 1,-1-1,1 1,0-1,0 1,1 0,-1-1,1 1,-1 0,1 0,0 0,0 0,0 1,0-1,-1 3,-4 6,-61 92,-74 109,106-168,1-1,-69 62,32-43,42-36</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2332.79">2009 449,'4'0,"12"0,6 0,12 0,1 0,11 0,11 0,5 0,2 0,3 0,1 0,2 0,-6 0,-10 0,-13 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3876.94">2945 115,'41'-2,"1"-2,-1-2,0-1,52-16,-5 2,-85 20,0 0,0 0,0 0,0 1,2-1,-2 1,0 0,0 0,0 0,1 1,-1-1,0 1,1-1,-1 1,0 0,0 0,0 1,5 1,-5 0,1 0,-2 0,1 0,-1 0,0 1,0-1,0 1,-1-1,1 0,-1 1,0-1,0 1,0 0,-1 0,1 5,6 47,-4 1,-2-1,-13 99,9-136,-2 0,0 1,-2-2,-1 2,0-3,-1 2,-1-2,-21 28,-115 125,119-141,17-19,1 0,-3-1,2-1,-2 0,1 0,-2 0,1-2,-15 6,24-10,1-1,-1 0,0 1,-1-1,1 0,0-1,-1 1,1 0,0-1,0 0,0 0,-2 0,2 0,0 0,0-1,0 1,0-1,0 0,0 0,-1 0,1 0,0-1,0 1,0-1,1 1,-1-1,0 0,1 0,-1-1,0 2,1-1,0-1,0 1,1-1,-1 0,0 1,1-1,-1 0,0-5,-3-6,0-1,2 1,0-1,1 0,1 0,1-16,8-91,-7 119,-1-1,0 1,1 0,-1 0,1 0,0-1,1 1,-1 0,1-1,-1 1,1 0,0 0,0 0,0 1,0 0,0-1,1 1,-1-1,1 1,0 0,6-4,-5 5,1-1,-1 1,2 0,-2 0,1 1,-1-1,1 1,1 0,-2 0,1 1,-1-1,1 1,-1 0,7 2,11 5,-2 0,1 0,-1 2,0 1,28 19,96 59,-80-51,-35-20</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5835.72">3797 346,'-2'59,"0"-38,1-1,1 2,2-2,6 41,-6-57,0 1,1 0,-1-1,1 1,0-1,0 0,0 0,0 0,1-1,0 1,0-1,0 1,0-1,1 0,-1 0,1-1,0 1,0-1,-1-1,1 1,0-1,1 0,-1 1,7-1,15 3,0-1,1-2,39-2,-49 1,-10 0,-1-1,2 1,-1-2,-1 1,2-1,-2 0,1 0,-1-1,1 1,-1-2,0 1,1-1,-2-1,0 1,1-1,-2 0,2 1,-2-2,1 0,-1 0,8-12,-1 0,0-1,-1 0,-1-1,-1 0,-2-1,0 0,0 0,-2 1,-2-2,3-38,-9 289,-2 27,2-219,-2 0,-3 0,0-1,-25 64,18-67,-1-1,-2 0,-2-1,-1-1,-1-1,-1-1,-2-1,-1 0,-1-3,-1 0,-3-1,1-1,-1-3,-54 27,69-38,0-2,0 0,-1-2,1 0,-24 4,36-8,-1 1,1-1,-2 0,1 0,1-1,-1 1,1-1,-1 0,0 0,-7-3,10 2,0 1,0 0,-1-1,0 1,2-1,-1 1,0-1,0 0,1 0,-1 0,1 0,-1 0,1 0,0-1,0 1,0 0,0-1,0 1,1-1,-1-2,-2-14,-1 1,3-1,0 1,1-1,1 1,1-1,2 1,-1 0,2 0,7-22,-7 34,0 0,-1 0,1 1,0 1,0-2,2 2,-2-1,1 1,0-1,2 2,-2-1,1 2,-1-1,2 0,-1 1,0-1,1 2,9-2,20-3,-2 1,53 1,-78 4,267-14,-214 11,-49 4,0-1,0-1,1 0,-2-1,2 0,-2-1,1-1,19-6,-14-1</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -17937,10 +17937,10 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 502,'0'-6,"1"0,0 0,1 1,0-1,0 0,0 0,0 1,1-1,0 1,0 0,0 0,5-5,55-60,-43 49,-11 11,0 1,1 0,0 0,0 1,0 0,1 1,1 1,-1 0,1 0,0 1,0 0,0 1,1 1,0 0,-1 0,1 1,0 1,0 0,0 1,0 1,0 0,21 4,-13 0,0 1,0 1,0 0,-1 2,0 1,31 19,106 86,-140-102,40 34,-3 3,-1 2,-3 2,-2 3,-3 1,38 66,-19-31,143 160,-163-204,-41-45,0 0,1-1,0 0,-1 1,1-1,0-1,1 1,6 3,6-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="843.11">1324 0,'-3'17,"0"0,0-1,-2 0,0 0,-1 0,0-1,-2 1,-8 14,3-5,-20 37,-2-1,-2-2,-4-2,-1-2,-88 87,24-48,72-66,1 1,1 1,2 2,-28 38,-4 14,-47 71,100-130,9-25,0 1,0-1,0 1,0-1,0 0,0 1,0-1,0 1,1-1,-1 0,0 1,0-1,1 0,-1 1,0-1,0 0,1 0,-1 1,0-1,1 0,-1 0,0 1,1-1,-1 0,0 0,1 0,-1 1,1-1,-1 0,0 0,1 0,0 0,4 0,-1-1,1 1,0-1,-1 0,1 0,-1-1,1 1,4-3,47-21</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1752.02">2012 423,'4'0,"15"0,14 0,5 0,5 0,1 0,0 0,-1 0,0 0,2 0,-3 0,-3-4,-4-2,-8 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2780.71">2064 820,'4'0,"7"0,5 0,9 0,5 0,16 0,12 5,11 1,3-1,-7 0,-10-2,-10-1,-3-1,-5 0,-8-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 486,'0'-6,"1"0,0 1,1 0,0-1,1 0,-1 0,0 1,1 0,0 0,0 0,1 0,4-5,59-57,-46 46,-11 12,0 0,0 0,1 0,-1 2,1-1,1 1,1 1,-2 1,2-1,0 1,0 0,-1 1,2 1,0 0,-1 1,1 0,-1 1,1 0,0 1,0 1,0 0,22 3,-14 1,1 1,-1 1,0 0,0 1,-1 2,33 18,113 83,-149-98,43 33,-4 2,0 2,-4 3,-2 2,-3 1,40 64,-20-30,153 155,-174-198,-44-43,0 0,1-1,0 0,0 1,0-1,0-2,1 2,7 3,6-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="843.11">1409 0,'-3'16,"-1"1,1-2,-2 1,0-1,-2 1,1-2,-3 2,-8 13,3-5,-21 36,-2-1,-2-2,-5-2,-1-1,-93 83,25-46,77-64,1 1,1 1,2 2,-30 37,-4 13,-50 69,107-125,9-25,0 1,0-1,0 1,0-1,0 0,0 1,0-1,0 1,1-1,-1 0,0 0,0 0,1 0,-1 1,0-1,0 0,1 0,-1 1,0-1,1 0,-1 0,0 1,1-1,-1 0,0 0,1 0,-1 1,1-1,-1 0,0 0,1 0,0 0,5 0,-2-1,1 1,1-1,-2 0,1 0,-1 0,2 0,3-3,51-20</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1752.02">2141 409,'4'0,"16"0,15 0,6 0,5 0,0 0,1 0,-1 0,0 0,2 0,-4 0,-2-3,-5-3,-8 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2780.71">2196 794,'4'0,"8"0,5 0,10 0,5 0,17 0,12 5,13 0,2 0,-6 0,-12-2,-10-1,-3-1,-6 0,-8-1</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -17968,7 +17968,7 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">1 238,'25'1,"0"1,0 0,0 2,-1 1,1 1,-1 1,0 1,-1 1,0 1,0 1,-1 1,-1 1,0 1,-1 1,33 30,13 14,0-2,-3 3,57 70,-72-59,-38-55,0 0,1-1,0 0,1-1,1 0,1-1,16 14,-11-13,-4-2</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="609.99">1113 0,'-7'2,"1"0,-1 1,1 0,0-1,0 2,0-1,1 1,-1 0,1 0,0 0,-9 10,-1 0,-202 179,-121 96,178-160,125-96</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1462.19">1298 793,'0'5,"0"10,0 7,-5 5,-1 6,0 2,-8 9,-1 6,2 3,2-3,0-5,1-5,-2-2,1-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1462.18">1298 793,'0'5,"0"10,0 7,-5 5,-1 6,0 2,-8 9,-1 6,2 3,2-3,0-5,1-5,-2-2,1-7</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -18020,7 +18020,7 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 187,'3862'0,"-3692"-7,282-49,-253 33,-108 15,97-23,-80 9,207-15,28 35,-182 3,-122-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 167,'4027'0,"-3849"-6,293-44,-263 29,-113 14,101-21,-84 9,217-14,28 31,-189 3,-127-1</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -18046,29 +18046,29 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 476,'0'0,"1"-1,-1 1,1-1,0 1,-1 0,1-1,0 1,0 0,-1-1,1 1,0 0,0 0,-1 0,1 0,0 0,0-1,-1 1,1 1,0-1,0 0,0 0,-1 0,1 0,0 0,0 1,-1-1,1 0,0 1,-1-1,1 1,0-1,-1 0,1 1,-1 0,1-1,0 1,-1-1,1 1,-1 0,0-1,1 1,-1 0,0-1,1 1,-1 0,0 0,1 0,13 39,22 240,-34-263,-2-12,0 0,0 0,1 0,0 0,0 0,1 0,-1-1,1 1,0 0,0-1,1 1,-1-1,1 0,0 0,0 0,0 0,5 3,-3-4,0 0,0 0,1 0,0-1,-1 0,1 0,0 0,0-1,0 0,0 0,1 0,-1-1,9-1,9 2,-9-1,0 0,0 0,0-2,17-3,-28 4,-1 0,1 0,-1 0,1 0,-1-1,0 0,0 1,1-1,-2 0,1-1,0 1,0-1,-1 1,1-1,-1 0,0 0,1 0,-1 0,-1 0,1 0,0 0,0-5,3-11,-1-1,-1 0,-1 0,0 0,-2-22,5-57,4 21,-5 37,14-58,-13 82</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2160.64">531 873,'-1'-9,"1"-6,0 1,1 0,0 0,4-15,-5 27,0 1,1 0,-1-1,0 1,1-1,-1 1,1-1,-1 1,1 0,-1-1,1 1,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 1,0-1,0 0,1 0,-1 1,0-1,1 0,-1 1,0-1,1 1,-1 0,1-1,-1 1,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 1,1-1,-1 0,0 1,1-1,-1 1,1 0,-1-1,0 1,0 0,1 0,0 1,2 1,-1 0,1 0,-1 0,0 1,0-1,0 1,-1 0,1 0,-1 0,0 0,0 1,0-1,-1 0,1 1,-1-1,0 1,0 7,2 12,-1 1,-2 24,0-36,-2 8,0-1,-1 1,-2-1,0 0,-8 20,6-19,1 0,1 0,0 1,-1 28,5-24,1-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2757.6">610 423,'4'0,"2"0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9301.27">1536 0,'3'1,"1"-1,0 1,0 0,-1 0,1 0,-1 0,1 1,-1-1,1 1,-1 0,0 0,0 0,0 0,0 1,0-1,0 1,-1 0,1 0,-1 0,0 0,0 0,0 0,0 1,-1-1,3 7,4 11,-2 0,0 0,4 29,-3-17,49 239,-56-271,1 0,-1 1,1-1,-1 1,0-1,0 1,1-1,-1 1,0-1,0 1,-1-1,1 1,0-1,0 1,-1-1,1 1,-1-1,1 0,-1 1,0-1,1 0,-1 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,-1 0,1-1,0 1,-1-1,1 1,-1-1,1 0,-1 1,1-1,-1 0,1 0,-1 0,-2 0,-7-1,-1-1,1 0,-1-1,-20-8,20 7,-37-15,34 12,-1 1,-1 1,1 0,-1 1,-17-2,29 6,0-1,0 2,0-1,0 0,0 1,0 0,0 0,1 1,-1-1,0 1,1 0,-1 0,1 1,0-1,-1 1,1 0,0 0,1 0,-1 1,1 0,-6 7,4-5,0 1,0 0,1 0,0 0,0 0,1 1,0 0,0-1,1 1,0 0,0 0,1 1,0-1,0 0,1 0,0 1,1-1,0 0,3 14,-2-15,1 0,0 0,0 0,1 0,-1-1,2 0,-1 1,1-1,-1-1,2 1,-1-1,1 0,-1 0,1-1,1 1,-1-1,1-1,-1 1,1-1,0 0,12 3,-11-5,0 1,0-1,0 0,0 0,0-1,1 0,-1-1,0 0,0 0,0-1,0 0,0 0,0-1,-1 0,1 0,-1-1,0 0,0 0,0-1,0 0,7-7,-4 4,-2-1,1 0,-1 0,0-1,-1 0,0 0,-1-1,0 0,-1 0,0 0,-1-1,0 0,4-17,-5-4,-1 0,-4-57,2 88,-2-21</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12230.77">1986 291,'-4'5,"1"-1,0 0,1 1,-1-1,1 1,0 0,0 0,0 0,1 0,0 0,0 0,-1 10,1 71,1-59,0 1,0 6,6 55,-5-80,1 1,0-1,1 0,0 0,0 0,1 0,0-1,0 1,1-1,10 13,-13-20,0 1,0 0,0 0,1-1,-1 1,1-1,-1 0,1 1,0-1,-1-1,1 1,0 0,0-1,-1 1,1-1,0 0,0 0,0 0,-1 0,1 0,0-1,0 1,0-1,-1 0,1 0,0 0,-1 0,1 0,-1-1,1 1,-1-1,4-3,1 1,0-1,-1 0,0 0,0 0,-1-1,1 0,-1 0,-1-1,1 1,6-14,85-196,-87 195,0-1,19-29,-10 24</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13311.92">1748 238,'4'-4,"6"-6,7-2,3 1,13 4,5 1,1 3,-2 2,-3 0,-3 1,-6 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14431.03">2224 635,'0'5,"0"6,0 5,0 4,0 9,0 3,0 1,0-1,0-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16333.21">2303 503,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18197.34">1192 979,'49'-2,"0"-2,0-3,86-23,-88 19,216-37,-163 27,1 6,0 3,122 2,-217 10,0 0,0 0,-1 1,1-1,-1 2,1-1,-1 0,1 1,-1 0,0 0,6 3,5 7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19827.31">1589 1006,'2'83,"0"-43,-1 0,-7 54,6-94,-1 1,1-1,0 1,-1-1,1 1,-1-1,1 1,0-1,-1 1,1-1,-1 0,1 1,-1-1,1 0,-1 1,1-1,-1 0,0 0,1 1,-1-1,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 0,0 0,1 0,-1-1,1 1,-1 0,0-1,-35-10,13 4,1 3,0 1,-1 1,-35 1,53 2,-1-1,1 1,0 0,-1 0,1 1,0 0,0 0,0 0,-6 4,9-5,0 1,0-1,0 1,0 0,0 0,1-1,-1 1,1 0,-1 1,1-1,0 0,0 0,0 1,0-1,0 0,1 1,-1-1,1 1,-1-1,1 5,0-1,1 0,1 0,-1 0,1 0,0 0,0 0,0-1,1 1,0-1,0 1,1-1,-1 0,1-1,0 1,1-1,-1 1,1-1,7 5,-1 0,1-1,0 0,0-1,1 0,0-1,26 9,-32-13,1 0,-1 0,0-1,1 0,-1 0,1-1,-1 0,0 0,1-1,-1 0,1 0,-1-1,8-2,-11 2,0-1,0 1,0-1,-1 1,1-1,-1 0,0 0,1-1,-1 1,-1-1,1 1,-1-1,1 0,-1 0,0 0,0 0,-1-1,1 1,-1 0,0-1,0 1,0-8,1-13,-1 1,-3-32,2 49,-1-17</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="21287.26">1827 1217,'2'4,"1"-1,-1 1,0-1,0 1,0 0,-1 0,1 0,-1 0,0 0,0 0,1 7,2 51,-4-43,0-13,1 8,-1 1,2-1,0 1,7 25,-8-37,0 0,1 1,-1-1,1 0,0 0,0 0,0 0,0 0,0 0,1-1,-1 1,1-1,0 0,0 0,0 0,0 0,0 0,0 0,0-1,1 0,-1 1,0-1,1 0,6 0,9 2,0-2,-1 0,1-1,0-1,0-1,-1 0,1-1,-1-1,31-12,-41 13,0 0,-1-1,1 0,-1-1,0 0,0 0,0 0,-1-1,0 0,0 0,0 0,-1-1,0 0,0 0,-1-1,0 1,0-1,0 0,-1 0,-1 0,1 0,-1 0,1-11,-2-35,-2 43,-1 37,2 101,-2 41,2-163,-1 0,1-1,-1 1,0 0,0 0,0-1,0 1,-1-1,0 1,0-1,0 0,-1 1,1-1,-1 0,0-1,0 1,-1 0,1-1,-7 5,3-4,0 0,0-1,0 0,-1 0,1-1,-1 0,0-1,0 1,1-1,-1-1,-10 0,-8 1,5 0,1 0,0-2,0 0,-25-5,41 5,0 0,1 0,-1 0,0 0,0-1,1 0,-1 1,1-1,-1 0,1-1,0 1,0-1,0 1,0-1,0 0,1 0,-1 0,1 0,0-1,0 1,0-1,0 1,0-1,1 0,0 0,0 1,-1-6,-1-21,3 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22188.3">2753 794,'77'0,"128"16,-140-9,123-3,-141-4,-12 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="26575.54">3891 476,'0'5,"0"6,0 9,0 7,0 8,-5 1,-1 0,0-1,1-4,2-1,1-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="27437.58">3838 476,'0'-4,"4"-2,2 5,0 7,-2 7,-1 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="29383.53">3441 476,'6'-3,"0"0,0 0,1 0,-1 1,1-1,0 2,-1-1,1 1,0 0,0 0,0 1,13 1,-1-2,369-1,-387 2,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 1,0-1,0 1,-1-1,1 1,0-1,0 1,0 0,-1-1,1 1,0 0,-1 0,1 0,0-1,-1 1,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 2,-1 1,1 1,-2-1,1 0,0 1,-1-1,0 0,-2 5,-4 8,1 0,0 1,1 0,1 0,1 0,-3 29,7-40,0 1,0-1,1 0,0 0,0 0,1 0,0 0,0 0,1-1,0 1,0-1,0 1,1-1,0 0,0 0,1-1,7 8,-8-8,0 0,0-1,0 0,1 1,0-2,0 1,0-1,0 1,0-1,1-1,-1 1,1-1,0 0,0 0,0-1,0 0,0 0,0 0,0 0,0-1,0 0,0-1,0 1,0-1,0-1,0 1,0-1,0 0,0 0,-1 0,1-1,5-3,6-3,0-1,-1 0,18-16,-29 22,-1 0,1 0,-1-1,0 0,0 0,-1 0,1 0,-1 0,0-1,-1 0,1 1,-1-1,3-11,18-74,-15 68,-2 1,7-47,-11 43</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="30350.78">4526 767,'0'5,"0"6,0 9,-5 3,-1 0,0 7,1-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="32624.62">5425 106,'1'1,"1"-1,0 1,0 0,0 0,-1 0,1-1,0 2,-1-1,1 0,-1 0,1 0,-1 1,0-1,1 1,-1-1,0 1,1 2,21 33,-19-29,8 14,-2 0,0 1,-2 0,0 1,6 33,-6-3,3 72,-9-112,0 0,1-1,8 24,-7-26,-1-1,0 1,0 0,-1 0,-1 0,1 12,-2-21,0 0,0 1,0-1,-1 0,1 0,0 0,-1 0,0 0,1 0,-1 0,0-1,0 1,0 0,0 0,0-1,-2 3,2-3,0-1,0 1,0-1,0 1,0-1,0 1,0-1,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,1-1,0 1,-2-1,-1-1,-1 0,1 0,-1-1,1 0,0 0,0 0,0 0,0-1,1 1,-6-8,-9-15,-24-49,33 56,-1 0,-1 0,0 1,-2 0,0 1,-17-17,25 30,-1 1,1 0,-1-1,1 2,-1-1,0 1,0 0,0 0,0 1,0-1,-1 1,1 1,-11-1,-8 1,-49 7,70-6,0 0,0-1,1 1,-1 1,0-1,1 0,-1 1,1 0,-1 0,1 0,0 0,0 1,0-1,0 1,0-1,1 1,-1 0,1 0,0 1,0-1,0 0,0 1,0-1,1 1,0-1,-1 1,0 6,-1 8,1 0,0 0,1 0,3 30,-1-28,0-13,0 0,0-1,1 1,-1 0,2-1,-1 1,1-1,0 0,0 1,1-2,-1 1,1 0,1-1,-1 1,1-1,0-1,0 1,0-1,1 1,-1-1,1-1,0 1,1-1,-1 0,7 2,0 0,1-1,-1 0,1-1,-1 0,1-1,0-1,0 0,0-1,0 0,0-1,26-5,-31 3,-1 0,1 0,-1-1,0 0,0 0,0-1,-1 0,1-1,-1 1,-1-1,1-1,-1 1,0-1,0 0,-1 0,0-1,0 0,-1 0,0 0,0 0,4-16,0-10</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="34894.85">5928 397,'-1'0,"1"0,0-1,0 1,0-1,0 1,-1 0,1-1,0 1,-1 0,1-1,0 1,-1 0,1-1,0 1,-1 0,1 0,0-1,-1 1,1 0,-1 0,1 0,0-1,-1 1,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 1,-1-1,1 0,-1 0,1 0,0 0,-1 1,1-1,0 0,-1 0,1 1,0-1,-1 0,1 1,0-1,-1 1,-22 14,18-9,1 0,-1 0,1 1,0-1,1 1,0 0,0 0,0 0,1 1,0-1,0 1,1-1,0 1,0-1,1 1,0 0,1 12,0-14,-1 1,1-1,1 0,-1 1,1-1,0 0,1 0,-1 0,1-1,0 1,1 0,-1-1,1 0,0 0,1 0,-1-1,1 1,0-1,0 0,0 0,7 3,-7-5,0 1,0-1,0 0,1-1,-1 1,1-1,0 0,-1 0,1-1,9 0,-12 0,-1-1,0 1,0-1,1 0,-1 1,0-1,0 0,0 0,0-1,0 1,0 0,-1-1,1 1,0-1,-1 1,1-1,-1 0,1 1,-1-1,0 0,0 0,0 0,0 0,0-1,0 1,-1 0,1 0,0-5,4-14,9-53,39-115,-53 189,0 1,0-1,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,2 17,0 24,-4 22,2 98,1-158,-1 1,1-1,-1 1,1-1,0 0,0 1,1-1,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0-1,1 1,-1-1,1 0,0 1,0-1,0-1,0 1,0 0,0-1,0 1,0-1,1 0,4 1,9 1,-1 0,1-2,0 0,27-2,-39 1,20-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="35831.58">4976 900,'8'0,"18"0,21 0,35-9,12-3,4 1,-2 2,1-2,-7 0,-5 3,-12 3,-11 2,-10 1,-10 1,-12 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="37164.49">5452 953,'-6'14,"2"-1,0 0,0 1,1 0,1 0,0 0,1 0,2 27,-6 43,5-83,0 1,0-1,0 0,0 1,0-1,0 0,-1 1,1-1,0 0,-1 0,1 1,-1-1,1 0,-1 0,0 0,1 1,-1-1,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0-1,0 1,0 0,-1-1,1 1,0-1,0 0,-1 1,1-1,-2 0,-2-1,0 0,0 0,0-1,0 0,0 0,1 0,-8-5,-16-7,12 7,-1 2,0 0,-1 1,1 1,-1 1,0 0,1 1,-1 1,0 1,-30 4,46-4,0-1,0 0,1 1,-1-1,1 1,-1-1,0 1,1 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 1,0-1,0 0,0 1,0-1,-1 3,2-2,0-1,0 1,0 0,0-1,0 1,1 0,-1-1,0 1,1 0,-1-1,1 1,0-1,0 1,-1-1,1 1,0-1,0 0,2 2,5 6,1 0,0-1,0-1,20 13,-3-4,51 24,-70-36,0-2,1 1,-1-1,1 0,0 0,-1-1,1 0,0 0,0-1,0 0,0 0,13-3,-19 2,1 0,-1 0,1 0,-1 0,0-1,0 1,1-1,-1 1,0-1,0 0,0 0,-1 0,1 0,0 0,-1 0,1-1,1-3,6-16</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="38647.8">5769 1111,'0'0,"0"0,0 0,0-1,0 1,0 0,0 0,0-1,0 1,0 0,0-1,0 1,0 0,0 0,0-1,0 1,-1 0,1 0,0-1,0 1,0 0,0 0,0-1,-1 1,1 0,0 0,0 0,0-1,-1 1,1 0,0 0,0 0,-1 0,1-1,0 1,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,-1 0,-14 8,-10 17,21-19,0 0,0 0,1 1,0-1,0 1,1 0,-1 0,2 0,-1 0,1 0,0 0,0 14,1-17,1 0,-1-1,1 1,-1-1,1 1,1-1,-1 1,0-1,1 0,-1 0,1 0,0 0,0 0,0 0,1 0,-1 0,1-1,0 1,-1-1,1 0,0 0,0 0,0 0,1 0,-1-1,0 0,4 2,8 1,0 0,0-1,0-1,0 0,0-1,1-1,-1 0,0-1,0-1,24-5,-37 6,1 0,-1 0,0 0,0 0,1-1,-1 1,0-1,0 1,0-1,0 0,-1 1,1-1,0 0,-1 0,1 0,-1-1,0 1,1 0,-1 0,1-4,-1-1,1 1,-1-1,0 0,-1 0,0-8,1-4,-3 49,2 54,2-51,-6 59,4-83,-2-1,1 1,-1-1,-1 1,0-1,0 0,0 0,-1 0,0-1,-1 1,-7 10,8-15,0 1,-1-1,1 1,0-1,-1-1,0 1,1-1,-1 1,0-1,0-1,-1 1,1-1,0 0,0 0,-1 0,1-1,-1 0,1 0,0 0,-1-1,1 0,0 0,-6-2,-5-1,-1-1,1 0,1-2,-1 0,1 0,-14-10,22 13,1 0,0 0,0-1,1 1,-1-1,1-1,0 1,0-1,1 0,0 0,0 0,0 0,1-1,0 1,0-1,0 0,1 0,0 0,1 0,-1-1,2 1,-1 0,1-1,0 1,1-14,1-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="39713.49">6404 688,'9'0,"3"5,-1 5,-2 11,-2 6,-3 3,-2 0,-1 1,-1-2,0 0,-1-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="40654.93">6510 503</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 458,'0'0,"1"-1,-1 1,1-1,0 1,-1 0,1-1,0 1,0 0,-1-1,1 1,0 0,0 0,-1 0,2 0,-1 0,0-1,-1 1,1 1,0-1,0 0,0 0,-1 0,1 0,0 0,0 1,-1-1,1 0,0 1,-1-1,1 1,0-1,-1 0,1 1,-1 0,1-1,0 1,-1-1,1 1,-1 0,0-1,1 1,-1 0,0-1,2 1,-2 0,0 0,1 0,13 37,24 232,-36-254,-2-11,0 0,0 0,1-1,0 1,0 0,2 0,-2-1,1 0,0 1,0-1,1 1,-1-1,1 0,0-1,1 1,-1 0,5 3,-3-4,1 0,-1 0,1-1,1 0,-2 0,1 0,0 0,1-1,-1 0,0 0,2 0,-2-1,10-1,9 2,-9-1,0 0,-1 0,1-2,18-3,-30 4,-1 0,1 0,0 0,0 0,-1 0,0-1,0 1,2-1,-3 0,1-1,0 1,0-1,-1 1,1-1,-1 0,1 0,0 1,-1-1,-1 0,1 0,0 0,0-5,3-10,0-1,-2 0,-1-1,0 1,-2-21,5-56,5 21,-6 36,15-56,-14 78</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2160.64">559 840,'-1'-8,"1"-7,0 2,1-1,0 1,4-15,-5 26,0 1,1 0,-1-1,0 1,1-1,-1 1,1-1,-1 1,1 0,-1-1,1 1,0 0,0 0,0 1,0-1,0-1,0 1,1 0,-1 0,0 1,0-1,0 0,1 0,-1 1,0-1,1 0,-1 1,0-1,1 1,-1 0,1-1,-1 1,2 0,-2 0,0 0,1 0,-1 0,1 0,-1 1,1-1,-1 0,0 1,1-1,-1 1,1 0,0-1,-1 1,0 0,1 0,0 1,2 1,-1-1,1 1,0 0,-1 1,0-1,0 1,-1 0,1-1,-1 1,0 0,1 1,-1-1,-1 0,1 1,-1-2,0 2,0 7,2 11,-1 1,-2 23,0-34,-2 7,0-1,-1 1,-2-1,-1 1,-7 18,5-18,2 1,1-1,0 1,-2 27,6-23,1-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2757.6">642 407,'4'0,"2"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9301.27">1616 0,'3'1,"1"-1,1 1,-1 0,-1 0,1 0,-1 0,1 1,0-1,0 1,-1 0,0-1,0 1,0 0,1 1,-1-1,0 1,-1 0,1 0,-1 0,0 0,0-1,1 1,-1 1,-1-1,3 7,4 10,-1 0,-1 0,5 28,-4-16,52 230,-59-261,1 0,-1 1,1-1,-1 1,0-1,0 1,1-1,-1 0,0 0,0 1,-1-1,1 1,0-1,0 1,-1-1,1 1,-1-1,1 0,-1 1,0-1,1 0,-1 1,0-1,0 0,-1 0,1 0,0 0,0-1,0 1,0 0,-1 0,1 0,0 0,-1 0,1-1,0 1,-1-1,1 1,-1-1,0 0,0 1,1-1,-1 0,1 0,-1 0,-2 0,-8-1,0-1,0 0,-1-1,-20-7,20 6,-38-14,35 11,-1 1,-1 1,1 1,-1 0,-17-2,29 6,1-1,0 2,0-1,-1 0,1 1,0 0,0 0,0 1,0-1,0 1,1 0,-2 0,2 0,0 0,-1 1,0 0,1 0,1 0,-1 1,1 0,-7 6,5-4,0 1,-1-1,2 1,0 0,0 0,1 0,0 1,-1-1,2 0,0 1,0 0,1 1,0-2,0 1,1 0,0 0,1 0,0 0,3 13,-2-14,1-1,1 1,-1 0,1 0,-1-2,2 1,0 1,0-1,-1-2,2 2,0-1,0 0,-1 0,2-2,0 2,-1-1,2-1,-2 1,1-1,1 0,12 2,-12-4,0 1,1-1,-1 0,1 0,-1-1,2 0,-2-1,0 0,1 0,-1-1,1 0,-1 1,1-2,-2 0,1 0,0-1,-1 0,0 0,1 0,-1-1,8-7,-5 4,-1 0,0-1,0 0,-1 0,-1-1,1 1,-2-2,0 0,0 1,-1-1,-1 0,0-1,5-16,-6-4,-1 1,-4-56,2 85,-2-20</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12230.77">2089 280,'-4'5,"1"-1,0 0,1 0,-1 0,0 1,1 0,0 0,0-1,1 1,0 0,0 0,-1 9,1 69,1-57,0 1,0 6,6 52,-5-76,1 1,0-2,2 1,-1 0,0-1,1 1,0-1,1 0,0 0,11 12,-14-19,0 1,0 0,0 0,1-1,-1 1,1-1,0 0,0 1,0-1,-1-1,1 1,0 0,0-1,-1 1,2-1,-1 0,0 0,0 0,-1 0,1 0,1-1,-1 1,0-1,-1 0,1 0,0 0,-1 0,2 0,-2-1,1 1,-1-1,4-3,2 1,-1 0,-1-1,1 0,-1 0,-1-1,1 1,0-1,-2-1,1 1,7-13,89-189,-92 188,1-1,19-28,-10 23</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13311.92">1839 229,'4'-4,"7"-5,7-3,3 1,13 5,6 0,1 3,-2 2,-3 0,-3 1,-7 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14431.03">2340 611,'0'5,"0"6,0 4,0 4,0 9,0 3,0 1,0-2,0-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16333.21">2423 484,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18197.34">1254 942,'52'-2,"-1"-2,1-2,90-23,-93 18,228-35,-172 26,1 5,1 4,127 1,-228 10,1 0,-1 0,-1 1,2-1,-2 2,1-1,0 0,0 1,-1 0,0 0,7 3,5 6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19827.3">1672 968,'2'80,"0"-41,-1-1,-7 53,6-91,-1 0,1 0,0 1,-1-1,1 1,-2-1,2 1,0-1,-1 1,1-1,-1 0,1 1,-1-1,1 0,-1 1,1-1,-1 0,0 0,1 1,-1-1,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 0,0 0,1 0,-1-1,1 1,-1 0,0-1,-37-9,14 3,0 3,1 1,-1 1,-37 1,56 2,-2-1,2 1,0 0,-1 0,0 1,1 0,0 0,0 0,-7 4,10-5,0 1,0-1,0 0,-1 1,1 0,1-1,-1 1,1 0,-1 1,1-1,0 0,0 0,0 1,0-1,0 0,1 0,-1 0,1 1,-1-1,1 5,0-1,1-1,1 1,-1 0,1 0,0 0,0-1,0 0,1 1,1-1,-1 0,1 0,-1 0,1-1,1 1,0-1,-1 0,1 0,8 5,-2 0,2-2,0 1,-1-1,2-1,0 0,27 9,-34-13,1 0,0-1,-1 0,2 0,-2 0,1-1,0 0,-1 0,2-1,-2 0,1 0,0 0,7-3,-10 2,-1-1,0 1,0-1,-1 1,2-1,-2 0,0 0,1 0,-1 0,-1-1,2 1,-2-1,1 0,-1 0,0 1,0-1,-1-1,1 1,-1 0,0-1,1 2,-1-9,1-12,-1 1,-3-31,2 47,-1-16</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="21287.26">1922 1171,'2'4,"1"-1,-1 1,1-1,-1 1,0-1,-1 1,1 0,-1 0,0 0,0 0,1 6,2 50,-4-42,0-12,1 7,-1 2,3-2,-1 2,7 23,-8-35,0 0,1 1,-1-1,1 0,1 0,-1-1,0 1,0 0,0 0,1-1,-1 1,1-1,1 0,-1 0,0 0,0 0,0 0,0-1,1 0,0 0,-1 1,0-1,1 0,7 0,9 2,0-2,-1 0,1-1,0-1,0-1,-1 0,1-1,-1-1,32-11,-43 12,1 0,-2-1,2 1,-2-2,0 0,1 0,-1 0,-1 0,1-1,-1 0,0 0,0-1,-1 1,0-1,-1-1,1 2,-1-2,0 0,-1 0,-1 1,1-1,0 0,0-10,-2-34,-2 42,-1 35,2 97,-3 39,3-156,-1 0,1-1,-1 1,0 0,0-1,0 0,0 1,-1-1,0 1,0-1,0-1,-1 2,0-1,0 0,0-1,0 1,-1 0,1-2,-8 6,4-4,-1 0,1-1,0 0,-2-1,2 0,-2 0,1-1,0 1,0-1,0-1,-11 0,-8 1,4 0,2 0,0-2,0 0,-26-5,43 5,0 0,0 0,0 0,0 1,0-2,1 0,-2 1,2-1,-1 0,1-1,0 1,0-1,-1 1,1-1,0 0,1 1,-1-1,1 0,0-1,0 1,-1-1,1 1,0-1,1 1,0-1,0 1,-1-6,-1-20,3 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22188.3">2896 764,'81'0,"135"16,-148-10,130-2,-148-4,-14 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="26575.54">4094 458,'0'5,"0"6,0 8,0 7,0 7,-6 2,0 0,0-2,0-3,3-1,1-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="27437.58">4038 458,'0'-4,"4"-2,2 6,1 5,-3 8,-1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="29383.53">3620 458,'6'-3,"1"0,-1 0,1 1,0 0,0-1,0 2,0-1,0 1,1 0,-1 0,0 1,14 1,-1-2,388-1,-406 2,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 1,0-1,0 1,-1-1,1 1,0-1,1 1,-1 0,-1-1,1 1,0 0,-1 0,1 0,0-1,-1 1,1 0,-1 0,0 0,1-1,-1 1,0 0,1 0,-1 2,-1 1,1 1,-2-1,1 0,0 0,-1 0,-1 0,-1 5,-4 7,0 1,1 0,1 0,1 0,0 1,-2 27,7-38,0 0,0 0,1 0,0 0,0-1,1 1,0 0,0 0,2-2,-1 2,0-1,0 1,1-2,0 1,1 0,0-1,8 7,-9-7,0 0,0-1,0 0,2 0,-1-1,0 1,0-1,1 1,-1-1,1-1,0 1,0-1,0-1,0 1,1-1,-1 0,0 0,1 0,-1 0,0-1,1 0,-1-1,0 1,1-1,-1-1,0 1,1-1,-1 1,0-1,-1 0,2-1,4-3,7-3,0 0,-1-1,19-15,-31 21,-1 0,1 1,0-2,-1 0,0 0,-1 0,1 0,0 1,-1-2,-1 0,1 1,-1 0,3-12,20-70,-17 64,-2 2,8-45,-12 41</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="30350.78">4762 738,'0'5,"0"6,0 8,-6 3,0 0,0 7,0-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="32624.62">5707 102,'1'1,"2"-1,-1 1,0 0,0 0,-1 0,1-1,0 2,-1-1,1 0,-1 0,1 0,0 1,-1-2,1 2,-1-1,0 1,1 2,22 32,-20-29,9 15,-3-1,1 1,-3 0,1 1,6 32,-7-3,4 69,-10-107,0-1,1 0,8 22,-6-24,-2-1,0 0,0 1,-1-1,-1 1,1 11,-2-20,0 0,0 1,0-1,-1 0,1 0,0-1,-1 1,0 0,1 0,-1 0,0-1,0 1,0 0,0 0,0-1,-2 3,2-3,0-1,0 1,0-1,0 1,-1-1,1 1,0-1,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,1-1,0 1,-3-1,0-1,-1 0,1 0,-1-1,0 0,1 0,0 0,0 0,-1 0,2 0,-6-8,-10-14,-25-47,34 54,0-1,-2 1,1 1,-3-1,0 2,-17-17,25 29,0 2,1-1,-1-1,0 2,0-1,0 1,-1 0,1 0,0 1,-1-1,0 1,1 1,-12-1,-8 1,-52 7,73-6,1 0,0-1,1 1,-1 1,0-1,0 0,0 1,1 0,-1 0,1 0,-1 0,1 0,0 0,0 1,0-1,1 1,-1 0,0 0,1 1,0-1,0-1,0 2,0-1,1 1,0-1,-1 1,0 5,-2 9,2-1,0 0,1 1,3 28,-1-27,0-12,0 0,1-2,0 2,-1 0,2-1,-1 0,1 0,0 0,0 1,2-3,-2 2,1 0,1-1,-1 1,2-2,-1 0,0 1,1-1,0 1,-1-1,1-2,1 2,0-1,-1 0,8 2,0 0,0-1,0-1,1 0,-1 0,0-1,1-1,0 0,-1-1,1 0,0-1,27-5,-33 3,0 0,0 1,0-2,-1 0,1 0,-1-1,-1 0,2 0,-2 0,-1-1,2-1,-2 2,0-2,1 0,-2 0,0 0,1-1,-2 0,0 1,0-1,5-15,-1-10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="34894.85">6237 382,'-1'0,"1"0,0-1,0 1,0-1,0 1,-1 0,1-1,0 1,-2 0,2-1,0 1,-1 0,1-1,0 1,-1 0,1 0,0-1,-1 1,1 0,-1 0,1 0,0-1,-1 1,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 1,-1-1,1 0,-1 0,1 0,0 0,-1 1,1-1,0 0,-1 0,1 1,0-1,-1 0,1 1,0-1,-1 1,-24 14,20-10,1 1,-1 0,1 1,-1-2,2 2,0 0,0 0,0-1,1 2,-1-1,1 1,1-2,0 2,0-1,1 0,0 1,1 11,0-13,-1 1,1-1,1-1,0 2,0-1,0 0,1-1,-1 1,1-1,0 1,2 0,-2-2,1 1,0 0,1 0,0-1,0 0,0 0,0 0,1 0,6 3,-7-5,1 1,-1-1,0-1,2 0,-2 1,1-1,0 0,0 0,0-1,10 0,-13 0,-1-1,0 1,0-1,1 0,0 1,-1-1,0 0,0 0,0 0,0 0,0 0,-1-1,1 1,0-1,-1 1,2-1,-2 0,1 1,-1-1,0 0,0 0,0 0,0 0,0-1,0 2,-1-1,1 0,0-5,4-13,10-51,41-111,-56 182,0 1,0-1,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,2 16,0 23,-4 22,2 94,1-152,-1 1,1-1,-1 0,1 0,0 0,1 1,0-1,-1 0,1 0,0 0,0 0,0-1,0 1,0 0,0-1,2 1,-2-1,1 0,0 1,0-1,0-1,0 1,1 0,-1-2,0 2,0-1,1 0,5 1,9 1,-2 0,2-2,0 0,28-2,-40 1,20-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="35831.58">5235 866,'8'0,"20"0,21 0,38-8,11-4,6 1,-3 3,1-3,-8 1,-4 2,-13 3,-12 2,-11 1,-9 1,-14 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="37164.49">5736 917,'-6'14,"1"-2,1 1,0 0,1 1,1-1,0 1,0-1,4 27,-8 40,6-79,0 1,0-1,0 0,0 1,0-1,0 0,-1 1,1-1,0 0,-1 0,1 1,-1-1,1 0,-1 0,0 0,1 1,-1-2,0 1,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0-1,-1 1,1 0,-1-1,1 1,0-1,0 0,-1 1,1-1,-2 0,-2-1,-1 0,1 0,0-1,0 0,-1 0,2 0,-9-4,-16-8,12 8,-1 1,0 0,-1 1,2 1,-2 1,0 0,1 1,-1 1,0 1,-32 4,49-4,0-1,0 0,1 1,-1-1,1 1,-1-1,0 1,1 0,-1 0,0 0,0 0,1 0,0 0,-1 0,1 0,0 0,0 1,0-1,0 0,0 0,0 0,-1 3,2-2,0-1,0 1,0 0,0-1,0 1,1 0,-1-1,0 1,1 0,-1-1,1 0,0 0,0 1,-1-1,1 1,0-1,0 0,2 2,6 6,0-1,1 0,-1-1,22 12,-4-4,54 24,-74-35,1-2,0 1,-1-1,2-1,-1 1,0-1,0 0,1 0,-1-1,0 0,1 0,13-3,-20 2,1 0,-1 1,1-1,-1 0,1-1,-1 1,1-1,-1 1,0-1,0 0,0 0,-1 0,1 0,1 0,-2 0,1-1,1-2,6-16</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="38647.8">6069 1069,'0'0,"0"0,0 0,0-1,0 1,0 0,0 0,0-1,0 1,0 0,0-1,0 1,0 0,0 0,0-1,0 1,-1 0,1 0,0-1,0 1,0 0,0 0,0-1,-1 1,1 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1-1,0 1,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,-1 0,-15 7,-10 17,22-18,-1 0,1 0,1 0,0 0,0 1,1 0,-1-1,2 1,-2 0,2 0,0-1,0 15,1-18,1 1,-1-1,1 1,-1-1,1 1,2-1,-2 0,0 0,1 0,-1 0,1 0,0 0,0 0,0 0,1 0,-1-1,2 0,-1 1,-1-1,1 0,0 0,0 0,0 0,2 0,-2-1,0 0,4 2,9 0,0 1,0-1,-1-1,1 0,0-1,1-1,-1 0,-1-1,1-1,25-5,-39 6,2 0,-2 0,0 1,0-1,1-1,-1 1,0-1,0 1,0-1,1 0,-2 1,1-1,0 0,-1 0,1 0,-1-1,0 1,1 1,-1-1,1-4,-1-1,1 1,0 0,-1-1,-1 0,0-7,1-5,-3 48,2 52,2-49,-7 56,5-79,-2-1,1 0,-1 0,-1 1,0-2,0 1,0 0,-2 0,1-2,-1 2,-8 9,9-14,0 1,-1-1,0 1,1-1,-1-1,0 1,0-2,0 2,0-1,0-1,-2 1,2-1,0 0,0 0,-2 0,2-1,-1 0,0 0,1 0,-1-1,1 0,-1 0,-5-2,-6-1,-1 0,1-1,1-2,0 0,0 1,-15-11,24 13,1 0,-1 1,1-2,1 1,-2-1,2-1,0 2,0-2,0 0,1 0,0 0,0 1,1-2,-1 1,1-1,0 1,1-1,0 0,1 0,-1 0,2 0,-1 0,1 0,0 0,1-13,1-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="39713.49">6737 662,'10'0,"3"5,-2 5,-1 10,-3 6,-3 3,-2 0,-1 0,-1-1,0 0,-1-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="40654.93">6849 484</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -18202,7 +18202,7 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">83 99,'-3'56,"-11"65,4-50,4-33,-14 46,12-56,2 1,0-1,-2 47,8-61,-1-1,1 1,0-1,1 0,0 0,7 25,-7-34,1 0,0-1,0 1,0 0,0-1,1 1,-1-1,1 0,0 0,0 0,0 0,0-1,0 1,1-1,0 0,-1 0,1 0,0 0,0 0,0-1,0 0,8 2,26 2,1-1,0-2,0-1,70-9,-97 6,-1 0,0-1,0 0,0-1,0 0,0-1,-1 0,0-1,14-10,12-11,35-34,-42 35,13-10,69-79,-97 98,-1 0,-1-1,-1 0,-1-1,0 0,-2-1,13-40,-11 22,3-17,2 1,42-96,-45 136,-5 20,0 27,-3 368,-8-215,5 15,-3 163,0-338,0 0,-2 0,0-1,-2 1,-1-1,-1 0,-1-1,-2 0,0-1,-1 0,-1 0,-1-1,-1-1,-1-1,-1 0,-25 22,30-33,-1 0,0-1,-1 0,1-1,-1-1,-1 0,1-1,-1-1,0 0,0-1,-19 1,-24 1,-95-5,103-2,42 3,0-2,1 1,-1-1,0 0,1-1,-9-2,14 3,-1 0,1 0,0-1,0 1,0-1,0 1,0-1,0 0,0 1,0-1,1 0,-1 0,1 0,-1-1,1 1,0 0,0-1,0 1,0 0,1-1,-1 1,0-5,0-3,0-1,1 1,0-1,1 1,1-1,-1 1,1 0,1 0,0 0,1 0,-1 0,2 0,0 1,10-16,8-9,1 2,42-44,-62 72,31-36,1 3,2 0,2 3,65-45,-73 61</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="658.83">1671 469,'4'0,"6"0,7 0,3 0,13 0,10 0,2 0,-3 0,1 0,3 0,-3 0,0 0,-2 0,1 0,-7 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1230.34">1591 1104,'4'0,"7"0,9 0,12 0,8 0,2-4,13-6,13-7,6 1,-2 3,-3-2,-1 3,-6 2,-15 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1230.33">1591 1104,'4'0,"7"0,9 0,12 0,8 0,2-4,13-6,13-7,6 1,-2 3,-3-2,-1 3,-6 2,-15 4</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -18282,27 +18282,27 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">609 820,'0'0,"0"0,0-1,0 1,0 0,0-1,0 1,0-1,0 1,0 0,0-1,0 1,0-1,0 1,0 0,-1-1,1 1,0 0,0-1,0 1,0 0,-1-1,1 1,0 0,0-1,-1 1,1 0,0 0,-1-1,1 1,0 0,-1 0,1-1,0 1,-1 0,1 0,0 0,-1 0,-15 7,-10 19,18-15,1 1,0 0,1 0,1 0,0 1,0 0,2 0,-1 0,2 0,-2 16,0 19,5 73,1-65,-3-53,1 1,0-1,1 1,-1-1,0 1,1-1,0 1,0-1,0 1,0-1,0 0,1 1,0-1,0 0,-1 0,2 0,2 3,-1-3,-1-1,1 0,0 0,1 0,-1 0,0-1,0 0,1 1,-1-2,0 1,1 0,-1-1,9 0,-4 0,1 0,-1 0,1-1,-1 0,0-1,1 0,-1 0,0-1,0 0,0-1,-1 0,11-6,-12 5,-1 0,0 0,0-1,-1 1,1-2,-1 1,-1 0,1-1,-1 0,0 0,-1 0,0-1,0 1,4-15,21-106,-8 43,-17 65</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1219.99">292 741,'4'0,"6"0,7 0,-1 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3286.98">212 741,'4'0,"7"0,9 0,7 0,8 0,1 0,5 0,-1 0,3 0,-3 0,2 0,-3 0,2 0,-6 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5455.26">1139 1190,'0'5,"0"6,-9 9,-3 7,0 3,-2 5,-3 2,2 2,-3 1,4-3,3-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6096.18">1165 1005,'4'0,"2"0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8030.12">2038 688,'4'106,"22"118,-3-31,-24-216,2 13,-2 0,1-1,-1 1,-1 0,-5-19,6 26,-1 0,1 0,-1 0,1 0,-1 0,0 0,0 1,0-1,-1 0,1 1,-1 0,1 0,-1 0,0 0,0 0,0 0,0 1,0-1,0 1,0 0,0 0,0 0,-1 0,-5 0,3 0,0 1,0 0,0 0,0 0,0 1,0 0,0 0,1 0,-1 1,0-1,1 1,-1 1,1-1,0 1,-9 6,7-3,1-1,-1 2,1-1,0 1,1 0,0 0,0 0,0 1,-6 15,5-8,1 0,0 0,1 1,1 0,0 0,1 0,1 0,0 0,1 1,1-1,4 23,-3-34,0-1,0 0,0 0,0 0,1 0,0 0,0 0,0 0,0-1,0 0,1 0,0 0,-1 0,1 0,0-1,1 1,-1-1,0 0,0-1,1 1,-1-1,1 0,7 2,-5-2,0 1,0-1,0 0,0-1,1 0,-1 0,0 0,1-1,-1 0,0 0,0-1,0 0,0 0,11-6,-14 4,0 1,0-1,-1 0,1 0,-1-1,0 1,0-1,-1 1,1-1,-1 0,0 0,0 0,-1 0,2-7,11-76,-11 30,-3 34</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10867.28">2488 979,'-2'26,"0"-1,-9 37,6-44,2 0,0 0,1 0,1 1,1-1,2 25,-1-40,0 0,0 0,0 0,1 0,-1 0,1 0,0-1,-1 1,1-1,0 1,1-1,-1 0,0 0,1 0,-1 0,1 0,0 0,-1-1,1 1,0-1,0 0,0 0,0 0,0 0,0-1,0 1,5 0,-5-1,1 1,-1-1,0 0,1 0,-1 0,0 0,1-1,-1 1,0-1,1 0,-1 0,0 0,0 0,0-1,0 1,0-1,0 0,0 0,-1 0,1 0,-1 0,1 0,-1-1,0 1,3-6,4-15,-2-1,0 0,-2 0,-1-1,0 1,-1-39,-4 112,1 138,1-184,-1 0,0 0,1 0,0-1,0 1,0 0,0 0,0-1,1 1,-1 0,1-1,-1 0,1 1,0-1,0 0,0 0,0 0,0 0,1 0,-1 0,1-1,-1 1,1-1,0 0,-1 0,1 0,0 0,0 0,0 0,-1-1,5 1,12 1,-1-1,0-1,1 0,19-4,-3 1,-20 3,29-1,-43 1,1 0,0 0,-1-1,1 1,0 0,0-1,-1 1,1-1,-1 1,1-1,-1 0,1 1,-1-1,1 0,-1 0,1 0,0-2,-2-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11862.15">1721 1481,'564'-20,"47"12,-361 10,-228-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13558.46">2170 1640,'6'20,"0"-1,-1 1,-1 0,-1 0,0 0,-2 0,-2 40,1-23,1-21,0 10,-2-22,0-13,0 5,0 0,0-1,0 1,0 0,-1 0,1 0,-1 1,0-1,0 0,-1 1,1-1,-1 1,1 0,-1-1,0 2,-1-1,1 0,0 0,-5-1,3 1,-1 0,0 0,-1 1,1 0,0 0,-1 1,1 0,-1 0,1 0,-1 1,-11 1,11-1,0 1,-1-1,1 2,0-1,0 1,-1 0,1 1,1 0,-1 0,0 0,1 1,0 0,-1 0,2 0,-1 1,0 0,1 0,0 1,0-1,1 1,-1 0,-6 13,7-7,1-1,0 1,1 0,0 0,1 0,0 0,1 0,1 15,0-22,-1 0,1 0,0 0,0 0,0 0,1 0,0 0,0 0,0 0,1-1,-1 1,1-1,0 0,0 0,1 0,-1 0,1-1,0 1,0-1,0 0,6 3,2 0,1 0,0-1,0-1,0 0,0-1,1 0,0-1,19 0,-29-1,0-1,0 0,0-1,0 1,0-1,0 0,0 0,0 0,0 0,0-1,-1 1,1-1,0 0,-1 0,0-1,1 1,-1-1,0 1,0-1,0 0,-1 0,1-1,-1 1,1 0,-1-1,0 1,-1-1,1 0,-1 0,1 0,0-7,1-11,0 0,-2-1,-3-40,0 30,1 10</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15026.29">2514 1905,'0'-10,"0"-1,1 0,0 1,1-1,1 1,-1 0,2 0,-1 0,9-16,-11 23,1 1,0-1,0 0,0 1,0-1,0 1,1 0,-1 0,1 0,-1 0,1 0,0 0,-1 1,1-1,0 1,0 0,0 0,0 0,1 0,-1 1,0-1,0 1,0 0,1 0,-1 0,0 0,0 0,0 1,1-1,-1 1,0 0,0 0,0 0,0 1,0-1,2 2,4 2,-1 0,0 0,0 1,0 0,-1 0,0 1,9 11,43 61,-28-35,-18-24,0 0,-1 1,-2 1,0 0,-1 0,8 30,-17-51,20 51,-19-50,-1-1,1 1,0 0,0 0,0 0,0-1,0 1,1 0,-1-1,1 1,-1-1,1 1,-1-1,1 0,-1 0,1 0,0 0,0 0,0 0,0 0,0-1,3 2,4-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15654.25">2938 1799,'-5'0,"-6"0,-5 14,-5 4,-3 12,-2 2,-1 4,-5 5,3 0,2 2,1-6,5-6,1-2,5-3,8-9,7-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17450.22">3811 1429,'13'0,"9"0,11 0,3 0,4-4,1-2,2 0,16-3,2 0,-4 1,-3 2,-11 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="21950.59">4869 979,'3'4,"-1"0,1-1,-1 1,1 0,-1 0,0 1,-1-1,1 0,-1 1,0-1,0 1,1 8,1 61,-3-54,-3 103,0-63,3 0,9 74,-7-122,0 1,1-1,0 0,1 0,0 0,1 0,6 11,-9-19,1-1,0 1,0 0,0-1,0 1,0-1,1 0,0 0,0 0,-1-1,2 0,-1 1,0-1,0 0,1-1,-1 1,1-1,-1 0,1 0,-1 0,9-1,-4 1,0 0,0-1,0-1,-1 1,1-2,0 1,0-1,-1 0,1-1,-1 0,0 0,0-1,0 0,0 0,0-1,-1 0,0 0,0-1,-1 0,1 0,-1-1,0 0,-1 0,0 0,0 0,-1-1,1 0,4-14,8-21,-3-1,-1-1,-2 0,-2-1,-2 0,-2 0,-2-72,-4-12,-2 254,1-43,11 130,-7-198,1 1,0-2,1 1,0 0,1-1,0 0,1 0,0 0,1-1,13 17,-14-21,-1-1,1 0,0-1,0 1,1-1,0 0,0 0,0-1,0 0,1-1,-1 1,1-1,0-1,0 1,0-1,0-1,15 2,-20-3,3 0,-1 1,1-1,0 0,-1-1,1 1,-1-1,1 0,-1-1,1 1,-1-1,6-2,6-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="23565.49">6827 0,'0'734,"-1"-737,0-1,0 1,-1-1,1 1,0 0,-1-1,0 1,0 0,0 0,0 0,-1 1,1-1,-1 0,-4-3,-43-32,35 30,0 1,-1 1,1 0,-1 1,-1 1,1 0,0 1,-1 1,0 1,1 0,-26 2,-15 4,-109 24,146-25,1 1,0 0,0 1,1 1,0 1,-33 20,46-24,0-1,0 1,0 1,1-1,-1 1,1 0,0 0,1 0,-1 0,1 1,0-1,0 1,1 0,0 0,0 0,0 0,0 0,1 0,0 0,1 1,0-1,-1 0,2 1,-1-1,2 8,0-6,-1-1,1 0,0 1,1-1,-1 0,1 0,1-1,-1 1,1-1,1 1,-1-1,1-1,0 1,0-1,1 1,-1-1,1-1,0 1,1-1,-1 0,1-1,-1 1,1-2,0 1,0 0,13 1,14 3,1-2,0-2,0-1,52-4,-48 1,1 1,-12 1,0-2,1-1,33-7,-52 7,0-1,-1-1,1 1,-1-1,0-1,0 0,0 0,-1-1,1 0,-2 0,1-1,12-14,-12 12,-1-1,-1 0,0-1,0 1,-1-1,0-1,-1 1,0 0,-1-1,0 0,-1 0,0 0,-1 0,-1 0,0 0,-1-14,0 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="25710.21">7224 502,'0'-1,"0"1,1-1,-1 0,1 0,-1 0,1 0,-1 1,1-1,0 0,0 0,-1 1,1-1,0 1,0-1,-1 1,1-1,0 1,0-1,0 1,0 0,0-1,0 1,0 0,0 0,2-1,29-3,-27 3,46-4,99 4,-147 1,0 0,-1 0,1 1,0-1,0 1,-1-1,1 1,0 0,-1 0,1 0,0 0,-1 1,0-1,1 1,-1 0,4 3,-5-4,0 1,0 0,-1-1,1 1,0 0,0 0,-1-1,0 1,1 0,-1 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,-2 4,-2 7,-2 0,0 0,0 0,-1-1,-12 17,1-1,10-12,2 1,-1 0,2 1,1-1,0 1,1 0,1 0,0 0,2 0,0 0,1 0,3 19,-4-35,0 0,0 0,1 1,-1-1,1 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,1-1,-1 1,1 0,-1-1,1 1,-1-1,1 0,0 1,0-1,3 2,-2-2,1 0,0-1,0 1,-1-1,1 1,0-1,0 0,0-1,-1 1,1-1,0 1,5-3,7-2,0-1,-1-1,0-1,27-17,242-160,-260 169,-1-1,-1 0,0-2,-1 0,28-36,-41 45,0-1,-1 0,-1-1,0 1,-1-1,0 0,0-1,-1 1,-1-1,0 0,-1 0,0 0,-1 0,-1-17,0 19,-3-32,3 41,0 1,0-1,0 0,-1 1,1-1,0 1,-1-1,1 1,-1-1,0 1,1-1,-1 1,0-1,0 1,0 0,0-1,0 1,-3-2,4 3,-1 1,0-1,0 1,1-1,-1 1,0-1,1 1,-1-1,1 1,-1 0,1-1,-1 1,1 0,-1-1,1 1,-1 0,1 0,0 0,0-1,-1 1,1 0,0 0,0 1,-8 27,7-26,-33 123,-18 76,43-159</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="28558.81">8229 873,'1'1,"0"-1,0 0,0 1,0-1,0 1,0-1,-1 1,1-1,0 1,0 0,0-1,0 1,-1 0,1 0,0-1,-1 1,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,0 0,1 0,-1 2,5 35,-5-32,1 53,-2-45,1 1,0-1,1 1,1 0,4 17,-5-30,-1 0,1 0,0 0,0 0,0 0,0-1,1 1,-1 0,0-1,1 1,-1-1,1 1,0-1,-1 0,1 1,0-1,0 0,0 0,0 0,0-1,0 1,0 0,0-1,0 1,0-1,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0-1,0 1,0-1,0 0,0 1,0-1,2-1,2-1,0 1,-1-1,1 0,0 0,-1-1,0 1,0-1,0 0,0-1,-1 1,0-1,5-6,-1-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="29140.57">8388 688,'0'-4,"-5"-2,-1 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="30445.49">6298 1455,'541'-27,"-66"1,-93 8,-293 13,354-34,245-7,-646 46</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="32337.19">7594 1508,'0'520,"-5"-521,-6-14,-12-24,20 34,-5-5,1 1,-1 0,-1 0,1 0,-2 1,1 0,-1 1,0 0,-1 1,1 0,-1 0,0 1,-1 1,1 0,-1 0,-19-2,17 3,-1 1,1 0,-1 1,0 0,1 2,-1-1,0 2,1 0,-1 1,1 0,0 1,0 1,-22 10,30-12,1 1,-1 0,1 0,0 1,0 0,0 0,0 0,1 0,0 1,0-1,0 1,1 0,0 0,0 1,1-1,0 0,0 1,0 0,1-1,0 1,-1 10,2-13,0 1,1-1,-1 1,1-1,0 1,0-1,0 0,0 1,1-1,0 0,0 0,0 0,0 0,1 0,-1-1,1 1,0-1,0 0,1 1,-1-1,1-1,-1 1,1 0,0-1,0 0,0 0,0 0,0 0,0-1,1 0,-1 0,9 2,20 0,0-1,0-1,0-1,37-6,-67 5,-1 1,1 0,-1-1,1 0,-1 1,0-1,1 0,-1 0,0 0,0-1,0 1,0 0,0-1,0 0,0 1,0-1,-1 0,1 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,0-1,-1 1,2-4,0-5,0 1,-1-1,-1 0,1 1,-2-12,0 13,0-15</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="34310.57">7885 1772,'0'0,"0"0,0 0,0-1,1 1,-1 0,0 0,0-1,1 1,-1 0,0 0,0 0,1 0,-1-1,0 1,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 1,0-1,1 0,-1 0,0 0,1 1,6 13,-1 26,-6-37,1 49,-1-35,0 1,1-1,0 0,6 21,-6-34,0 0,0 0,1 0,-1-1,1 1,0-1,0 1,0-1,0 1,1-1,0 0,-1 0,1 0,0-1,0 1,1-1,-1 0,0 1,1-1,-1-1,1 1,0 0,4 0,5 1,0 0,1-2,-1 1,0-2,1 0,-1 0,0-1,1-1,-1 0,0-1,0 0,18-8,-23 8,0-1,0 1,0-2,0 1,-1-1,1 0,-1-1,0 1,-1-2,0 1,0-1,0 1,-1-2,0 1,0 0,0-1,-1 0,-1 0,5-13,22-134,-28 298,0-61,-1 53,-2-117,-1 0,-1 0,0-1,-1 1,-8 20,3-20,0 0,-1-1,0-1,-2 0,0 0,-1-1,0 0,-1-1,-1-1,-21 15,35-27,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0-1,-1 1,1-1,0 1,-1-1,1 1,-1-1,1 0,0 0,-1 1,1-1,-1 0,1 0,-1-1,1 1,0 0,-1 0,1-1,-1 1,1-1,0 1,-1-1,1 1,0-1,0 0,-1 0,1 0,0 1,0-1,0 0,0-1,0 1,0 0,0 0,0-2,-2-3,1 0,0-1,0 1,0-1,1 1,0-1,0-11,0-14</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="35542.15">1 2355,'10471'0,"-9672"0,-794 0,25 2,-30-2,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,1 0,-21 6,-58 9,-24 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">636 791,'0'0,"0"0,0-1,0 1,0 0,0 0,0 0,0-1,0 1,0 0,0-1,0 1,0-1,0 1,0 0,-1-1,1 1,0 0,0-1,0 1,0 0,-1-1,1 1,0 0,0-1,-1 1,1 0,0 0,-1-1,1 1,0 0,-1 0,1-1,0 1,-1 0,1 0,0 0,-1 0,-16 7,-10 18,19-15,0 2,1-1,1 1,1 0,-1 0,1 1,2-1,-1 1,2-1,-2 16,-1 19,6 69,2-61,-4-53,1 2,0-1,1 1,-1-1,0 1,1-1,0 1,0-2,0 2,0-1,0 0,1 1,0-1,0 0,-1 0,2 0,2 2,0-2,-2-1,1 0,0 0,1 0,0 0,-1-1,0 0,1 1,-1-2,1 1,0 0,-1-1,10 0,-5 0,1 0,0 0,0-1,0 0,-1-1,1 0,0 0,-1-1,1 0,-1-1,-1 0,12-5,-12 4,-2 0,0 0,0 0,0 0,0-2,-1 1,-1 0,2 0,-2-1,0 0,-1 0,0 0,0 0,5-14,21-103,-8 42,-18 63</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1219.99">305 715,'4'0,"7"0,6 0,0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3286.98">221 715,'5'0,"6"0,10 0,7 0,9 0,0 0,6 0,-1 0,3 0,-3 0,2 0,-4 0,3 0,-6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5455.26">1190 1149,'0'4,"0"7,-9 8,-4 7,1 3,-3 5,-3 2,3 1,-4 2,4-3,4-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6096.18">1217 970,'4'0,"3"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8030.12">2130 664,'4'102,"23"115,-3-31,-25-208,2 12,-2 0,1 0,-1 0,-1 0,-6-18,7 26,-1-1,1 0,-1 0,1 0,-1 0,0 0,0 1,0-1,-1 0,1 2,-2-1,2 0,-1 0,0 0,0 0,0 0,0 1,-1-1,1 1,0 0,0 0,0 0,-1 0,-6 0,4 0,0 1,0 0,-1 0,1 0,0 1,-1 0,1 0,1 0,-1 1,-1-1,2 1,-1 1,1-1,-1 1,-8 5,7-2,0-1,0 2,1-1,-1 0,2 1,0 0,0 0,0 0,-7 15,6-7,1-1,-1 1,2 0,1 1,0-1,1 1,1-1,0 1,1 0,1-1,4 23,-3-33,0-1,0 0,0-1,0 1,2 0,-1 0,0 0,0 0,0-1,0 0,1-1,1 1,-2 0,1 0,0-1,1 1,-1-1,1 0,-1-1,1 1,-1-1,1 0,8 2,-6-2,1 0,-1 0,0 0,1-1,0 0,-1 0,1 0,0-1,-1 0,1 0,-1 0,0-1,0 0,12-6,-15 4,1 1,-1-1,-1 1,1-1,-1-1,0 1,1-1,-2 1,1-1,-1 1,0-1,0 0,-1 0,2-6,12-74,-12 29,-3 32</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10867.28">2600 945,'-2'25,"0"-1,-10 36,7-43,2 1,0-1,0 0,2 2,1-2,3 25,-2-39,0-1,0 1,0 0,1 0,-1 0,1 0,0-1,-1 1,1-1,0 1,1-1,-1-1,1 1,0 0,-1 0,1 0,0 0,-1-1,1 1,0-1,1 0,-1 0,0 0,0 0,0-1,0 1,6 0,-6-1,1 1,-1-1,0 0,1 0,-1 0,1 0,0-1,-1 1,0-1,1 0,-1 0,1 0,-1 0,0-1,0 1,0-1,0 0,0 0,-1 0,2 0,-2 0,1 1,-1-2,0 1,3-6,5-14,-3-1,0-1,-2 1,0-1,-1 1,-1-38,-4 109,1 132,1-177,-1 0,0 0,1 0,0-1,0 0,0 1,0 0,0-1,1 1,-1 0,1-1,-1 0,2 1,-1-1,0 0,0-1,0 1,0 0,1 0,-1 0,1-1,-1 1,2-1,-1 0,-1 0,1 0,0 0,0 0,0 0,-1-1,6 1,12 1,-2-1,1-1,1 0,20-4,-4 1,-20 3,30-1,-45 1,1 0,0 0,-1-1,1 1,0 0,1-1,-2 1,1-1,-1 1,1-1,-1 0,1 1,-1-1,1 0,-1 0,1 0,0-2,-2-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11862.15">1798 1429,'590'-19,"48"11,-377 10,-238-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13558.46">2267 1583,'7'19,"-1"0,-1 0,-1 0,0 0,-1 1,-2-1,-2 39,1-22,1-21,0 10,-2-21,0-13,0 6,0-1,0-1,-1 1,1 0,-1 0,1 0,-1 2,0-2,0 0,-1 1,1-1,-1 1,1 0,-2-1,1 2,-1 0,1-1,0 0,-5-1,2 1,0 0,0 0,-2 1,2 0,0 0,-1 1,0 1,0-1,1 0,-2 1,-10 1,10-1,1 1,-1-1,0 1,1 0,0 1,-2 0,2 1,1 0,-2 0,1 0,1 1,0 0,-2-1,3 1,-1 1,-1 0,2 0,0 1,0-2,1 2,-2 0,-5 12,7-6,1-1,-1 0,2 1,0-1,1 1,0-1,1 1,1 14,0-21,-1 0,1 0,0-1,0 1,0 0,2 0,-1 0,0-1,0 1,1-1,-1 1,1-1,0 0,0 0,2-1,-2 1,1-1,0 1,0-1,0 0,7 3,1-1,2 1,0-1,-1-1,1 0,-1-1,2 0,0-1,19-1,-30 0,0-1,1 0,-1-1,0 1,0-1,0 1,1-1,-1 0,0 0,0-1,-1 1,1-1,1 0,-2 0,0-1,1 1,-1-1,0 1,0-1,1 0,-2 1,1-2,-1 1,1 0,-1-1,0 1,-1-1,1 0,-1 1,1-1,1-7,0-10,0 0,-2-2,-3-37,0 28,1 10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15026.29">2627 1839,'0'-10,"0"-1,1 1,0 0,1 0,1 0,-1 0,2 1,0-1,8-15,-11 22,1 1,0-1,0 0,1 1,-1-1,0 1,1 1,-1-1,1 0,-1 0,1 0,0 0,0 1,0-1,0 1,0 0,0 0,0 0,1 0,0 1,-1-1,0 1,0 0,1 0,-1 0,0 0,1 0,-1 1,1-1,-1 1,0 0,0 0,0 0,1 1,-1-1,2 2,4 2,0-1,-1 1,0 1,1 0,-2 0,0 0,10 12,45 58,-30-33,-18-24,-1 0,0 1,-3 2,1-1,-2 0,9 29,-18-49,21 49,-20-48,-1-1,1 1,0 0,0 0,0 0,0-1,0 1,1 0,-1-1,1 1,-1-1,1 1,0-1,0 0,-1 0,1 0,0-1,0 1,0 0,0 0,0-1,3 2,5-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15654.25">3070 1736,'-5'0,"-7"0,-4 14,-6 3,-4 12,-1 2,-1 4,-5 4,2 1,3 2,1-7,5-5,1-2,5-3,9-8,7-10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17450.22">3982 1379,'14'0,"9"0,11 0,4 0,4-4,0-1,3-1,17-3,2 0,-5 2,-2 1,-12 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="21950.59">5088 945,'3'4,"-1"0,1-1,-1 0,1 1,-1 0,0 1,0-1,0 0,-1 0,0 0,0 1,1 8,1 58,-3-52,-3 100,0-61,3 0,9 71,-7-117,0 0,1 0,1 0,0-1,0 1,1-1,7 12,-10-20,1 0,0 1,0 0,0-1,0 1,1-1,0 0,0-1,0 1,-1-1,2 0,0 1,-1-1,0 0,1-1,-1 1,2-1,-2 0,1 0,-1 0,10-1,-5 1,1 0,-1-1,0-1,0 1,0-2,1 1,-1-1,-1 0,2-1,-2 0,0 0,1-1,-1 1,1-1,-1-1,-1 0,1 0,-1-1,-1 1,1-1,0-1,-1 0,-1 1,0-1,1 0,-2-1,1 1,4-15,9-19,-3-2,-2 0,-1 0,-3-2,-1 1,-3-1,-2-69,-4-11,-2 245,1-42,11 126,-7-192,1 2,0-3,2 2,-1-1,1 0,0-1,2 1,-1 0,1-2,14 17,-15-20,0-1,0 0,0-2,0 2,2-1,-1 0,0 0,1-1,-1-1,1 0,0 1,0-1,0-1,1 1,-1-1,0-1,16 2,-20-3,2 0,-1 1,1-1,1 0,-2-1,1 1,-1-1,2 0,-2-1,1 1,-1-1,7-2,6-9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="23565.49">7134 0,'0'708,"-1"-710,0-2,0 1,-2-1,2 1,0 0,-1-1,0 1,0 0,0 1,0-1,-1 1,1-1,-1 0,-5-3,-44-30,36 28,1 1,-2 1,1 0,0 2,-2 0,1 0,0 1,0 1,-1 1,1 0,-27 2,-15 4,-115 23,153-24,1 1,1-1,-1 2,1 1,0 1,-34 19,48-23,-1-2,1 2,0 1,1-1,-1 1,0 0,1 0,1-1,-1 1,1 1,0-1,-1 1,2-1,0 1,0 0,0 0,0 0,1-1,0 1,1 1,0-1,-1-1,2 2,-1-1,2 8,0-7,-1 0,1 0,0 0,1 0,0 0,0 0,1-1,-1 0,1 0,1 1,0-1,0-2,0 2,0-1,1 1,0-1,0-1,0 0,2 0,-2 0,1-1,-1 1,2-2,-1 1,0 0,14 0,15 4,0-2,1-2,0-1,53-4,-49 1,1 1,-13 1,0-2,2-1,34-7,-55 7,0 0,0-2,0 1,0-1,-1-1,1 0,-1 0,-1 0,2-1,-3 0,1-1,13-13,-12 11,-2 0,-1-1,0-1,1 2,-2-2,0 0,-1 0,1 0,-2 0,0-1,-1 1,0-1,-1 0,-1 1,0-1,-1-13,0 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="25710.21">7549 485,'0'-1,"0"1,1-1,-1 0,1 0,-1 0,1 0,-1 1,1-1,0 0,0 0,-1 1,1-1,0 1,0-1,-1 1,1-1,0 1,0-1,0 1,0 0,0-1,0 1,0 0,0 0,2-1,31-3,-29 3,48-4,104 4,-154 1,0 0,0 0,0 1,0-1,0 1,-1-1,1 1,0 0,-1 0,1 0,1 0,-2 1,0-1,1 1,-1 0,4 3,-5-4,0 1,0 0,-1-1,1 0,1 1,-1 0,-1-1,0 1,1 0,-1 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,-2 3,-3 8,-1 0,0-1,0 1,-2-2,-12 17,2-1,9-11,3 0,-1 0,1 2,2-2,0 2,1-1,1 0,0 1,2-1,0 1,1-1,3 19,-4-34,0-1,0 1,1 1,-1-1,1 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,1-1,-1 0,2 1,-2-1,1 1,-1-1,1 0,0 1,0-1,3 2,-2-2,2 0,-1-1,0 1,-1-1,1 1,0-1,1 0,-1-1,-1 1,1-1,0 1,6-3,6-2,1-1,-1 0,-1-2,29-16,253-155,-272 164,-1-2,-1 1,0-2,-1-1,29-34,-42 44,-1-2,-1 0,0 0,-1 0,-1 0,0-1,1-1,-2 2,-1-2,0 1,-1-1,0 1,-1-1,-1-16,0 19,-3-32,3 40,0 1,0-1,0 0,-1 1,1-1,0 1,-1 0,1 0,-1-1,0 1,1-1,-1 1,0-1,0 1,0 0,0-1,0 1,-3-2,4 3,-2 1,1-1,0 1,1-1,-1 1,0-1,1 1,-1-1,1 1,-1 0,1-1,-1 1,1 0,-1-1,1 1,-1 0,1 0,0 0,0-1,-1 1,1 0,0 0,0 1,-8 26,7-26,-35 120,-18 73,44-154</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="28558.81">8599 843,'1'1,"0"-1,0 0,0 1,0-1,0 1,0-1,-1 0,1 0,0 1,0 0,0-1,0 1,-1 0,1 0,0-1,-1 1,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,0 0,2 0,-2 2,5 33,-5-30,1 51,-2-43,1 0,0 0,1 0,1 1,4 16,-5-30,-1 1,1 0,0 0,0 0,0 0,0-1,2 1,-2 0,0-1,1 1,-1-1,1 1,0-1,-1 0,1 1,0-1,0 0,0-1,0 1,0-1,1 1,-1 0,0-1,0 1,0-1,0 0,0 0,0 0,0 0,0 0,2 0,-2 0,0-1,0 1,0-1,0 0,0 1,0-1,2 0,3-2,-1 1,-1-1,1 0,1 0,-2-1,0 1,0-1,1 1,-1-2,-1 1,0-1,6-6,-2-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="29140.57">8765 664,'0'-4,"-5"-2,-2 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="30445.49">6581 1404,'565'-26,"-68"1,-98 8,-306 12,370-33,256-6,-676 44</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="32337.19">7935 1456,'0'501,"-5"-502,-7-13,-12-24,21 33,-5-4,1 0,-2 0,0 1,0-1,-1 1,1 1,-2 0,1 0,-2 1,2 1,-2-1,1 1,-2 1,2 0,-2 0,-19-1,17 2,0 1,0 0,-1 1,1 0,0 2,-1-1,1 2,0 0,-1 1,2 0,-1 0,0 2,-22 10,30-12,2 0,-1 1,1 0,0 1,-1 0,1 0,0-1,1 1,-1 1,1-1,0 1,1-1,0 1,0 1,1-1,0 0,-1 0,1 1,1-1,0 1,-1 9,2-12,0 1,1-1,-1 0,1 0,0 1,0-1,0 0,0 1,2-1,-1-1,0 1,0 0,0 0,1 0,-1-1,1 1,0-2,1 1,0 1,-1-1,1-1,-1 1,1 0,1-1,-1 0,0 0,0 0,0 0,0-2,2 1,-2 0,9 2,22 0,-1-1,1-1,-1-1,39-6,-69 5,-2 1,1 0,-1-1,1 0,-1 1,0-1,1 0,-1 1,1-1,-1-1,0 1,0 0,0-1,0 0,0 1,0-1,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,0 0,-1 0,2-4,0-5,0 2,-1-2,-1 0,1 2,-2-13,0 14,0-15</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="34310.57">8239 1710,'0'0,"0"0,0 0,0-1,1 1,-1 0,0 0,0-1,1 1,-1 0,0 0,0 0,1 0,-1-1,0 1,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,2 0,-2 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 1,0-1,1 0,-1 0,0 0,1 1,6 13,-1 24,-6-35,1 48,-1-35,0 1,1 0,0-1,7 21,-7-33,0 0,0-1,1 1,-1-1,1 1,0-1,0 1,0-1,0 1,2-2,-1 1,-1 0,1 0,0-1,0 1,1-1,0 0,-1 1,1-1,-1-1,1 1,0-1,5 1,4 1,1 0,1-2,-2 1,1-2,0 0,0 0,-1-1,2-1,-1 0,-1-1,1 0,18-7,-23 7,-1-1,0 1,1-2,-1 2,-1-2,2 0,-2-1,0 1,0-2,-1 2,0-2,0 1,0-2,-1 2,0-1,0-1,-1 0,0 1,4-14,23-128,-29 287,1-59,-2 51,-2-112,-2-1,0 0,0 0,-1 0,-9 20,4-20,0 1,-2-2,1 0,-3-1,1 0,-2 0,0-1,0 0,-2-2,-21 15,36-26,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,0-1,-1 1,1-1,0 1,-1-1,1 1,-1-1,1 0,0 0,-1 1,0-1,0 0,1 0,-1-1,1 1,0 0,-1 0,1-1,-1 1,1-1,0 1,-1-1,1 1,0-1,0 0,-1 0,1 0,-1 1,1-1,0 0,0-1,0 1,0 1,0-1,0-2,-2-3,1 0,0-1,0 2,0-2,1 1,0-1,0-10,-1-14</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="35542.15">1 2273,'10941'0,"-10106"0,-829 0,25 2,-31-2,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,1 0,-22 6,-60 8,-26 3</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -18437,7 +18437,7 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0,'4'1,"1"0,0-1,-1 1,1 1,-1-1,1 1,-1 0,0 0,1 0,-1 0,0 1,4 3,47 44,-30-27,-10-10,-7-7,-1 0,0 1,0-1,0 1,-1 1,0-1,0 1,-1 0,0 1,0-1,4 14,9 28,2-1,50 86,-63-120,-1 0,-1 0,0 1,-1 0,-1 0,0 0,-1 0,0 23,6 40,-2-28,-2 1,-5 88,2 42,2-168,-1-1,2 1,0-1,1 0,0 0,12 21,-10-21,-1-1,0 1,-1 0,-1 1,0-1,0 1,1 17,-3 27,-2-40,0 0,1 0,1 0,1 0,8 29,-1-16,-3-1,0 1,-2 1,2 44,-8 131,-2-82,3-80,1-17,0 1,-2 0,-2-1,0 1,-2-1,-16 55,-15 16,-23 56,48-132,-1-1,0 0,-2 0,-24 29,8-14,2 0,2 2,-42 82,51-89,1-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0,'4'1,"1"0,0-1,-1 1,1 1,-1-1,1 1,-1 0,0 0,1-1,-1 1,0 1,4 3,47 42,-30-26,-10-10,-7-6,-1 0,0 1,0-2,0 2,-1 1,0-2,0 2,-1 0,0 0,0 0,4 13,9 27,2-1,50 82,-63-114,-1-1,-1 1,0 0,-1 0,-1 1,0-1,-1 0,0 23,6 37,-2-26,-2 1,-5 84,2 41,2-162,-1 0,2 0,0 0,1-1,0 1,12 19,-10-19,-1-2,0 2,-1-1,-1 1,0 0,0 0,1 17,-3 26,-2-39,0 0,1 0,1 1,1-1,8 28,-1-15,-3-2,0 2,-2 1,2 42,-8 125,-2-78,3-77,1-16,0 1,-2-1,-2 0,0 1,-2-1,-16 52,-15 16,-23 54,48-127,-1-1,0 0,-2 0,-24 28,8-13,2-1,2 2,-42 79,51-85,1-5</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -18740,21 +18740,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB66E36C-02BA-47F2-8049-C580419625B2}">
   <dimension ref="B46:L49"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="6.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="6.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B46">
         <v>0.5</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>0</v>
       </c>
@@ -18799,7 +18799,7 @@
         <v>12.25</v>
       </c>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>1</v>
       </c>
@@ -18854,18 +18854,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A4F1ED-E774-4A07-8B0A-3B7C7848E394}">
   <dimension ref="H16:R26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="16" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="8:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="8:18" x14ac:dyDescent="0.3">
       <c r="H17" t="s">
         <v>0</v>
       </c>
@@ -18909,7 +18909,7 @@
         <v>-2.19706582334609E-17</v>
       </c>
     </row>
-    <row r="18" spans="8:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="8:18" x14ac:dyDescent="0.3">
       <c r="H18" t="s">
         <v>1</v>
       </c>
@@ -18953,7 +18953,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="8:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="8:18" x14ac:dyDescent="0.3">
       <c r="H20" t="s">
         <v>2</v>
       </c>
@@ -18998,7 +18998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="8:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="8:18" x14ac:dyDescent="0.3">
       <c r="H21" t="s">
         <v>3</v>
       </c>
@@ -19043,7 +19043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="8:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="8:18" x14ac:dyDescent="0.3">
       <c r="H22" t="s">
         <v>4</v>
       </c>
@@ -19088,7 +19088,7 @@
         <v>-4.39413164669218E-17</v>
       </c>
     </row>
-    <row r="23" spans="8:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="8:18" x14ac:dyDescent="0.3">
       <c r="H23" t="s">
         <v>5</v>
       </c>
@@ -19133,7 +19133,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="8:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="8:18" x14ac:dyDescent="0.3">
       <c r="H24" t="s">
         <v>6</v>
       </c>
@@ -19168,7 +19168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="8:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="8:18" x14ac:dyDescent="0.3">
       <c r="H25" t="s">
         <v>7</v>
       </c>
@@ -19203,7 +19203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="8:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="8:18" x14ac:dyDescent="0.3">
       <c r="H26" t="s">
         <v>8</v>
       </c>
@@ -19262,9 +19262,9 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -19278,7 +19278,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>-2</v>
       </c>
@@ -19292,7 +19292,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -19316,11 +19316,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32555DF9-2B42-4666-B8F6-6560D0BCBF28}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
